--- a/次新股.xlsx
+++ b/次新股.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,13 +9,62 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>个股代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个股名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>板块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属概念板块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发行价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预测合理价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发行股票数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预测炒作高点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预测开盘开板价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接受开盘开板价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上市日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -23,16 +72,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,23 +111,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -98,7 +196,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +231,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +439,66 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="13.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.375" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/次新股.xlsx
+++ b/次新股.xlsx
@@ -1,15 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28702"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sailor/Developer/Github_Projects/python3_Stock/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="28560" windowHeight="16240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -40,10 +53,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>发行股票数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>预测炒作高点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -57,6 +66,10 @@
   </si>
   <si>
     <t>上市日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发行数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -68,13 +81,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -83,7 +96,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -196,12 +209,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -231,12 +244,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -442,26 +455,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.125" style="1" customWidth="1"/>
-    <col min="2" max="3" width="13.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="13.83203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="17" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="20" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.375" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="9" max="9" width="13.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.33203125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -469,25 +482,25 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>2</v>

--- a/次新股.xlsx
+++ b/次新股.xlsx
@@ -1,24 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28702"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sailor/Developer/Github_Projects/python3_Stock/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="28560" windowHeight="16240"/>
+    <workbookView xWindow="240" yWindow="465" windowWidth="28560" windowHeight="16245"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -27,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>个股代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,6 +62,10 @@
   </si>
   <si>
     <t>发行数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市场</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -77,7 +73,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,12 +139,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -453,64 +450,81 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="13.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.83203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.83203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.83203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.33203125" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="13.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17.375" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="21.95" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>3</v>
       </c>
+    </row>
+    <row r="2" spans="1:12" ht="18" customHeight="1">
+      <c r="A2" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
+      <formula1>"沪市,深市,科创板"</formula1>
+    </dataValidation>
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576">
+      <formula1>36526</formula1>
+      <formula2>73051</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/次新股.xlsx
+++ b/次新股.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>个股代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,6 +66,50 @@
   </si>
   <si>
     <t>市场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沪市</t>
+  </si>
+  <si>
+    <t>百川畅银</t>
+  </si>
+  <si>
+    <t>个股特征</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环保</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>垃圾填埋气处理技术方。主营收入：沼气（主要为垃圾填埋气）发电业务。风险：政府上网电价补贴占比高。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深创业板</t>
+  </si>
+  <si>
+    <t>4011w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九丰能源</t>
+  </si>
+  <si>
+    <t>主要经营液化天然气，液化石油气（LPG）、甲醇和二甲醚等。属于重资产类型企业，行业有周期性质。风险：报告期内营收不断下滑，利润却不断高增长。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发行市盈率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2489w</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -73,7 +117,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,6 +138,22 @@
       <color theme="1"/>
       <name val="DengXian"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -139,13 +199,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -450,75 +529,157 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="13.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14.875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="17.375" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.875" style="1"/>
+    <col min="1" max="1" width="13.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="24.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15" style="7" customWidth="1"/>
+    <col min="8" max="8" width="13.875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="17" style="5" customWidth="1"/>
+    <col min="10" max="10" width="13.875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="20" style="2" customWidth="1"/>
+    <col min="12" max="12" width="13.875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="14.875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="17.375" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="21.95" customHeight="1">
+      <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="18" customHeight="1">
-      <c r="A2" s="3"/>
+    <row r="2" spans="1:14" ht="51" customHeight="1">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2">
+        <v>300614</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="2">
+        <v>11.78</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="5">
+        <v>9.19</v>
+      </c>
+      <c r="I2" s="5">
+        <v>20</v>
+      </c>
+      <c r="J2" s="2">
+        <v>19</v>
+      </c>
+      <c r="K2" s="6">
+        <v>25</v>
+      </c>
+      <c r="L2" s="6">
+        <v>38</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="60" customHeight="1">
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2">
+        <v>605090</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="2">
+        <v>20</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="5">
+        <v>34.57</v>
+      </c>
+      <c r="I3" s="5">
+        <v>37</v>
+      </c>
+      <c r="J3" s="2">
+        <v>42</v>
+      </c>
+      <c r="K3" s="2">
+        <v>50</v>
+      </c>
+      <c r="L3" s="2">
+        <v>68</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
-      <formula1>"沪市,深市,科创板"</formula1>
+      <formula1>"沪市,科创板,深市,深创业板"</formula1>
     </dataValidation>
     <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576">
       <formula1>36526</formula1>

--- a/次新股.xlsx
+++ b/次新股.xlsx
@@ -1,16 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28702"/>
   <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sailor/Developer/Github_Projects/python3_Stock/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="465" windowWidth="28560" windowHeight="16245"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="28560" windowHeight="16240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -19,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="82">
   <si>
     <t>个股代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -110,6 +118,662 @@
   </si>
   <si>
     <t>2489w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海程邦达</t>
+  </si>
+  <si>
+    <t>为客户提供综合跨境物流服务。风险：贸易保护主义盛行。</t>
+    <rPh sb="14" eb="15">
+      <t>feng x</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>mao yi</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>bao hu</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>zhu yi</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>sheng x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5131w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物流</t>
+    <rPh sb="0" eb="1">
+      <t>wu liu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰福泵业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2270w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用机械</t>
+    <rPh sb="0" eb="1">
+      <t>tong yong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泵业在国内已经是一遍红海，竞争充分，发行人产品几乎全部出口。风险：贸易保护主义盛行。</t>
+    <rPh sb="30" eb="31">
+      <t>feng x</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>mao yi</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>bao h</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>zhu y</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>sheng x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奇德新材</t>
+  </si>
+  <si>
+    <t>主营业务为改性尼龙（PA）、改性聚丙烯（PP）为主的高性能高分子复合材料，逐步增加了精密注塑模具业务。科技含量并不高。</t>
+    <rPh sb="51" eb="52">
+      <t>ke j</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>han l</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>bing</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>gao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2104w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉马遮阳</t>
+  </si>
+  <si>
+    <t>3292w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专注于功能性遮阳材料的研发，包括遮光面料、可调光面料和阳光面料。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>化工合成材料</t>
+    <rPh sb="0" eb="1">
+      <t>hua gong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>he c</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>cai l</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>化学制品</t>
+    <rPh sb="0" eb="1">
+      <t>hua x</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhi p</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三孚新科</t>
+    <rPh sb="3" eb="4">
+      <t>ke x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科创板</t>
+  </si>
+  <si>
+    <t>主营产品有电子化学 品及通用电镀化学品，属于PCB上游产业。风险：毛利率下行，市场竞争激烈导致产品的价格不断下滑。</t>
+    <rPh sb="1" eb="2">
+      <t>ying sho</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>feng x</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>mao li l</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>xia j</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>xing s</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2305w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥精医疗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3333w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专注于高端生物医用材料及相关医疗器械，应用于骨科、口腔或整形外科、神经外科的矿化胶原人工骨修复产品。风险：技术先进，但是产品市场容量太小，无法支撑高估值。</t>
+    <rPh sb="50" eb="51">
+      <t>feng x</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ji shu</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>xian j</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>dan s</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>chan p</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>shi c</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>ron l</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>tai</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>xiao</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>wu f</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>zhi c</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>gao</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>gu zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医疗器械、医疗美容</t>
+    <rPh sb="0" eb="1">
+      <t>yi l</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>qi x</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yi l</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>mei r</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三峡能源</t>
+  </si>
+  <si>
+    <t>主营业务为风能、太阳能的开发、投资和运营。风险：政府补贴、应收账款。</t>
+    <rPh sb="21" eb="22">
+      <t>feng x</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>zheng f</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>bu t</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ying</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>shou</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>zhang kuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风电、能源</t>
+    <rPh sb="0" eb="1">
+      <t>feng dian</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>neng y</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诺泰生物</t>
+  </si>
+  <si>
+    <t>5330w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生物制药</t>
+    <rPh sb="0" eb="1">
+      <t>sheng w</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhi yao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为国外医药巨头提供定制的高级医药中间体、原料药、制剂。市场空间大，龙头股为-药明康德。风险：客户集中度高，且多为境外公司，贸易保护主义。</t>
+    <rPh sb="0" eb="1">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>guo w</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yi yao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ju t</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ti g</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>din z</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>d</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>shi c</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>kong j</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>da</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>long t</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>gu</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>yao ming kang de</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>feng x</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ke hu</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ji zhong d</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>du</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>gao</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>qie</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>duo w</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>jing w</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>gon s</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>mao yi</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>bao hu</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>zhu y</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创益通</t>
+  </si>
+  <si>
+    <t>精密制造</t>
+    <rPh sb="0" eb="1">
+      <t>jing mi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhi z</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2250w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主营精密连接器、连接线、 精密结构件等互连产品，主要包括数据存储互连产品及组件、消费电子互连产品及组件、新能源精密结构件等。风险：科技含量不高，受贸易战影响。</t>
+    <rPh sb="0" eb="1">
+      <t>zhu ying</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>deng</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>feng x</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>ke j</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>han l</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>gao</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>shou</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>mao yi z</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>ying x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>康拓医疗</t>
+  </si>
+  <si>
+    <t>医疗器械</t>
+    <rPh sb="0" eb="1">
+      <t>yi l</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>qi x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PEEk材料国内龙头企业，国产替代可预期。 主要产品应用于神经外科颅骨修补固定和心胸外科胸骨固定领域。风险：产品类别单一、PEEK 材料产品与钛材料产品存在替代的风险。</t>
+    <rPh sb="4" eb="5">
+      <t>cai l</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>guo nei</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>long t</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>qi y</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>guo c</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ti d</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ke</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>yu q</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>zhu y</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>feng x</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>d</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>feng x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1451w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电气风电</t>
+  </si>
+  <si>
+    <t>是国家清洁能源骨干企业，是中国领先的风电整机制造商与服务商，也是中国最大的海 上风电整机制造商与服务商。风险：核心技术依赖西门子，应收账款大，补贴退坡。</t>
+    <rPh sb="52" eb="53">
+      <t>feng x</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>he x</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ji s</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>yi lai</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>xi men z</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>ying</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>shou</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>zhang kuan</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>da</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>bu tie</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>tui po</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>53333w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风电</t>
+    <rPh sb="0" eb="1">
+      <t>feng dian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚辉龙</t>
+  </si>
+  <si>
+    <t>国内领先的体外诊断产品提供商，主营业务为以化学发光免疫分析法为主的体外诊断仪器及配套试剂的研发。三甲医院占有率超过 40%。风险：销售区集中，主要是华南区。</t>
+    <rPh sb="62" eb="63">
+      <t>feng x</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>xiao s</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>qu</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>ji zhong</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>zhu y</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>s</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>hua nan</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>qu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4100w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依依股份</t>
+  </si>
+  <si>
+    <t>‘001206</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深市</t>
+  </si>
+  <si>
+    <t>2358w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主营产品：宠物卫生护理用品和个人卫生护理用品。公司所属赛道不错，宠物护理品市场庞大，产品出口比例高。风险：贸易战。</t>
+    <rPh sb="0" eb="1">
+      <t>zhu ying</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>chan p</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>feng x</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>mao yi</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>zhan z</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南侨食品</t>
+  </si>
+  <si>
+    <t>主要从事烘焙油脂相关制品的研发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6353w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食品、大消费</t>
+    <rPh sb="0" eb="1">
+      <t>shi p</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>da xiao f</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力源科技</t>
+  </si>
+  <si>
+    <t>专注于环保水处理，为核能发电厂、火力发电厂和冶金、化工等工业企业及市政行业的水处理提供解决方案。风险：客户集中，营收账款增长</t>
+    <rPh sb="9" eb="10">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ti g</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>jie j</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>fang an</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>feng x</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ke hu</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ji zhong</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>ying shou</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>zhang kuan</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>zeng z</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环保</t>
+    <rPh sb="0" eb="1">
+      <t>huan bao</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -117,7 +781,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,7 +863,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -223,6 +887,9 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -529,32 +1196,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="140" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.25" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="24.375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" style="2" customWidth="1"/>
     <col min="6" max="6" width="13" style="2" customWidth="1"/>
     <col min="7" max="7" width="15" style="7" customWidth="1"/>
-    <col min="8" max="8" width="13.875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="13.83203125" style="5" customWidth="1"/>
     <col min="9" max="9" width="17" style="5" customWidth="1"/>
-    <col min="10" max="10" width="13.875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.83203125" style="2" customWidth="1"/>
     <col min="11" max="11" width="20" style="2" customWidth="1"/>
-    <col min="12" max="12" width="13.875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="14.875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="17.375" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="8.875" style="2"/>
+    <col min="12" max="12" width="13.83203125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="14.83203125" style="9" customWidth="1"/>
+    <col min="14" max="14" width="17.33203125" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="21.95" customHeight="1">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -564,7 +1231,7 @@
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -591,88 +1258,616 @@
       <c r="L1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="51" customHeight="1">
+    <row r="2" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
-      <c r="B2" s="2" t="s">
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+    </row>
+    <row r="3" spans="1:14" ht="35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:14" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2">
+        <v>603836</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="2">
+        <v>22.99</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="5">
+        <v>16.84</v>
+      </c>
+      <c r="I4" s="5">
+        <v>22</v>
+      </c>
+      <c r="J4" s="2">
+        <v>25</v>
+      </c>
+      <c r="K4" s="2">
+        <v>30</v>
+      </c>
+      <c r="L4" s="2">
+        <v>50</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4"/>
+      <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C5" s="2">
         <v>300614</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F5" s="2">
         <v>11.78</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H5" s="5">
         <v>9.19</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I5" s="5">
         <v>20</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J5" s="2">
         <v>19</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K5" s="6">
         <v>25</v>
       </c>
-      <c r="L2" s="6">
+      <c r="L5" s="6">
         <v>38</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M5" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="60" customHeight="1">
-      <c r="B3" s="2" t="s">
+    <row r="6" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C6" s="2">
         <v>605090</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F6" s="2">
         <v>20</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H6" s="5">
         <v>34.57</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I6" s="5">
         <v>37</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J6" s="2">
         <v>42</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K6" s="2">
         <v>50</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L6" s="2">
         <v>68</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M6" s="9" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2">
+        <v>300992</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="2">
+        <v>12.84</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="5">
+        <v>9.36</v>
+      </c>
+      <c r="I7" s="5">
+        <v>28</v>
+      </c>
+      <c r="J7" s="2">
+        <v>33</v>
+      </c>
+      <c r="K7" s="2">
+        <v>38</v>
+      </c>
+      <c r="L7" s="2">
+        <v>65</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="2">
+        <v>300995</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="2">
+        <v>17.52</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="5">
+        <v>14.72</v>
+      </c>
+      <c r="I8" s="5">
+        <v>29</v>
+      </c>
+      <c r="J8" s="2">
+        <v>36</v>
+      </c>
+      <c r="K8" s="2">
+        <v>42</v>
+      </c>
+      <c r="L8" s="2">
+        <v>65</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="2">
+        <v>300993</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="2">
+        <v>16.45</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="5">
+        <v>12.1</v>
+      </c>
+      <c r="I9" s="5">
+        <v>21</v>
+      </c>
+      <c r="J9" s="2">
+        <v>23</v>
+      </c>
+      <c r="K9" s="2">
+        <v>30</v>
+      </c>
+      <c r="L9" s="2">
+        <v>58</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="2">
+        <v>688359</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="2">
+        <v>22.3</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="5">
+        <v>11.03</v>
+      </c>
+      <c r="I10" s="5">
+        <v>20</v>
+      </c>
+      <c r="J10" s="2">
+        <v>25</v>
+      </c>
+      <c r="K10" s="2">
+        <v>29</v>
+      </c>
+      <c r="L10" s="2">
+        <v>48</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="2">
+        <v>688613</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="2">
+        <v>26.6</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="5">
+        <v>16.43</v>
+      </c>
+      <c r="I11" s="5">
+        <v>35</v>
+      </c>
+      <c r="J11" s="2">
+        <v>34</v>
+      </c>
+      <c r="K11" s="2">
+        <v>48</v>
+      </c>
+      <c r="L11" s="2">
+        <v>78</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2">
+        <v>600905</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="2">
+        <v>28.87</v>
+      </c>
+      <c r="H12" s="5">
+        <v>2.65</v>
+      </c>
+      <c r="I12" s="5">
+        <v>5</v>
+      </c>
+      <c r="J12" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="K12" s="2">
+        <v>5.8</v>
+      </c>
+      <c r="L12" s="2">
+        <v>8</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="2">
+        <v>688076</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="2">
+        <v>35.130000000000003</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="5">
+        <v>15.57</v>
+      </c>
+      <c r="I13" s="5">
+        <v>21</v>
+      </c>
+      <c r="J13" s="2">
+        <v>24</v>
+      </c>
+      <c r="K13" s="2">
+        <v>28</v>
+      </c>
+      <c r="L13" s="2">
+        <v>43</v>
+      </c>
+      <c r="M13" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="2">
+        <v>300991</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="2">
+        <v>13.06</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H14" s="5">
+        <v>13.06</v>
+      </c>
+      <c r="L14" s="2">
+        <v>56</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="2">
+        <v>688314</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" s="2">
+        <v>22.17</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" s="5">
+        <v>17.34</v>
+      </c>
+      <c r="I15" s="5">
+        <v>48</v>
+      </c>
+      <c r="J15" s="2">
+        <v>52</v>
+      </c>
+      <c r="K15" s="2">
+        <v>60</v>
+      </c>
+      <c r="L15" s="2">
+        <v>108</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="2">
+        <v>688660</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="2">
+        <v>23.99</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H16" s="5">
+        <v>5.44</v>
+      </c>
+      <c r="I16" s="5">
+        <v>11.3</v>
+      </c>
+      <c r="J16" s="2">
+        <v>11.3</v>
+      </c>
+      <c r="K16" s="2">
+        <v>18</v>
+      </c>
+      <c r="L16" s="2">
+        <v>28</v>
+      </c>
+      <c r="M16" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="2">
+        <v>688575</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="2">
+        <v>31.96</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H17" s="5">
+        <v>14.8</v>
+      </c>
+      <c r="L17" s="2">
+        <v>38</v>
+      </c>
+      <c r="M17" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="2">
+        <v>22.99</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H18" s="5">
+        <v>44.6</v>
+      </c>
+      <c r="L18" s="2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="2">
+        <v>605339</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" s="2">
+        <v>22.99</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H19" s="5">
+        <v>16.98</v>
+      </c>
+      <c r="L19" s="2">
+        <v>59</v>
+      </c>
+      <c r="M19" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="2">
+        <v>688565</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H20" s="5">
+        <v>9.39</v>
+      </c>
+      <c r="I20" s="5">
+        <v>18.7</v>
+      </c>
+      <c r="J20" s="2">
+        <v>23</v>
+      </c>
+      <c r="K20" s="2">
+        <v>28</v>
+      </c>
+      <c r="L20" s="2">
+        <v>47</v>
+      </c>
+      <c r="M20" s="9" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/次新股.xlsx
+++ b/次新股.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="94">
   <si>
     <t>个股代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -774,6 +774,115 @@
     <rPh sb="0" eb="1">
       <t>huan bao</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2675w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主营业务为体外诊断产品，主要产品为分子诊断试剂。风险：主要客户为各级医院公安机关，结算周期长，营收账款逐渐增加，占用经营资金。</t>
+    <rPh sb="24" eb="25">
+      <t>feng x</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>zhu y</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ke hu</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ge ji</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>yi y</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>gong an</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ji g</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>jie suan</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>zhou q</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>chang</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ying shou</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>zhang kuan</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>zhu j</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>zeng j</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>zhan yong</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>jing y</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>zi j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>睿昂基因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1390w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福莱新材</t>
+  </si>
+  <si>
+    <t>3000w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主营业务为功能性涂布复合材料。为广告喷墨打印材料、标签标识印刷材料和电子级功能材料三大类。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塑料制品</t>
+    <rPh sb="0" eb="1">
+      <t>su l</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhi p</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迈信林</t>
+  </si>
+  <si>
+    <t>专注于航空航天零部件的工艺研发和加工制造，现阶段军用和民用各占一半。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国防军工</t>
+    <rPh sb="0" eb="1">
+      <t>guo fang jun g</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2797w</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1196,10 +1305,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="140" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="140" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1851,6 +1960,12 @@
       <c r="E20" s="2" t="s">
         <v>80</v>
       </c>
+      <c r="F20" s="2">
+        <v>19.48</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>82</v>
+      </c>
       <c r="H20" s="5">
         <v>9.39</v>
       </c>
@@ -1868,6 +1983,120 @@
       </c>
       <c r="M20" s="9" t="s">
         <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="2">
+        <v>688217</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F21" s="2">
+        <v>29.89</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H21" s="5">
+        <v>18.420000000000002</v>
+      </c>
+      <c r="I21" s="5">
+        <v>36</v>
+      </c>
+      <c r="J21" s="2">
+        <v>45</v>
+      </c>
+      <c r="K21" s="2">
+        <v>54</v>
+      </c>
+      <c r="L21" s="2">
+        <v>90</v>
+      </c>
+      <c r="M21" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="2">
+        <v>605488</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F22" s="2">
+        <v>22.99</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H22" s="5">
+        <v>20.43</v>
+      </c>
+      <c r="I22" s="5">
+        <v>25</v>
+      </c>
+      <c r="J22" s="2">
+        <v>33</v>
+      </c>
+      <c r="K22" s="2">
+        <v>38</v>
+      </c>
+      <c r="L22" s="2">
+        <v>58</v>
+      </c>
+      <c r="M22" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="2">
+        <v>688685</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F23" s="2">
+        <v>22.83</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H23" s="5">
+        <v>9.02</v>
+      </c>
+      <c r="I23" s="5">
+        <v>30</v>
+      </c>
+      <c r="J23" s="2">
+        <v>36</v>
+      </c>
+      <c r="K23" s="2">
+        <v>45</v>
+      </c>
+      <c r="L23" s="2">
+        <v>72</v>
+      </c>
+      <c r="M23" s="9" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/次新股.xlsx
+++ b/次新股.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="28560" windowHeight="16240"/>
+    <workbookView xWindow="1460" yWindow="2860" windowWidth="28560" windowHeight="16240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="98">
   <si>
     <t>个股代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -883,6 +883,117 @@
   </si>
   <si>
     <t>2797w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明志科技</t>
+  </si>
+  <si>
+    <t>3077w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以高端制芯装备和高品质铝合金铸件为两大主业，在A股是稀缺性公司。风险：客户集中度高、存货余额高。</t>
+    <rPh sb="0" eb="1">
+      <t>yi</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>gao duan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhi z</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xin p</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhuang b</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>he</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>gao</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>pin zhi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>lü he j</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>zhu jian</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>liang</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>da</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>zhu ye</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>z</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>gu</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>s</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>xi que</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>xing</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>gong s</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>feng x</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ke hu</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ji zhong d</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>du</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>gao</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>cun huo</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>huo</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>yue</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>gao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高端制造</t>
+    <rPh sb="0" eb="1">
+      <t>gao d</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhi z</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zao</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1305,10 +1416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="140" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" topLeftCell="E20" zoomScale="140" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2099,6 +2210,44 @@
         <v>92</v>
       </c>
     </row>
+    <row r="24" spans="2:13" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="2">
+        <v>688355</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F24" s="2">
+        <v>22.95</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H24" s="5">
+        <v>17.649999999999999</v>
+      </c>
+      <c r="I24" s="5">
+        <v>28</v>
+      </c>
+      <c r="J24" s="2">
+        <v>33</v>
+      </c>
+      <c r="K24" s="2">
+        <v>38</v>
+      </c>
+      <c r="L24" s="2">
+        <v>65</v>
+      </c>
+      <c r="M24" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">

--- a/次新股.xlsx
+++ b/次新股.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1460" yWindow="2860" windowWidth="28560" windowHeight="16240"/>
+    <workbookView xWindow="11000" yWindow="460" windowWidth="28560" windowHeight="16240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="120">
   <si>
     <t>个股代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -993,6 +993,297 @@
     </rPh>
     <rPh sb="3" eb="4">
       <t>zao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要从事国内沿海、长江中下游液体化学品、成品油水上运输业务。风险：客户集中度高，燃油成本、人工成本上升带来经营成本上升。</t>
+    <rPh sb="30" eb="31">
+      <t>feng x</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ke hu</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ji zhon</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>du</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>gao</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>shang s</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>dai l</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>jing y</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>cheng b</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>shang s</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盛航股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘001205</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3007w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博众精工</t>
+  </si>
+  <si>
+    <t>航运</t>
+    <rPh sb="0" eb="1">
+      <t>hang yun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4100w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专业设备</t>
+    <rPh sb="0" eb="1">
+      <t>zhuan ye</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>she b</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苹果概念</t>
+    <rPh sb="0" eb="1">
+      <t>png g</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>gai n</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从事自动化设备、自动化柔性生产线、自动化关键零部件研发。风险：作为苹果产业链上游设备提供商，产品没有太高的科技含量，毛利率太低，公司过度依赖苹果订单。</t>
+    <rPh sb="25" eb="26">
+      <t>yan f</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>feng x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华通线缆</t>
+  </si>
+  <si>
+    <t>从事电线电缆的研发，产品销售全球。风险：海外销售占比高，贸易保护主义盛行；应收账占用流动资产比例高。</t>
+    <rPh sb="10" eb="11">
+      <t>chan p</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>xiao s</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>quan qiu</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>feng x</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>hai w</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>xiao s</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>zhan bi</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>gao</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>mao yi</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>bao hu</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>zhu y</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>sheng x</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ying shou</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>zhang</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>zhan yon</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>liu dong</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>zi c</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>bi l</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>gao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7600w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电气设备</t>
+    <rPh sb="0" eb="1">
+      <t>dian qi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>she b</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迅捷兴</t>
+  </si>
+  <si>
+    <t>主营业务是印制电路板(PCB)的研发。风险：应收账款高，且存在无法收回风险。</t>
+    <rPh sb="19" eb="20">
+      <t>feng x</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ying shou</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>zhang k</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>gao</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>qie</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>cun z</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>wu f</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>shou h</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>feng x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3339w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>印刷电路板、电子元件</t>
+    <rPh sb="0" eb="1">
+      <t>yin shua</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dian l b</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>dian zi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yuan jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>川网传媒</t>
+  </si>
+  <si>
+    <t>3336w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为四川省政府部门的宣传平台，经营守旧、缺乏创新，应收、利润下滑。</t>
+    <rPh sb="0" eb="1">
+      <t>zuo w</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>si c</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>sheng</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zheng f</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>bu m</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>d</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>xuan c</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ping t</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>jing y</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>shou jiu</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>que fa</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>chuang x</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ying s</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>li run</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>xia h</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传媒、国企改革</t>
+    <rPh sb="0" eb="1">
+      <t>chuan mei</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>guo qi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gai ge</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1416,17 +1707,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E20" zoomScale="140" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" topLeftCell="K24" zoomScale="140" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.83203125" style="2" customWidth="1"/>
     <col min="2" max="2" width="11.1640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" style="7" customWidth="1"/>
     <col min="4" max="4" width="13.83203125" style="9" customWidth="1"/>
     <col min="5" max="5" width="24.33203125" style="2" customWidth="1"/>
     <col min="6" max="6" width="13" style="2" customWidth="1"/>
@@ -1435,7 +1726,7 @@
     <col min="9" max="9" width="17" style="5" customWidth="1"/>
     <col min="10" max="10" width="13.83203125" style="2" customWidth="1"/>
     <col min="11" max="11" width="20" style="2" customWidth="1"/>
-    <col min="12" max="12" width="13.83203125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="16" style="2" customWidth="1"/>
     <col min="13" max="13" width="14.83203125" style="9" customWidth="1"/>
     <col min="14" max="14" width="17.33203125" style="2" customWidth="1"/>
     <col min="15" max="16384" width="8.83203125" style="2"/>
@@ -1448,7 +1739,7 @@
       <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="8" t="s">
@@ -1495,7 +1786,7 @@
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="7">
         <v>603836</v>
       </c>
       <c r="D4" s="9" t="s">
@@ -1534,7 +1825,7 @@
       <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="7">
         <v>300614</v>
       </c>
       <c r="D5" s="9" t="s">
@@ -1572,7 +1863,7 @@
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="7">
         <v>605090</v>
       </c>
       <c r="D6" s="9" t="s">
@@ -1610,7 +1901,7 @@
       <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="7">
         <v>300992</v>
       </c>
       <c r="D7" s="9" t="s">
@@ -1648,7 +1939,7 @@
       <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="7">
         <v>300995</v>
       </c>
       <c r="D8" s="9" t="s">
@@ -1686,7 +1977,7 @@
       <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="7">
         <v>300993</v>
       </c>
       <c r="D9" s="9" t="s">
@@ -1724,7 +2015,7 @@
       <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="7">
         <v>688359</v>
       </c>
       <c r="D10" s="9" t="s">
@@ -1762,7 +2053,7 @@
       <c r="B11" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="7">
         <v>688613</v>
       </c>
       <c r="D11" s="9" t="s">
@@ -1800,7 +2091,7 @@
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="7">
         <v>600905</v>
       </c>
       <c r="D12" s="9" t="s">
@@ -1835,7 +2126,7 @@
       <c r="B13" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="7">
         <v>688076</v>
       </c>
       <c r="D13" s="9" t="s">
@@ -1873,7 +2164,7 @@
       <c r="B14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="7">
         <v>300991</v>
       </c>
       <c r="D14" s="9" t="s">
@@ -1902,7 +2193,7 @@
       <c r="B15" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="7">
         <v>688314</v>
       </c>
       <c r="D15" s="9" t="s">
@@ -1940,7 +2231,7 @@
       <c r="B16" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="7">
         <v>688660</v>
       </c>
       <c r="D16" s="9" t="s">
@@ -1974,11 +2265,11 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="2:13" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:14" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="7">
         <v>688575</v>
       </c>
       <c r="D17" s="9" t="s">
@@ -2003,7 +2294,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:14" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>72</v>
       </c>
@@ -2029,11 +2320,11 @@
         <v>126</v>
       </c>
     </row>
-    <row r="19" spans="2:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:14" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="7">
         <v>605339</v>
       </c>
       <c r="D19" s="9" t="s">
@@ -2058,11 +2349,11 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:14" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="7">
         <v>688565</v>
       </c>
       <c r="D20" s="9" t="s">
@@ -2096,11 +2387,11 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="2:13" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="7">
         <v>688217</v>
       </c>
       <c r="D21" s="9" t="s">
@@ -2134,11 +2425,11 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:14" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="7">
         <v>605488</v>
       </c>
       <c r="D22" s="9" t="s">
@@ -2172,11 +2463,11 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="7">
         <v>688685</v>
       </c>
       <c r="D23" s="9" t="s">
@@ -2210,11 +2501,11 @@
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="2:13" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:14" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="7">
         <v>688355</v>
       </c>
       <c r="D24" s="9" t="s">
@@ -2246,6 +2537,199 @@
       </c>
       <c r="M24" s="9" t="s">
         <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F25" s="2">
+        <v>17.78</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H25" s="5">
+        <v>16.52</v>
+      </c>
+      <c r="I25" s="5">
+        <v>25</v>
+      </c>
+      <c r="J25" s="2">
+        <v>33</v>
+      </c>
+      <c r="K25" s="2">
+        <v>38</v>
+      </c>
+      <c r="L25" s="2">
+        <v>58</v>
+      </c>
+      <c r="M25" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="7">
+        <v>688097</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F26" s="2">
+        <v>15.97</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H26" s="5">
+        <v>11.27</v>
+      </c>
+      <c r="I26" s="5">
+        <v>18</v>
+      </c>
+      <c r="J26" s="2">
+        <v>15</v>
+      </c>
+      <c r="K26" s="2">
+        <v>23</v>
+      </c>
+      <c r="L26" s="2">
+        <v>35</v>
+      </c>
+      <c r="M26" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="7">
+        <v>605196</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F27" s="2">
+        <v>21.09</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H27" s="5">
+        <v>5.05</v>
+      </c>
+      <c r="I27" s="5">
+        <v>12</v>
+      </c>
+      <c r="J27" s="2">
+        <v>10</v>
+      </c>
+      <c r="K27" s="2">
+        <v>15</v>
+      </c>
+      <c r="L27" s="2">
+        <v>23</v>
+      </c>
+      <c r="M27" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="7">
+        <v>688655</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F28" s="2">
+        <v>20.350000000000001</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H28" s="5">
+        <v>7.59</v>
+      </c>
+      <c r="I28" s="5">
+        <v>18</v>
+      </c>
+      <c r="J28" s="2">
+        <v>20</v>
+      </c>
+      <c r="K28" s="2">
+        <v>25</v>
+      </c>
+      <c r="L28" s="2">
+        <v>37</v>
+      </c>
+      <c r="M28" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="7">
+        <v>300987</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F29" s="2">
+        <v>18.420000000000002</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H29" s="5">
+        <v>6.79</v>
+      </c>
+      <c r="I29" s="5">
+        <v>25</v>
+      </c>
+      <c r="J29" s="2">
+        <v>23</v>
+      </c>
+      <c r="K29" s="2">
+        <v>28</v>
+      </c>
+      <c r="L29" s="2">
+        <v>52</v>
+      </c>
+      <c r="M29" s="9" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/次新股.xlsx
+++ b/次新股.xlsx
@@ -1709,8 +1709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K24" zoomScale="140" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="140" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/次新股.xlsx
+++ b/次新股.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11000" yWindow="460" windowWidth="28560" windowHeight="16240"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="28560" windowHeight="16240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="123">
   <si>
     <t>个股代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1285,6 +1285,32 @@
     <rPh sb="5" eb="6">
       <t>gai ge</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同飞股份</t>
+  </si>
+  <si>
+    <t>主营业务为工业制冷设备的研发，营收和利润一直稳步增长，毛利率不错。风险：产品价格持续下降以及毛利率下滑，发行价太高。</t>
+    <rPh sb="33" eb="34">
+      <t>feng x</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>fa xing</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>xing</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>jia</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>tai gao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1300w</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1707,10 +1733,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N29"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="140" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="B26" zoomScale="140" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2732,6 +2758,44 @@
         <v>119</v>
       </c>
     </row>
+    <row r="30" spans="2:14" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="7">
+        <v>300990</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F30" s="2">
+        <v>36.270000000000003</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H30" s="5">
+        <v>85.5</v>
+      </c>
+      <c r="I30" s="5">
+        <v>86</v>
+      </c>
+      <c r="J30" s="2">
+        <v>115</v>
+      </c>
+      <c r="K30" s="2">
+        <v>128</v>
+      </c>
+      <c r="L30" s="2">
+        <v>153</v>
+      </c>
+      <c r="M30" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">

--- a/次新股.xlsx
+++ b/次新股.xlsx
@@ -1,24 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28702"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sailor/Developer/Github_Projects/python3_Stock/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="28560" windowHeight="16240"/>
+    <workbookView xWindow="240" yWindow="465" windowWidth="28560" windowHeight="16245"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -27,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="131">
   <si>
     <t>个股代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1311,6 +1303,45 @@
   </si>
   <si>
     <t>1300w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱慕股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服饰、大消费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务表现不算理想，营收利润都缺乏亮点，在时尚内衣赛道上，容易被更新潮的品牌替代。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联测科技</t>
+  </si>
+  <si>
+    <t>主营业务为动力系统智能测试装备的研发、制造和销售，以及提供动力系统测试验证服务。风险：应收账款回收风险。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高端制造、专业设备、新能源车</t>
+    <rPh sb="0" eb="1">
+      <t>gao d</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhi z</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中际联合</t>
+  </si>
+  <si>
+    <t>公司是国内领先的高空安全作业设备和高空安全作业服务解决方案提供商，专注于高空安全作业领域；现阶段公司主要聚焦于风力发电领域。风险：主要客户为风机制造商、风力发电企业、塔筒厂等。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1318,7 +1349,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1733,32 +1764,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B26" zoomScale="140" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="G28" zoomScale="140" workbookViewId="0">
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.1640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="24.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="13.875" style="9" customWidth="1"/>
+    <col min="5" max="5" width="24.375" style="2" customWidth="1"/>
     <col min="6" max="6" width="13" style="2" customWidth="1"/>
     <col min="7" max="7" width="15" style="7" customWidth="1"/>
-    <col min="8" max="8" width="13.83203125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="13.875" style="5" customWidth="1"/>
     <col min="9" max="9" width="17" style="5" customWidth="1"/>
-    <col min="10" max="10" width="13.83203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.875" style="2" customWidth="1"/>
     <col min="11" max="11" width="20" style="2" customWidth="1"/>
     <col min="12" max="12" width="16" style="2" customWidth="1"/>
-    <col min="13" max="13" width="14.83203125" style="9" customWidth="1"/>
-    <col min="14" max="14" width="17.33203125" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="8.83203125" style="2"/>
+    <col min="13" max="13" width="14.875" style="9" customWidth="1"/>
+    <col min="14" max="14" width="17.375" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="21.95" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1802,13 +1833,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="51" customHeight="1">
       <c r="A2" s="4"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
     </row>
-    <row r="3" spans="1:14" ht="35" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:14" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="35.1" customHeight="1"/>
+    <row r="4" spans="1:14" ht="41.1" customHeight="1">
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
@@ -1846,7 +1877,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="51" customHeight="1">
       <c r="A5" s="4"/>
       <c r="B5" s="2" t="s">
         <v>17</v>
@@ -1885,7 +1916,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="60" customHeight="1">
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
@@ -1923,7 +1954,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="42.95" customHeight="1">
       <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
@@ -1961,7 +1992,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="47.1" customHeight="1">
       <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
@@ -1999,7 +2030,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="39" customHeight="1">
       <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
@@ -2037,7 +2068,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="42" customHeight="1">
       <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
@@ -2075,7 +2106,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" ht="38.1" customHeight="1">
       <c r="B11" s="2" t="s">
         <v>41</v>
       </c>
@@ -2113,7 +2144,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" ht="36.950000000000003" customHeight="1">
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
@@ -2148,7 +2179,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" ht="38.1" customHeight="1">
       <c r="B13" s="2" t="s">
         <v>41</v>
       </c>
@@ -2186,7 +2217,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" ht="39.950000000000003" customHeight="1">
       <c r="B14" s="2" t="s">
         <v>17</v>
       </c>
@@ -2215,7 +2246,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" ht="33.950000000000003" customHeight="1">
       <c r="B15" s="2" t="s">
         <v>41</v>
       </c>
@@ -2253,7 +2284,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="44.1" customHeight="1">
       <c r="B16" s="2" t="s">
         <v>41</v>
       </c>
@@ -2291,7 +2322,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="2:14" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:14" ht="36.950000000000003" customHeight="1">
       <c r="B17" s="2" t="s">
         <v>41</v>
       </c>
@@ -2320,7 +2351,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="2:14" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:14" ht="33.950000000000003" customHeight="1">
       <c r="B18" s="2" t="s">
         <v>72</v>
       </c>
@@ -2346,7 +2377,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="19" spans="2:14" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:14" ht="39" customHeight="1">
       <c r="B19" s="2" t="s">
         <v>12</v>
       </c>
@@ -2375,7 +2406,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="2:14" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:14" ht="33.950000000000003" customHeight="1">
       <c r="B20" s="2" t="s">
         <v>41</v>
       </c>
@@ -2413,7 +2444,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:14" ht="33" customHeight="1">
       <c r="B21" s="2" t="s">
         <v>41</v>
       </c>
@@ -2451,7 +2482,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="2:14" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:14" ht="39.950000000000003" customHeight="1">
       <c r="B22" s="2" t="s">
         <v>12</v>
       </c>
@@ -2489,7 +2520,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:14" ht="30" customHeight="1">
       <c r="B23" s="2" t="s">
         <v>41</v>
       </c>
@@ -2527,7 +2558,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="2:14" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:14" ht="35.1" customHeight="1">
       <c r="B24" s="2" t="s">
         <v>41</v>
       </c>
@@ -2565,7 +2596,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="2:14" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:14" ht="30.95" customHeight="1">
       <c r="B25" s="2" t="s">
         <v>72</v>
       </c>
@@ -2603,7 +2634,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="26" spans="2:14" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:14" ht="29.1" customHeight="1">
       <c r="B26" s="2" t="s">
         <v>41</v>
       </c>
@@ -2644,7 +2675,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:14" ht="33" customHeight="1">
       <c r="B27" s="2" t="s">
         <v>12</v>
       </c>
@@ -2682,7 +2713,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="28" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:14" ht="33" customHeight="1">
       <c r="B28" s="2" t="s">
         <v>41</v>
       </c>
@@ -2720,7 +2751,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="29" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:14" ht="30" customHeight="1">
       <c r="B29" s="2" t="s">
         <v>17</v>
       </c>
@@ -2758,7 +2789,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="30" spans="2:14" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:14" ht="30.95" customHeight="1">
       <c r="B30" s="2" t="s">
         <v>17</v>
       </c>
@@ -2793,6 +2824,84 @@
         <v>153</v>
       </c>
       <c r="M30" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" ht="26.25" customHeight="1">
+      <c r="D31" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H31" s="5">
+        <v>20.99</v>
+      </c>
+      <c r="I31" s="5">
+        <v>25</v>
+      </c>
+      <c r="J31" s="2">
+        <v>30</v>
+      </c>
+      <c r="K31" s="2">
+        <v>38</v>
+      </c>
+      <c r="L31" s="2">
+        <v>45</v>
+      </c>
+      <c r="M31" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" ht="36" customHeight="1">
+      <c r="D32" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H32" s="5">
+        <v>19.14</v>
+      </c>
+      <c r="I32" s="5">
+        <v>34</v>
+      </c>
+      <c r="J32" s="2">
+        <v>47</v>
+      </c>
+      <c r="K32" s="2">
+        <v>58</v>
+      </c>
+      <c r="L32" s="2">
+        <v>78</v>
+      </c>
+      <c r="M32" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33" spans="4:13" ht="28.5" customHeight="1">
+      <c r="D33" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H33" s="5">
+        <v>37.94</v>
+      </c>
+      <c r="I33" s="5">
+        <v>45</v>
+      </c>
+      <c r="J33" s="2">
+        <v>54</v>
+      </c>
+      <c r="K33" s="2">
+        <v>65</v>
+      </c>
+      <c r="L33" s="2">
+        <v>82</v>
+      </c>
+      <c r="M33" s="9" t="s">
         <v>105</v>
       </c>
     </row>

--- a/次新股.xlsx
+++ b/次新股.xlsx
@@ -1,16 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28702"/>
   <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sailor/Developer/Github_Projects/python3_Stock/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="465" windowWidth="28560" windowHeight="16245"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="28560" windowHeight="16240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -19,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="146">
   <si>
     <t>个股代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1342,6 +1350,171 @@
   </si>
   <si>
     <t>公司是国内领先的高空安全作业设备和高空安全作业服务解决方案提供商，专注于高空安全作业领域；现阶段公司主要聚焦于风力发电领域。风险：主要客户为风机制造商、风力发电企业、塔筒厂等。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4001w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1600w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2750w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>津荣天宇</t>
+  </si>
+  <si>
+    <t>1848w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汽车配件、通用设备</t>
+    <rPh sb="0" eb="1">
+      <t>qi c</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>pei j</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tong y</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>she b</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主业是精密金属模具产品，应用于电气和汽车相关领域，科技含量比较低，属于劳动密集型生产企业。风险：应收账款大占用流动资金、且集中度高有坏账风险。</t>
+    <rPh sb="45" eb="46">
+      <t>feng x</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ying shou</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>zhang k</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>da</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>zhan yon</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>liu d</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>zi j</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>qie</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>ji zhong</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>du</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>gao</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>you</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>huai zhang</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>feng x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蕾奥规划</t>
+  </si>
+  <si>
+    <t>主营业务包括规划设计 业务和工程设计业务，其中，规划设计业务包括城乡规划、专项规划、规划咨询 等；工程设计业务包括景观工程设计和市政工程设计等。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1500w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工程建设</t>
+    <rPh sb="0" eb="1">
+      <t>gong c</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jian s</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙大自然</t>
+  </si>
+  <si>
+    <t>主要产品为充气床垫、户外箱包、头枕坐垫等户外运动用品，广泛 的应用于户外运动领域的多项场景中。风险：主要为境外收入，受汇率波动、贸易保护主义盛行影响。</t>
+    <rPh sb="47" eb="48">
+      <t>feng x</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>zhu y</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>yao</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>jing w</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>shou r</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>shou</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>hui lü</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>bo d</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>mao yi</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>bao hu</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>zhu yi</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>sheng x</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>ying x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2528w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体育产业</t>
+    <rPh sb="0" eb="1">
+      <t>ti y</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>chan ye</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1349,7 +1522,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1764,32 +1937,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G28" zoomScale="140" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="140" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="13.875" style="9" customWidth="1"/>
-    <col min="5" max="5" width="24.375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" style="2" customWidth="1"/>
     <col min="6" max="6" width="13" style="2" customWidth="1"/>
     <col min="7" max="7" width="15" style="7" customWidth="1"/>
-    <col min="8" max="8" width="13.875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="13.83203125" style="5" customWidth="1"/>
     <col min="9" max="9" width="17" style="5" customWidth="1"/>
-    <col min="10" max="10" width="13.875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.83203125" style="2" customWidth="1"/>
     <col min="11" max="11" width="20" style="2" customWidth="1"/>
     <col min="12" max="12" width="16" style="2" customWidth="1"/>
-    <col min="13" max="13" width="14.875" style="9" customWidth="1"/>
-    <col min="14" max="14" width="17.375" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="8.875" style="2"/>
+    <col min="13" max="13" width="14.83203125" style="9" customWidth="1"/>
+    <col min="14" max="14" width="17.33203125" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="21.95" customHeight="1">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1833,13 +2006,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="51" customHeight="1">
+    <row r="2" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
     </row>
-    <row r="3" spans="1:14" ht="35.1" customHeight="1"/>
-    <row r="4" spans="1:14" ht="41.1" customHeight="1">
+    <row r="3" spans="1:14" ht="35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:14" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
@@ -1877,7 +2050,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="51" customHeight="1">
+    <row r="5" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="2" t="s">
         <v>17</v>
@@ -1916,7 +2089,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="60" customHeight="1">
+    <row r="6" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
@@ -1954,7 +2127,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="42.95" customHeight="1">
+    <row r="7" spans="1:14" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
@@ -1992,7 +2165,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="47.1" customHeight="1">
+    <row r="8" spans="1:14" ht="47" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
@@ -2030,7 +2203,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="39" customHeight="1">
+    <row r="9" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
@@ -2068,7 +2241,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="42" customHeight="1">
+    <row r="10" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
@@ -2106,7 +2279,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="38.1" customHeight="1">
+    <row r="11" spans="1:14" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>41</v>
       </c>
@@ -2144,7 +2317,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="36.950000000000003" customHeight="1">
+    <row r="12" spans="1:14" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
@@ -2179,7 +2352,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="38.1" customHeight="1">
+    <row r="13" spans="1:14" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>41</v>
       </c>
@@ -2217,7 +2390,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="39.950000000000003" customHeight="1">
+    <row r="14" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>17</v>
       </c>
@@ -2246,7 +2419,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="33.950000000000003" customHeight="1">
+    <row r="15" spans="1:14" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>41</v>
       </c>
@@ -2284,7 +2457,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="44.1" customHeight="1">
+    <row r="16" spans="1:14" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>41</v>
       </c>
@@ -2322,7 +2495,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="2:14" ht="36.950000000000003" customHeight="1">
+    <row r="17" spans="2:14" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>41</v>
       </c>
@@ -2351,7 +2524,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="2:14" ht="33.950000000000003" customHeight="1">
+    <row r="18" spans="2:14" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>72</v>
       </c>
@@ -2377,7 +2550,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="19" spans="2:14" ht="39" customHeight="1">
+    <row r="19" spans="2:14" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>12</v>
       </c>
@@ -2406,7 +2579,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="2:14" ht="33.950000000000003" customHeight="1">
+    <row r="20" spans="2:14" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>41</v>
       </c>
@@ -2444,7 +2617,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="2:14" ht="33" customHeight="1">
+    <row r="21" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>41</v>
       </c>
@@ -2482,7 +2655,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="2:14" ht="39.950000000000003" customHeight="1">
+    <row r="22" spans="2:14" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>12</v>
       </c>
@@ -2520,7 +2693,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="2:14" ht="30" customHeight="1">
+    <row r="23" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
         <v>41</v>
       </c>
@@ -2558,7 +2731,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="2:14" ht="35.1" customHeight="1">
+    <row r="24" spans="2:14" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>41</v>
       </c>
@@ -2596,7 +2769,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="2:14" ht="30.95" customHeight="1">
+    <row r="25" spans="2:14" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>72</v>
       </c>
@@ -2634,7 +2807,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="26" spans="2:14" ht="29.1" customHeight="1">
+    <row r="26" spans="2:14" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
         <v>41</v>
       </c>
@@ -2675,7 +2848,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="2:14" ht="33" customHeight="1">
+    <row r="27" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
         <v>12</v>
       </c>
@@ -2713,7 +2886,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="28" spans="2:14" ht="33" customHeight="1">
+    <row r="28" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
         <v>41</v>
       </c>
@@ -2751,7 +2924,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="29" spans="2:14" ht="30" customHeight="1">
+    <row r="29" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
         <v>17</v>
       </c>
@@ -2789,7 +2962,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="30" spans="2:14" ht="30.95" customHeight="1">
+    <row r="30" spans="2:14" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
         <v>17</v>
       </c>
@@ -2827,13 +3000,25 @@
         <v>105</v>
       </c>
     </row>
-    <row r="31" spans="2:14" ht="26.25" customHeight="1">
+    <row r="31" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="7">
+        <v>603511</v>
+      </c>
       <c r="D31" s="9" t="s">
         <v>123</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>125</v>
       </c>
+      <c r="F31" s="2">
+        <v>21.98</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>131</v>
+      </c>
       <c r="H31" s="5">
         <v>20.99</v>
       </c>
@@ -2853,13 +3038,25 @@
         <v>124</v>
       </c>
     </row>
-    <row r="32" spans="2:14" ht="36" customHeight="1">
+    <row r="32" spans="2:14" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="7">
+        <v>688113</v>
+      </c>
       <c r="D32" s="9" t="s">
         <v>126</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>127</v>
       </c>
+      <c r="F32" s="2">
+        <v>17.309999999999999</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>132</v>
+      </c>
       <c r="H32" s="5">
         <v>19.14</v>
       </c>
@@ -2879,13 +3076,25 @@
         <v>128</v>
       </c>
     </row>
-    <row r="33" spans="4:13" ht="28.5" customHeight="1">
+    <row r="33" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="7">
+        <v>605305</v>
+      </c>
       <c r="D33" s="9" t="s">
         <v>129</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>130</v>
       </c>
+      <c r="F33" s="2">
+        <v>22.99</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>133</v>
+      </c>
       <c r="H33" s="5">
         <v>37.94</v>
       </c>
@@ -2903,6 +3112,120 @@
       </c>
       <c r="M33" s="9" t="s">
         <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="7">
+        <v>300988</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F34" s="2">
+        <v>32.729999999999997</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H34" s="5">
+        <v>23.73</v>
+      </c>
+      <c r="I34" s="5">
+        <v>40</v>
+      </c>
+      <c r="J34" s="2">
+        <v>48</v>
+      </c>
+      <c r="K34" s="2">
+        <v>68</v>
+      </c>
+      <c r="L34" s="2">
+        <v>95</v>
+      </c>
+      <c r="M34" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="7">
+        <v>300989</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F35" s="2">
+        <v>36.01</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="H35" s="5">
+        <v>51.62</v>
+      </c>
+      <c r="I35" s="5">
+        <v>58</v>
+      </c>
+      <c r="J35" s="2">
+        <v>66</v>
+      </c>
+      <c r="K35" s="2">
+        <v>83</v>
+      </c>
+      <c r="L35" s="2">
+        <v>116</v>
+      </c>
+      <c r="M35" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="7">
+        <v>605080</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F36" s="2">
+        <v>22.99</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H36" s="5">
+        <v>31.16</v>
+      </c>
+      <c r="I36" s="5">
+        <v>45</v>
+      </c>
+      <c r="J36" s="2">
+        <v>60</v>
+      </c>
+      <c r="K36" s="2">
+        <v>70</v>
+      </c>
+      <c r="L36" s="2">
+        <v>80</v>
+      </c>
+      <c r="M36" s="9" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/次新股.xlsx
+++ b/次新股.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="150">
   <si>
     <t>个股代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1515,6 +1515,29 @@
     <rPh sb="2" eb="3">
       <t>chan ye</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东鹏饮料</t>
+  </si>
+  <si>
+    <t>主营业务为饮料的研发</t>
+  </si>
+  <si>
+    <t>食品、大消费</t>
+    <rPh sb="0" eb="1">
+      <t>shi p</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>da</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xiao f</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4001w</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1937,10 +1960,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N36"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="140" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="140" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2011,788 +2034,792 @@
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
     </row>
-    <row r="3" spans="1:14" ht="35" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:14" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+    </row>
+    <row r="4" spans="1:14" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="7">
-        <v>603836</v>
+        <v>605499</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>25</v>
+        <v>147</v>
       </c>
       <c r="F4" s="2">
         <v>22.99</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H4" s="5">
+        <v>46.27</v>
+      </c>
+      <c r="I4" s="5">
+        <v>75</v>
+      </c>
+      <c r="J4" s="2">
+        <v>88</v>
+      </c>
+      <c r="K4" s="2">
+        <v>98</v>
+      </c>
+      <c r="L4" s="2">
+        <v>125</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="7">
+        <v>603836</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="2">
+        <v>22.99</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H5" s="5">
         <v>16.84</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I5" s="5">
         <v>22</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J5" s="2">
         <v>25</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K5" s="2">
         <v>30</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L5" s="2">
         <v>50</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="M5" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="2" t="s">
+    <row r="6" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4"/>
+      <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C6" s="7">
         <v>300614</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F6" s="2">
         <v>11.78</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H6" s="5">
         <v>9.19</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I6" s="5">
         <v>20</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J6" s="2">
         <v>19</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K6" s="6">
         <v>25</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L6" s="6">
         <v>38</v>
       </c>
-      <c r="M5" s="9" t="s">
+      <c r="M6" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
+    <row r="7" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C7" s="7">
         <v>605090</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F7" s="2">
         <v>20</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H7" s="5">
         <v>34.57</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I7" s="5">
         <v>37</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J7" s="2">
         <v>42</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K7" s="2">
         <v>50</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L7" s="2">
         <v>68</v>
       </c>
-      <c r="M6" s="9" t="s">
+      <c r="M7" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="43" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="7">
-        <v>300992</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="2">
-        <v>12.84</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="5">
-        <v>9.36</v>
-      </c>
-      <c r="I7" s="5">
-        <v>28</v>
-      </c>
-      <c r="J7" s="2">
-        <v>33</v>
-      </c>
-      <c r="K7" s="2">
-        <v>38</v>
-      </c>
-      <c r="L7" s="2">
-        <v>65</v>
-      </c>
-      <c r="M7" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="7">
-        <v>300995</v>
+        <v>300992</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="2">
+        <v>12.84</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="5">
+        <v>9.36</v>
+      </c>
+      <c r="I8" s="5">
+        <v>28</v>
+      </c>
+      <c r="J8" s="2">
         <v>33</v>
       </c>
-      <c r="F8" s="2">
-        <v>17.52</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="5">
-        <v>14.72</v>
-      </c>
-      <c r="I8" s="5">
-        <v>29</v>
-      </c>
-      <c r="J8" s="2">
-        <v>36</v>
-      </c>
       <c r="K8" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="L8" s="2">
         <v>65</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="47" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="7">
+        <v>300995</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="2">
+        <v>17.52</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="5">
+        <v>14.72</v>
+      </c>
+      <c r="I9" s="5">
+        <v>29</v>
+      </c>
+      <c r="J9" s="2">
+        <v>36</v>
+      </c>
+      <c r="K9" s="2">
+        <v>42</v>
+      </c>
+      <c r="L9" s="2">
+        <v>65</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="7">
         <v>300993</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D10" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F10" s="2">
         <v>16.45</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H10" s="5">
         <v>12.1</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I10" s="5">
         <v>21</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J10" s="2">
         <v>23</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K10" s="2">
         <v>30</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L10" s="2">
         <v>58</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="7">
-        <v>688359</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="2">
-        <v>22.3</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H10" s="5">
-        <v>11.03</v>
-      </c>
-      <c r="I10" s="5">
-        <v>20</v>
-      </c>
-      <c r="J10" s="2">
-        <v>25</v>
-      </c>
-      <c r="K10" s="2">
-        <v>29</v>
-      </c>
-      <c r="L10" s="2">
-        <v>48</v>
       </c>
       <c r="M10" s="9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C11" s="7">
+        <v>688359</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="2">
+        <v>22.3</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="5">
+        <v>11.03</v>
+      </c>
+      <c r="I11" s="5">
+        <v>20</v>
+      </c>
+      <c r="J11" s="2">
+        <v>25</v>
+      </c>
+      <c r="K11" s="2">
+        <v>29</v>
+      </c>
+      <c r="L11" s="2">
+        <v>48</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="7">
         <v>688613</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D12" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F12" s="2">
         <v>26.6</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H12" s="5">
         <v>16.43</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I12" s="5">
         <v>35</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J12" s="2">
         <v>34</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K12" s="2">
         <v>48</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L12" s="2">
         <v>78</v>
       </c>
-      <c r="M11" s="9" t="s">
+      <c r="M12" s="9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="2" t="s">
+    <row r="13" spans="1:14" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C13" s="7">
         <v>600905</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D13" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F13" s="2">
         <v>28.87</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H13" s="5">
         <v>2.65</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I13" s="5">
         <v>5</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J13" s="2">
         <v>3.5</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K13" s="2">
         <v>5.8</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L13" s="2">
         <v>8</v>
       </c>
-      <c r="M12" s="9" t="s">
+      <c r="M13" s="9" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="2" t="s">
+    <row r="14" spans="1:14" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C14" s="7">
         <v>688076</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D14" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F14" s="2">
         <v>35.130000000000003</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H14" s="5">
         <v>15.57</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I14" s="5">
         <v>21</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J14" s="2">
         <v>24</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K14" s="2">
         <v>28</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L14" s="2">
         <v>43</v>
       </c>
-      <c r="M13" s="9" t="s">
+      <c r="M14" s="9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="2" t="s">
+    <row r="15" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C15" s="7">
         <v>300991</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D15" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F15" s="2">
         <v>13.06</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H15" s="5">
         <v>13.06</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L15" s="2">
         <v>56</v>
       </c>
-      <c r="M14" s="9" t="s">
+      <c r="M15" s="9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="7">
-        <v>688314</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F15" s="2">
-        <v>22.17</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H15" s="5">
-        <v>17.34</v>
-      </c>
-      <c r="I15" s="5">
-        <v>48</v>
-      </c>
-      <c r="J15" s="2">
-        <v>52</v>
-      </c>
-      <c r="K15" s="2">
-        <v>60</v>
-      </c>
-      <c r="L15" s="2">
-        <v>108</v>
-      </c>
-      <c r="M15" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C16" s="7">
-        <v>688660</v>
+        <v>688314</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F16" s="2">
-        <v>23.99</v>
+        <v>22.17</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H16" s="5">
-        <v>5.44</v>
+        <v>17.34</v>
       </c>
       <c r="I16" s="5">
-        <v>11.3</v>
+        <v>48</v>
       </c>
       <c r="J16" s="2">
-        <v>11.3</v>
+        <v>52</v>
       </c>
       <c r="K16" s="2">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="L16" s="2">
-        <v>28</v>
+        <v>108</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C17" s="7">
+        <v>688660</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="2">
+        <v>23.99</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H17" s="5">
+        <v>5.44</v>
+      </c>
+      <c r="I17" s="5">
+        <v>11.3</v>
+      </c>
+      <c r="J17" s="2">
+        <v>11.3</v>
+      </c>
+      <c r="K17" s="2">
+        <v>18</v>
+      </c>
+      <c r="L17" s="2">
+        <v>28</v>
+      </c>
+      <c r="M17" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="7">
         <v>688575</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D18" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F18" s="2">
         <v>31.96</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H18" s="5">
         <v>14.8</v>
       </c>
-      <c r="L17" s="2">
+      <c r="L18" s="2">
         <v>38</v>
       </c>
-      <c r="M17" s="9" t="s">
+      <c r="M18" s="9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="2:14" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="2" t="s">
+    <row r="19" spans="2:14" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C19" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D19" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="F18" s="2">
-        <v>22.99</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="H18" s="5">
-        <v>44.6</v>
-      </c>
-      <c r="L18" s="2">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="7">
-        <v>605339</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="F19" s="2">
         <v>22.99</v>
       </c>
       <c r="G19" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H19" s="5">
+        <v>44.6</v>
+      </c>
+      <c r="L19" s="2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="7">
+        <v>605339</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F20" s="2">
+        <v>22.99</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H20" s="5">
         <v>16.98</v>
       </c>
-      <c r="L19" s="2">
+      <c r="L20" s="2">
         <v>59</v>
       </c>
-      <c r="M19" s="9" t="s">
+      <c r="M20" s="9" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="2:14" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="7">
-        <v>688565</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F20" s="2">
-        <v>19.48</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="H20" s="5">
-        <v>9.39</v>
-      </c>
-      <c r="I20" s="5">
-        <v>18.7</v>
-      </c>
-      <c r="J20" s="2">
-        <v>23</v>
-      </c>
-      <c r="K20" s="2">
-        <v>28</v>
-      </c>
-      <c r="L20" s="2">
-        <v>47</v>
-      </c>
-      <c r="M20" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:14" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C21" s="7">
+        <v>688565</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F21" s="2">
+        <v>19.48</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H21" s="5">
+        <v>9.39</v>
+      </c>
+      <c r="I21" s="5">
+        <v>18.7</v>
+      </c>
+      <c r="J21" s="2">
+        <v>23</v>
+      </c>
+      <c r="K21" s="2">
+        <v>28</v>
+      </c>
+      <c r="L21" s="2">
+        <v>47</v>
+      </c>
+      <c r="M21" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="7">
         <v>688217</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D22" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F22" s="2">
         <v>29.89</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H22" s="5">
         <v>18.420000000000002</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I22" s="5">
         <v>36</v>
       </c>
-      <c r="J21" s="2">
+      <c r="J22" s="2">
         <v>45</v>
       </c>
-      <c r="K21" s="2">
+      <c r="K22" s="2">
         <v>54</v>
       </c>
-      <c r="L21" s="2">
+      <c r="L22" s="2">
         <v>90</v>
       </c>
-      <c r="M21" s="9" t="s">
+      <c r="M22" s="9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="2:14" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="2" t="s">
+    <row r="23" spans="2:14" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C23" s="7">
         <v>605488</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D23" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F23" s="2">
         <v>22.99</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H23" s="5">
         <v>20.43</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I23" s="5">
         <v>25</v>
       </c>
-      <c r="J22" s="2">
+      <c r="J23" s="2">
         <v>33</v>
       </c>
-      <c r="K22" s="2">
+      <c r="K23" s="2">
         <v>38</v>
       </c>
-      <c r="L22" s="2">
+      <c r="L23" s="2">
         <v>58</v>
       </c>
-      <c r="M22" s="9" t="s">
+      <c r="M23" s="9" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="7">
-        <v>688685</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F23" s="2">
-        <v>22.83</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="H23" s="5">
-        <v>9.02</v>
-      </c>
-      <c r="I23" s="5">
-        <v>30</v>
-      </c>
-      <c r="J23" s="2">
-        <v>36</v>
-      </c>
-      <c r="K23" s="2">
-        <v>45</v>
-      </c>
-      <c r="L23" s="2">
-        <v>72</v>
-      </c>
-      <c r="M23" s="9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C24" s="7">
+        <v>688685</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F24" s="2">
+        <v>22.83</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H24" s="5">
+        <v>9.02</v>
+      </c>
+      <c r="I24" s="5">
+        <v>30</v>
+      </c>
+      <c r="J24" s="2">
+        <v>36</v>
+      </c>
+      <c r="K24" s="2">
+        <v>45</v>
+      </c>
+      <c r="L24" s="2">
+        <v>72</v>
+      </c>
+      <c r="M24" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="7">
         <v>688355</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D25" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F25" s="2">
         <v>22.95</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="H24" s="5">
+      <c r="H25" s="5">
         <v>17.649999999999999</v>
       </c>
-      <c r="I24" s="5">
+      <c r="I25" s="5">
         <v>28</v>
-      </c>
-      <c r="J24" s="2">
-        <v>33</v>
-      </c>
-      <c r="K24" s="2">
-        <v>38</v>
-      </c>
-      <c r="L24" s="2">
-        <v>65</v>
-      </c>
-      <c r="M24" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F25" s="2">
-        <v>17.78</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="H25" s="5">
-        <v>16.52</v>
-      </c>
-      <c r="I25" s="5">
-        <v>25</v>
       </c>
       <c r="J25" s="2">
         <v>33</v>
@@ -2801,430 +2828,468 @@
         <v>38</v>
       </c>
       <c r="L25" s="2">
+        <v>65</v>
+      </c>
+      <c r="M25" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F26" s="2">
+        <v>17.78</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H26" s="5">
+        <v>16.52</v>
+      </c>
+      <c r="I26" s="5">
+        <v>25</v>
+      </c>
+      <c r="J26" s="2">
+        <v>33</v>
+      </c>
+      <c r="K26" s="2">
+        <v>38</v>
+      </c>
+      <c r="L26" s="2">
         <v>58</v>
       </c>
-      <c r="M25" s="9" t="s">
+      <c r="M26" s="9" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="26" spans="2:14" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="2" t="s">
+    <row r="27" spans="2:14" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C27" s="7">
         <v>688097</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D27" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F27" s="2">
         <v>15.97</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="H26" s="5">
+      <c r="H27" s="5">
         <v>11.27</v>
       </c>
-      <c r="I26" s="5">
+      <c r="I27" s="5">
         <v>18</v>
       </c>
-      <c r="J26" s="2">
+      <c r="J27" s="2">
         <v>15</v>
       </c>
-      <c r="K26" s="2">
+      <c r="K27" s="2">
         <v>23</v>
       </c>
-      <c r="L26" s="2">
+      <c r="L27" s="2">
         <v>35</v>
       </c>
-      <c r="M26" s="9" t="s">
+      <c r="M27" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="N26" s="2" t="s">
+      <c r="N27" s="2" t="s">
         <v>106</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="7">
-        <v>605196</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F27" s="2">
-        <v>21.09</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="H27" s="5">
-        <v>5.05</v>
-      </c>
-      <c r="I27" s="5">
-        <v>12</v>
-      </c>
-      <c r="J27" s="2">
-        <v>10</v>
-      </c>
-      <c r="K27" s="2">
-        <v>15</v>
-      </c>
-      <c r="L27" s="2">
-        <v>23</v>
-      </c>
-      <c r="M27" s="9" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="28" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="7">
+        <v>605196</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F28" s="2">
+        <v>21.09</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H28" s="5">
+        <v>5.05</v>
+      </c>
+      <c r="I28" s="5">
+        <v>12</v>
+      </c>
+      <c r="J28" s="2">
+        <v>10</v>
+      </c>
+      <c r="K28" s="2">
+        <v>15</v>
+      </c>
+      <c r="L28" s="2">
+        <v>23</v>
+      </c>
+      <c r="M28" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C29" s="7">
         <v>688655</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D29" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E29" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F29" s="2">
         <v>20.350000000000001</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="H28" s="5">
+      <c r="H29" s="5">
         <v>7.59</v>
       </c>
-      <c r="I28" s="5">
+      <c r="I29" s="5">
         <v>18</v>
       </c>
-      <c r="J28" s="2">
+      <c r="J29" s="2">
         <v>20</v>
       </c>
-      <c r="K28" s="2">
+      <c r="K29" s="2">
         <v>25</v>
       </c>
-      <c r="L28" s="2">
+      <c r="L29" s="2">
         <v>37</v>
       </c>
-      <c r="M28" s="9" t="s">
+      <c r="M29" s="9" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="29" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" s="7">
-        <v>300987</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F29" s="2">
-        <v>18.420000000000002</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="H29" s="5">
-        <v>6.79</v>
-      </c>
-      <c r="I29" s="5">
-        <v>25</v>
-      </c>
-      <c r="J29" s="2">
-        <v>23</v>
-      </c>
-      <c r="K29" s="2">
-        <v>28</v>
-      </c>
-      <c r="L29" s="2">
-        <v>52</v>
-      </c>
-      <c r="M29" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C30" s="7">
+        <v>300987</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F30" s="2">
+        <v>18.420000000000002</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H30" s="5">
+        <v>6.79</v>
+      </c>
+      <c r="I30" s="5">
+        <v>25</v>
+      </c>
+      <c r="J30" s="2">
+        <v>23</v>
+      </c>
+      <c r="K30" s="2">
+        <v>28</v>
+      </c>
+      <c r="L30" s="2">
+        <v>52</v>
+      </c>
+      <c r="M30" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="7">
         <v>300990</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D31" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F31" s="2">
         <v>36.270000000000003</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="H30" s="5">
+      <c r="H31" s="5">
         <v>85.5</v>
       </c>
-      <c r="I30" s="5">
+      <c r="I31" s="5">
         <v>86</v>
       </c>
-      <c r="J30" s="2">
+      <c r="J31" s="2">
         <v>115</v>
       </c>
-      <c r="K30" s="2">
+      <c r="K31" s="2">
         <v>128</v>
       </c>
-      <c r="L30" s="2">
+      <c r="L31" s="2">
         <v>153</v>
       </c>
-      <c r="M30" s="9" t="s">
+      <c r="M31" s="9" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="31" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="2" t="s">
+    <row r="32" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C32" s="7">
         <v>603511</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D32" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F32" s="2">
         <v>21.98</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="H31" s="5">
+      <c r="H32" s="5">
         <v>20.99</v>
       </c>
-      <c r="I31" s="5">
+      <c r="I32" s="5">
         <v>25</v>
       </c>
-      <c r="J31" s="2">
+      <c r="J32" s="2">
         <v>30</v>
       </c>
-      <c r="K31" s="2">
+      <c r="K32" s="2">
         <v>38</v>
       </c>
-      <c r="L31" s="2">
+      <c r="L32" s="2">
         <v>45</v>
       </c>
-      <c r="M31" s="9" t="s">
+      <c r="M32" s="9" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="32" spans="2:14" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="2" t="s">
+    <row r="33" spans="2:13" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C33" s="7">
         <v>688113</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D33" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E33" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F33" s="2">
         <v>17.309999999999999</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="G33" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="H32" s="5">
+      <c r="H33" s="5">
         <v>19.14</v>
       </c>
-      <c r="I32" s="5">
+      <c r="I33" s="5">
         <v>34</v>
       </c>
-      <c r="J32" s="2">
+      <c r="J33" s="2">
         <v>47</v>
       </c>
-      <c r="K32" s="2">
+      <c r="K33" s="2">
         <v>58</v>
       </c>
-      <c r="L32" s="2">
+      <c r="L33" s="2">
         <v>78</v>
       </c>
-      <c r="M32" s="9" t="s">
+      <c r="M33" s="9" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="33" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="2" t="s">
+    <row r="34" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C34" s="7">
         <v>605305</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D34" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E34" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F34" s="2">
         <v>22.99</v>
       </c>
-      <c r="G33" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="H33" s="5">
+      <c r="H34" s="5">
         <v>37.94</v>
       </c>
-      <c r="I33" s="5">
+      <c r="I34" s="5">
         <v>45</v>
       </c>
-      <c r="J33" s="2">
+      <c r="J34" s="2">
         <v>54</v>
       </c>
-      <c r="K33" s="2">
+      <c r="K34" s="2">
         <v>65</v>
       </c>
-      <c r="L33" s="2">
+      <c r="L34" s="2">
         <v>82</v>
       </c>
-      <c r="M33" s="9" t="s">
+      <c r="M34" s="9" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="34" spans="2:13" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C34" s="7">
-        <v>300988</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F34" s="2">
-        <v>32.729999999999997</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="H34" s="5">
-        <v>23.73</v>
-      </c>
-      <c r="I34" s="5">
-        <v>40</v>
-      </c>
-      <c r="J34" s="2">
-        <v>48</v>
-      </c>
-      <c r="K34" s="2">
-        <v>68</v>
-      </c>
-      <c r="L34" s="2">
-        <v>95</v>
-      </c>
-      <c r="M34" s="9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:13" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C35" s="7">
+        <v>300988</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F35" s="2">
+        <v>32.729999999999997</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H35" s="5">
+        <v>23.73</v>
+      </c>
+      <c r="I35" s="5">
+        <v>40</v>
+      </c>
+      <c r="J35" s="2">
+        <v>48</v>
+      </c>
+      <c r="K35" s="2">
+        <v>68</v>
+      </c>
+      <c r="L35" s="2">
+        <v>95</v>
+      </c>
+      <c r="M35" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="7">
         <v>300989</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D36" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E36" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F36" s="2">
         <v>36.01</v>
       </c>
-      <c r="G35" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="H35" s="5">
+      <c r="H36" s="5">
         <v>51.62</v>
       </c>
-      <c r="I35" s="5">
+      <c r="I36" s="5">
         <v>58</v>
       </c>
-      <c r="J35" s="2">
+      <c r="J36" s="2">
         <v>66</v>
       </c>
-      <c r="K35" s="2">
+      <c r="K36" s="2">
         <v>83</v>
       </c>
-      <c r="L35" s="2">
+      <c r="L36" s="2">
         <v>116</v>
       </c>
-      <c r="M35" s="9" t="s">
+      <c r="M36" s="9" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="36" spans="2:13" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="2" t="s">
+    <row r="37" spans="2:13" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C37" s="7">
         <v>605080</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D37" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E37" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F37" s="2">
         <v>22.99</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="H36" s="5">
+      <c r="H37" s="5">
         <v>31.16</v>
       </c>
-      <c r="I36" s="5">
+      <c r="I37" s="5">
         <v>45</v>
       </c>
-      <c r="J36" s="2">
+      <c r="J37" s="2">
         <v>60</v>
       </c>
-      <c r="K36" s="2">
+      <c r="K37" s="2">
         <v>70</v>
       </c>
-      <c r="L36" s="2">
+      <c r="L37" s="2">
         <v>80</v>
       </c>
-      <c r="M36" s="9" t="s">
+      <c r="M37" s="9" t="s">
         <v>145</v>
       </c>
     </row>

--- a/次新股.xlsx
+++ b/次新股.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="28560" windowHeight="16240"/>
+    <workbookView xWindow="0" yWindow="1240" windowWidth="28560" windowHeight="16240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="工作表1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="196">
   <si>
     <t>个股代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1538,6 +1539,546 @@
   </si>
   <si>
     <t>4001w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和辉光电</t>
+  </si>
+  <si>
+    <t>306366w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OLED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国内领先的色纱生产企业之一，色纱广泛应用于服饰、服装、家纺等领域。风险：原材料价格波动风险，市场竞争激烈。</t>
+    <rPh sb="33" eb="34">
+      <t>feng x</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>shi c</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>jing z</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ji l</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纺织</t>
+    <rPh sb="0" eb="1">
+      <t>fang zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富春染织</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3120w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肇民科技</t>
+  </si>
+  <si>
+    <t>1333w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要研发精密注塑件，应用于汽车和家用电器等领域。以塑代钢是大势所趋，公司产品大部分是汽车配件，新能源汽车配件占比非常小，但在逐步提高。风险：客户多为全球领先的汽车一级供应商和家电企业，客户集中度相对较高。</t>
+    <rPh sb="0" eb="1">
+      <t>zhu y</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yan f</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jing mi zhu su jian</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>su liao</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ying y</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>deng</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ling yu</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>gong s</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>chan p</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>da bu f</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>s</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>qi c</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>pei j</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>xin neng y</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>qi c</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>pei j</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>zhan bi</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>fei c</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>xiao</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>dan</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>z</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>zhu bu</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>ti g</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>feng x</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>ke hu</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>duo wei</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>quan q</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>ling x</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>d</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>qi c</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>yi ji</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>gong ying s</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>he</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>jia d</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>qi y</t>
+    </rPh>
+    <rPh sb="92" eb="93">
+      <t>ke hu</t>
+    </rPh>
+    <rPh sb="94" eb="95">
+      <t>ji zhog</t>
+    </rPh>
+    <rPh sb="96" eb="97">
+      <t>du</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>xiang d</t>
+    </rPh>
+    <rPh sb="99" eb="100">
+      <t>jiao gao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汽车配件</t>
+    <rPh sb="0" eb="1">
+      <t>qi c</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>pei j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凯淳股份</t>
+  </si>
+  <si>
+    <t>主营业务是为国内外知名品牌提供综合性的电子商务服务以及客户 关系管理服务。风险：行业竞争剧烈，收费水平在降低。</t>
+    <rPh sb="37" eb="38">
+      <t>feng x</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>hang y</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>jing z</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ju l</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>shou f</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>shui p</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>z</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>jiang di</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子商务服务</t>
+    <rPh sb="0" eb="1">
+      <t>dian z</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shang w</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>fu w</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神农集团</t>
+  </si>
+  <si>
+    <t>4003w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>养殖业</t>
+    <rPh sb="0" eb="1">
+      <t>yang zhi ye</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主营业务包括饲料加工和销售、生猪养殖和销售。风险：动物疫情风险；猪肉价格波动风险。</t>
+    <rPh sb="22" eb="23">
+      <t>feng x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江苏博云</t>
+  </si>
+  <si>
+    <t>1457w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塑钢比是衡量一个国家塑料工业发展水平的重要指标，2018 年世界塑钢比 50:50、亚洲塑钢比 42:58、欧洲塑钢比 59:41、北美自由贸易区（NAFTA）塑钢 比 73:27、独立国家联合体（CIS）塑钢比 35:65，中国仅为 37:63，中国塑钢比低 于全球及主要发达地区塑钢比水平。伴随着国内经济的快速发展和“以塑代钢”、 “以塑代木”的不断推进，改性塑料行业也获得了较快的发展。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司重点发展刚性 AMOLED 面板、柔性产能相对有限，可 能存在被柔性面板替代或迭代的风险。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要从事改性塑料产品的研发，改性塑料产品属于国家“十三五”期间大力支持的新材料，用途非常广泛，有国产替代概念，公司毛利率也不错，业绩稳步增长。风险：外销占比高，贸易摩擦加剧风险；客户集中度高。</t>
+    <rPh sb="40" eb="41">
+      <t>yong tu</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>fei c</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>guang f</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>y</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>guo c</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ti d</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>gai n</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>feng x</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>wai xiao</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>zhan bi</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>gao</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>mao yi</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>mo c</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>jia ju</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>feng x</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>ke hu</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>ji zhong</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>du</t>
+    </rPh>
+    <rPh sb="94" eb="95">
+      <t>gao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塑料制品</t>
+    <rPh sb="0" eb="1">
+      <t>su l zhi p</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汽车配件、塑料制品</t>
+    <rPh sb="0" eb="1">
+      <t>qi c</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>pei j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瑞丰银行</t>
+  </si>
+  <si>
+    <t>银行</t>
+    <rPh sb="0" eb="1">
+      <t>yin h</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地方性小银行。不良资产占比高，不关注。</t>
+    <rPh sb="7" eb="8">
+      <t>bu liang zi c</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>zhan bi</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>gao</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>bu n</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>guan zhu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1428w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汽车配件紧固件企业，主要应用于汽车发动机涡轮增压系统，换档驻车控制系统，汽车排气系统， 汽车座椅、车灯与后视镜等内外饰系统的汽车关键零部件的连接、紧固。技术含量不高。</t>
+    <rPh sb="76" eb="77">
+      <t>ji shu</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>han l</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>bu gao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宁波方正</t>
+  </si>
+  <si>
+    <t>主营业务为汽车塑料模具的研发、设计、制造。科技含量低，属于劳动密集型，毛利率低下。亮点就是创业板概念而且超低价超低市值发行，有炒作的潜质。</t>
+    <rPh sb="21" eb="22">
+      <t>ke j</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>han l</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>di</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2660w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐家</t>
+  </si>
+  <si>
+    <t>9000w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食品饮料企业，产品主要分为两大类：1、椰子汁植物蛋白饮料、果汁饮料、乳酸菌饮 料等饮料产品；2、水果罐头、八宝粥罐头等罐头食品。风险：应收账款较大。</t>
+    <rPh sb="0" eb="1">
+      <t>shi p</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yin l</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>qi y</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>feng x</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>ying s</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>zhang k</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>jiao da</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2210w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超捷股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主营业务是为大型集团企业提供管理信息化方案及 IT 综合服务。主 要面向石油、石化、建筑、地产及银行、保险领域客户，各大央企、龙头企业。风险：前5大客户占比很高。</t>
+    <rPh sb="58" eb="59">
+      <t>ge da</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>yang qi</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>long t</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>qi y</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>feng x</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>qian</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>da</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>ke hu</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>zhan bi</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>hen</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>gao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息技术</t>
+    <rPh sb="0" eb="1">
+      <t>xin x</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普联软件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣诺生物</t>
+  </si>
+  <si>
+    <t>多肽药物的质量控制水平接近于小分子化学药，活性接近于蛋白质类药物， 综合了两者的优点，在临床应用上和生产制备上体现了自己的优越性，具有高活 性、低剂量、低毒性等优点，适用于解决小分子化学药难以解决的复杂疾病。但 多肽药物但也存在生产成本高、给药不便的缺点。多肽药物规模化生产难度较大， 目前化学合成法是多肽药物规模化生产的主要途径。</t>
+  </si>
+  <si>
+    <t>主营业务为自主研发、生产和销售 在国内外具有较大市场容量及较强竞争力的多肽原料药和制剂产品。风险：关联交易多，研发能力低下，销售费用为研发费用10倍。</t>
+    <rPh sb="46" eb="47">
+      <t>feng x</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>xiao s</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>fei y</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>yan f</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>fei y</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>bei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000w</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1545,7 +2086,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1583,6 +2124,13 @@
       <color theme="1"/>
       <name val="DengXian"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1627,7 +2175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1655,6 +2203,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1960,10 +2514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N37"/>
+  <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="140" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="140" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2039,80 +2593,66 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:14" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4"/>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C4" s="7">
-        <v>605499</v>
+        <v>688117</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>146</v>
+        <v>192</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>147</v>
+        <v>194</v>
       </c>
       <c r="F4" s="2">
-        <v>22.99</v>
+        <v>27.7</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="H4" s="5">
-        <v>46.27</v>
-      </c>
-      <c r="I4" s="5">
-        <v>75</v>
-      </c>
-      <c r="J4" s="2">
-        <v>88</v>
-      </c>
-      <c r="K4" s="2">
-        <v>98</v>
-      </c>
-      <c r="L4" s="2">
-        <v>125</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+    </row>
+    <row r="5" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4"/>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C5" s="7">
-        <v>603836</v>
+        <v>300996</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>24</v>
+        <v>191</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>25</v>
+        <v>189</v>
       </c>
       <c r="F5" s="2">
-        <v>22.99</v>
+        <v>23.16</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>26</v>
+        <v>187</v>
       </c>
       <c r="H5" s="5">
-        <v>16.84</v>
+        <v>20.81</v>
       </c>
       <c r="I5" s="5">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="J5" s="2">
-        <v>25</v>
-      </c>
-      <c r="K5" s="2">
-        <v>30</v>
-      </c>
-      <c r="L5" s="2">
-        <v>50</v>
+        <v>39</v>
+      </c>
+      <c r="K5" s="6">
+        <v>51</v>
+      </c>
+      <c r="L5" s="6">
+        <v>79</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>27</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -2121,1175 +2661,1632 @@
         <v>17</v>
       </c>
       <c r="C6" s="7">
-        <v>300614</v>
+        <v>300997</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>13</v>
+        <v>184</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>16</v>
+        <v>186</v>
       </c>
       <c r="F6" s="2">
-        <v>11.78</v>
+        <v>12.76</v>
       </c>
       <c r="G6" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="H6" s="5">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="I6" s="5">
+        <v>15</v>
+      </c>
+      <c r="J6" s="2">
+        <v>11</v>
+      </c>
+      <c r="K6" s="6">
         <v>18</v>
       </c>
-      <c r="H6" s="5">
-        <v>9.19</v>
-      </c>
-      <c r="I6" s="5">
-        <v>20</v>
-      </c>
-      <c r="J6" s="2">
-        <v>19</v>
-      </c>
-      <c r="K6" s="6">
+      <c r="L6" s="6">
+        <v>30</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4"/>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="7">
+        <v>300998</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F7" s="2">
+        <v>16.940000000000001</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="H7" s="5">
+        <v>6.02</v>
+      </c>
+      <c r="I7" s="5">
         <v>25</v>
       </c>
-      <c r="L6" s="6">
-        <v>38</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="7">
-        <v>605090</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="2">
-        <v>20</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="5">
-        <v>34.57</v>
-      </c>
-      <c r="I7" s="5">
-        <v>37</v>
-      </c>
       <c r="J7" s="2">
-        <v>42</v>
-      </c>
-      <c r="K7" s="2">
-        <v>50</v>
-      </c>
-      <c r="L7" s="2">
-        <v>68</v>
+        <v>18.8</v>
+      </c>
+      <c r="K7" s="6">
+        <v>28</v>
+      </c>
+      <c r="L7" s="6">
+        <v>57</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4"/>
       <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="7">
-        <v>300992</v>
+        <v>301005</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>28</v>
+        <v>188</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>31</v>
+        <v>180</v>
       </c>
       <c r="F8" s="2">
-        <v>12.84</v>
+        <v>26.64</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>29</v>
+        <v>179</v>
       </c>
       <c r="H8" s="5">
-        <v>9.36</v>
+        <v>36.450000000000003</v>
       </c>
       <c r="I8" s="5">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="J8" s="2">
-        <v>33</v>
-      </c>
-      <c r="K8" s="2">
-        <v>38</v>
-      </c>
-      <c r="L8" s="2">
-        <v>65</v>
+        <v>52</v>
+      </c>
+      <c r="K8" s="6">
+        <v>70</v>
+      </c>
+      <c r="L8" s="6">
+        <v>105</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4"/>
       <c r="B9" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C9" s="7">
-        <v>300995</v>
+        <v>601528</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>32</v>
+        <v>176</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="2">
-        <v>17.52</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>34</v>
+        <v>178</v>
       </c>
       <c r="H9" s="5">
-        <v>14.72</v>
+        <v>8.1199999999999992</v>
       </c>
       <c r="I9" s="5">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="J9" s="2">
-        <v>36</v>
-      </c>
-      <c r="K9" s="2">
-        <v>42</v>
-      </c>
-      <c r="L9" s="2">
-        <v>65</v>
+        <v>10</v>
+      </c>
+      <c r="K9" s="6">
+        <v>12</v>
+      </c>
+      <c r="L9" s="6">
+        <v>16.600000000000001</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4"/>
       <c r="B10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="7">
+        <v>301003</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F10" s="2">
+        <v>32.01</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="H10" s="5">
+        <v>55.88</v>
+      </c>
+      <c r="I10" s="5">
+        <v>69</v>
+      </c>
+      <c r="J10" s="2">
+        <v>85</v>
+      </c>
+      <c r="K10" s="6">
+        <v>98</v>
+      </c>
+      <c r="L10" s="6">
+        <v>138</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4"/>
+      <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="7">
+        <v>605296</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F11" s="2">
+        <v>19.760000000000002</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="H11" s="5">
+        <v>56.08</v>
+      </c>
+      <c r="I11" s="5">
+        <v>38</v>
+      </c>
+      <c r="J11" s="2">
+        <v>50</v>
+      </c>
+      <c r="K11" s="6">
+        <v>68</v>
+      </c>
+      <c r="L11" s="6">
+        <v>95</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4"/>
+      <c r="B12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="7">
+        <v>301001</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F12" s="2">
+        <v>26.19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="H12" s="5">
+        <v>25.54</v>
+      </c>
+      <c r="I12" s="5">
+        <v>43</v>
+      </c>
+      <c r="J12" s="2">
+        <v>43</v>
+      </c>
+      <c r="K12" s="6">
+        <v>56</v>
+      </c>
+      <c r="L12" s="6">
+        <v>98</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4"/>
+      <c r="B13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="7">
+        <v>301000</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F13" s="2">
+        <v>35</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="H13" s="5">
+        <v>64.31</v>
+      </c>
+      <c r="I13" s="5">
+        <v>85</v>
+      </c>
+      <c r="J13" s="2">
+        <v>93</v>
+      </c>
+      <c r="K13" s="6">
+        <v>118</v>
+      </c>
+      <c r="L13" s="6">
+        <v>158</v>
+      </c>
+      <c r="M13" s="9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4"/>
+      <c r="B14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="7">
+        <v>605189</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F14" s="2">
+        <v>22.99</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H14" s="5">
+        <v>19.95</v>
+      </c>
+      <c r="I14" s="5">
+        <v>28</v>
+      </c>
+      <c r="J14" s="2">
+        <v>32</v>
+      </c>
+      <c r="K14" s="6">
+        <v>38</v>
+      </c>
+      <c r="L14" s="6">
+        <v>48</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="4"/>
+      <c r="B15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="7">
+        <v>688538</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H15" s="5">
+        <v>2.65</v>
+      </c>
+      <c r="I15" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="J15" s="2">
+        <v>2.23</v>
+      </c>
+      <c r="K15" s="6">
+        <v>5</v>
+      </c>
+      <c r="L15" s="6">
+        <v>8</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="7">
+        <v>605499</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F16" s="2">
+        <v>22.99</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H16" s="5">
+        <v>46.27</v>
+      </c>
+      <c r="I16" s="5">
+        <v>75</v>
+      </c>
+      <c r="J16" s="2">
+        <v>88</v>
+      </c>
+      <c r="K16" s="2">
+        <v>98</v>
+      </c>
+      <c r="L16" s="2">
+        <v>125</v>
+      </c>
+      <c r="M16" s="9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="7">
+        <v>603836</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="2">
+        <v>22.99</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" s="5">
+        <v>16.84</v>
+      </c>
+      <c r="I17" s="5">
+        <v>22</v>
+      </c>
+      <c r="J17" s="2">
+        <v>25</v>
+      </c>
+      <c r="K17" s="2">
+        <v>30</v>
+      </c>
+      <c r="L17" s="2">
+        <v>50</v>
+      </c>
+      <c r="M17" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4"/>
+      <c r="B18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="7">
+        <v>300614</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="2">
+        <v>11.78</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="5">
+        <v>9.19</v>
+      </c>
+      <c r="I18" s="5">
+        <v>20</v>
+      </c>
+      <c r="J18" s="2">
+        <v>19</v>
+      </c>
+      <c r="K18" s="6">
+        <v>25</v>
+      </c>
+      <c r="L18" s="6">
+        <v>38</v>
+      </c>
+      <c r="M18" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="7">
+        <v>605090</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="2">
+        <v>20</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="5">
+        <v>34.57</v>
+      </c>
+      <c r="I19" s="5">
+        <v>37</v>
+      </c>
+      <c r="J19" s="2">
+        <v>42</v>
+      </c>
+      <c r="K19" s="2">
+        <v>50</v>
+      </c>
+      <c r="L19" s="2">
+        <v>68</v>
+      </c>
+      <c r="M19" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="7">
+        <v>300992</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="2">
+        <v>12.84</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" s="5">
+        <v>9.36</v>
+      </c>
+      <c r="I20" s="5">
+        <v>28</v>
+      </c>
+      <c r="J20" s="2">
+        <v>33</v>
+      </c>
+      <c r="K20" s="2">
+        <v>38</v>
+      </c>
+      <c r="L20" s="2">
+        <v>65</v>
+      </c>
+      <c r="M20" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="7">
+        <v>300995</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="2">
+        <v>17.52</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H21" s="5">
+        <v>14.72</v>
+      </c>
+      <c r="I21" s="5">
+        <v>29</v>
+      </c>
+      <c r="J21" s="2">
+        <v>36</v>
+      </c>
+      <c r="K21" s="2">
+        <v>42</v>
+      </c>
+      <c r="L21" s="2">
+        <v>65</v>
+      </c>
+      <c r="M21" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="7">
         <v>300993</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D22" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F22" s="2">
         <v>16.45</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H22" s="5">
         <v>12.1</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I22" s="5">
         <v>21</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J22" s="2">
         <v>23</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K22" s="2">
         <v>30</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L22" s="2">
         <v>58</v>
       </c>
-      <c r="M10" s="9" t="s">
+      <c r="M22" s="9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="2" t="s">
+    <row r="23" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C23" s="7">
         <v>688359</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D23" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F23" s="2">
         <v>22.3</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H23" s="5">
         <v>11.03</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I23" s="5">
         <v>20</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J23" s="2">
         <v>25</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K23" s="2">
         <v>29</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L23" s="2">
         <v>48</v>
       </c>
-      <c r="M11" s="9" t="s">
+      <c r="M23" s="9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="7">
-        <v>688613</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="2">
-        <v>26.6</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H12" s="5">
-        <v>16.43</v>
-      </c>
-      <c r="I12" s="5">
-        <v>35</v>
-      </c>
-      <c r="J12" s="2">
-        <v>34</v>
-      </c>
-      <c r="K12" s="2">
-        <v>48</v>
-      </c>
-      <c r="L12" s="2">
-        <v>78</v>
-      </c>
-      <c r="M12" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="7">
-        <v>600905</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" s="2">
-        <v>28.87</v>
-      </c>
-      <c r="H13" s="5">
-        <v>2.65</v>
-      </c>
-      <c r="I13" s="5">
-        <v>5</v>
-      </c>
-      <c r="J13" s="2">
-        <v>3.5</v>
-      </c>
-      <c r="K13" s="2">
-        <v>5.8</v>
-      </c>
-      <c r="L13" s="2">
-        <v>8</v>
-      </c>
-      <c r="M13" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="7">
-        <v>688076</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" s="2">
-        <v>35.130000000000003</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H14" s="5">
-        <v>15.57</v>
-      </c>
-      <c r="I14" s="5">
-        <v>21</v>
-      </c>
-      <c r="J14" s="2">
-        <v>24</v>
-      </c>
-      <c r="K14" s="2">
-        <v>28</v>
-      </c>
-      <c r="L14" s="2">
-        <v>43</v>
-      </c>
-      <c r="M14" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="7">
-        <v>300991</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F15" s="2">
-        <v>13.06</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H15" s="5">
-        <v>13.06</v>
-      </c>
-      <c r="L15" s="2">
-        <v>56</v>
-      </c>
-      <c r="M15" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="7">
-        <v>688314</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F16" s="2">
-        <v>22.17</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H16" s="5">
-        <v>17.34</v>
-      </c>
-      <c r="I16" s="5">
-        <v>48</v>
-      </c>
-      <c r="J16" s="2">
-        <v>52</v>
-      </c>
-      <c r="K16" s="2">
-        <v>60</v>
-      </c>
-      <c r="L16" s="2">
-        <v>108</v>
-      </c>
-      <c r="M16" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="7">
-        <v>688660</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F17" s="2">
-        <v>23.99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="H17" s="5">
-        <v>5.44</v>
-      </c>
-      <c r="I17" s="5">
-        <v>11.3</v>
-      </c>
-      <c r="J17" s="2">
-        <v>11.3</v>
-      </c>
-      <c r="K17" s="2">
-        <v>18</v>
-      </c>
-      <c r="L17" s="2">
-        <v>28</v>
-      </c>
-      <c r="M17" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="7">
-        <v>688575</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F18" s="2">
-        <v>31.96</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="H18" s="5">
-        <v>14.8</v>
-      </c>
-      <c r="L18" s="2">
-        <v>38</v>
-      </c>
-      <c r="M18" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F19" s="2">
-        <v>22.99</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="H19" s="5">
-        <v>44.6</v>
-      </c>
-      <c r="L19" s="2">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="7">
-        <v>605339</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F20" s="2">
-        <v>22.99</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H20" s="5">
-        <v>16.98</v>
-      </c>
-      <c r="L20" s="2">
-        <v>59</v>
-      </c>
-      <c r="M20" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="7">
-        <v>688565</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F21" s="2">
-        <v>19.48</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="H21" s="5">
-        <v>9.39</v>
-      </c>
-      <c r="I21" s="5">
-        <v>18.7</v>
-      </c>
-      <c r="J21" s="2">
-        <v>23</v>
-      </c>
-      <c r="K21" s="2">
-        <v>28</v>
-      </c>
-      <c r="L21" s="2">
-        <v>47</v>
-      </c>
-      <c r="M21" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="7">
-        <v>688217</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F22" s="2">
-        <v>29.89</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="H22" s="5">
-        <v>18.420000000000002</v>
-      </c>
-      <c r="I22" s="5">
-        <v>36</v>
-      </c>
-      <c r="J22" s="2">
-        <v>45</v>
-      </c>
-      <c r="K22" s="2">
-        <v>54</v>
-      </c>
-      <c r="L22" s="2">
-        <v>90</v>
-      </c>
-      <c r="M22" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="7">
-        <v>605488</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F23" s="2">
-        <v>22.99</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="H23" s="5">
-        <v>20.43</v>
-      </c>
-      <c r="I23" s="5">
-        <v>25</v>
-      </c>
-      <c r="J23" s="2">
-        <v>33</v>
-      </c>
-      <c r="K23" s="2">
-        <v>38</v>
-      </c>
-      <c r="L23" s="2">
-        <v>58</v>
-      </c>
-      <c r="M23" s="9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C24" s="7">
-        <v>688685</v>
+        <v>688613</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="F24" s="2">
-        <v>22.83</v>
+        <v>26.6</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="H24" s="5">
-        <v>9.02</v>
+        <v>16.43</v>
       </c>
       <c r="I24" s="5">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="J24" s="2">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K24" s="2">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="L24" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="M24" s="9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="7">
+        <v>600905</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F25" s="2">
+        <v>28.87</v>
+      </c>
+      <c r="H25" s="5">
+        <v>2.65</v>
+      </c>
+      <c r="I25" s="5">
+        <v>5</v>
+      </c>
+      <c r="J25" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="K25" s="2">
+        <v>5.8</v>
+      </c>
+      <c r="L25" s="2">
+        <v>8</v>
+      </c>
+      <c r="M25" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="7">
-        <v>688355</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F25" s="2">
-        <v>22.95</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="H25" s="5">
-        <v>17.649999999999999</v>
-      </c>
-      <c r="I25" s="5">
+      <c r="C26" s="7">
+        <v>688076</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" s="2">
+        <v>35.130000000000003</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H26" s="5">
+        <v>15.57</v>
+      </c>
+      <c r="I26" s="5">
+        <v>21</v>
+      </c>
+      <c r="J26" s="2">
+        <v>24</v>
+      </c>
+      <c r="K26" s="2">
         <v>28</v>
       </c>
-      <c r="J25" s="2">
-        <v>33</v>
-      </c>
-      <c r="K25" s="2">
-        <v>38</v>
-      </c>
-      <c r="L25" s="2">
-        <v>65</v>
-      </c>
-      <c r="M25" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F26" s="2">
-        <v>17.78</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="H26" s="5">
-        <v>16.52</v>
-      </c>
-      <c r="I26" s="5">
-        <v>25</v>
-      </c>
-      <c r="J26" s="2">
-        <v>33</v>
-      </c>
-      <c r="K26" s="2">
-        <v>38</v>
-      </c>
       <c r="L26" s="2">
+        <v>43</v>
+      </c>
+      <c r="M26" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="7">
+        <v>300991</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="M26" s="9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="2" t="s">
+      <c r="F27" s="2">
+        <v>13.06</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" s="5">
+        <v>13.06</v>
+      </c>
+      <c r="L27" s="2">
+        <v>56</v>
+      </c>
+      <c r="M27" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="7">
-        <v>688097</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F27" s="2">
-        <v>15.97</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="H27" s="5">
-        <v>11.27</v>
-      </c>
-      <c r="I27" s="5">
-        <v>18</v>
-      </c>
-      <c r="J27" s="2">
-        <v>15</v>
-      </c>
-      <c r="K27" s="2">
-        <v>23</v>
-      </c>
-      <c r="L27" s="2">
-        <v>35</v>
-      </c>
-      <c r="M27" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="N27" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="C28" s="7">
-        <v>605196</v>
+        <v>688314</v>
       </c>
       <c r="D28" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F28" s="2">
+        <v>22.17</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H28" s="5">
+        <v>17.34</v>
+      </c>
+      <c r="I28" s="5">
+        <v>48</v>
+      </c>
+      <c r="J28" s="2">
+        <v>52</v>
+      </c>
+      <c r="K28" s="2">
+        <v>60</v>
+      </c>
+      <c r="L28" s="2">
         <v>108</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F28" s="2">
-        <v>21.09</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="H28" s="5">
-        <v>5.05</v>
-      </c>
-      <c r="I28" s="5">
-        <v>12</v>
-      </c>
-      <c r="J28" s="2">
-        <v>10</v>
-      </c>
-      <c r="K28" s="2">
-        <v>15</v>
-      </c>
-      <c r="L28" s="2">
-        <v>23</v>
-      </c>
       <c r="M28" s="9" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C29" s="7">
-        <v>688655</v>
+        <v>688660</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>113</v>
+        <v>64</v>
       </c>
       <c r="F29" s="2">
-        <v>20.350000000000001</v>
+        <v>23.99</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="H29" s="5">
-        <v>7.59</v>
+        <v>5.44</v>
       </c>
       <c r="I29" s="5">
+        <v>11.3</v>
+      </c>
+      <c r="J29" s="2">
+        <v>11.3</v>
+      </c>
+      <c r="K29" s="2">
         <v>18</v>
       </c>
-      <c r="J29" s="2">
-        <v>20</v>
-      </c>
-      <c r="K29" s="2">
-        <v>25</v>
-      </c>
       <c r="L29" s="2">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="M29" s="9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C30" s="7">
-        <v>300987</v>
+        <v>688575</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>116</v>
+        <v>67</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>118</v>
+        <v>68</v>
       </c>
       <c r="F30" s="2">
-        <v>18.420000000000002</v>
+        <v>31.96</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>117</v>
+        <v>69</v>
       </c>
       <c r="H30" s="5">
-        <v>6.79</v>
-      </c>
-      <c r="I30" s="5">
-        <v>25</v>
-      </c>
-      <c r="J30" s="2">
-        <v>23</v>
-      </c>
-      <c r="K30" s="2">
-        <v>28</v>
+        <v>14.8</v>
       </c>
       <c r="L30" s="2">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="M30" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" s="7">
-        <v>300990</v>
+        <v>72</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>71</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
       <c r="F31" s="2">
-        <v>36.270000000000003</v>
+        <v>22.99</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>122</v>
+        <v>73</v>
       </c>
       <c r="H31" s="5">
-        <v>85.5</v>
-      </c>
-      <c r="I31" s="5">
-        <v>86</v>
-      </c>
-      <c r="J31" s="2">
-        <v>115</v>
-      </c>
-      <c r="K31" s="2">
-        <v>128</v>
+        <v>44.6</v>
       </c>
       <c r="L31" s="2">
-        <v>153</v>
-      </c>
-      <c r="M31" s="9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C32" s="7">
-        <v>603511</v>
+        <v>605339</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>123</v>
+        <v>75</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>125</v>
+        <v>76</v>
       </c>
       <c r="F32" s="2">
-        <v>21.98</v>
+        <v>22.99</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="H32" s="5">
-        <v>20.99</v>
-      </c>
-      <c r="I32" s="5">
-        <v>25</v>
-      </c>
-      <c r="J32" s="2">
-        <v>30</v>
-      </c>
-      <c r="K32" s="2">
-        <v>38</v>
+        <v>16.98</v>
       </c>
       <c r="L32" s="2">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="M32" s="9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C33" s="7">
+        <v>688565</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F33" s="2">
+        <v>19.48</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H33" s="5">
+        <v>9.39</v>
+      </c>
+      <c r="I33" s="5">
+        <v>18.7</v>
+      </c>
+      <c r="J33" s="2">
+        <v>23</v>
+      </c>
+      <c r="K33" s="2">
+        <v>28</v>
+      </c>
+      <c r="L33" s="2">
+        <v>47</v>
+      </c>
+      <c r="M33" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="7">
+        <v>688217</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F34" s="2">
+        <v>29.89</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H34" s="5">
+        <v>18.420000000000002</v>
+      </c>
+      <c r="I34" s="5">
+        <v>36</v>
+      </c>
+      <c r="J34" s="2">
+        <v>45</v>
+      </c>
+      <c r="K34" s="2">
+        <v>54</v>
+      </c>
+      <c r="L34" s="2">
+        <v>90</v>
+      </c>
+      <c r="M34" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="7">
+        <v>605488</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F35" s="2">
+        <v>22.99</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H35" s="5">
+        <v>20.43</v>
+      </c>
+      <c r="I35" s="5">
+        <v>25</v>
+      </c>
+      <c r="J35" s="2">
+        <v>33</v>
+      </c>
+      <c r="K35" s="2">
+        <v>38</v>
+      </c>
+      <c r="L35" s="2">
+        <v>58</v>
+      </c>
+      <c r="M35" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="7">
+        <v>688685</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F36" s="2">
+        <v>22.83</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H36" s="5">
+        <v>9.02</v>
+      </c>
+      <c r="I36" s="5">
+        <v>30</v>
+      </c>
+      <c r="J36" s="2">
+        <v>36</v>
+      </c>
+      <c r="K36" s="2">
+        <v>45</v>
+      </c>
+      <c r="L36" s="2">
+        <v>72</v>
+      </c>
+      <c r="M36" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="7">
+        <v>688355</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F37" s="2">
+        <v>22.95</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H37" s="5">
+        <v>17.649999999999999</v>
+      </c>
+      <c r="I37" s="5">
+        <v>28</v>
+      </c>
+      <c r="J37" s="2">
+        <v>33</v>
+      </c>
+      <c r="K37" s="2">
+        <v>38</v>
+      </c>
+      <c r="L37" s="2">
+        <v>65</v>
+      </c>
+      <c r="M37" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F38" s="2">
+        <v>17.78</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H38" s="5">
+        <v>16.52</v>
+      </c>
+      <c r="I38" s="5">
+        <v>25</v>
+      </c>
+      <c r="J38" s="2">
+        <v>33</v>
+      </c>
+      <c r="K38" s="2">
+        <v>38</v>
+      </c>
+      <c r="L38" s="2">
+        <v>58</v>
+      </c>
+      <c r="M38" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" s="7">
+        <v>688097</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F39" s="2">
+        <v>15.97</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H39" s="5">
+        <v>11.27</v>
+      </c>
+      <c r="I39" s="5">
+        <v>18</v>
+      </c>
+      <c r="J39" s="2">
+        <v>15</v>
+      </c>
+      <c r="K39" s="2">
+        <v>23</v>
+      </c>
+      <c r="L39" s="2">
+        <v>35</v>
+      </c>
+      <c r="M39" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="7">
+        <v>605196</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F40" s="2">
+        <v>21.09</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H40" s="5">
+        <v>5.05</v>
+      </c>
+      <c r="I40" s="5">
+        <v>12</v>
+      </c>
+      <c r="J40" s="2">
+        <v>10</v>
+      </c>
+      <c r="K40" s="2">
+        <v>15</v>
+      </c>
+      <c r="L40" s="2">
+        <v>23</v>
+      </c>
+      <c r="M40" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" s="7">
+        <v>688655</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F41" s="2">
+        <v>20.350000000000001</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H41" s="5">
+        <v>7.59</v>
+      </c>
+      <c r="I41" s="5">
+        <v>18</v>
+      </c>
+      <c r="J41" s="2">
+        <v>20</v>
+      </c>
+      <c r="K41" s="2">
+        <v>25</v>
+      </c>
+      <c r="L41" s="2">
+        <v>37</v>
+      </c>
+      <c r="M41" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="7">
+        <v>300987</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F42" s="2">
+        <v>18.420000000000002</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H42" s="5">
+        <v>6.79</v>
+      </c>
+      <c r="I42" s="5">
+        <v>25</v>
+      </c>
+      <c r="J42" s="2">
+        <v>23</v>
+      </c>
+      <c r="K42" s="2">
+        <v>28</v>
+      </c>
+      <c r="L42" s="2">
+        <v>52</v>
+      </c>
+      <c r="M42" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="7">
+        <v>300990</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F43" s="2">
+        <v>36.270000000000003</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H43" s="5">
+        <v>85.5</v>
+      </c>
+      <c r="I43" s="5">
+        <v>86</v>
+      </c>
+      <c r="J43" s="2">
+        <v>115</v>
+      </c>
+      <c r="K43" s="2">
+        <v>128</v>
+      </c>
+      <c r="L43" s="2">
+        <v>153</v>
+      </c>
+      <c r="M43" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="7">
+        <v>603511</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F44" s="2">
+        <v>21.98</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="H44" s="5">
+        <v>20.99</v>
+      </c>
+      <c r="I44" s="5">
+        <v>25</v>
+      </c>
+      <c r="J44" s="2">
+        <v>30</v>
+      </c>
+      <c r="K44" s="2">
+        <v>38</v>
+      </c>
+      <c r="L44" s="2">
+        <v>45</v>
+      </c>
+      <c r="M44" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45" s="7">
         <v>688113</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D45" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E45" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F45" s="2">
         <v>17.309999999999999</v>
       </c>
-      <c r="G33" s="7" t="s">
+      <c r="G45" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="H33" s="5">
+      <c r="H45" s="5">
         <v>19.14</v>
       </c>
-      <c r="I33" s="5">
+      <c r="I45" s="5">
         <v>34</v>
       </c>
-      <c r="J33" s="2">
+      <c r="J45" s="2">
         <v>47</v>
       </c>
-      <c r="K33" s="2">
+      <c r="K45" s="2">
         <v>58</v>
       </c>
-      <c r="L33" s="2">
+      <c r="L45" s="2">
         <v>78</v>
       </c>
-      <c r="M33" s="9" t="s">
+      <c r="M45" s="9" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="34" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="2" t="s">
+    <row r="46" spans="2:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C46" s="7">
         <v>605305</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D46" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F46" s="2">
         <v>22.99</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="G46" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="H34" s="5">
+      <c r="H46" s="5">
         <v>37.94</v>
       </c>
-      <c r="I34" s="5">
+      <c r="I46" s="5">
         <v>45</v>
       </c>
-      <c r="J34" s="2">
+      <c r="J46" s="2">
         <v>54</v>
       </c>
-      <c r="K34" s="2">
+      <c r="K46" s="2">
         <v>65</v>
       </c>
-      <c r="L34" s="2">
+      <c r="L46" s="2">
         <v>82</v>
       </c>
-      <c r="M34" s="9" t="s">
+      <c r="M46" s="9" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="2:13" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="2" t="s">
+    <row r="47" spans="2:14" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C47" s="7">
         <v>300988</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D47" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E47" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F47" s="2">
         <v>32.729999999999997</v>
       </c>
-      <c r="G35" s="7" t="s">
+      <c r="G47" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="H35" s="5">
+      <c r="H47" s="5">
         <v>23.73</v>
       </c>
-      <c r="I35" s="5">
+      <c r="I47" s="5">
         <v>40</v>
       </c>
-      <c r="J35" s="2">
+      <c r="J47" s="2">
         <v>48</v>
       </c>
-      <c r="K35" s="2">
+      <c r="K47" s="2">
         <v>68</v>
       </c>
-      <c r="L35" s="2">
+      <c r="L47" s="2">
         <v>95</v>
       </c>
-      <c r="M35" s="9" t="s">
+      <c r="M47" s="9" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="36" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="2" t="s">
+    <row r="48" spans="2:14" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C48" s="7">
         <v>300989</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D48" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E48" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F48" s="2">
         <v>36.01</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="G48" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="H36" s="5">
+      <c r="H48" s="5">
         <v>51.62</v>
       </c>
-      <c r="I36" s="5">
+      <c r="I48" s="5">
         <v>58</v>
       </c>
-      <c r="J36" s="2">
+      <c r="J48" s="2">
         <v>66</v>
       </c>
-      <c r="K36" s="2">
+      <c r="K48" s="2">
         <v>83</v>
       </c>
-      <c r="L36" s="2">
+      <c r="L48" s="2">
         <v>116</v>
       </c>
-      <c r="M36" s="9" t="s">
+      <c r="M48" s="9" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="37" spans="2:13" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="2" t="s">
+    <row r="49" spans="2:13" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C49" s="7">
         <v>605080</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D49" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E49" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F49" s="2">
         <v>22.99</v>
       </c>
-      <c r="G37" s="7" t="s">
+      <c r="G49" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="H37" s="5">
+      <c r="H49" s="5">
         <v>31.16</v>
       </c>
-      <c r="I37" s="5">
+      <c r="I49" s="5">
         <v>45</v>
       </c>
-      <c r="J37" s="2">
+      <c r="J49" s="2">
         <v>60</v>
       </c>
-      <c r="K37" s="2">
+      <c r="K49" s="2">
         <v>70</v>
       </c>
-      <c r="L37" s="2">
+      <c r="L49" s="2">
         <v>80</v>
       </c>
-      <c r="M37" s="9" t="s">
+      <c r="M49" s="9" t="s">
         <v>145</v>
       </c>
     </row>
@@ -3307,4 +4304,34 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="74.1640625" style="11" customWidth="1"/>
+    <col min="2" max="16384" width="10.83203125" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="147" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="126" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>193</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/次新股.xlsx
+++ b/次新股.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1240" windowWidth="28560" windowHeight="16240"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="28560" windowHeight="16240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="223">
   <si>
     <t>个股代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2079,6 +2079,212 @@
   </si>
   <si>
     <t>2000w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2363w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主业是中、大功率LED驱动电源产品，属于基础建设大型LED的上游企业，民用不大。业绩比较稳定增长，公司亮点是植物照明业务从去年0.8营收干到Q1的1.1亿，高增长未来可期。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>崧盛股份</t>
+  </si>
+  <si>
+    <t>LED、光学光电子</t>
+    <rPh sb="4" eb="5">
+      <t>guang xue</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>guang dian z</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无锡振华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主营业务为汽车冲压及焊接零部件和相关模具，以及提供分拼总成加工服务。部分零部件为新能源车型使用。风险：客户集中度高，应收货款较大。</t>
+    <rPh sb="34" eb="35">
+      <t>bu f</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ling bu j</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>xin neng y</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>che x</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>shi y</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>feng x</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ke hu</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ji zhong</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>du</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>gao</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>ying s</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>huo k</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>jiao da</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15876w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东航物流</t>
+  </si>
+  <si>
+    <t>提供综合物流服务。作为民航“混改”第一家，概念不错，但航空物流成本太大，燃油有周期性，重资产，毛利率不高，竞争大。风险：航空燃油成本波动。</t>
+    <rPh sb="0" eb="1">
+      <t>ti g</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迈拓股份</t>
+  </si>
+  <si>
+    <t>研发智能超声水表和热量表系列产品，通过构建软硬件相结 合的一体化产品生态为智慧水务、节能供热提供系统解决方案。</t>
+    <rPh sb="0" eb="1">
+      <t>yan fa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仪表仪器</t>
+    <rPh sb="0" eb="1">
+      <t>yi biao yi qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3482w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呈和科技</t>
+  </si>
+  <si>
+    <t>主营产品成核剂、合成水滑石与复合助剂，主要是应用于高性能树脂材料的化工企业和改性塑料制造企业，处于高性能树脂及改性塑料制造行业的上游。技术、产品处于国内领先、国际先进的地位。逻辑是进口替代。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧林生物</t>
+  </si>
+  <si>
+    <t>4053w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疫苗研发企业。收入主要包括吸附破伤风疫苗和Hib结合疫苗的销售收入。</t>
+    <rPh sb="0" eb="1">
+      <t>yi miao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yan fa</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>qi y</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疫苗</t>
+    <rPh sb="0" eb="1">
+      <t>yi m</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皓元医药</t>
+  </si>
+  <si>
+    <t>主营业务为小分子药物发现领域的分子砌块和工具化合物的研发，以及小分子药物原料药、中间体的工艺开发和生产技术改进，但是科技含量比不上药石科技。</t>
+    <rPh sb="67" eb="68">
+      <t>ke j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凯立新材</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要从事贵金属催化剂的研发与生产、催化应用技术的研究开发、废旧贵金属 催化剂的回收及再加工等业务。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宏昌科技</t>
+  </si>
+  <si>
+    <t>主营业务为流体电磁阀、传感器及其他电器配件的研发，附属海尔、美的等大公司，市场占有率高</t>
+    <rPh sb="25" eb="26">
+      <t>fu s</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>hai er</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>mei d</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>deng</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>da</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>gong s</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>shi c</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>zhan you l</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>gao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白色家电</t>
+    <rPh sb="0" eb="1">
+      <t>bai s</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jia d</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2514,10 +2720,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N49"/>
+  <dimension ref="A1:N60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="140" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" zoomScale="140" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2595,65 +2801,13 @@
     </row>
     <row r="4" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
-      <c r="B4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="7">
-        <v>688117</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="F4" s="2">
-        <v>27.7</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>195</v>
-      </c>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
     </row>
     <row r="5" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="7">
-        <v>300996</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="F5" s="2">
-        <v>23.16</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="H5" s="5">
-        <v>20.81</v>
-      </c>
-      <c r="I5" s="5">
-        <v>34</v>
-      </c>
-      <c r="J5" s="2">
-        <v>39</v>
-      </c>
-      <c r="K5" s="6">
-        <v>51</v>
-      </c>
-      <c r="L5" s="6">
-        <v>79</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>190</v>
-      </c>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
     </row>
     <row r="6" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
@@ -2661,343 +2815,331 @@
         <v>17</v>
       </c>
       <c r="C6" s="7">
-        <v>300997</v>
+        <v>301008</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>184</v>
+        <v>220</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="F6" s="2">
-        <v>12.76</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="H6" s="5">
-        <v>4.9400000000000004</v>
+        <v>37.6</v>
       </c>
       <c r="I6" s="5">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="J6" s="2">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="K6" s="6">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="L6" s="6">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>148</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C7" s="7">
-        <v>300998</v>
+        <v>688269</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>181</v>
+        <v>218</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="F7" s="2">
-        <v>16.940000000000001</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>183</v>
+        <v>219</v>
       </c>
       <c r="H7" s="5">
-        <v>6.02</v>
+        <v>18.940000000000001</v>
       </c>
       <c r="I7" s="5">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J7" s="2">
-        <v>18.8</v>
+        <v>32</v>
       </c>
       <c r="K7" s="6">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="L7" s="6">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>160</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C8" s="7">
-        <v>301005</v>
+        <v>688131</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>188</v>
+        <v>216</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="F8" s="2">
-        <v>26.64</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="H8" s="5">
-        <v>36.450000000000003</v>
+        <v>64.989999999999995</v>
       </c>
       <c r="I8" s="5">
-        <v>43</v>
+        <v>108</v>
       </c>
       <c r="J8" s="2">
-        <v>52</v>
+        <v>135</v>
       </c>
       <c r="K8" s="6">
-        <v>70</v>
+        <v>148</v>
       </c>
       <c r="L8" s="6">
-        <v>105</v>
+        <v>243</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>160</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="2" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C9" s="7">
-        <v>601528</v>
+        <v>688319</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>176</v>
+        <v>212</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>178</v>
+        <v>214</v>
+      </c>
+      <c r="F9" s="2">
+        <v>146.44999999999999</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>213</v>
       </c>
       <c r="H9" s="5">
-        <v>8.1199999999999992</v>
+        <v>9.8800000000000008</v>
       </c>
       <c r="I9" s="5">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J9" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K9" s="6">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="L9" s="6">
-        <v>16.600000000000001</v>
+        <v>43</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>177</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C10" s="7">
-        <v>301003</v>
+        <v>688625</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>169</v>
+        <v>210</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>173</v>
+        <v>211</v>
       </c>
       <c r="F10" s="2">
-        <v>32.01</v>
+        <v>19.95</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>170</v>
+        <v>45</v>
       </c>
       <c r="H10" s="5">
-        <v>55.88</v>
+        <v>16.48</v>
       </c>
       <c r="I10" s="5">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="J10" s="2">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="K10" s="6">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="L10" s="6">
-        <v>138</v>
+        <v>60</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>174</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C11" s="7">
-        <v>605296</v>
+        <v>301006</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>165</v>
+        <v>206</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>168</v>
+        <v>207</v>
       </c>
       <c r="F11" s="2">
-        <v>19.760000000000002</v>
+        <v>12.61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>166</v>
+        <v>209</v>
       </c>
       <c r="H11" s="5">
-        <v>56.08</v>
+        <v>14.42</v>
       </c>
       <c r="I11" s="5">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="J11" s="2">
+        <v>29</v>
+      </c>
+      <c r="K11" s="6">
+        <v>33</v>
+      </c>
+      <c r="L11" s="6">
         <v>50</v>
       </c>
-      <c r="K11" s="6">
-        <v>68</v>
-      </c>
-      <c r="L11" s="6">
-        <v>95</v>
-      </c>
       <c r="M11" s="9" t="s">
-        <v>167</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C12" s="7">
-        <v>301001</v>
+        <v>601156</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>161</v>
+        <v>204</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>162</v>
+        <v>205</v>
       </c>
       <c r="F12" s="2">
-        <v>26.19</v>
+        <v>10.93</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>164</v>
+        <v>203</v>
       </c>
       <c r="H12" s="5">
-        <v>25.54</v>
+        <v>15.77</v>
       </c>
       <c r="I12" s="5">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="J12" s="2">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="K12" s="6">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="L12" s="6">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>163</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C13" s="7">
-        <v>301000</v>
+        <v>605319</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>157</v>
+        <v>200</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>159</v>
+        <v>202</v>
       </c>
       <c r="F13" s="2">
+        <v>22.98</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="H13" s="5">
+        <v>11.22</v>
+      </c>
+      <c r="I13" s="5">
+        <v>15</v>
+      </c>
+      <c r="J13" s="2">
+        <v>20</v>
+      </c>
+      <c r="K13" s="6">
+        <v>25</v>
+      </c>
+      <c r="L13" s="6">
         <v>35</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="H13" s="5">
-        <v>64.31</v>
-      </c>
-      <c r="I13" s="5">
-        <v>85</v>
-      </c>
-      <c r="J13" s="2">
-        <v>93</v>
-      </c>
-      <c r="K13" s="6">
-        <v>118</v>
-      </c>
-      <c r="L13" s="6">
-        <v>158</v>
-      </c>
       <c r="M13" s="9" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C14" s="7">
-        <v>605189</v>
+        <v>301002</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>155</v>
+        <v>198</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>153</v>
+        <v>197</v>
       </c>
       <c r="F14" s="2">
-        <v>22.99</v>
+        <v>18.12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>156</v>
+        <v>196</v>
       </c>
       <c r="H14" s="5">
-        <v>19.95</v>
+        <v>18.71</v>
       </c>
       <c r="I14" s="5">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="J14" s="2">
         <v>32</v>
       </c>
       <c r="K14" s="6">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="L14" s="6">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>154</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -3006,110 +3148,99 @@
         <v>41</v>
       </c>
       <c r="C15" s="7">
-        <v>688538</v>
+        <v>688117</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>150</v>
+        <v>192</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>172</v>
+        <v>194</v>
+      </c>
+      <c r="F15" s="2">
+        <v>27.7</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="H15" s="5">
-        <v>2.65</v>
-      </c>
-      <c r="I15" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="J15" s="2">
-        <v>2.23</v>
-      </c>
-      <c r="K15" s="6">
-        <v>5</v>
-      </c>
-      <c r="L15" s="6">
-        <v>8</v>
-      </c>
-      <c r="M15" s="9" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+    </row>
+    <row r="16" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="4"/>
       <c r="B16" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C16" s="7">
-        <v>605499</v>
+        <v>300996</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>146</v>
+        <v>191</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>147</v>
+        <v>189</v>
       </c>
       <c r="F16" s="2">
-        <v>22.99</v>
+        <v>23.16</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>149</v>
+        <v>187</v>
       </c>
       <c r="H16" s="5">
-        <v>46.27</v>
+        <v>20.81</v>
       </c>
       <c r="I16" s="5">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="J16" s="2">
-        <v>88</v>
-      </c>
-      <c r="K16" s="2">
-        <v>98</v>
-      </c>
-      <c r="L16" s="2">
-        <v>125</v>
+        <v>39</v>
+      </c>
+      <c r="K16" s="6">
+        <v>51</v>
+      </c>
+      <c r="L16" s="6">
+        <v>79</v>
       </c>
       <c r="M16" s="9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4"/>
+      <c r="B17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="7">
+        <v>300997</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F17" s="2">
+        <v>12.76</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="H17" s="5">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="I17" s="5">
+        <v>15</v>
+      </c>
+      <c r="J17" s="2">
+        <v>11</v>
+      </c>
+      <c r="K17" s="6">
+        <v>18</v>
+      </c>
+      <c r="L17" s="6">
+        <v>30</v>
+      </c>
+      <c r="M17" s="9" t="s">
         <v>148</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="7">
-        <v>603836</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" s="2">
-        <v>22.99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H17" s="5">
-        <v>16.84</v>
-      </c>
-      <c r="I17" s="5">
-        <v>22</v>
-      </c>
-      <c r="J17" s="2">
-        <v>25</v>
-      </c>
-      <c r="K17" s="2">
-        <v>30</v>
-      </c>
-      <c r="L17" s="2">
-        <v>50</v>
-      </c>
-      <c r="M17" s="9" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -3118,1175 +3249,1593 @@
         <v>17</v>
       </c>
       <c r="C18" s="7">
-        <v>300614</v>
+        <v>300998</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>13</v>
+        <v>181</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>16</v>
+        <v>182</v>
       </c>
       <c r="F18" s="2">
-        <v>11.78</v>
+        <v>16.940000000000001</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>18</v>
+        <v>183</v>
       </c>
       <c r="H18" s="5">
-        <v>9.19</v>
+        <v>6.02</v>
       </c>
       <c r="I18" s="5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J18" s="2">
-        <v>19</v>
+        <v>18.8</v>
       </c>
       <c r="K18" s="6">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="L18" s="6">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="M18" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="4"/>
       <c r="B19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="7">
+        <v>301005</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F19" s="2">
+        <v>26.64</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="H19" s="5">
+        <v>36.450000000000003</v>
+      </c>
+      <c r="I19" s="5">
+        <v>43</v>
+      </c>
+      <c r="J19" s="2">
+        <v>52</v>
+      </c>
+      <c r="K19" s="6">
+        <v>70</v>
+      </c>
+      <c r="L19" s="6">
+        <v>105</v>
+      </c>
+      <c r="M19" s="9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="4"/>
+      <c r="B20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="7">
-        <v>605090</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="2">
-        <v>20</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H19" s="5">
-        <v>34.57</v>
-      </c>
-      <c r="I19" s="5">
-        <v>37</v>
-      </c>
-      <c r="J19" s="2">
-        <v>42</v>
-      </c>
-      <c r="K19" s="2">
-        <v>50</v>
-      </c>
-      <c r="L19" s="2">
-        <v>68</v>
-      </c>
-      <c r="M19" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="43" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="C20" s="7">
-        <v>300992</v>
+        <v>601528</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>28</v>
+        <v>176</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F20" s="2">
-        <v>12.84</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>29</v>
+        <v>178</v>
       </c>
       <c r="H20" s="5">
-        <v>9.36</v>
+        <v>8.1199999999999992</v>
       </c>
       <c r="I20" s="5">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="J20" s="2">
-        <v>33</v>
-      </c>
-      <c r="K20" s="2">
-        <v>38</v>
-      </c>
-      <c r="L20" s="2">
-        <v>65</v>
+        <v>10</v>
+      </c>
+      <c r="K20" s="6">
+        <v>12</v>
+      </c>
+      <c r="L20" s="6">
+        <v>16.600000000000001</v>
       </c>
       <c r="M20" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="4"/>
       <c r="B21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="7">
-        <v>300995</v>
+        <v>301003</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>32</v>
+        <v>169</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>33</v>
+        <v>173</v>
       </c>
       <c r="F21" s="2">
-        <v>17.52</v>
+        <v>32.01</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="H21" s="5">
-        <v>14.72</v>
+        <v>55.88</v>
       </c>
       <c r="I21" s="5">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="J21" s="2">
-        <v>36</v>
-      </c>
-      <c r="K21" s="2">
-        <v>42</v>
-      </c>
-      <c r="L21" s="2">
-        <v>65</v>
+        <v>85</v>
+      </c>
+      <c r="K21" s="6">
+        <v>98</v>
+      </c>
+      <c r="L21" s="6">
+        <v>138</v>
       </c>
       <c r="M21" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="4"/>
+      <c r="B22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="7">
+        <v>605296</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F22" s="2">
+        <v>19.760000000000002</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="H22" s="5">
+        <v>56.08</v>
+      </c>
+      <c r="I22" s="5">
         <v>38</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="2" t="s">
+      <c r="J22" s="2">
+        <v>50</v>
+      </c>
+      <c r="K22" s="6">
+        <v>68</v>
+      </c>
+      <c r="L22" s="6">
+        <v>95</v>
+      </c>
+      <c r="M22" s="9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="4"/>
+      <c r="B23" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="7">
-        <v>300993</v>
-      </c>
-      <c r="D22" s="9" t="s">
+      <c r="C23" s="7">
+        <v>301001</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F23" s="2">
+        <v>26.19</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="H23" s="5">
+        <v>25.54</v>
+      </c>
+      <c r="I23" s="5">
+        <v>43</v>
+      </c>
+      <c r="J23" s="2">
+        <v>43</v>
+      </c>
+      <c r="K23" s="6">
+        <v>56</v>
+      </c>
+      <c r="L23" s="6">
+        <v>98</v>
+      </c>
+      <c r="M23" s="9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="4"/>
+      <c r="B24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="7">
+        <v>301000</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F24" s="2">
         <v>35</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F22" s="2">
-        <v>16.45</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H22" s="5">
-        <v>12.1</v>
-      </c>
-      <c r="I22" s="5">
-        <v>21</v>
-      </c>
-      <c r="J22" s="2">
-        <v>23</v>
-      </c>
-      <c r="K22" s="2">
-        <v>30</v>
-      </c>
-      <c r="L22" s="2">
-        <v>58</v>
-      </c>
-      <c r="M22" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="7">
-        <v>688359</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F23" s="2">
-        <v>22.3</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H23" s="5">
-        <v>11.03</v>
-      </c>
-      <c r="I23" s="5">
-        <v>20</v>
-      </c>
-      <c r="J23" s="2">
-        <v>25</v>
-      </c>
-      <c r="K23" s="2">
-        <v>29</v>
-      </c>
-      <c r="L23" s="2">
-        <v>48</v>
-      </c>
-      <c r="M23" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="7">
-        <v>688613</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F24" s="2">
-        <v>26.6</v>
-      </c>
       <c r="G24" s="7" t="s">
-        <v>45</v>
+        <v>158</v>
       </c>
       <c r="H24" s="5">
-        <v>16.43</v>
+        <v>64.31</v>
       </c>
       <c r="I24" s="5">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="J24" s="2">
-        <v>34</v>
-      </c>
-      <c r="K24" s="2">
-        <v>48</v>
-      </c>
-      <c r="L24" s="2">
-        <v>78</v>
+        <v>93</v>
+      </c>
+      <c r="K24" s="6">
+        <v>118</v>
+      </c>
+      <c r="L24" s="6">
+        <v>158</v>
       </c>
       <c r="M24" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="4"/>
       <c r="B25" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C25" s="7">
-        <v>600905</v>
+        <v>605189</v>
       </c>
       <c r="D25" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F25" s="2">
+        <v>22.99</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H25" s="5">
+        <v>19.95</v>
+      </c>
+      <c r="I25" s="5">
+        <v>28</v>
+      </c>
+      <c r="J25" s="2">
+        <v>32</v>
+      </c>
+      <c r="K25" s="6">
+        <v>38</v>
+      </c>
+      <c r="L25" s="6">
         <v>48</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F25" s="2">
-        <v>28.87</v>
-      </c>
-      <c r="H25" s="5">
-        <v>2.65</v>
-      </c>
-      <c r="I25" s="5">
-        <v>5</v>
-      </c>
-      <c r="J25" s="2">
-        <v>3.5</v>
-      </c>
-      <c r="K25" s="2">
-        <v>5.8</v>
-      </c>
-      <c r="L25" s="2">
-        <v>8</v>
-      </c>
       <c r="M25" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="4"/>
       <c r="B26" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C26" s="7">
-        <v>688076</v>
+        <v>688538</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>51</v>
+        <v>150</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F26" s="2">
-        <v>35.130000000000003</v>
+        <v>172</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>52</v>
+        <v>151</v>
       </c>
       <c r="H26" s="5">
-        <v>15.57</v>
+        <v>2.65</v>
       </c>
       <c r="I26" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="J26" s="2">
+        <v>2.23</v>
+      </c>
+      <c r="K26" s="6">
+        <v>5</v>
+      </c>
+      <c r="L26" s="6">
+        <v>8</v>
+      </c>
+      <c r="M26" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="7">
+        <v>605499</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F27" s="2">
+        <v>22.99</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H27" s="5">
+        <v>46.27</v>
+      </c>
+      <c r="I27" s="5">
+        <v>75</v>
+      </c>
+      <c r="J27" s="2">
+        <v>88</v>
+      </c>
+      <c r="K27" s="2">
+        <v>98</v>
+      </c>
+      <c r="L27" s="2">
+        <v>125</v>
+      </c>
+      <c r="M27" s="9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="7">
+        <v>603836</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" s="2">
+        <v>22.99</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H28" s="5">
+        <v>16.84</v>
+      </c>
+      <c r="I28" s="5">
+        <v>22</v>
+      </c>
+      <c r="J28" s="2">
+        <v>25</v>
+      </c>
+      <c r="K28" s="2">
+        <v>30</v>
+      </c>
+      <c r="L28" s="2">
+        <v>50</v>
+      </c>
+      <c r="M28" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="4"/>
+      <c r="B29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="7">
+        <v>300614</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="2">
+        <v>11.78</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29" s="5">
+        <v>9.19</v>
+      </c>
+      <c r="I29" s="5">
+        <v>20</v>
+      </c>
+      <c r="J29" s="2">
+        <v>19</v>
+      </c>
+      <c r="K29" s="6">
+        <v>25</v>
+      </c>
+      <c r="L29" s="6">
+        <v>38</v>
+      </c>
+      <c r="M29" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="7">
+        <v>605090</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" s="2">
+        <v>20</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H30" s="5">
+        <v>34.57</v>
+      </c>
+      <c r="I30" s="5">
+        <v>37</v>
+      </c>
+      <c r="J30" s="2">
+        <v>42</v>
+      </c>
+      <c r="K30" s="2">
+        <v>50</v>
+      </c>
+      <c r="L30" s="2">
+        <v>68</v>
+      </c>
+      <c r="M30" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="J26" s="2">
-        <v>24</v>
-      </c>
-      <c r="K26" s="2">
+    </row>
+    <row r="31" spans="1:13" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="7">
+        <v>300992</v>
+      </c>
+      <c r="D31" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="L26" s="2">
-        <v>43</v>
-      </c>
-      <c r="M26" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="2" t="s">
+      <c r="E31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F31" s="2">
+        <v>12.84</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H31" s="5">
+        <v>9.36</v>
+      </c>
+      <c r="I31" s="5">
+        <v>28</v>
+      </c>
+      <c r="J31" s="2">
+        <v>33</v>
+      </c>
+      <c r="K31" s="2">
+        <v>38</v>
+      </c>
+      <c r="L31" s="2">
+        <v>65</v>
+      </c>
+      <c r="M31" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="7">
-        <v>300991</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F27" s="2">
-        <v>13.06</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H27" s="5">
-        <v>13.06</v>
-      </c>
-      <c r="L27" s="2">
-        <v>56</v>
-      </c>
-      <c r="M27" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="7">
-        <v>688314</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F28" s="2">
-        <v>22.17</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H28" s="5">
-        <v>17.34</v>
-      </c>
-      <c r="I28" s="5">
-        <v>48</v>
-      </c>
-      <c r="J28" s="2">
-        <v>52</v>
-      </c>
-      <c r="K28" s="2">
-        <v>60</v>
-      </c>
-      <c r="L28" s="2">
-        <v>108</v>
-      </c>
-      <c r="M28" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="7">
-        <v>688660</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F29" s="2">
-        <v>23.99</v>
-      </c>
-      <c r="G29" s="7" t="s">
+      <c r="C32" s="7">
+        <v>300995</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F32" s="2">
+        <v>17.52</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H32" s="5">
+        <v>14.72</v>
+      </c>
+      <c r="I32" s="5">
+        <v>29</v>
+      </c>
+      <c r="J32" s="2">
+        <v>36</v>
+      </c>
+      <c r="K32" s="2">
+        <v>42</v>
+      </c>
+      <c r="L32" s="2">
         <v>65</v>
       </c>
-      <c r="H29" s="5">
-        <v>5.44</v>
-      </c>
-      <c r="I29" s="5">
-        <v>11.3</v>
-      </c>
-      <c r="J29" s="2">
-        <v>11.3</v>
-      </c>
-      <c r="K29" s="2">
-        <v>18</v>
-      </c>
-      <c r="L29" s="2">
-        <v>28</v>
-      </c>
-      <c r="M29" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" s="7">
-        <v>688575</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F30" s="2">
-        <v>31.96</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="H30" s="5">
-        <v>14.8</v>
-      </c>
-      <c r="L30" s="2">
+      <c r="M32" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="M30" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F31" s="2">
-        <v>22.99</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="H31" s="5">
-        <v>44.6</v>
-      </c>
-      <c r="L31" s="2">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="7">
-        <v>605339</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F32" s="2">
-        <v>22.99</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H32" s="5">
-        <v>16.98</v>
-      </c>
-      <c r="L32" s="2">
-        <v>59</v>
-      </c>
-      <c r="M32" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="2:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C33" s="7">
-        <v>688565</v>
+        <v>300993</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="F33" s="2">
-        <v>19.48</v>
+        <v>16.45</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="H33" s="5">
-        <v>9.39</v>
+        <v>12.1</v>
       </c>
       <c r="I33" s="5">
-        <v>18.7</v>
+        <v>21</v>
       </c>
       <c r="J33" s="2">
         <v>23</v>
       </c>
       <c r="K33" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L33" s="2">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="M33" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C34" s="7">
-        <v>688217</v>
+        <v>688359</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="F34" s="2">
-        <v>29.89</v>
+        <v>22.3</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="H34" s="5">
-        <v>18.420000000000002</v>
+        <v>11.03</v>
       </c>
       <c r="I34" s="5">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="J34" s="2">
+        <v>25</v>
+      </c>
+      <c r="K34" s="2">
+        <v>29</v>
+      </c>
+      <c r="L34" s="2">
+        <v>48</v>
+      </c>
+      <c r="M34" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="7">
+        <v>688613</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F35" s="2">
+        <v>26.6</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K34" s="2">
-        <v>54</v>
-      </c>
-      <c r="L34" s="2">
-        <v>90</v>
-      </c>
-      <c r="M34" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="2" t="s">
+      <c r="H35" s="5">
+        <v>16.43</v>
+      </c>
+      <c r="I35" s="5">
+        <v>35</v>
+      </c>
+      <c r="J35" s="2">
+        <v>34</v>
+      </c>
+      <c r="K35" s="2">
+        <v>48</v>
+      </c>
+      <c r="L35" s="2">
+        <v>78</v>
+      </c>
+      <c r="M35" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C35" s="7">
-        <v>605488</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F35" s="2">
-        <v>22.99</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="H35" s="5">
-        <v>20.43</v>
-      </c>
-      <c r="I35" s="5">
-        <v>25</v>
-      </c>
-      <c r="J35" s="2">
-        <v>33</v>
-      </c>
-      <c r="K35" s="2">
-        <v>38</v>
-      </c>
-      <c r="L35" s="2">
-        <v>58</v>
-      </c>
-      <c r="M35" s="9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="C36" s="7">
-        <v>688685</v>
+        <v>600905</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="F36" s="2">
-        <v>22.83</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>93</v>
+        <v>28.87</v>
       </c>
       <c r="H36" s="5">
-        <v>9.02</v>
+        <v>2.65</v>
       </c>
       <c r="I36" s="5">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="J36" s="2">
-        <v>36</v>
+        <v>3.5</v>
       </c>
       <c r="K36" s="2">
-        <v>45</v>
+        <v>5.8</v>
       </c>
       <c r="L36" s="2">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="M36" s="9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C37" s="7">
-        <v>688355</v>
+        <v>688076</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="F37" s="2">
-        <v>22.95</v>
+        <v>35.130000000000003</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="H37" s="5">
-        <v>17.649999999999999</v>
+        <v>15.57</v>
       </c>
       <c r="I37" s="5">
+        <v>21</v>
+      </c>
+      <c r="J37" s="2">
+        <v>24</v>
+      </c>
+      <c r="K37" s="2">
         <v>28</v>
       </c>
-      <c r="J37" s="2">
-        <v>33</v>
-      </c>
-      <c r="K37" s="2">
-        <v>38</v>
-      </c>
       <c r="L37" s="2">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>100</v>
+        <v>17</v>
+      </c>
+      <c r="C38" s="7">
+        <v>300991</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="F38" s="2">
-        <v>17.78</v>
+        <v>13.06</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="H38" s="5">
-        <v>16.52</v>
-      </c>
-      <c r="I38" s="5">
-        <v>25</v>
-      </c>
-      <c r="J38" s="2">
-        <v>33</v>
-      </c>
-      <c r="K38" s="2">
-        <v>38</v>
+        <v>13.06</v>
       </c>
       <c r="L38" s="2">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M38" s="9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C39" s="7">
-        <v>688097</v>
+        <v>688314</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="F39" s="2">
-        <v>15.97</v>
+        <v>22.17</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="H39" s="5">
-        <v>11.27</v>
+        <v>17.34</v>
       </c>
       <c r="I39" s="5">
+        <v>48</v>
+      </c>
+      <c r="J39" s="2">
+        <v>52</v>
+      </c>
+      <c r="K39" s="2">
+        <v>60</v>
+      </c>
+      <c r="L39" s="2">
+        <v>108</v>
+      </c>
+      <c r="M39" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="7">
+        <v>688660</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F40" s="2">
+        <v>23.99</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H40" s="5">
+        <v>5.44</v>
+      </c>
+      <c r="I40" s="5">
+        <v>11.3</v>
+      </c>
+      <c r="J40" s="2">
+        <v>11.3</v>
+      </c>
+      <c r="K40" s="2">
         <v>18</v>
       </c>
-      <c r="J39" s="2">
-        <v>15</v>
-      </c>
-      <c r="K39" s="2">
-        <v>23</v>
-      </c>
-      <c r="L39" s="2">
-        <v>35</v>
-      </c>
-      <c r="M39" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="N39" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="40" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C40" s="7">
-        <v>605196</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F40" s="2">
-        <v>21.09</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="H40" s="5">
-        <v>5.05</v>
-      </c>
-      <c r="I40" s="5">
-        <v>12</v>
-      </c>
-      <c r="J40" s="2">
-        <v>10</v>
-      </c>
-      <c r="K40" s="2">
-        <v>15</v>
-      </c>
       <c r="L40" s="2">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M40" s="9" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="41" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C41" s="7">
-        <v>688655</v>
+        <v>688575</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>112</v>
+        <v>67</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="F41" s="2">
-        <v>20.350000000000001</v>
+        <v>31.96</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="H41" s="5">
-        <v>7.59</v>
-      </c>
-      <c r="I41" s="5">
-        <v>18</v>
-      </c>
-      <c r="J41" s="2">
-        <v>20</v>
-      </c>
-      <c r="K41" s="2">
-        <v>25</v>
+        <v>14.8</v>
       </c>
       <c r="L41" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M41" s="9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C42" s="7">
-        <v>300987</v>
+        <v>72</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>71</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>116</v>
+        <v>70</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="F42" s="2">
-        <v>18.420000000000002</v>
+        <v>22.99</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="H42" s="5">
-        <v>6.79</v>
-      </c>
-      <c r="I42" s="5">
-        <v>25</v>
-      </c>
-      <c r="J42" s="2">
+        <v>44.6</v>
+      </c>
+      <c r="L42" s="2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="7">
+        <v>605339</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F43" s="2">
+        <v>22.99</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H43" s="5">
+        <v>16.98</v>
+      </c>
+      <c r="L43" s="2">
+        <v>59</v>
+      </c>
+      <c r="M43" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" s="7">
+        <v>688565</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F44" s="2">
+        <v>19.48</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H44" s="5">
+        <v>9.39</v>
+      </c>
+      <c r="I44" s="5">
+        <v>18.7</v>
+      </c>
+      <c r="J44" s="2">
         <v>23</v>
       </c>
-      <c r="K42" s="2">
+      <c r="K44" s="2">
         <v>28</v>
       </c>
-      <c r="L42" s="2">
-        <v>52</v>
-      </c>
-      <c r="M42" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C43" s="7">
-        <v>300990</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F43" s="2">
-        <v>36.270000000000003</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="H43" s="5">
-        <v>85.5</v>
-      </c>
-      <c r="I43" s="5">
-        <v>86</v>
-      </c>
-      <c r="J43" s="2">
-        <v>115</v>
-      </c>
-      <c r="K43" s="2">
-        <v>128</v>
-      </c>
-      <c r="L43" s="2">
-        <v>153</v>
-      </c>
-      <c r="M43" s="9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C44" s="7">
-        <v>603511</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F44" s="2">
-        <v>21.98</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="H44" s="5">
-        <v>20.99</v>
-      </c>
-      <c r="I44" s="5">
-        <v>25</v>
-      </c>
-      <c r="J44" s="2">
-        <v>30</v>
-      </c>
-      <c r="K44" s="2">
-        <v>38</v>
-      </c>
       <c r="L44" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M44" s="9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="45" spans="2:14" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C45" s="7">
-        <v>688113</v>
+        <v>688217</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="F45" s="2">
-        <v>17.309999999999999</v>
+        <v>29.89</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>132</v>
+        <v>85</v>
       </c>
       <c r="H45" s="5">
-        <v>19.14</v>
+        <v>18.420000000000002</v>
       </c>
       <c r="I45" s="5">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J45" s="2">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K45" s="2">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="L45" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="M45" s="9" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C46" s="7">
-        <v>605305</v>
+        <v>605488</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>129</v>
+        <v>86</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>130</v>
+        <v>88</v>
       </c>
       <c r="F46" s="2">
         <v>22.99</v>
       </c>
       <c r="G46" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H46" s="5">
+        <v>20.43</v>
+      </c>
+      <c r="I46" s="5">
+        <v>25</v>
+      </c>
+      <c r="J46" s="2">
+        <v>33</v>
+      </c>
+      <c r="K46" s="2">
+        <v>38</v>
+      </c>
+      <c r="L46" s="2">
+        <v>58</v>
+      </c>
+      <c r="M46" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C47" s="7">
+        <v>688685</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F47" s="2">
+        <v>22.83</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H47" s="5">
+        <v>9.02</v>
+      </c>
+      <c r="I47" s="5">
+        <v>30</v>
+      </c>
+      <c r="J47" s="2">
+        <v>36</v>
+      </c>
+      <c r="K47" s="2">
+        <v>45</v>
+      </c>
+      <c r="L47" s="2">
+        <v>72</v>
+      </c>
+      <c r="M47" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C48" s="7">
+        <v>688355</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F48" s="2">
+        <v>22.95</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H48" s="5">
+        <v>17.649999999999999</v>
+      </c>
+      <c r="I48" s="5">
+        <v>28</v>
+      </c>
+      <c r="J48" s="2">
+        <v>33</v>
+      </c>
+      <c r="K48" s="2">
+        <v>38</v>
+      </c>
+      <c r="L48" s="2">
+        <v>65</v>
+      </c>
+      <c r="M48" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F49" s="2">
+        <v>17.78</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H49" s="5">
+        <v>16.52</v>
+      </c>
+      <c r="I49" s="5">
+        <v>25</v>
+      </c>
+      <c r="J49" s="2">
+        <v>33</v>
+      </c>
+      <c r="K49" s="2">
+        <v>38</v>
+      </c>
+      <c r="L49" s="2">
+        <v>58</v>
+      </c>
+      <c r="M49" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C50" s="7">
+        <v>688097</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F50" s="2">
+        <v>15.97</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H50" s="5">
+        <v>11.27</v>
+      </c>
+      <c r="I50" s="5">
+        <v>18</v>
+      </c>
+      <c r="J50" s="2">
+        <v>15</v>
+      </c>
+      <c r="K50" s="2">
+        <v>23</v>
+      </c>
+      <c r="L50" s="2">
+        <v>35</v>
+      </c>
+      <c r="M50" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="N50" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" s="7">
+        <v>605196</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F51" s="2">
+        <v>21.09</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H51" s="5">
+        <v>5.05</v>
+      </c>
+      <c r="I51" s="5">
+        <v>12</v>
+      </c>
+      <c r="J51" s="2">
+        <v>10</v>
+      </c>
+      <c r="K51" s="2">
+        <v>15</v>
+      </c>
+      <c r="L51" s="2">
+        <v>23</v>
+      </c>
+      <c r="M51" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C52" s="7">
+        <v>688655</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F52" s="2">
+        <v>20.350000000000001</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H52" s="5">
+        <v>7.59</v>
+      </c>
+      <c r="I52" s="5">
+        <v>18</v>
+      </c>
+      <c r="J52" s="2">
+        <v>20</v>
+      </c>
+      <c r="K52" s="2">
+        <v>25</v>
+      </c>
+      <c r="L52" s="2">
+        <v>37</v>
+      </c>
+      <c r="M52" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C53" s="7">
+        <v>300987</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F53" s="2">
+        <v>18.420000000000002</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H53" s="5">
+        <v>6.79</v>
+      </c>
+      <c r="I53" s="5">
+        <v>25</v>
+      </c>
+      <c r="J53" s="2">
+        <v>23</v>
+      </c>
+      <c r="K53" s="2">
+        <v>28</v>
+      </c>
+      <c r="L53" s="2">
+        <v>52</v>
+      </c>
+      <c r="M53" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C54" s="7">
+        <v>300990</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F54" s="2">
+        <v>36.270000000000003</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H54" s="5">
+        <v>85.5</v>
+      </c>
+      <c r="I54" s="5">
+        <v>86</v>
+      </c>
+      <c r="J54" s="2">
+        <v>115</v>
+      </c>
+      <c r="K54" s="2">
+        <v>128</v>
+      </c>
+      <c r="L54" s="2">
+        <v>153</v>
+      </c>
+      <c r="M54" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" s="7">
+        <v>603511</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F55" s="2">
+        <v>21.98</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="H55" s="5">
+        <v>20.99</v>
+      </c>
+      <c r="I55" s="5">
+        <v>25</v>
+      </c>
+      <c r="J55" s="2">
+        <v>30</v>
+      </c>
+      <c r="K55" s="2">
+        <v>38</v>
+      </c>
+      <c r="L55" s="2">
+        <v>45</v>
+      </c>
+      <c r="M55" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C56" s="7">
+        <v>688113</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F56" s="2">
+        <v>17.309999999999999</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H56" s="5">
+        <v>19.14</v>
+      </c>
+      <c r="I56" s="5">
+        <v>34</v>
+      </c>
+      <c r="J56" s="2">
+        <v>47</v>
+      </c>
+      <c r="K56" s="2">
+        <v>58</v>
+      </c>
+      <c r="L56" s="2">
+        <v>78</v>
+      </c>
+      <c r="M56" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" s="7">
+        <v>605305</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F57" s="2">
+        <v>22.99</v>
+      </c>
+      <c r="G57" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="H46" s="5">
+      <c r="H57" s="5">
         <v>37.94</v>
       </c>
-      <c r="I46" s="5">
+      <c r="I57" s="5">
         <v>45</v>
       </c>
-      <c r="J46" s="2">
+      <c r="J57" s="2">
         <v>54</v>
       </c>
-      <c r="K46" s="2">
+      <c r="K57" s="2">
         <v>65</v>
       </c>
-      <c r="L46" s="2">
+      <c r="L57" s="2">
         <v>82</v>
       </c>
-      <c r="M46" s="9" t="s">
+      <c r="M57" s="9" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="47" spans="2:14" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="2" t="s">
+    <row r="58" spans="2:14" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C47" s="7">
+      <c r="C58" s="7">
         <v>300988</v>
       </c>
-      <c r="D47" s="9" t="s">
+      <c r="D58" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="E58" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="F47" s="2">
+      <c r="F58" s="2">
         <v>32.729999999999997</v>
       </c>
-      <c r="G47" s="7" t="s">
+      <c r="G58" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="H47" s="5">
+      <c r="H58" s="5">
         <v>23.73</v>
       </c>
-      <c r="I47" s="5">
+      <c r="I58" s="5">
         <v>40</v>
       </c>
-      <c r="J47" s="2">
+      <c r="J58" s="2">
         <v>48</v>
       </c>
-      <c r="K47" s="2">
+      <c r="K58" s="2">
         <v>68</v>
       </c>
-      <c r="L47" s="2">
+      <c r="L58" s="2">
         <v>95</v>
       </c>
-      <c r="M47" s="9" t="s">
+      <c r="M58" s="9" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="48" spans="2:14" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="2" t="s">
+    <row r="59" spans="2:14" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="7">
+      <c r="C59" s="7">
         <v>300989</v>
       </c>
-      <c r="D48" s="9" t="s">
+      <c r="D59" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="E59" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="F48" s="2">
+      <c r="F59" s="2">
         <v>36.01</v>
       </c>
-      <c r="G48" s="7" t="s">
+      <c r="G59" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="H48" s="5">
+      <c r="H59" s="5">
         <v>51.62</v>
       </c>
-      <c r="I48" s="5">
+      <c r="I59" s="5">
         <v>58</v>
       </c>
-      <c r="J48" s="2">
+      <c r="J59" s="2">
         <v>66</v>
       </c>
-      <c r="K48" s="2">
+      <c r="K59" s="2">
         <v>83</v>
       </c>
-      <c r="L48" s="2">
+      <c r="L59" s="2">
         <v>116</v>
       </c>
-      <c r="M48" s="9" t="s">
+      <c r="M59" s="9" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="49" spans="2:13" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="2" t="s">
+    <row r="60" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="7">
+      <c r="C60" s="7">
         <v>605080</v>
       </c>
-      <c r="D49" s="9" t="s">
+      <c r="D60" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="E60" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="F49" s="2">
+      <c r="F60" s="2">
         <v>22.99</v>
       </c>
-      <c r="G49" s="7" t="s">
+      <c r="G60" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="H49" s="5">
+      <c r="H60" s="5">
         <v>31.16</v>
       </c>
-      <c r="I49" s="5">
+      <c r="I60" s="5">
         <v>45</v>
       </c>
-      <c r="J49" s="2">
+      <c r="J60" s="2">
         <v>60</v>
       </c>
-      <c r="K49" s="2">
+      <c r="K60" s="2">
         <v>70</v>
       </c>
-      <c r="L49" s="2">
+      <c r="L60" s="2">
         <v>80</v>
       </c>
-      <c r="M49" s="9" t="s">
+      <c r="M60" s="9" t="s">
         <v>145</v>
       </c>
     </row>

--- a/次新股.xlsx
+++ b/次新股.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="28560" windowHeight="16240"/>
+    <workbookView xWindow="240" yWindow="640" windowWidth="28560" windowHeight="16240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="318">
   <si>
     <t>个股代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1584,9 +1584,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>肇民科技</t>
-  </si>
-  <si>
     <t>1333w</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2285,6 +2282,884 @@
     <rPh sb="2" eb="3">
       <t>jia d</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿田机械</t>
+  </si>
+  <si>
+    <t>从事通用动力机械产品(主要包括发电机组、水泵机组和发动机)和高压清洗机产品的研发。产品代工大部分出口，公司负面新闻多。风险：汇率波动。</t>
+    <rPh sb="59" eb="60">
+      <t>feng x</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>hui lü</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>bo d</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机械设备</t>
+    <rPh sb="0" eb="1">
+      <t>ji xie</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>she b</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肇民科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从事奶茶、咖啡原材料的开发。</t>
+    <rPh sb="2" eb="3">
+      <t>nai c</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ka f</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>yuan</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>cai l</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>d</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>kai f</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佳禾食品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主营业务为铁矿石采选、铁精粉和球团生产销售、机制砂石的加工销售， 主要产品为铁精粉和球团。公司拥有内蒙和安徽两大矿山基地。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘001203</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关注程度</t>
+    <rPh sb="0" eb="1">
+      <t>guan z</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cheng d</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般关注</t>
+    <rPh sb="0" eb="1">
+      <t>yi ban</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>guan z</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>致远新能</t>
+  </si>
+  <si>
+    <t>专注于车载LNG供气系统的生产和销售，公司报告期内营收利润都高增长，但是现金流太差，关联交易太多，公司身处东北，财务风险比较高。</t>
+    <rPh sb="56" eb="57">
+      <t>cai w</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>feng x</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>bi j</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>gao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大中矿业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矿业、钢铁</t>
+    <rPh sb="0" eb="1">
+      <t>kuang y</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>gang t</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金属制品</t>
+    <rPh sb="0" eb="1">
+      <t>jin shu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhi p</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正弦电气</t>
+  </si>
+  <si>
+    <t>不关注</t>
+    <rPh sb="0" eb="1">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>guan zhu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专业从事工业自动化领域电机驱动和控制系统产品研发，公司规模比较小，市占率低，关键部件外购，面对市场巨头公司的竞争力比较差。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一家比较小型的券商</t>
+  </si>
+  <si>
+    <t>财达证券</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>证券</t>
+    <rPh sb="0" eb="1">
+      <t>zheng q</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>志特新材</t>
+  </si>
+  <si>
+    <t>生产铝用脚手架主业的，基本不需要科技，跟随房地产的发展而发展</t>
+  </si>
+  <si>
+    <t>瑞华泰</t>
+  </si>
+  <si>
+    <t>科创板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研发高性能 PI 薄膜，PI 薄膜的性能居于高分子材料金字塔的顶端，被誉为“黄金薄膜”，属于国家战略性新兴产业。</t>
+    <rPh sb="0" eb="1">
+      <t>yan f</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PI 薄膜的性能居于高分子材料金字塔的顶端，被誉为“黄金薄膜”，属于国家战略性新兴产业。</t>
+  </si>
+  <si>
+    <t>新益昌</t>
+  </si>
+  <si>
+    <t>是一家LED封装企业，主要从事 LED、电容器、半导体、锂电池等行业智能制造装备的研发。是细分领域冠军企业，但所处市场容量不大，很多关键部件需要外购，下游LED已接近天花板。</t>
+    <rPh sb="0" eb="1">
+      <t>s</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>yi jia</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>feng zhuang</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>qi y</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>s</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>xi fen</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ling y</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>guan j</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>qi y</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>dan</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>suo chu</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>shi c</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>rong l</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>bu d</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>hen d</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>guan j</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>xu y</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>wai gou</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>xia you</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>yi</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>jie j</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>tian hua b</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谨慎关注</t>
+    <rPh sb="0" eb="1">
+      <t>jin s</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>guan z</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED、锂电池</t>
+    <rPh sb="4" eb="5">
+      <t>li dian ci</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>chi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炬申股份</t>
+  </si>
+  <si>
+    <t>‘001202</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有色金属物流企业</t>
+    <rPh sb="0" eb="1">
+      <t>you se</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jin s</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wu l</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>qi ye</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保持关注</t>
+    <rPh sb="0" eb="1">
+      <t>bao chi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>guan z</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华生科技</t>
+  </si>
+  <si>
+    <t>专业从事塑胶复合材料的研发，赛道一般，产品市占率不高，产品科技含量不高。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江新能</t>
+  </si>
+  <si>
+    <t>主营业务为水力发电、光伏发电、风力发电等可再生能源项目。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料类</t>
+    <rPh sb="0" eb="1">
+      <t>cai l</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电力、碳中和</t>
+    <rPh sb="0" eb="1">
+      <t>dian li</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>tan zhong h</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏文电能</t>
+  </si>
+  <si>
+    <t>智能电网、工程建设</t>
+    <rPh sb="0" eb="1">
+      <t>zhi neng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dian w</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gong c</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>jian s</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以电力咨询设计业务为主导，涵盖电力咨询设计、电力工程建设、电 力设备供应和智能用电服务业务为一体的一站式（EPCO）供用电品牌服务商。目前订单充足，前景有保障。主要服务长三角，区域限制明显。</t>
+    <rPh sb="67" eb="68">
+      <t>mu q</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>din d</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>chong z</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>qian j</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>you</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>bao z</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>zhu y</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>fu w</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>chang</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>san jiao</t>
+    </rPh>
+    <rPh sb="88" eb="89">
+      <t>qu y</t>
+    </rPh>
+    <rPh sb="90" eb="91">
+      <t>xian z</t>
+    </rPh>
+    <rPh sb="92" eb="93">
+      <t>ming x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中红医疗</t>
+  </si>
+  <si>
+    <t>主要从事高品质丁腈手套、PVC 手套等医用及工业用一次性防护手套 的研发。收益于新冠疫情，业绩暴涨，但高盈利未来不可持续。</t>
+    <rPh sb="37" eb="38">
+      <t>shou yi</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>xin guan</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>yi q</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ye ji</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>bao z</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>dan</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>gao</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>ying l</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>wei l</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ke</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>chi x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>味知香</t>
+  </si>
+  <si>
+    <t>专注于半成品菜的研发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东瑞股</t>
+  </si>
+  <si>
+    <t>‘001201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主营业务为生猪的养殖和销售，公司自行生产生猪养殖所需的饲料，并有部分饲料对外销售。公司在香港具备知名度</t>
+    <rPh sb="41" eb="42">
+      <t>gon s</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗曼股份</t>
+  </si>
+  <si>
+    <t>国内领先的城市景观照明整体解决方案提供商。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装饰园林</t>
+    <rPh sb="0" eb="1">
+      <t>zhuang shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yuan lin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华利集团</t>
+  </si>
+  <si>
+    <t>发行人是一家庞大的制鞋公司，全球制鞋巨头，主要为世界名牌鞋业代工，在成本控制之下保证质量，公司业务不容易被替代，营收利润仍然稳步增长。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鞋业、大消费</t>
+    <rPh sb="0" eb="1">
+      <t>xie ye</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>da</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xiao f</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东箭科技</t>
+  </si>
+  <si>
+    <t>一家专注于汽车智能、安全、健康、个性化定制等提升汽车驾乘体 验的科技公司。科技含量不高，过于依赖出口。</t>
+    <rPh sb="37" eb="38">
+      <t>ke j</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>han l</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>bu gao</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>guo yu</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>yi lai</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>chu k</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汽配</t>
+    <rPh sb="0" eb="1">
+      <t>qi pei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华恒生物</t>
+  </si>
+  <si>
+    <t>一家以合成生物技术为核心，主要从事氨基酸及其衍生物产品研发。风险：产品系列较为单一的风险。</t>
+    <rPh sb="30" eb="31">
+      <t>feng x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商络电子</t>
+  </si>
+  <si>
+    <t>国内领先的被动元器件分销商，主要面向网络通信、消费电子、汽车 电子、工业控制等应用领域的电子产品制造商，为其提供电子元器件产品。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霍莱沃</t>
+  </si>
+  <si>
+    <t>公司致力于电磁场的测试和仿真。主要为雷达和无线通信领域提供用于测试、仿真的系统、软件和服务，并提供相控阵部件等相关产品。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国防军工</t>
+    <rPh sb="0" eb="1">
+      <t>guo f</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jun gong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百龙创园</t>
+  </si>
+  <si>
+    <t>不关注</t>
+    <rPh sb="0" eb="1">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>guan z</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司是国内功能糖产品类较齐全的生产企业，产品缺乏市场知名度，业绩平稳，现金流太差。</t>
+    <rPh sb="0" eb="1">
+      <t>gong s</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>s</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>guo nei</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gong n</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>tang</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>chan p</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>lei</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>jiao</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>qi q</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>d</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>sheng c</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>qi y</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>chan p</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>que fa</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>shi c</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>zhi ming du</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ye j</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ping w</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>xian j</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>liu</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>tai cha</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信安世纪</t>
+  </si>
+  <si>
+    <t>是科技创新型的信息安全产品和解决方案提供商，以密码技术为基础支撑，致力于解决网络环境中的身份安全、通信安全和数据安全等信息安全问题。公司产品应用于金融、政府和企业。</t>
+    <rPh sb="0" eb="1">
+      <t>s</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>gong s</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>chan p</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络安全、计算机应用</t>
+    <rPh sb="0" eb="1">
+      <t>wang l</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>an q</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ji suan j</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ying y</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要从事蒸发器、冷凝器和变频控制芯片等部件以及除湿机和空气源热泵热风机等环境电器产品的研发</t>
+  </si>
+  <si>
+    <t>德业股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白色家电</t>
+    <rPh sb="0" eb="1">
+      <t>bai se</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jia d</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尤安设计</t>
+  </si>
+  <si>
+    <t>公司以方案设计为轴心，根据下 游客户需求，提供包括施工图设计及施工配合在内的一体化建筑设计解决方案。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑装饰</t>
+    <rPh sb="0" eb="1">
+      <t>jian z</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhuang s</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是国内知名的聚烯烃发泡材料供应商，产品应用广泛，产品出口为主。风险：知识产权、核心技术被侵犯或泄露；原材料价格波动。</t>
+    <rPh sb="0" eb="1">
+      <t>s</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>guo nei</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhi m</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>d</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>gong ying s</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>chan p</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ying y</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>guang f</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>chan p</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>chu k</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>wei zhu</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>feng x</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>yuan cai l</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>cai l</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>jia ge</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>bo don</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保持关注</t>
+    <rPh sb="0" eb="1">
+      <t>bao chi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>guan zhu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祥源新材</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塑料制品、新材料概念</t>
+    <rPh sb="0" eb="1">
+      <t>su l</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhi p</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xin</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>cai l</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>gai n</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙高股份</t>
+  </si>
+  <si>
+    <t>是国内日用陶瓷高岭土行业中资源储量、资源品位及采选加工规模领先的企业。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳瑞捷</t>
+  </si>
+  <si>
+    <t>专业从事建设工程第三方评估、管理和咨询服务的企业。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陶瓷、稀缺资源</t>
+    <rPh sb="0" eb="1">
+      <t>tao c</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xi que</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zi y</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>达瑞电子</t>
+  </si>
+  <si>
+    <t>主要从事消费电子功能性和结构性器件的研发，以及相关 3C 智能装配自动化设备的研发。</t>
+    <rPh sb="18" eb="19">
+      <t>yan fa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消费电子、电子制造</t>
+    <rPh sb="0" eb="1">
+      <t>xiao f</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dian z</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>dian z</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhi z</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立高食品</t>
+  </si>
+  <si>
+    <t>主要从事烘焙食品原料及冷冻烘焙食品的研发，主要产品包括奶油、水果制品、酱料、巧克力等烘焙食品原料和冷冻烘焙半成品及成 品，此外还生产部分休闲食品。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万辰生物</t>
+  </si>
+  <si>
+    <t>不关注</t>
+    <rPh sb="0" eb="1">
+      <t>bu guan zhu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专注于鲜品食用菌的研发、工厂化培育与销售。赛道不好，科技不高，招股书财务报表有质疑的地方，营收下滑，缺乏想象力。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2720,21 +3595,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N60"/>
+  <dimension ref="A1:O91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="140" workbookViewId="0">
+      <selection activeCell="F95" sqref="F95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="34" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.83203125" style="2" customWidth="1"/>
     <col min="2" max="2" width="11.1640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="15.1640625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="24.33203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15" style="7" customWidth="1"/>
+    <col min="4" max="5" width="13.83203125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="24.33203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13" style="2" customWidth="1"/>
     <col min="8" max="8" width="13.83203125" style="5" customWidth="1"/>
     <col min="9" max="9" width="17" style="5" customWidth="1"/>
     <col min="10" max="10" width="13.83203125" style="2" customWidth="1"/>
@@ -2742,10 +3616,11 @@
     <col min="12" max="12" width="16" style="2" customWidth="1"/>
     <col min="13" max="13" width="14.83203125" style="9" customWidth="1"/>
     <col min="14" max="14" width="17.33203125" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="8.83203125" style="2"/>
+    <col min="15" max="15" width="15" style="7" customWidth="1"/>
+    <col min="16" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -2758,14 +3633,14 @@
       <c r="D1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>10</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>4</v>
@@ -2788,28 +3663,59 @@
       <c r="N1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O1" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
     </row>
-    <row r="3" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
     </row>
-    <row r="5" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-    </row>
-    <row r="6" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="7">
+        <v>605259</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="H5" s="5">
+        <v>27.1</v>
+      </c>
+      <c r="I5" s="5">
+        <v>40</v>
+      </c>
+      <c r="J5" s="2">
+        <v>45</v>
+      </c>
+      <c r="K5" s="6">
+        <v>57</v>
+      </c>
+      <c r="L5" s="6">
+        <v>80</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="2" t="s">
         <v>17</v>
@@ -2818,10 +3724,13 @@
         <v>301008</v>
       </c>
       <c r="D6" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>221</v>
+      <c r="G6" s="2">
+        <v>35.200000000000003</v>
       </c>
       <c r="H6" s="5">
         <v>37.6</v>
@@ -2839,10 +3748,10 @@
         <v>108</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="2" t="s">
         <v>41</v>
@@ -2851,10 +3760,13 @@
         <v>688269</v>
       </c>
       <c r="D7" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>219</v>
+      <c r="G7" s="2">
+        <v>18.010000000000002</v>
       </c>
       <c r="H7" s="5">
         <v>18.940000000000001</v>
@@ -2875,7 +3787,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="2" t="s">
         <v>41</v>
@@ -2884,10 +3796,13 @@
         <v>688131</v>
       </c>
       <c r="D8" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>217</v>
+      <c r="G8" s="2">
+        <v>40.729999999999997</v>
       </c>
       <c r="H8" s="5">
         <v>64.989999999999995</v>
@@ -2908,7 +3823,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="2" t="s">
         <v>41</v>
@@ -2917,16 +3832,13 @@
         <v>688319</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="F9" s="2">
+        <v>211</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G9" s="2">
         <v>146.44999999999999</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="H9" s="5">
         <v>9.8800000000000008</v>
@@ -2944,10 +3856,13 @@
         <v>43</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+        <v>214</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="2" t="s">
         <v>41</v>
@@ -2956,16 +3871,13 @@
         <v>688625</v>
       </c>
       <c r="D10" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="F10" s="2">
+      <c r="G10" s="2">
         <v>19.95</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="H10" s="5">
         <v>16.48</v>
@@ -2985,8 +3897,11 @@
       <c r="M10" s="9" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O10" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="2" t="s">
         <v>17</v>
@@ -2995,16 +3910,13 @@
         <v>301006</v>
       </c>
       <c r="D11" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="F11" s="2">
+      <c r="G11" s="2">
         <v>12.61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="H11" s="5">
         <v>14.42</v>
@@ -3022,10 +3934,13 @@
         <v>50</v>
       </c>
       <c r="M11" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="2" t="s">
         <v>12</v>
@@ -3034,16 +3949,13 @@
         <v>601156</v>
       </c>
       <c r="D12" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="F12" s="2">
+      <c r="G12" s="2">
         <v>10.93</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="H12" s="5">
         <v>15.77</v>
@@ -3063,8 +3975,11 @@
       <c r="M12" s="9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O12" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="2" t="s">
         <v>12</v>
@@ -3073,16 +3988,13 @@
         <v>605319</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="F13" s="2">
+        <v>199</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="G13" s="2">
         <v>22.98</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="H13" s="5">
         <v>11.22</v>
@@ -3100,10 +4012,13 @@
         <v>35</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="2" t="s">
         <v>17</v>
@@ -3112,16 +4027,13 @@
         <v>301002</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="E14" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G14" s="2">
         <v>18.12</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="H14" s="5">
         <v>18.71</v>
@@ -3139,10 +4051,13 @@
         <v>98</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="2" t="s">
         <v>41</v>
@@ -3151,21 +4066,21 @@
         <v>688117</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="F15" s="2">
+        <v>191</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G15" s="2">
         <v>27.7</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
-    </row>
-    <row r="16" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O15" s="7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="2" t="s">
         <v>17</v>
@@ -3174,16 +4089,13 @@
         <v>300996</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="F16" s="2">
+        <v>190</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="G16" s="2">
         <v>23.16</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H16" s="5">
         <v>20.81</v>
@@ -3201,10 +4113,13 @@
         <v>79</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="2" t="s">
         <v>17</v>
@@ -3213,16 +4128,13 @@
         <v>300997</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="F17" s="2">
+        <v>183</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="G17" s="2">
         <v>12.76</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="H17" s="5">
         <v>4.9400000000000004</v>
@@ -3242,8 +4154,11 @@
       <c r="M17" s="9" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O17" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="2" t="s">
         <v>17</v>
@@ -3252,16 +4167,13 @@
         <v>300998</v>
       </c>
       <c r="D18" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="F18" s="2">
+      <c r="G18" s="2">
         <v>16.940000000000001</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="H18" s="5">
         <v>6.02</v>
@@ -3279,10 +4191,13 @@
         <v>57</v>
       </c>
       <c r="M18" s="9" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="2" t="s">
         <v>17</v>
@@ -3291,16 +4206,13 @@
         <v>301005</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="F19" s="2">
+        <v>187</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G19" s="2">
         <v>26.64</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="H19" s="5">
         <v>36.450000000000003</v>
@@ -3318,10 +4230,13 @@
         <v>105</v>
       </c>
       <c r="M19" s="9" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="2" t="s">
         <v>12</v>
@@ -3330,10 +4245,10 @@
         <v>601528</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>177</v>
       </c>
       <c r="H20" s="5">
         <v>8.1199999999999992</v>
@@ -3351,10 +4266,10 @@
         <v>16.600000000000001</v>
       </c>
       <c r="M20" s="9" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="2" t="s">
         <v>17</v>
@@ -3363,16 +4278,13 @@
         <v>301003</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="F21" s="2">
+        <v>168</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G21" s="2">
         <v>32.01</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="H21" s="5">
         <v>55.88</v>
@@ -3390,10 +4302,13 @@
         <v>138</v>
       </c>
       <c r="M21" s="9" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="2" t="s">
         <v>12</v>
@@ -3402,16 +4317,13 @@
         <v>605296</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F22" s="2">
+        <v>164</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="G22" s="2">
         <v>19.760000000000002</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H22" s="5">
         <v>56.08</v>
@@ -3429,10 +4341,13 @@
         <v>95</v>
       </c>
       <c r="M22" s="9" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="2" t="s">
         <v>17</v>
@@ -3441,16 +4356,13 @@
         <v>301001</v>
       </c>
       <c r="D23" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F23" s="2">
+      <c r="G23" s="2">
         <v>26.19</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H23" s="5">
         <v>25.54</v>
@@ -3468,10 +4380,13 @@
         <v>98</v>
       </c>
       <c r="M23" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="2" t="s">
         <v>17</v>
@@ -3480,16 +4395,13 @@
         <v>301000</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F24" s="2">
+        <v>225</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G24" s="2">
         <v>35</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="H24" s="5">
         <v>64.31</v>
@@ -3507,10 +4419,13 @@
         <v>158</v>
       </c>
       <c r="M24" s="9" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="2" t="s">
         <v>12</v>
@@ -3521,14 +4436,11 @@
       <c r="D25" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="F25" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="F25" s="2">
+      <c r="G25" s="2">
         <v>22.99</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H25" s="5">
         <v>19.95</v>
@@ -3548,8 +4460,11 @@
       <c r="M25" s="9" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O25" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="2" t="s">
         <v>41</v>
@@ -3560,11 +4475,8 @@
       <c r="D26" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>151</v>
+      <c r="F26" s="2" t="s">
+        <v>171</v>
       </c>
       <c r="H26" s="5">
         <v>2.65</v>
@@ -3584,8 +4496,11 @@
       <c r="M26" s="9" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O26" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
         <v>12</v>
       </c>
@@ -3595,14 +4510,11 @@
       <c r="D27" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="F27" s="2">
+      <c r="G27" s="2">
         <v>22.99</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="H27" s="5">
         <v>46.27</v>
@@ -3622,8 +4534,11 @@
       <c r="M27" s="9" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O27" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
         <v>12</v>
       </c>
@@ -3633,14 +4548,11 @@
       <c r="D28" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="F28" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F28" s="2">
+      <c r="G28" s="2">
         <v>22.99</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="H28" s="5">
         <v>16.84</v>
@@ -3660,8 +4572,11 @@
       <c r="M28" s="9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O28" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="2" t="s">
         <v>17</v>
@@ -3672,14 +4587,11 @@
       <c r="D29" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="F29" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F29" s="2">
+      <c r="G29" s="2">
         <v>11.78</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="H29" s="5">
         <v>9.19</v>
@@ -3699,8 +4611,11 @@
       <c r="M29" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O29" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
         <v>12</v>
       </c>
@@ -3710,14 +4625,11 @@
       <c r="D30" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="F30" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F30" s="2">
+      <c r="G30" s="2">
         <v>20</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="H30" s="5">
         <v>34.57</v>
@@ -3737,8 +4649,11 @@
       <c r="M30" s="9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O30" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
         <v>17</v>
       </c>
@@ -3748,14 +4663,11 @@
       <c r="D31" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="F31" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F31" s="2">
+      <c r="G31" s="2">
         <v>12.84</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="H31" s="5">
         <v>9.36</v>
@@ -3775,8 +4687,11 @@
       <c r="M31" s="9" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O31" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
         <v>17</v>
       </c>
@@ -3786,14 +4701,11 @@
       <c r="D32" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="F32" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F32" s="2">
+      <c r="G32" s="2">
         <v>17.52</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="H32" s="5">
         <v>14.72</v>
@@ -3813,8 +4725,11 @@
       <c r="M32" s="9" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O32" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
         <v>17</v>
       </c>
@@ -3824,14 +4739,11 @@
       <c r="D33" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="F33" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F33" s="2">
+      <c r="G33" s="2">
         <v>16.45</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="H33" s="5">
         <v>12.1</v>
@@ -3851,8 +4763,11 @@
       <c r="M33" s="9" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O33" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
         <v>41</v>
       </c>
@@ -3862,14 +4777,11 @@
       <c r="D34" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="F34" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F34" s="2">
+      <c r="G34" s="2">
         <v>22.3</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H34" s="5">
         <v>11.03</v>
@@ -3889,8 +4801,11 @@
       <c r="M34" s="9" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O34" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
         <v>41</v>
       </c>
@@ -3900,14 +4815,11 @@
       <c r="D35" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="F35" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F35" s="2">
+      <c r="G35" s="2">
         <v>26.6</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="H35" s="5">
         <v>16.43</v>
@@ -3927,8 +4839,11 @@
       <c r="M35" s="9" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="36" spans="2:13" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O35" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
         <v>12</v>
       </c>
@@ -3938,10 +4853,10 @@
       <c r="D36" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="F36" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F36" s="2">
+      <c r="G36" s="2">
         <v>28.87</v>
       </c>
       <c r="H36" s="5">
@@ -3963,7 +4878,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="2:13" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="2" t="s">
         <v>41</v>
       </c>
@@ -3973,14 +4888,11 @@
       <c r="D37" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="F37" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F37" s="2">
+      <c r="G37" s="2">
         <v>35.130000000000003</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="H37" s="5">
         <v>15.57</v>
@@ -4000,8 +4912,11 @@
       <c r="M37" s="9" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="38" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O37" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
         <v>17</v>
       </c>
@@ -4011,14 +4926,11 @@
       <c r="D38" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="F38" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>13.06</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="H38" s="5">
         <v>13.06</v>
@@ -4029,8 +4941,11 @@
       <c r="M38" s="9" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O38" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
         <v>41</v>
       </c>
@@ -4040,14 +4955,11 @@
       <c r="D39" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="F39" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F39" s="2">
+      <c r="G39" s="2">
         <v>22.17</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H39" s="5">
         <v>17.34</v>
@@ -4067,8 +4979,11 @@
       <c r="M39" s="9" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="40" spans="2:13" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O39" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="2" t="s">
         <v>41</v>
       </c>
@@ -4078,14 +4993,11 @@
       <c r="D40" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="F40" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F40" s="2">
+      <c r="G40" s="2">
         <v>23.99</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="H40" s="5">
         <v>5.44</v>
@@ -4105,8 +5017,11 @@
       <c r="M40" s="9" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="41" spans="2:13" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O40" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="2" t="s">
         <v>41</v>
       </c>
@@ -4116,14 +5031,11 @@
       <c r="D41" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="F41" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F41" s="2">
+      <c r="G41" s="2">
         <v>31.96</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="H41" s="5">
         <v>14.8</v>
@@ -4134,8 +5046,11 @@
       <c r="M41" s="9" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O41" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="2" t="s">
         <v>72</v>
       </c>
@@ -4145,14 +5060,11 @@
       <c r="D42" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="F42" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F42" s="2">
+      <c r="G42" s="2">
         <v>22.99</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H42" s="5">
         <v>44.6</v>
@@ -4160,8 +5072,11 @@
       <c r="L42" s="2">
         <v>126</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O42" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="s">
         <v>12</v>
       </c>
@@ -4171,14 +5086,11 @@
       <c r="D43" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="F43" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F43" s="2">
+      <c r="G43" s="2">
         <v>22.99</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="H43" s="5">
         <v>16.98</v>
@@ -4189,8 +5101,11 @@
       <c r="M43" s="9" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O43" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="2" t="s">
         <v>41</v>
       </c>
@@ -4200,14 +5115,11 @@
       <c r="D44" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="F44" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F44" s="2">
+      <c r="G44" s="2">
         <v>19.48</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H44" s="5">
         <v>9.39</v>
@@ -4227,8 +5139,11 @@
       <c r="M44" s="9" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O44" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="2" t="s">
         <v>41</v>
       </c>
@@ -4238,14 +5153,11 @@
       <c r="D45" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="F45" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F45" s="2">
+      <c r="G45" s="2">
         <v>29.89</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="H45" s="5">
         <v>18.420000000000002</v>
@@ -4265,8 +5177,11 @@
       <c r="M45" s="9" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O45" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="2" t="s">
         <v>12</v>
       </c>
@@ -4276,14 +5191,11 @@
       <c r="D46" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="F46" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F46" s="2">
+      <c r="G46" s="2">
         <v>22.99</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="H46" s="5">
         <v>20.43</v>
@@ -4303,8 +5215,11 @@
       <c r="M46" s="9" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O46" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="2" t="s">
         <v>41</v>
       </c>
@@ -4314,14 +5229,11 @@
       <c r="D47" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="F47" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F47" s="2">
+      <c r="G47" s="2">
         <v>22.83</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="H47" s="5">
         <v>9.02</v>
@@ -4341,8 +5253,11 @@
       <c r="M47" s="9" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O47" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="2" t="s">
         <v>41</v>
       </c>
@@ -4352,14 +5267,11 @@
       <c r="D48" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="F48" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F48" s="2">
+      <c r="G48" s="2">
         <v>22.95</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="H48" s="5">
         <v>17.649999999999999</v>
@@ -4379,8 +5291,11 @@
       <c r="M48" s="9" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="49" spans="2:14" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O48" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="2" t="s">
         <v>72</v>
       </c>
@@ -4390,14 +5305,11 @@
       <c r="D49" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="F49" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F49" s="2">
+      <c r="G49" s="2">
         <v>17.78</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="H49" s="5">
         <v>16.52</v>
@@ -4417,8 +5329,11 @@
       <c r="M49" s="9" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="50" spans="2:14" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O49" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="2" t="s">
         <v>41</v>
       </c>
@@ -4428,14 +5343,11 @@
       <c r="D50" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="F50" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="F50" s="2">
+      <c r="G50" s="2">
         <v>15.97</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="H50" s="5">
         <v>11.27</v>
@@ -4458,8 +5370,11 @@
       <c r="N50" s="2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="51" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O50" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="51" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="2" t="s">
         <v>12</v>
       </c>
@@ -4469,14 +5384,11 @@
       <c r="D51" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="F51" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F51" s="2">
+      <c r="G51" s="2">
         <v>21.09</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H51" s="5">
         <v>5.05</v>
@@ -4496,8 +5408,11 @@
       <c r="M51" s="9" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="52" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O51" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="52" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="2" t="s">
         <v>41</v>
       </c>
@@ -4507,14 +5422,11 @@
       <c r="D52" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="F52" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="F52" s="2">
+      <c r="G52" s="2">
         <v>20.350000000000001</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="H52" s="5">
         <v>7.59</v>
@@ -4534,8 +5446,11 @@
       <c r="M52" s="9" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="53" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O52" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="53" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="2" t="s">
         <v>17</v>
       </c>
@@ -4545,14 +5460,11 @@
       <c r="D53" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="F53" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F53" s="2">
+      <c r="G53" s="2">
         <v>18.420000000000002</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H53" s="5">
         <v>6.79</v>
@@ -4572,8 +5484,11 @@
       <c r="M53" s="9" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="54" spans="2:14" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O53" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="54" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="2" t="s">
         <v>17</v>
       </c>
@@ -4583,14 +5498,11 @@
       <c r="D54" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="F54" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F54" s="2">
+      <c r="G54" s="2">
         <v>36.270000000000003</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="H54" s="5">
         <v>85.5</v>
@@ -4610,8 +5522,11 @@
       <c r="M54" s="9" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="55" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O54" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="55" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="2" t="s">
         <v>12</v>
       </c>
@@ -4621,14 +5536,11 @@
       <c r="D55" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="F55" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F55" s="2">
+      <c r="G55" s="2">
         <v>21.98</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="H55" s="5">
         <v>20.99</v>
@@ -4648,8 +5560,11 @@
       <c r="M55" s="9" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="56" spans="2:14" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O55" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="56" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="2" t="s">
         <v>41</v>
       </c>
@@ -4659,14 +5574,11 @@
       <c r="D56" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="F56" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F56" s="2">
+      <c r="G56" s="2">
         <v>17.309999999999999</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="H56" s="5">
         <v>19.14</v>
@@ -4686,8 +5598,11 @@
       <c r="M56" s="9" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="57" spans="2:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O56" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="57" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="2" t="s">
         <v>12</v>
       </c>
@@ -4697,14 +5612,11 @@
       <c r="D57" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="E57" s="2" t="s">
+      <c r="F57" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F57" s="2">
+      <c r="G57" s="2">
         <v>22.99</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="H57" s="5">
         <v>37.94</v>
@@ -4724,8 +5636,11 @@
       <c r="M57" s="9" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="58" spans="2:14" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O57" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="58" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="2" t="s">
         <v>17</v>
       </c>
@@ -4735,14 +5650,11 @@
       <c r="D58" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="F58" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="F58" s="2">
+      <c r="G58" s="2">
         <v>32.729999999999997</v>
-      </c>
-      <c r="G58" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H58" s="5">
         <v>23.73</v>
@@ -4762,8 +5674,11 @@
       <c r="M58" s="9" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="59" spans="2:14" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O58" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="59" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="2" t="s">
         <v>17</v>
       </c>
@@ -4773,14 +5688,11 @@
       <c r="D59" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="F59" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="F59" s="2">
+      <c r="G59" s="2">
         <v>36.01</v>
-      </c>
-      <c r="G59" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="H59" s="5">
         <v>51.62</v>
@@ -4800,8 +5712,11 @@
       <c r="M59" s="9" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="60" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O59" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="60" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="2" t="s">
         <v>12</v>
       </c>
@@ -4811,14 +5726,11 @@
       <c r="D60" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="E60" s="2" t="s">
+      <c r="F60" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="F60" s="2">
+      <c r="G60" s="2">
         <v>22.99</v>
-      </c>
-      <c r="G60" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H60" s="5">
         <v>31.16</v>
@@ -4837,6 +5749,1106 @@
       </c>
       <c r="M60" s="9" t="s">
         <v>145</v>
+      </c>
+      <c r="O60" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="61" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" s="7">
+        <v>605300</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="G61" s="2">
+        <v>22.99</v>
+      </c>
+      <c r="H61" s="5">
+        <v>11.25</v>
+      </c>
+      <c r="I61" s="5">
+        <v>18</v>
+      </c>
+      <c r="J61" s="2">
+        <v>20</v>
+      </c>
+      <c r="K61" s="2">
+        <v>25</v>
+      </c>
+      <c r="L61" s="2">
+        <v>38</v>
+      </c>
+      <c r="M61" s="9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="62" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="G62" s="2">
+        <v>22.99</v>
+      </c>
+      <c r="H62" s="5">
+        <v>8.98</v>
+      </c>
+      <c r="I62" s="5">
+        <v>13</v>
+      </c>
+      <c r="J62" s="2">
+        <v>13</v>
+      </c>
+      <c r="K62" s="2">
+        <v>16</v>
+      </c>
+      <c r="L62" s="2">
+        <v>32</v>
+      </c>
+      <c r="M62" s="9" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="63" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C63" s="7">
+        <v>300985</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="G63" s="2">
+        <v>14.91</v>
+      </c>
+      <c r="H63" s="5">
+        <v>24.9</v>
+      </c>
+      <c r="I63" s="5">
+        <v>33</v>
+      </c>
+      <c r="J63" s="2">
+        <v>38</v>
+      </c>
+      <c r="K63" s="2">
+        <v>45</v>
+      </c>
+      <c r="L63" s="2">
+        <v>60</v>
+      </c>
+      <c r="M63" s="9" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="64" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C64" s="7">
+        <v>688395</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="G64" s="2">
+        <v>20.59</v>
+      </c>
+      <c r="H64" s="5">
+        <v>15.95</v>
+      </c>
+      <c r="I64" s="5">
+        <v>23</v>
+      </c>
+      <c r="J64" s="2">
+        <v>29</v>
+      </c>
+      <c r="K64" s="2">
+        <v>38</v>
+      </c>
+      <c r="L64" s="2">
+        <v>58</v>
+      </c>
+      <c r="M64" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" s="7">
+        <v>600906</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="G65" s="2">
+        <v>22.94</v>
+      </c>
+      <c r="H65" s="5">
+        <v>3.76</v>
+      </c>
+      <c r="I65" s="5">
+        <v>6.2</v>
+      </c>
+      <c r="J65" s="2">
+        <v>5.7</v>
+      </c>
+      <c r="K65" s="2">
+        <v>7.08</v>
+      </c>
+      <c r="L65" s="2">
+        <v>10</v>
+      </c>
+      <c r="M65" s="9" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C66" s="7">
+        <v>300986</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="G66" s="2">
+        <v>13.56</v>
+      </c>
+      <c r="H66" s="5">
+        <v>14.79</v>
+      </c>
+      <c r="I66" s="5">
+        <v>30</v>
+      </c>
+      <c r="J66" s="2">
+        <v>30</v>
+      </c>
+      <c r="K66" s="2">
+        <v>38</v>
+      </c>
+      <c r="L66" s="2">
+        <v>60</v>
+      </c>
+      <c r="M66" s="9" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C67" s="7">
+        <v>688323</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="G67" s="2">
+        <v>24.38</v>
+      </c>
+      <c r="H67" s="5">
+        <v>5.97</v>
+      </c>
+      <c r="I67" s="5">
+        <v>19</v>
+      </c>
+      <c r="J67" s="2">
+        <v>17</v>
+      </c>
+      <c r="K67" s="2">
+        <v>28</v>
+      </c>
+      <c r="L67" s="2">
+        <v>38</v>
+      </c>
+      <c r="M67" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="68" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C68" s="7">
+        <v>688383</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="G68" s="2">
+        <v>19.510000000000002</v>
+      </c>
+      <c r="H68" s="5">
+        <v>19.579999999999998</v>
+      </c>
+      <c r="I68" s="5">
+        <v>30</v>
+      </c>
+      <c r="J68" s="2">
+        <v>29</v>
+      </c>
+      <c r="K68" s="2">
+        <v>37</v>
+      </c>
+      <c r="L68" s="2">
+        <v>66</v>
+      </c>
+      <c r="M68" s="9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="H69" s="5">
+        <v>19.05</v>
+      </c>
+      <c r="I69" s="5">
+        <v>20</v>
+      </c>
+      <c r="J69" s="2">
+        <v>23</v>
+      </c>
+      <c r="K69" s="2">
+        <v>28</v>
+      </c>
+      <c r="L69" s="2">
+        <v>39</v>
+      </c>
+      <c r="M69" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="7">
+        <v>605180</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="H70" s="5">
+        <v>22.38</v>
+      </c>
+      <c r="I70" s="5">
+        <v>25</v>
+      </c>
+      <c r="J70" s="2">
+        <v>30</v>
+      </c>
+      <c r="K70" s="2">
+        <v>40</v>
+      </c>
+      <c r="L70" s="2">
+        <v>60</v>
+      </c>
+      <c r="M70" s="9" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" s="7">
+        <v>600032</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="H71" s="5">
+        <v>3.51</v>
+      </c>
+      <c r="I71" s="5">
+        <v>6</v>
+      </c>
+      <c r="J71" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="K71" s="2">
+        <v>8</v>
+      </c>
+      <c r="L71" s="2">
+        <v>12</v>
+      </c>
+      <c r="M71" s="9" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C72" s="7">
+        <v>300982</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="H72" s="5">
+        <v>15.83</v>
+      </c>
+      <c r="I72" s="5">
+        <v>25</v>
+      </c>
+      <c r="J72" s="2">
+        <v>32</v>
+      </c>
+      <c r="K72" s="2">
+        <v>43</v>
+      </c>
+      <c r="L72" s="2">
+        <v>65</v>
+      </c>
+      <c r="M72" s="9" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C73" s="7">
+        <v>300981</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="H73" s="5">
+        <v>48.59</v>
+      </c>
+      <c r="I73" s="5">
+        <v>90</v>
+      </c>
+      <c r="J73" s="2">
+        <v>99</v>
+      </c>
+      <c r="K73" s="2">
+        <v>108</v>
+      </c>
+      <c r="L73" s="2">
+        <v>180</v>
+      </c>
+      <c r="M73" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C74" s="7">
+        <v>605089</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E74" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="H74" s="5">
+        <v>28.53</v>
+      </c>
+      <c r="I74" s="5">
+        <v>40</v>
+      </c>
+      <c r="J74" s="2">
+        <v>50</v>
+      </c>
+      <c r="K74" s="2">
+        <v>65</v>
+      </c>
+      <c r="L74" s="2">
+        <v>100</v>
+      </c>
+      <c r="M74" s="9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="E75" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="H75" s="5">
+        <v>63.38</v>
+      </c>
+      <c r="I75" s="5">
+        <v>79</v>
+      </c>
+      <c r="J75" s="2">
+        <v>95</v>
+      </c>
+      <c r="K75" s="2">
+        <v>118</v>
+      </c>
+      <c r="L75" s="2">
+        <v>158</v>
+      </c>
+      <c r="M75" s="9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B76" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C76" s="7">
+        <v>605289</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="E76" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="H76" s="5">
+        <v>27.27</v>
+      </c>
+      <c r="I76" s="5">
+        <v>32</v>
+      </c>
+      <c r="J76" s="2">
+        <v>40</v>
+      </c>
+      <c r="K76" s="2">
+        <v>48</v>
+      </c>
+      <c r="L76" s="2">
+        <v>70</v>
+      </c>
+      <c r="M76" s="9" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B77" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C77" s="7">
+        <v>300979</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="E77" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="H77" s="5">
+        <v>33.22</v>
+      </c>
+      <c r="I77" s="5">
+        <v>34</v>
+      </c>
+      <c r="J77" s="2">
+        <v>39</v>
+      </c>
+      <c r="K77" s="2">
+        <v>43</v>
+      </c>
+      <c r="L77" s="2">
+        <v>69</v>
+      </c>
+      <c r="M77" s="9" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="78" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B78" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C78" s="7">
+        <v>300978</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="E78" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="H78" s="5">
+        <v>8.42</v>
+      </c>
+      <c r="I78" s="5">
+        <v>15</v>
+      </c>
+      <c r="J78" s="2">
+        <v>12</v>
+      </c>
+      <c r="K78" s="2">
+        <v>23</v>
+      </c>
+      <c r="L78" s="2">
+        <v>30</v>
+      </c>
+      <c r="M78" s="9" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B79" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C79" s="7">
+        <v>688639</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="E79" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H79" s="5">
+        <v>23.16</v>
+      </c>
+      <c r="I79" s="5">
+        <v>32</v>
+      </c>
+      <c r="J79" s="2">
+        <v>41</v>
+      </c>
+      <c r="K79" s="2">
+        <v>48</v>
+      </c>
+      <c r="L79" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="80" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B80" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C80" s="7">
+        <v>300975</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="E80" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="H80" s="5">
+        <v>5.48</v>
+      </c>
+      <c r="I80" s="5">
+        <v>15</v>
+      </c>
+      <c r="J80" s="2">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="K80" s="2">
+        <v>20</v>
+      </c>
+      <c r="L80" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="81" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B81" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C81" s="7">
+        <v>688682</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="E81" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="H81" s="5">
+        <v>45.72</v>
+      </c>
+      <c r="I81" s="5">
+        <v>68</v>
+      </c>
+      <c r="J81" s="2">
+        <v>81</v>
+      </c>
+      <c r="K81" s="2">
+        <v>108</v>
+      </c>
+      <c r="L81" s="2">
+        <v>162</v>
+      </c>
+      <c r="M81" s="9" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="82" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B82" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C82" s="7">
+        <v>605016</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="E82" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="H82" s="5">
+        <v>14.62</v>
+      </c>
+      <c r="I82" s="5">
+        <v>22</v>
+      </c>
+      <c r="J82" s="2">
+        <v>31</v>
+      </c>
+      <c r="K82" s="2">
+        <v>39</v>
+      </c>
+      <c r="L82" s="2">
+        <v>58</v>
+      </c>
+      <c r="M82" s="9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="83" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B83" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C83" s="7">
+        <v>688201</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="E83" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H83" s="5">
+        <v>26.78</v>
+      </c>
+      <c r="I83" s="5">
+        <v>32</v>
+      </c>
+      <c r="J83" s="2">
+        <v>43</v>
+      </c>
+      <c r="K83" s="2">
+        <v>58</v>
+      </c>
+      <c r="L83" s="2">
+        <v>86</v>
+      </c>
+      <c r="M83" s="9" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="84" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B84" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C84" s="7">
+        <v>605117</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="E84" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="H84" s="5">
+        <v>32.74</v>
+      </c>
+      <c r="I84" s="5">
+        <v>38</v>
+      </c>
+      <c r="J84" s="2">
+        <v>47</v>
+      </c>
+      <c r="K84" s="2">
+        <v>58</v>
+      </c>
+      <c r="L84" s="2">
+        <v>76</v>
+      </c>
+      <c r="M84" s="9" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="85" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B85" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C85" s="7">
+        <v>300983</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="E85" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="H85" s="5">
+        <v>120.8</v>
+      </c>
+      <c r="I85" s="5">
+        <v>106</v>
+      </c>
+      <c r="J85" s="2">
+        <v>118</v>
+      </c>
+      <c r="K85" s="2">
+        <v>168</v>
+      </c>
+      <c r="L85" s="2">
+        <v>212</v>
+      </c>
+      <c r="M85" s="9" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="86" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B86" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C86" s="7">
+        <v>300980</v>
+      </c>
+      <c r="D86" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="E86" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="H86" s="5">
+        <v>32.770000000000003</v>
+      </c>
+      <c r="I86" s="5">
+        <v>45</v>
+      </c>
+      <c r="J86" s="2">
+        <v>50</v>
+      </c>
+      <c r="K86" s="2">
+        <v>70</v>
+      </c>
+      <c r="L86" s="2">
+        <v>88</v>
+      </c>
+      <c r="M86" s="9" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="87" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B87" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C87" s="7">
+        <v>605086</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="E87" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="H87" s="5">
+        <v>12.86</v>
+      </c>
+      <c r="I87" s="5">
+        <v>17</v>
+      </c>
+      <c r="J87" s="2">
+        <v>22</v>
+      </c>
+      <c r="K87" s="2">
+        <v>28</v>
+      </c>
+      <c r="L87" s="2">
+        <v>39</v>
+      </c>
+      <c r="M87" s="9" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="88" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B88" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C88" s="7">
+        <v>300977</v>
+      </c>
+      <c r="D88" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="E88" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="H88" s="5">
+        <v>89.66</v>
+      </c>
+      <c r="I88" s="5">
+        <v>111</v>
+      </c>
+      <c r="J88" s="2">
+        <v>133</v>
+      </c>
+      <c r="K88" s="2">
+        <v>158</v>
+      </c>
+      <c r="L88" s="2">
+        <v>223</v>
+      </c>
+      <c r="M88" s="9" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="89" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B89" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C89" s="7">
+        <v>300976</v>
+      </c>
+      <c r="D89" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="E89" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="H89" s="5">
+        <v>168</v>
+      </c>
+      <c r="I89" s="5">
+        <v>162</v>
+      </c>
+      <c r="J89" s="2">
+        <v>191</v>
+      </c>
+      <c r="K89" s="2">
+        <v>228</v>
+      </c>
+      <c r="L89" s="2">
+        <v>288</v>
+      </c>
+      <c r="M89" s="9" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="90" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B90" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C90" s="7">
+        <v>300973</v>
+      </c>
+      <c r="D90" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="E90" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="H90" s="5">
+        <v>28.28</v>
+      </c>
+      <c r="I90" s="5">
+        <v>38</v>
+      </c>
+      <c r="J90" s="2">
+        <v>45</v>
+      </c>
+      <c r="K90" s="2">
+        <v>53</v>
+      </c>
+      <c r="L90" s="2">
+        <v>88</v>
+      </c>
+      <c r="M90" s="9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="91" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B91" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C91" s="7">
+        <v>300972</v>
+      </c>
+      <c r="D91" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="E91" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="H91" s="5">
+        <v>7.19</v>
+      </c>
+      <c r="I91" s="5">
+        <v>15</v>
+      </c>
+      <c r="J91" s="2">
+        <v>20</v>
+      </c>
+      <c r="K91" s="2">
+        <v>30</v>
+      </c>
+      <c r="L91" s="2">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -4857,10 +6869,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -4871,12 +6883,17 @@
   <sheetData>
     <row r="1" spans="1:1" ht="147" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="126" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="42" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>248</v>
       </c>
     </row>
   </sheetData>

--- a/次新股.xlsx
+++ b/次新股.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="640" windowWidth="28560" windowHeight="16240"/>
+    <workbookView xWindow="700" yWindow="7860" windowWidth="28560" windowHeight="16240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="333">
   <si>
     <t>个股代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3160,6 +3160,307 @@
   </si>
   <si>
     <t>专注于鲜品食用菌的研发、工厂化培育与销售。赛道不好，科技不高，招股书财务报表有质疑的地方，营收下滑，缺乏想象力。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行动教育</t>
+  </si>
+  <si>
+    <t>主要业务包括企业管理培训业务、管理咨询服务以及相关图书音像制品销售。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般关注</t>
+    <rPh sb="0" eb="1">
+      <t>yi b</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>guan z</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业服务</t>
+    <rPh sb="0" eb="1">
+      <t>qi ye</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fu w</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农业种植</t>
+    <rPh sb="0" eb="1">
+      <t>nong y</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhong zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英利汽车</t>
+  </si>
+  <si>
+    <t>国内大型台资汽车零部件供应商。主营业务为车身结构零部件及防撞系统零部件。所处行业属于低利率低汽配产品，公司业绩营收已接近天花板。</t>
+    <rPh sb="0" eb="1">
+      <t>guo nei</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>da xing</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>tai zi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>qi c</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ling bu j</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>gong ying s</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>suo chu</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>hang y</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>shu yu</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>di</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>li l</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>d</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>qi pei</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>chan p</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>gong s</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ye j</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>ying s</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>yi</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>jie j</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>tian hua b</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博亚精工</t>
+  </si>
+  <si>
+    <t>主要从事板带成形加工精密装备及关键零部件和特种装备配套零部 件的研发、生产，公司技术先进，业绩稳定增长，市场占有率高，在细分行业属于冠军巨头，军工业务不容易被替代。</t>
+    <rPh sb="35" eb="36">
+      <t>sheng c</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>gong s</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ji shu</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>xian j</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ye j</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>wen d</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>zeng z</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>shi c</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>zhan you l</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>gao</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>z</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>xi fen</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>hang y</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>shu y</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>guan j</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>ju tou</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>jun gong</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>ye w</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>ron y</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>bei</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>ti d</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高端装备、军工</t>
+    <rPh sb="0" eb="1">
+      <t>gao d</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhuang b</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jun gong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格林精密</t>
+  </si>
+  <si>
+    <t>主要产品为智能终端精密结构件、精密模具。公司规模比较大，产品科技含量不算高，且利润率比较低，客户集中度比较高。</t>
+    <rPh sb="20" eb="21">
+      <t>gong s</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>gui m</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>bi j</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>da</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>chan p</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ke j</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>han l</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>suan</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>gao</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>qie</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>li run l</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>bi j</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>di</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ke hu</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ji zhon d</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>bi j</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>gao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子原件、智能穿戴</t>
+    <rPh sb="0" eb="1">
+      <t>dian z</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yuan j</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhi neng</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>chuan d</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新风光</t>
+  </si>
+  <si>
+    <t>专业从事大功率电力电子节能控制技术及相关产品研发。为光伏电站、风力电站生产高压SVG产品。</t>
+    <rPh sb="25" eb="26">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>guang fu</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>dian z</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>feng li</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>dian zhan</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>sheng c</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>gao ya</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>chan p</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3595,9 +3896,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O91"/>
+  <dimension ref="A1:O96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="140" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B94" zoomScale="140" workbookViewId="0">
       <selection activeCell="F95" sqref="F95"/>
     </sheetView>
   </sheetViews>
@@ -6849,6 +7150,181 @@
       </c>
       <c r="L91" s="2">
         <v>39</v>
+      </c>
+      <c r="M91" s="9" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="92" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B92" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C92" s="7">
+        <v>605098</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="E92" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H92" s="5">
+        <v>27.58</v>
+      </c>
+      <c r="I92" s="5">
+        <v>41</v>
+      </c>
+      <c r="J92" s="2">
+        <v>59</v>
+      </c>
+      <c r="K92" s="2">
+        <v>77</v>
+      </c>
+      <c r="L92" s="2">
+        <v>99</v>
+      </c>
+      <c r="M92" s="9" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="93" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B93" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C93" s="7">
+        <v>601279</v>
+      </c>
+      <c r="D93" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="E93" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="H93" s="5">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="I93" s="5">
+        <v>6</v>
+      </c>
+      <c r="J93" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="K93" s="2">
+        <v>8</v>
+      </c>
+      <c r="L93" s="2">
+        <v>13</v>
+      </c>
+      <c r="M93" s="9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="94" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B94" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C94" s="7">
+        <v>300971</v>
+      </c>
+      <c r="D94" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="E94" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="H94" s="5">
+        <v>18.239999999999998</v>
+      </c>
+      <c r="I94" s="5">
+        <v>36</v>
+      </c>
+      <c r="J94" s="2">
+        <v>48</v>
+      </c>
+      <c r="K94" s="2">
+        <v>60</v>
+      </c>
+      <c r="L94" s="2">
+        <v>95</v>
+      </c>
+      <c r="M94" s="9" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="95" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B95" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C95" s="7">
+        <v>300968</v>
+      </c>
+      <c r="D95" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="E95" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="H95" s="5">
+        <v>6.87</v>
+      </c>
+      <c r="I95" s="5">
+        <v>18</v>
+      </c>
+      <c r="J95" s="2">
+        <v>12</v>
+      </c>
+      <c r="K95" s="2">
+        <v>25</v>
+      </c>
+      <c r="L95" s="2">
+        <v>39</v>
+      </c>
+      <c r="M95" s="9" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="96" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B96" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C96" s="7">
+        <v>688663</v>
+      </c>
+      <c r="D96" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E96" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="H96" s="5">
+        <v>14.48</v>
+      </c>
+      <c r="I96" s="5">
+        <v>21</v>
+      </c>
+      <c r="J96" s="2">
+        <v>29</v>
+      </c>
+      <c r="K96" s="2">
+        <v>38</v>
+      </c>
+      <c r="L96" s="2">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/次新股.xlsx
+++ b/次新股.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="700" yWindow="7860" windowWidth="28560" windowHeight="16240"/>
+    <workbookView xWindow="160" yWindow="640" windowWidth="28560" windowHeight="16240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="398">
   <si>
     <t>个股代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3460,6 +3460,742 @@
     </rPh>
     <rPh sb="42" eb="43">
       <t>chan p</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晓鸣股份</t>
+  </si>
+  <si>
+    <t>公司是集祖代和父母代蛋种鸡养殖、蛋鸡养殖工程技术研发、种蛋孵化、雏 鸡销售、技术服务于一体的“引、繁、推”一体化科技型蛋鸡制种企业。</t>
+  </si>
+  <si>
+    <t>养殖业</t>
+    <rPh sb="0" eb="1">
+      <t>yang zhi y</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电力设备、智能电网</t>
+    <rPh sb="0" eb="1">
+      <t>dian li</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>she b</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhi n</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>dian w</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诺禾致源</t>
+  </si>
+  <si>
+    <t>医疗器械、基因检测</t>
+    <rPh sb="0" eb="1">
+      <t>yi l</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>qi x</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ji yin</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>jian c</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司在基因检测行业处于中游，提供方案、搭建平台、建立图谱为主，有一定技术和市场，所需设备比较依赖外国。</t>
+    <rPh sb="0" eb="1">
+      <t>gong s</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>z</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ji yin</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jian c</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>hang y</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>chu y</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>zhong you</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ti g</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>fang an</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>da jian</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ping t</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>jian li</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>tu p</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>zhu</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>you</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>yi ding</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ji shu</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>he</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>shi c</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>suo xu</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>she b</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>bi j</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>yi l</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>wai guo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>野马电池</t>
+  </si>
+  <si>
+    <t>一家锌锰电池的企业，没有自己的技术，专门给外国企业代工，可以说是夕阳企业，业务几乎靠低价出口维持。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不关注</t>
+    <rPh sb="0" eb="1">
+      <t>bu guan z</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杭州柯林</t>
+  </si>
+  <si>
+    <t>不关注</t>
+    <rPh sb="0" eb="1">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>g z</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司在智能电网领域，从事电气设备健康状态智能感知与诊断预警装置的研发，近几年财务状况好，但这类公司没有稀缺性，技术上科技含量一般。</t>
+    <rPh sb="0" eb="1">
+      <t>gpng s</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>z</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhi n</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>dian w</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ling y</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>cong s</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>dian qi</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>she b</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>jian k</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>zhuang t</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>zhi neng</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>gan zhi</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>zhen duan</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>yu jing</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>zhuang zhi</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>d</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>yan fa</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>jin</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ji nian</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>cai wu</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>zhuang k</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>hao</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>dan</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>zhe l</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>gong s</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>mei y</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>xi que xing</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>ji shu s</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>shang</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>ke j</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>han l</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>yi ban</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莱尔科技</t>
+  </si>
+  <si>
+    <t>公司主营的功能性涂布胶膜属于复合薄膜材料，其作为电子元器件关键材料之一、 工艺制程良率关键材料之一，广泛应用于柔性线路板、半导体产品和其他电子产品。</t>
+    <rPh sb="50" eb="51">
+      <t>guang f</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>ying y</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>rou xing</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>xian lu b</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>ban dao ti</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>chan p</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>he</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>qi t</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>dian z</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>chan p</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>化学制品、电子元件</t>
+    <rPh sb="0" eb="1">
+      <t>hua x</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhi p</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>dian z</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>yuan jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共同药业</t>
+  </si>
+  <si>
+    <t>生物医药、化学原料药</t>
+    <rPh sb="0" eb="1">
+      <t>sheng wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yi y</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>hua x</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>yuan l</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>yao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主业是医药原料中间体，该产业市场竞争充分、产品科技含量不高。</t>
+    <rPh sb="0" eb="1">
+      <t>zhu ye</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>s</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yi yao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yuan l</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhong j</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ti</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>gai</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>chan y</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>shi c</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>jing z</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>chong f</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>chan p</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ke j</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>han l</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>bu gao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华绿生物</t>
+  </si>
+  <si>
+    <t>专业从事食用菌的研发、工厂化种植及销售业务，是国内领先的食用菌工厂化生产企业之一。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粮食种植</t>
+    <rPh sb="0" eb="1">
+      <t>liang shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhong zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恒帅股份</t>
+  </si>
+  <si>
+    <t>汽配公司，主要产品科技含量不高。主要从事车用微电机及以微电机为核心组件的汽车清洗泵、清洗系统产 品的研发。</t>
+    <rPh sb="0" eb="1">
+      <t>qi p</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>gong s</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhu y</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>chan p</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ke j</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>han l</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>gao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科美诊断</t>
+  </si>
+  <si>
+    <t>主要从事临床免疫化学发光诊断检测试剂和仪器的研发。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中洲特材</t>
+  </si>
+  <si>
+    <t>主要从事特种合金材料领域内的高温耐蚀合金材料及制品业务，产品为以钴基合金、镍基合金为主要原材料。高温耐蚀合金被广泛应用于军工、核电、航天、深井采油、 高温高压化工装置等国家支柱产业和重大高端装备核心零部件领域。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新材料、金属制品、军工</t>
+    <rPh sb="0" eb="1">
+      <t>xin cai l</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jin s</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhi p</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>jun gon</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智明达</t>
+  </si>
+  <si>
+    <t>一般关注</t>
+    <rPh sb="0" eb="1">
+      <t>yi abn</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>guan z</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要面向军工客户，提供定制化嵌入式计算机模块和解决方案。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>军工</t>
+    <rPh sb="0" eb="1">
+      <t>jun gon</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一家以锂离子电池研发、制造和销售为基础的高科技企业。主要为锂离子电池组和锂离子电芯，产品广泛应用于电动汽车、电动摩托车等。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锂电池</t>
+    <rPh sb="0" eb="1">
+      <t>li dian c</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博力威</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>德迈仕</t>
+  </si>
+  <si>
+    <t>主营业务为精密轴及精密切削件。主要产品为汽车视窗系统、汽车动力系统和汽车车身及底盘系统等汽车精密零部件，还生产部分工业精密零部件产品。一家普通的汽配公司，科技含量不高。</t>
+    <rPh sb="0" eb="1">
+      <t>zhu y</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ye w</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>yi j</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>pu t</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>d</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>qi pei</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>gong s</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>ke j</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>han l</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>gao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科汇股份</t>
+  </si>
+  <si>
+    <t>主业为智能电网故障监测与自动化以及开关磁阻电机驱动系统，报告期内营收和利润都有增长，但是利润中补贴占太多。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱玛科技</t>
+  </si>
+  <si>
+    <t>主营业务为电动自行车、电动轻便摩托车、电动摩托车的研发。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交运设备</t>
+    <rPh sb="0" eb="1">
+      <t>jiao yun she b</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱威科技</t>
+  </si>
+  <si>
+    <t>主业务为医疗临床检验分析仪器及配套体外诊断试剂，在IVD行业，发行人规模比较小，营收微型，市场容量也不大。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东威科技</t>
+  </si>
+  <si>
+    <t>发行人是一家从事高端精密电镀设备的企业，规模比较小，属于PCB所有产业链，财务显示公司应收账太高。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专用设备</t>
+    <rPh sb="0" eb="1">
+      <t>zhuan yong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>she b</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可靠股份</t>
+  </si>
+  <si>
+    <t>发行人主营一次性卫生用品的研发、生产和销售，主要产品包括婴儿护理用品、成人失禁用品和宠物卫生用品和口罩，公司以代工为主，自己的品牌还在努力。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫生用品</t>
+    <rPh sb="0" eb="1">
+      <t>wei s</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yong p</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要从事智能电表、用电信息采集终端等智能电力产品的研发，并提供智能巡检服务和信息技术服务。依靠国家电网、南方电网，高速发展，电网投资高峰期已经过去，高增长不可持续。</t>
+    <rPh sb="57" eb="58">
+      <t>gao su</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>fa z</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>gao</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>zeng z</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>ke</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>chi x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>煜邦电力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>齐鲁银行</t>
+  </si>
+  <si>
+    <t>小型的地方银行。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晶雪节能</t>
+  </si>
+  <si>
+    <t>一般关注</t>
+    <rPh sb="0" eb="1">
+      <t>yi ban</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>guan zhu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发行人主业是隔热保温材料，应用于冷库围护系统、工业建筑围护系统，科技含量不高，赛道不错，且物流冷库还在高速发展。</t>
+    <rPh sb="13" eb="14">
+      <t>ying yon</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ke j</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>han l</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>gao</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>sai dao</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>bu cuo</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>qie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷链物流、建筑材料</t>
+    <rPh sb="0" eb="1">
+      <t>leng lian wu l</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jian z</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>cai l</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华立科技</t>
+  </si>
+  <si>
+    <t>主要从事游戏游艺设备的设计、研发。赛道不错，前景也看好，不过现阶段国产游艺机在科技上很难跟韩日相比，发行人公司利润率超低，属于劳动密集型企业。</t>
+    <rPh sb="28" eb="29">
+      <t>bu g</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文娱用品</t>
+    <rPh sb="0" eb="1">
+      <t>wen yu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yong p</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金沃股份</t>
+  </si>
+  <si>
+    <t>主业轴承套，市场竞争非常充分，不存在过高的科技含量。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机械部件</t>
+    <rPh sb="0" eb="1">
+      <t>ji x</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bu j</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3896,10 +4632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O96"/>
+  <dimension ref="A1:O122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B94" zoomScale="140" workbookViewId="0">
-      <selection activeCell="F95" sqref="F95"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="140" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="34" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3985,377 +4721,275 @@
     </row>
     <row r="5" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
-      <c r="B5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="7">
-        <v>605259</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H5" s="5">
-        <v>27.1</v>
-      </c>
-      <c r="I5" s="5">
-        <v>40</v>
-      </c>
-      <c r="J5" s="2">
-        <v>45</v>
-      </c>
-      <c r="K5" s="6">
-        <v>57</v>
-      </c>
-      <c r="L5" s="6">
-        <v>80</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>224</v>
-      </c>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
     </row>
     <row r="6" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
-      <c r="B6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="7">
-        <v>301008</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="G6" s="2">
-        <v>35.200000000000003</v>
-      </c>
-      <c r="H6" s="5">
-        <v>37.6</v>
-      </c>
-      <c r="I6" s="5">
-        <v>60</v>
-      </c>
-      <c r="J6" s="2">
-        <v>68</v>
-      </c>
-      <c r="K6" s="6">
-        <v>75</v>
-      </c>
-      <c r="L6" s="6">
-        <v>108</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>221</v>
-      </c>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
     </row>
     <row r="7" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
-      <c r="B7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="7">
-        <v>688269</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="G7" s="2">
-        <v>18.010000000000002</v>
-      </c>
-      <c r="H7" s="5">
-        <v>18.940000000000001</v>
-      </c>
-      <c r="I7" s="5">
-        <v>30</v>
-      </c>
-      <c r="J7" s="2">
-        <v>32</v>
-      </c>
-      <c r="K7" s="6">
-        <v>38</v>
-      </c>
-      <c r="L7" s="6">
-        <v>64</v>
-      </c>
-      <c r="M7" s="9" t="s">
-        <v>39</v>
-      </c>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
     </row>
     <row r="8" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C8" s="7">
-        <v>688131</v>
+        <v>300984</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>215</v>
+        <v>395</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>389</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="G8" s="2">
-        <v>40.729999999999997</v>
+        <v>396</v>
       </c>
       <c r="H8" s="5">
-        <v>64.989999999999995</v>
+        <v>30.97</v>
       </c>
       <c r="I8" s="5">
-        <v>108</v>
+        <v>52</v>
       </c>
       <c r="J8" s="2">
-        <v>135</v>
+        <v>62</v>
       </c>
       <c r="K8" s="6">
-        <v>148</v>
+        <v>83</v>
       </c>
       <c r="L8" s="6">
-        <v>243</v>
+        <v>125</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>53</v>
+        <v>397</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C9" s="7">
-        <v>688319</v>
+        <v>301011</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>211</v>
+        <v>392</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>389</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="G9" s="2">
-        <v>146.44999999999999</v>
+        <v>393</v>
       </c>
       <c r="H9" s="5">
-        <v>9.8800000000000008</v>
+        <v>14.2</v>
       </c>
       <c r="I9" s="5">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="J9" s="2">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="K9" s="6">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="L9" s="6">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>212</v>
+        <v>394</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C10" s="7">
-        <v>688625</v>
+        <v>301010</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>209</v>
+        <v>388</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>389</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="G10" s="2">
-        <v>19.95</v>
+        <v>390</v>
       </c>
       <c r="H10" s="5">
-        <v>16.48</v>
+        <v>7.83</v>
       </c>
       <c r="I10" s="5">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J10" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K10" s="6">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="L10" s="6">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>45</v>
+        <v>391</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>301006</v>
+        <v>601665</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>205</v>
+        <v>386</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>238</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="G11" s="2">
-        <v>12.61</v>
+        <v>387</v>
       </c>
       <c r="H11" s="5">
-        <v>14.42</v>
+        <v>5.36</v>
       </c>
       <c r="I11" s="5">
-        <v>21</v>
+        <v>4.18</v>
       </c>
       <c r="J11" s="2">
-        <v>29</v>
+        <v>4.5</v>
       </c>
       <c r="K11" s="6">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="L11" s="6">
-        <v>50</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>208</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="7">
+        <v>688597</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="H12" s="5">
+        <v>5.88</v>
+      </c>
+      <c r="I12" s="5">
         <v>12</v>
       </c>
-      <c r="C12" s="7">
-        <v>601156</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="G12" s="2">
-        <v>10.93</v>
-      </c>
-      <c r="H12" s="5">
-        <v>15.77</v>
-      </c>
-      <c r="I12" s="5">
-        <v>20</v>
-      </c>
       <c r="J12" s="2">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K12" s="6">
         <v>25</v>
       </c>
       <c r="L12" s="6">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>202</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C13" s="7">
-        <v>605319</v>
+        <v>688597</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>199</v>
+        <v>381</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>256</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>201</v>
+        <v>382</v>
       </c>
       <c r="G13" s="2">
-        <v>22.98</v>
+        <v>16.920000000000002</v>
       </c>
       <c r="H13" s="5">
-        <v>11.22</v>
+        <v>12.54</v>
       </c>
       <c r="I13" s="5">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J13" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K13" s="6">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L13" s="6">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>200</v>
+        <v>383</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C14" s="7">
-        <v>301002</v>
+        <v>688700</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>197</v>
+        <v>378</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>238</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>196</v>
+        <v>379</v>
       </c>
       <c r="G14" s="2">
-        <v>18.12</v>
+        <v>17.55</v>
       </c>
       <c r="H14" s="5">
-        <v>18.71</v>
+        <v>9.41</v>
       </c>
       <c r="I14" s="5">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="J14" s="2">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K14" s="6">
+        <v>35</v>
+      </c>
+      <c r="L14" s="6">
         <v>58</v>
       </c>
-      <c r="L14" s="6">
-        <v>98</v>
-      </c>
       <c r="M14" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>195</v>
+        <v>380</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -4364,99 +4998,115 @@
         <v>41</v>
       </c>
       <c r="C15" s="7">
-        <v>688117</v>
+        <v>688067</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>191</v>
+        <v>376</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>231</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>193</v>
+        <v>377</v>
       </c>
       <c r="G15" s="2">
-        <v>27.7</v>
-      </c>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="O15" s="7" t="s">
-        <v>194</v>
+        <v>37.89</v>
+      </c>
+      <c r="H15" s="5">
+        <v>14.71</v>
+      </c>
+      <c r="I15" s="5">
+        <v>29.5</v>
+      </c>
+      <c r="J15" s="2">
+        <v>48</v>
+      </c>
+      <c r="K15" s="6">
+        <v>56</v>
+      </c>
+      <c r="L15" s="6">
+        <v>88</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C16" s="7">
-        <v>300996</v>
+        <v>603529</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>190</v>
+        <v>373</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>231</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>188</v>
+        <v>374</v>
       </c>
       <c r="G16" s="2">
-        <v>23.16</v>
+        <v>21.9</v>
       </c>
       <c r="H16" s="5">
-        <v>20.81</v>
+        <v>27.86</v>
       </c>
       <c r="I16" s="5">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="J16" s="2">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="K16" s="6">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="L16" s="6">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>186</v>
+        <v>375</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C17" s="7">
-        <v>300997</v>
+        <v>688681</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>183</v>
+        <v>371</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>238</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>185</v>
+        <v>372</v>
       </c>
       <c r="G17" s="2">
-        <v>12.76</v>
+        <v>18.91</v>
       </c>
       <c r="H17" s="5">
-        <v>4.9400000000000004</v>
+        <v>9.56</v>
       </c>
       <c r="I17" s="5">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J17" s="2">
-        <v>11</v>
+        <v>23.8</v>
       </c>
       <c r="K17" s="6">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="L17" s="6">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="M17" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>184</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -4465,76 +5115,76 @@
         <v>17</v>
       </c>
       <c r="C18" s="7">
-        <v>300998</v>
+        <v>301007</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>180</v>
+        <v>369</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>231</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>181</v>
+        <v>370</v>
       </c>
       <c r="G18" s="2">
-        <v>16.940000000000001</v>
+        <v>17.3</v>
       </c>
       <c r="H18" s="5">
-        <v>6.02</v>
+        <v>5.29</v>
       </c>
       <c r="I18" s="5">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J18" s="2">
-        <v>18.8</v>
+        <v>20</v>
       </c>
       <c r="K18" s="6">
         <v>28</v>
       </c>
       <c r="L18" s="6">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="M18" s="9" t="s">
         <v>159</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C19" s="7">
-        <v>301005</v>
+        <v>688345</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>187</v>
+        <v>368</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>231</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>179</v>
+        <v>366</v>
       </c>
       <c r="G19" s="2">
-        <v>26.64</v>
+        <v>22.15</v>
       </c>
       <c r="H19" s="5">
-        <v>36.450000000000003</v>
+        <v>25.91</v>
       </c>
       <c r="I19" s="5">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J19" s="2">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K19" s="6">
         <v>70</v>
       </c>
       <c r="L19" s="6">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="M19" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>178</v>
+        <v>367</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -4543,31 +5193,37 @@
         <v>12</v>
       </c>
       <c r="C20" s="7">
-        <v>601528</v>
+        <v>605259</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>175</v>
+        <v>222</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>231</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>177</v>
+        <v>223</v>
+      </c>
+      <c r="G20" s="2">
+        <v>22.99</v>
       </c>
       <c r="H20" s="5">
-        <v>8.1199999999999992</v>
+        <v>27.1</v>
       </c>
       <c r="I20" s="5">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="J20" s="2">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="K20" s="6">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="L20" s="6">
-        <v>16.600000000000001</v>
+        <v>80</v>
       </c>
       <c r="M20" s="9" t="s">
-        <v>176</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -4576,305 +5232,304 @@
         <v>17</v>
       </c>
       <c r="C21" s="7">
-        <v>301003</v>
+        <v>301008</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>168</v>
+        <v>219</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>256</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>172</v>
+        <v>220</v>
       </c>
       <c r="G21" s="2">
-        <v>32.01</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="H21" s="5">
-        <v>55.88</v>
+        <v>37.6</v>
       </c>
       <c r="I21" s="5">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="J21" s="2">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="K21" s="6">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="L21" s="6">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="M21" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>169</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="2" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C22" s="7">
-        <v>605296</v>
+        <v>688269</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>164</v>
+        <v>217</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>167</v>
+        <v>218</v>
       </c>
       <c r="G22" s="2">
-        <v>19.760000000000002</v>
+        <v>18.010000000000002</v>
       </c>
       <c r="H22" s="5">
-        <v>56.08</v>
+        <v>18.940000000000001</v>
       </c>
       <c r="I22" s="5">
+        <v>30</v>
+      </c>
+      <c r="J22" s="2">
+        <v>32</v>
+      </c>
+      <c r="K22" s="6">
         <v>38</v>
       </c>
-      <c r="J22" s="2">
-        <v>50</v>
-      </c>
-      <c r="K22" s="6">
-        <v>68</v>
-      </c>
       <c r="L22" s="6">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="M22" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>165</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C23" s="7">
-        <v>301001</v>
+        <v>688131</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>160</v>
+        <v>215</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>161</v>
+        <v>216</v>
       </c>
       <c r="G23" s="2">
-        <v>26.19</v>
+        <v>40.729999999999997</v>
       </c>
       <c r="H23" s="5">
-        <v>25.54</v>
+        <v>64.989999999999995</v>
       </c>
       <c r="I23" s="5">
-        <v>43</v>
+        <v>108</v>
       </c>
       <c r="J23" s="2">
-        <v>43</v>
+        <v>135</v>
       </c>
       <c r="K23" s="6">
-        <v>56</v>
+        <v>148</v>
       </c>
       <c r="L23" s="6">
-        <v>98</v>
+        <v>243</v>
       </c>
       <c r="M23" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>163</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C24" s="7">
-        <v>301000</v>
+        <v>688319</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>158</v>
+        <v>213</v>
       </c>
       <c r="G24" s="2">
-        <v>35</v>
+        <v>146.44999999999999</v>
       </c>
       <c r="H24" s="5">
-        <v>64.31</v>
+        <v>9.8800000000000008</v>
       </c>
       <c r="I24" s="5">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="J24" s="2">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="K24" s="6">
-        <v>118</v>
+        <v>25</v>
       </c>
       <c r="L24" s="6">
-        <v>158</v>
+        <v>43</v>
       </c>
       <c r="M24" s="9" t="s">
-        <v>174</v>
+        <v>214</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>157</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="2" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C25" s="7">
-        <v>605189</v>
+        <v>688625</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>155</v>
+        <v>209</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>153</v>
+        <v>210</v>
       </c>
       <c r="G25" s="2">
-        <v>22.99</v>
+        <v>19.95</v>
       </c>
       <c r="H25" s="5">
-        <v>19.95</v>
+        <v>16.48</v>
       </c>
       <c r="I25" s="5">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J25" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K25" s="6">
         <v>38</v>
       </c>
       <c r="L25" s="6">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="M25" s="9" t="s">
-        <v>154</v>
+        <v>39</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>156</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C26" s="7">
-        <v>688538</v>
+        <v>301006</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>150</v>
+        <v>205</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>171</v>
+        <v>206</v>
+      </c>
+      <c r="G26" s="2">
+        <v>12.61</v>
       </c>
       <c r="H26" s="5">
-        <v>2.65</v>
+        <v>14.42</v>
       </c>
       <c r="I26" s="5">
-        <v>3.5</v>
+        <v>21</v>
       </c>
       <c r="J26" s="2">
-        <v>2.23</v>
+        <v>29</v>
       </c>
       <c r="K26" s="6">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="L26" s="6">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="M26" s="9" t="s">
-        <v>152</v>
+        <v>207</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>151</v>
+        <v>208</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="4"/>
       <c r="B27" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C27" s="7">
-        <v>605499</v>
+        <v>601156</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>146</v>
+        <v>203</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>147</v>
+        <v>204</v>
       </c>
       <c r="G27" s="2">
-        <v>22.99</v>
+        <v>10.93</v>
       </c>
       <c r="H27" s="5">
-        <v>46.27</v>
+        <v>15.77</v>
       </c>
       <c r="I27" s="5">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="J27" s="2">
-        <v>88</v>
-      </c>
-      <c r="K27" s="2">
-        <v>98</v>
-      </c>
-      <c r="L27" s="2">
-        <v>125</v>
+        <v>22</v>
+      </c>
+      <c r="K27" s="6">
+        <v>25</v>
+      </c>
+      <c r="L27" s="6">
+        <v>38</v>
       </c>
       <c r="M27" s="9" t="s">
-        <v>148</v>
+        <v>27</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>149</v>
+        <v>202</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="4"/>
       <c r="B28" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C28" s="7">
-        <v>603836</v>
+        <v>605319</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>24</v>
+        <v>199</v>
       </c>
       <c r="F28" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="G28" s="2">
+        <v>22.98</v>
+      </c>
+      <c r="H28" s="5">
+        <v>11.22</v>
+      </c>
+      <c r="I28" s="5">
+        <v>15</v>
+      </c>
+      <c r="J28" s="2">
+        <v>20</v>
+      </c>
+      <c r="K28" s="6">
         <v>25</v>
       </c>
-      <c r="G28" s="2">
-        <v>22.99</v>
-      </c>
-      <c r="H28" s="5">
-        <v>16.84</v>
-      </c>
-      <c r="I28" s="5">
-        <v>22</v>
-      </c>
-      <c r="J28" s="2">
-        <v>25</v>
-      </c>
-      <c r="K28" s="2">
-        <v>30</v>
-      </c>
-      <c r="L28" s="2">
-        <v>50</v>
+      <c r="L28" s="6">
+        <v>35</v>
       </c>
       <c r="M28" s="9" t="s">
-        <v>27</v>
+        <v>159</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>26</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -4883,626 +5538,656 @@
         <v>17</v>
       </c>
       <c r="C29" s="7">
-        <v>300614</v>
+        <v>301002</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>13</v>
+        <v>197</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>16</v>
+        <v>196</v>
       </c>
       <c r="G29" s="2">
-        <v>11.78</v>
+        <v>18.12</v>
       </c>
       <c r="H29" s="5">
-        <v>9.19</v>
+        <v>18.71</v>
       </c>
       <c r="I29" s="5">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="J29" s="2">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="K29" s="6">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="L29" s="6">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="M29" s="9" t="s">
-        <v>15</v>
+        <v>198</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>18</v>
+        <v>195</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="4"/>
       <c r="B30" s="2" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C30" s="7">
-        <v>605090</v>
+        <v>688117</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>19</v>
+        <v>191</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>20</v>
+        <v>193</v>
       </c>
       <c r="G30" s="2">
-        <v>20</v>
-      </c>
-      <c r="H30" s="5">
-        <v>34.57</v>
-      </c>
-      <c r="I30" s="5">
-        <v>37</v>
-      </c>
-      <c r="J30" s="2">
-        <v>42</v>
-      </c>
-      <c r="K30" s="2">
-        <v>50</v>
-      </c>
-      <c r="L30" s="2">
-        <v>68</v>
-      </c>
-      <c r="M30" s="9" t="s">
-        <v>21</v>
-      </c>
+        <v>27.7</v>
+      </c>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
       <c r="O30" s="7" t="s">
-        <v>23</v>
+        <v>194</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="4"/>
       <c r="B31" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C31" s="7">
-        <v>300992</v>
+        <v>300996</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>28</v>
+        <v>190</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>31</v>
+        <v>188</v>
       </c>
       <c r="G31" s="2">
-        <v>12.84</v>
+        <v>23.16</v>
       </c>
       <c r="H31" s="5">
-        <v>9.36</v>
+        <v>20.81</v>
       </c>
       <c r="I31" s="5">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="J31" s="2">
-        <v>33</v>
-      </c>
-      <c r="K31" s="2">
-        <v>38</v>
-      </c>
-      <c r="L31" s="2">
-        <v>65</v>
+        <v>39</v>
+      </c>
+      <c r="K31" s="6">
+        <v>51</v>
+      </c>
+      <c r="L31" s="6">
+        <v>79</v>
       </c>
       <c r="M31" s="9" t="s">
-        <v>30</v>
+        <v>189</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>29</v>
+        <v>186</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="4"/>
       <c r="B32" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C32" s="7">
-        <v>300995</v>
+        <v>300997</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>33</v>
+        <v>185</v>
       </c>
       <c r="G32" s="2">
-        <v>17.52</v>
+        <v>12.76</v>
       </c>
       <c r="H32" s="5">
-        <v>14.72</v>
+        <v>4.9400000000000004</v>
       </c>
       <c r="I32" s="5">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="J32" s="2">
-        <v>36</v>
-      </c>
-      <c r="K32" s="2">
-        <v>42</v>
-      </c>
-      <c r="L32" s="2">
-        <v>65</v>
+        <v>11</v>
+      </c>
+      <c r="K32" s="6">
+        <v>18</v>
+      </c>
+      <c r="L32" s="6">
+        <v>30</v>
       </c>
       <c r="M32" s="9" t="s">
-        <v>38</v>
+        <v>148</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="4"/>
       <c r="B33" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C33" s="7">
-        <v>300993</v>
+        <v>300998</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>35</v>
+        <v>180</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>37</v>
+        <v>181</v>
       </c>
       <c r="G33" s="2">
-        <v>16.45</v>
+        <v>16.940000000000001</v>
       </c>
       <c r="H33" s="5">
-        <v>12.1</v>
+        <v>6.02</v>
       </c>
       <c r="I33" s="5">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="J33" s="2">
-        <v>23</v>
-      </c>
-      <c r="K33" s="2">
-        <v>30</v>
-      </c>
-      <c r="L33" s="2">
-        <v>58</v>
+        <v>18.8</v>
+      </c>
+      <c r="K33" s="6">
+        <v>28</v>
+      </c>
+      <c r="L33" s="6">
+        <v>57</v>
       </c>
       <c r="M33" s="9" t="s">
-        <v>39</v>
+        <v>159</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="4"/>
       <c r="B34" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C34" s="7">
-        <v>688359</v>
+        <v>301005</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>40</v>
+        <v>187</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>42</v>
+        <v>179</v>
       </c>
       <c r="G34" s="2">
-        <v>22.3</v>
+        <v>26.64</v>
       </c>
       <c r="H34" s="5">
-        <v>11.03</v>
+        <v>36.450000000000003</v>
       </c>
       <c r="I34" s="5">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="J34" s="2">
-        <v>25</v>
-      </c>
-      <c r="K34" s="2">
-        <v>29</v>
-      </c>
-      <c r="L34" s="2">
-        <v>48</v>
+        <v>52</v>
+      </c>
+      <c r="K34" s="6">
+        <v>70</v>
+      </c>
+      <c r="L34" s="6">
+        <v>105</v>
       </c>
       <c r="M34" s="9" t="s">
-        <v>39</v>
+        <v>159</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="4"/>
       <c r="B35" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C35" s="7">
-        <v>688613</v>
+        <v>601528</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>44</v>
+        <v>175</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G35" s="2">
-        <v>26.6</v>
+        <v>177</v>
       </c>
       <c r="H35" s="5">
-        <v>16.43</v>
+        <v>8.1199999999999992</v>
       </c>
       <c r="I35" s="5">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="J35" s="2">
-        <v>34</v>
-      </c>
-      <c r="K35" s="2">
-        <v>48</v>
-      </c>
-      <c r="L35" s="2">
-        <v>78</v>
+        <v>10</v>
+      </c>
+      <c r="K35" s="6">
+        <v>12</v>
+      </c>
+      <c r="L35" s="6">
+        <v>16.600000000000001</v>
       </c>
       <c r="M35" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="36" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="4"/>
       <c r="B36" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="7">
+        <v>301003</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G36" s="2">
+        <v>32.01</v>
+      </c>
+      <c r="H36" s="5">
+        <v>55.88</v>
+      </c>
+      <c r="I36" s="5">
+        <v>69</v>
+      </c>
+      <c r="J36" s="2">
+        <v>85</v>
+      </c>
+      <c r="K36" s="6">
+        <v>98</v>
+      </c>
+      <c r="L36" s="6">
+        <v>138</v>
+      </c>
+      <c r="M36" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="O36" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="4"/>
+      <c r="B37" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C36" s="7">
-        <v>600905</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G36" s="2">
-        <v>28.87</v>
-      </c>
-      <c r="H36" s="5">
-        <v>2.65</v>
-      </c>
-      <c r="I36" s="5">
-        <v>5</v>
-      </c>
-      <c r="J36" s="2">
-        <v>3.5</v>
-      </c>
-      <c r="K36" s="2">
-        <v>5.8</v>
-      </c>
-      <c r="L36" s="2">
-        <v>8</v>
-      </c>
-      <c r="M36" s="9" t="s">
+      <c r="C37" s="7">
+        <v>605296</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="G37" s="2">
+        <v>19.760000000000002</v>
+      </c>
+      <c r="H37" s="5">
+        <v>56.08</v>
+      </c>
+      <c r="I37" s="5">
+        <v>38</v>
+      </c>
+      <c r="J37" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C37" s="7">
-        <v>688076</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G37" s="2">
-        <v>35.130000000000003</v>
-      </c>
-      <c r="H37" s="5">
-        <v>15.57</v>
-      </c>
-      <c r="I37" s="5">
-        <v>21</v>
-      </c>
-      <c r="J37" s="2">
-        <v>24</v>
-      </c>
-      <c r="K37" s="2">
-        <v>28</v>
-      </c>
-      <c r="L37" s="2">
-        <v>43</v>
+      <c r="K37" s="6">
+        <v>68</v>
+      </c>
+      <c r="L37" s="6">
+        <v>95</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>53</v>
+        <v>166</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="4"/>
       <c r="B38" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C38" s="7">
-        <v>300991</v>
+        <v>301001</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>55</v>
+        <v>160</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>58</v>
+        <v>161</v>
       </c>
       <c r="G38" s="2">
-        <v>13.06</v>
+        <v>26.19</v>
       </c>
       <c r="H38" s="5">
-        <v>13.06</v>
-      </c>
-      <c r="L38" s="2">
+        <v>25.54</v>
+      </c>
+      <c r="I38" s="5">
+        <v>43</v>
+      </c>
+      <c r="J38" s="2">
+        <v>43</v>
+      </c>
+      <c r="K38" s="6">
         <v>56</v>
       </c>
+      <c r="L38" s="6">
+        <v>98</v>
+      </c>
       <c r="M38" s="9" t="s">
-        <v>56</v>
+        <v>162</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="39" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="4"/>
       <c r="B39" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C39" s="7">
-        <v>688314</v>
+        <v>301000</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>59</v>
+        <v>225</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>61</v>
+        <v>158</v>
       </c>
       <c r="G39" s="2">
-        <v>22.17</v>
+        <v>35</v>
       </c>
       <c r="H39" s="5">
-        <v>17.34</v>
+        <v>64.31</v>
       </c>
       <c r="I39" s="5">
+        <v>85</v>
+      </c>
+      <c r="J39" s="2">
+        <v>93</v>
+      </c>
+      <c r="K39" s="6">
+        <v>118</v>
+      </c>
+      <c r="L39" s="6">
+        <v>158</v>
+      </c>
+      <c r="M39" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="4"/>
+      <c r="B40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="7">
+        <v>605189</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G40" s="2">
+        <v>22.99</v>
+      </c>
+      <c r="H40" s="5">
+        <v>19.95</v>
+      </c>
+      <c r="I40" s="5">
+        <v>28</v>
+      </c>
+      <c r="J40" s="2">
+        <v>32</v>
+      </c>
+      <c r="K40" s="6">
+        <v>38</v>
+      </c>
+      <c r="L40" s="6">
         <v>48</v>
       </c>
-      <c r="J39" s="2">
-        <v>52</v>
-      </c>
-      <c r="K39" s="2">
-        <v>60</v>
-      </c>
-      <c r="L39" s="2">
-        <v>108</v>
-      </c>
-      <c r="M39" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="O39" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="40" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C40" s="7">
-        <v>688660</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G40" s="2">
-        <v>23.99</v>
-      </c>
-      <c r="H40" s="5">
-        <v>5.44</v>
-      </c>
-      <c r="I40" s="5">
-        <v>11.3</v>
-      </c>
-      <c r="J40" s="2">
-        <v>11.3</v>
-      </c>
-      <c r="K40" s="2">
-        <v>18</v>
-      </c>
-      <c r="L40" s="2">
-        <v>28</v>
-      </c>
       <c r="M40" s="9" t="s">
-        <v>66</v>
+        <v>154</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="41" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="4"/>
       <c r="B41" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C41" s="7">
-        <v>688575</v>
+        <v>688538</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>67</v>
+        <v>150</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G41" s="2">
-        <v>31.96</v>
+        <v>171</v>
       </c>
       <c r="H41" s="5">
-        <v>14.8</v>
-      </c>
-      <c r="L41" s="2">
-        <v>38</v>
+        <v>2.65</v>
+      </c>
+      <c r="I41" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="J41" s="2">
+        <v>2.23</v>
+      </c>
+      <c r="K41" s="6">
+        <v>5</v>
+      </c>
+      <c r="L41" s="6">
+        <v>8</v>
       </c>
       <c r="M41" s="9" t="s">
-        <v>60</v>
+        <v>152</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="42" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>71</v>
+        <v>12</v>
+      </c>
+      <c r="C42" s="7">
+        <v>605499</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>70</v>
+        <v>146</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>74</v>
+        <v>147</v>
       </c>
       <c r="G42" s="2">
         <v>22.99</v>
       </c>
       <c r="H42" s="5">
-        <v>44.6</v>
+        <v>46.27</v>
+      </c>
+      <c r="I42" s="5">
+        <v>75</v>
+      </c>
+      <c r="J42" s="2">
+        <v>88</v>
+      </c>
+      <c r="K42" s="2">
+        <v>98</v>
       </c>
       <c r="L42" s="2">
-        <v>126</v>
+        <v>125</v>
+      </c>
+      <c r="M42" s="9" t="s">
+        <v>148</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="43" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C43" s="7">
-        <v>605339</v>
+        <v>603836</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="G43" s="2">
         <v>22.99</v>
       </c>
       <c r="H43" s="5">
-        <v>16.98</v>
+        <v>16.84</v>
+      </c>
+      <c r="I43" s="5">
+        <v>22</v>
+      </c>
+      <c r="J43" s="2">
+        <v>25</v>
+      </c>
+      <c r="K43" s="2">
+        <v>30</v>
       </c>
       <c r="L43" s="2">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="M43" s="9" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="44" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="4"/>
       <c r="B44" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C44" s="7">
-        <v>688565</v>
+        <v>300614</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="G44" s="2">
-        <v>19.48</v>
+        <v>11.78</v>
       </c>
       <c r="H44" s="5">
-        <v>9.39</v>
+        <v>9.19</v>
       </c>
       <c r="I44" s="5">
-        <v>18.7</v>
+        <v>20</v>
       </c>
       <c r="J44" s="2">
+        <v>19</v>
+      </c>
+      <c r="K44" s="6">
+        <v>25</v>
+      </c>
+      <c r="L44" s="6">
+        <v>38</v>
+      </c>
+      <c r="M44" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="O44" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="7">
+        <v>605090</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G45" s="2">
+        <v>20</v>
+      </c>
+      <c r="H45" s="5">
+        <v>34.57</v>
+      </c>
+      <c r="I45" s="5">
+        <v>37</v>
+      </c>
+      <c r="J45" s="2">
+        <v>42</v>
+      </c>
+      <c r="K45" s="2">
+        <v>50</v>
+      </c>
+      <c r="L45" s="2">
+        <v>68</v>
+      </c>
+      <c r="M45" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="O45" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="K44" s="2">
+    </row>
+    <row r="46" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" s="7">
+        <v>300992</v>
+      </c>
+      <c r="D46" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="L44" s="2">
-        <v>47</v>
-      </c>
-      <c r="M44" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="O44" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="45" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C45" s="7">
-        <v>688217</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G45" s="2">
-        <v>29.89</v>
-      </c>
-      <c r="H45" s="5">
-        <v>18.420000000000002</v>
-      </c>
-      <c r="I45" s="5">
-        <v>36</v>
-      </c>
-      <c r="J45" s="2">
-        <v>45</v>
-      </c>
-      <c r="K45" s="2">
-        <v>54</v>
-      </c>
-      <c r="L45" s="2">
-        <v>90</v>
-      </c>
-      <c r="M45" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="O45" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="46" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C46" s="7">
-        <v>605488</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>86</v>
-      </c>
       <c r="F46" s="2" t="s">
-        <v>88</v>
+        <v>31</v>
       </c>
       <c r="G46" s="2">
-        <v>22.99</v>
+        <v>12.84</v>
       </c>
       <c r="H46" s="5">
-        <v>20.43</v>
+        <v>9.36</v>
       </c>
       <c r="I46" s="5">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J46" s="2">
         <v>33</v>
@@ -5511,127 +6196,127 @@
         <v>38</v>
       </c>
       <c r="L46" s="2">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="M46" s="9" t="s">
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="47" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C47" s="7">
-        <v>688685</v>
+        <v>300995</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>91</v>
+        <v>33</v>
       </c>
       <c r="G47" s="2">
-        <v>22.83</v>
+        <v>17.52</v>
       </c>
       <c r="H47" s="5">
-        <v>9.02</v>
+        <v>14.72</v>
       </c>
       <c r="I47" s="5">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J47" s="2">
         <v>36</v>
       </c>
       <c r="K47" s="2">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="L47" s="2">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="M47" s="9" t="s">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="48" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C48" s="7">
-        <v>688355</v>
+        <v>300993</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>94</v>
+        <v>35</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="G48" s="2">
-        <v>22.95</v>
+        <v>16.45</v>
       </c>
       <c r="H48" s="5">
-        <v>17.649999999999999</v>
+        <v>12.1</v>
       </c>
       <c r="I48" s="5">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="J48" s="2">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K48" s="2">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="L48" s="2">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="M48" s="9" t="s">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>95</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>100</v>
+        <v>41</v>
+      </c>
+      <c r="C49" s="7">
+        <v>688359</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="G49" s="2">
-        <v>17.78</v>
+        <v>22.3</v>
       </c>
       <c r="H49" s="5">
-        <v>16.52</v>
+        <v>11.03</v>
       </c>
       <c r="I49" s="5">
+        <v>20</v>
+      </c>
+      <c r="J49" s="2">
         <v>25</v>
       </c>
-      <c r="J49" s="2">
-        <v>33</v>
-      </c>
       <c r="K49" s="2">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="L49" s="2">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="M49" s="9" t="s">
-        <v>103</v>
+        <v>39</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>101</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -5639,40 +6324,37 @@
         <v>41</v>
       </c>
       <c r="C50" s="7">
-        <v>688097</v>
+        <v>688613</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>107</v>
+        <v>46</v>
       </c>
       <c r="G50" s="2">
-        <v>15.97</v>
+        <v>26.6</v>
       </c>
       <c r="H50" s="5">
-        <v>11.27</v>
+        <v>16.43</v>
       </c>
       <c r="I50" s="5">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="J50" s="2">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="K50" s="2">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="L50" s="2">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="M50" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="N50" s="2" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>104</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -5680,37 +6362,34 @@
         <v>12</v>
       </c>
       <c r="C51" s="7">
-        <v>605196</v>
+        <v>600905</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c r="G51" s="2">
-        <v>21.09</v>
+        <v>28.87</v>
       </c>
       <c r="H51" s="5">
-        <v>5.05</v>
+        <v>2.65</v>
       </c>
       <c r="I51" s="5">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J51" s="2">
-        <v>10</v>
+        <v>3.5</v>
       </c>
       <c r="K51" s="2">
-        <v>15</v>
+        <v>5.8</v>
       </c>
       <c r="L51" s="2">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="M51" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="O51" s="7" t="s">
-        <v>110</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -5718,37 +6397,37 @@
         <v>41</v>
       </c>
       <c r="C52" s="7">
-        <v>688655</v>
+        <v>688076</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="G52" s="2">
-        <v>20.350000000000001</v>
+        <v>35.130000000000003</v>
       </c>
       <c r="H52" s="5">
-        <v>7.59</v>
+        <v>15.57</v>
       </c>
       <c r="I52" s="5">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J52" s="2">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K52" s="2">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="L52" s="2">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="M52" s="9" t="s">
-        <v>115</v>
+        <v>53</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>114</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -5756,113 +6435,104 @@
         <v>17</v>
       </c>
       <c r="C53" s="7">
-        <v>300987</v>
+        <v>300991</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>116</v>
+        <v>55</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="G53" s="2">
-        <v>18.420000000000002</v>
+        <v>13.06</v>
       </c>
       <c r="H53" s="5">
-        <v>6.79</v>
-      </c>
-      <c r="I53" s="5">
-        <v>25</v>
-      </c>
-      <c r="J53" s="2">
-        <v>23</v>
-      </c>
-      <c r="K53" s="2">
-        <v>28</v>
+        <v>13.06</v>
       </c>
       <c r="L53" s="2">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M53" s="9" t="s">
-        <v>119</v>
+        <v>56</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
     </row>
     <row r="54" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C54" s="7">
-        <v>300990</v>
+        <v>688314</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>120</v>
+        <v>59</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>121</v>
+        <v>61</v>
       </c>
       <c r="G54" s="2">
-        <v>36.270000000000003</v>
+        <v>22.17</v>
       </c>
       <c r="H54" s="5">
-        <v>85.5</v>
+        <v>17.34</v>
       </c>
       <c r="I54" s="5">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="J54" s="2">
-        <v>115</v>
+        <v>52</v>
       </c>
       <c r="K54" s="2">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="L54" s="2">
-        <v>153</v>
+        <v>108</v>
       </c>
       <c r="M54" s="9" t="s">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>122</v>
+        <v>62</v>
       </c>
     </row>
     <row r="55" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="2" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C55" s="7">
-        <v>603511</v>
+        <v>688660</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>123</v>
+        <v>63</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>125</v>
+        <v>64</v>
       </c>
       <c r="G55" s="2">
-        <v>21.98</v>
+        <v>23.99</v>
       </c>
       <c r="H55" s="5">
-        <v>20.99</v>
+        <v>5.44</v>
       </c>
       <c r="I55" s="5">
-        <v>25</v>
+        <v>11.3</v>
       </c>
       <c r="J55" s="2">
-        <v>30</v>
+        <v>11.3</v>
       </c>
       <c r="K55" s="2">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="L55" s="2">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="M55" s="9" t="s">
-        <v>124</v>
+        <v>66</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>131</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -5870,189 +6540,159 @@
         <v>41</v>
       </c>
       <c r="C56" s="7">
-        <v>688113</v>
+        <v>688575</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>127</v>
+        <v>68</v>
       </c>
       <c r="G56" s="2">
-        <v>17.309999999999999</v>
+        <v>31.96</v>
       </c>
       <c r="H56" s="5">
-        <v>19.14</v>
-      </c>
-      <c r="I56" s="5">
-        <v>34</v>
-      </c>
-      <c r="J56" s="2">
-        <v>47</v>
-      </c>
-      <c r="K56" s="2">
-        <v>58</v>
+        <v>14.8</v>
       </c>
       <c r="L56" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="M56" s="9" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>132</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C57" s="7">
-        <v>605305</v>
+        <v>72</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>71</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>129</v>
+        <v>70</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>130</v>
+        <v>74</v>
       </c>
       <c r="G57" s="2">
         <v>22.99</v>
       </c>
       <c r="H57" s="5">
-        <v>37.94</v>
-      </c>
-      <c r="I57" s="5">
-        <v>45</v>
-      </c>
-      <c r="J57" s="2">
-        <v>54</v>
-      </c>
-      <c r="K57" s="2">
-        <v>65</v>
+        <v>44.6</v>
       </c>
       <c r="L57" s="2">
-        <v>82</v>
-      </c>
-      <c r="M57" s="9" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
     </row>
     <row r="58" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C58" s="7">
-        <v>300988</v>
+        <v>605339</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>134</v>
+        <v>75</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>137</v>
+        <v>76</v>
       </c>
       <c r="G58" s="2">
-        <v>32.729999999999997</v>
+        <v>22.99</v>
       </c>
       <c r="H58" s="5">
-        <v>23.73</v>
-      </c>
-      <c r="I58" s="5">
-        <v>40</v>
-      </c>
-      <c r="J58" s="2">
-        <v>48</v>
-      </c>
-      <c r="K58" s="2">
-        <v>68</v>
+        <v>16.98</v>
       </c>
       <c r="L58" s="2">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="M58" s="9" t="s">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>135</v>
+        <v>77</v>
       </c>
     </row>
     <row r="59" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C59" s="7">
-        <v>300989</v>
+        <v>688565</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="G59" s="2">
-        <v>36.01</v>
+        <v>19.48</v>
       </c>
       <c r="H59" s="5">
-        <v>51.62</v>
+        <v>9.39</v>
       </c>
       <c r="I59" s="5">
-        <v>58</v>
+        <v>18.7</v>
       </c>
       <c r="J59" s="2">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="K59" s="2">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="L59" s="2">
-        <v>116</v>
+        <v>47</v>
       </c>
       <c r="M59" s="9" t="s">
-        <v>141</v>
+        <v>81</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>140</v>
+        <v>82</v>
       </c>
     </row>
     <row r="60" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="2" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C60" s="7">
-        <v>605080</v>
+        <v>688217</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>142</v>
+        <v>84</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>143</v>
+        <v>83</v>
       </c>
       <c r="G60" s="2">
-        <v>22.99</v>
+        <v>29.89</v>
       </c>
       <c r="H60" s="5">
-        <v>31.16</v>
+        <v>18.420000000000002</v>
       </c>
       <c r="I60" s="5">
+        <v>36</v>
+      </c>
+      <c r="J60" s="2">
         <v>45</v>
       </c>
-      <c r="J60" s="2">
+      <c r="K60" s="2">
+        <v>54</v>
+      </c>
+      <c r="L60" s="2">
+        <v>90</v>
+      </c>
+      <c r="M60" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="K60" s="2">
-        <v>70</v>
-      </c>
-      <c r="L60" s="2">
-        <v>80</v>
-      </c>
-      <c r="M60" s="9" t="s">
-        <v>145</v>
-      </c>
       <c r="O60" s="7" t="s">
-        <v>144</v>
+        <v>85</v>
       </c>
     </row>
     <row r="61" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -6060,139 +6700,139 @@
         <v>12</v>
       </c>
       <c r="C61" s="7">
-        <v>605300</v>
+        <v>605488</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>227</v>
+        <v>86</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>226</v>
+        <v>88</v>
       </c>
       <c r="G61" s="2">
         <v>22.99</v>
       </c>
       <c r="H61" s="5">
-        <v>11.25</v>
+        <v>20.43</v>
       </c>
       <c r="I61" s="5">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="J61" s="2">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="K61" s="2">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="L61" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="M61" s="9" t="s">
-        <v>148</v>
+        <v>89</v>
+      </c>
+      <c r="O61" s="7" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="62" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>229</v>
+        <v>41</v>
+      </c>
+      <c r="C62" s="7">
+        <v>688685</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="E62" s="9" t="s">
-        <v>231</v>
+        <v>90</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>228</v>
+        <v>91</v>
       </c>
       <c r="G62" s="2">
-        <v>22.99</v>
+        <v>22.83</v>
       </c>
       <c r="H62" s="5">
-        <v>8.98</v>
+        <v>9.02</v>
       </c>
       <c r="I62" s="5">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="J62" s="2">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="K62" s="2">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="L62" s="2">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="M62" s="9" t="s">
-        <v>235</v>
+        <v>92</v>
+      </c>
+      <c r="O62" s="7" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="63" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C63" s="7">
-        <v>300985</v>
+        <v>688355</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="E63" s="9" t="s">
-        <v>231</v>
+        <v>94</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>233</v>
+        <v>96</v>
       </c>
       <c r="G63" s="2">
-        <v>14.91</v>
+        <v>22.95</v>
       </c>
       <c r="H63" s="5">
-        <v>24.9</v>
+        <v>17.649999999999999</v>
       </c>
       <c r="I63" s="5">
+        <v>28</v>
+      </c>
+      <c r="J63" s="2">
         <v>33</v>
       </c>
-      <c r="J63" s="2">
+      <c r="K63" s="2">
         <v>38</v>
       </c>
-      <c r="K63" s="2">
-        <v>45</v>
-      </c>
       <c r="L63" s="2">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="M63" s="9" t="s">
-        <v>236</v>
+        <v>97</v>
+      </c>
+      <c r="O63" s="7" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="64" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C64" s="7">
-        <v>688395</v>
+        <v>72</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>100</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="E64" s="9" t="s">
-        <v>238</v>
+        <v>99</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>239</v>
+        <v>98</v>
       </c>
       <c r="G64" s="2">
-        <v>20.59</v>
+        <v>17.78</v>
       </c>
       <c r="H64" s="5">
-        <v>15.95</v>
+        <v>16.52</v>
       </c>
       <c r="I64" s="5">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J64" s="2">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K64" s="2">
         <v>38</v>
@@ -6201,214 +6841,223 @@
         <v>58</v>
       </c>
       <c r="M64" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="O64" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C65" s="7">
+        <v>688097</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G65" s="2">
+        <v>15.97</v>
+      </c>
+      <c r="H65" s="5">
+        <v>11.27</v>
+      </c>
+      <c r="I65" s="5">
+        <v>18</v>
+      </c>
+      <c r="J65" s="2">
+        <v>15</v>
+      </c>
+      <c r="K65" s="2">
+        <v>23</v>
+      </c>
+      <c r="L65" s="2">
+        <v>35</v>
+      </c>
+      <c r="M65" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="N65" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="O65" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="7">
+        <v>605196</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G66" s="2">
+        <v>21.09</v>
+      </c>
+      <c r="H66" s="5">
+        <v>5.05</v>
+      </c>
+      <c r="I66" s="5">
+        <v>12</v>
+      </c>
+      <c r="J66" s="2">
+        <v>10</v>
+      </c>
+      <c r="K66" s="2">
+        <v>15</v>
+      </c>
+      <c r="L66" s="2">
+        <v>23</v>
+      </c>
+      <c r="M66" s="9" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C65" s="7">
-        <v>600906</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="E65" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="G65" s="2">
-        <v>22.94</v>
-      </c>
-      <c r="H65" s="5">
-        <v>3.76</v>
-      </c>
-      <c r="I65" s="5">
-        <v>6.2</v>
-      </c>
-      <c r="J65" s="2">
-        <v>5.7</v>
-      </c>
-      <c r="K65" s="2">
-        <v>7.08</v>
-      </c>
-      <c r="L65" s="2">
-        <v>10</v>
-      </c>
-      <c r="M65" s="9" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="66" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="2" t="s">
+      <c r="O66" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C67" s="7">
+        <v>688655</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G67" s="2">
+        <v>20.350000000000001</v>
+      </c>
+      <c r="H67" s="5">
+        <v>7.59</v>
+      </c>
+      <c r="I67" s="5">
+        <v>18</v>
+      </c>
+      <c r="J67" s="2">
+        <v>20</v>
+      </c>
+      <c r="K67" s="2">
+        <v>25</v>
+      </c>
+      <c r="L67" s="2">
+        <v>37</v>
+      </c>
+      <c r="M67" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="O67" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="68" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C66" s="7">
-        <v>300986</v>
-      </c>
-      <c r="D66" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="E66" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="G66" s="2">
-        <v>13.56</v>
-      </c>
-      <c r="H66" s="5">
-        <v>14.79</v>
-      </c>
-      <c r="I66" s="5">
-        <v>30</v>
-      </c>
-      <c r="J66" s="2">
-        <v>30</v>
-      </c>
-      <c r="K66" s="2">
-        <v>38</v>
-      </c>
-      <c r="L66" s="2">
-        <v>60</v>
-      </c>
-      <c r="M66" s="9" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="67" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="C67" s="7">
-        <v>688323</v>
-      </c>
-      <c r="D67" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="E67" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="G67" s="2">
-        <v>24.38</v>
-      </c>
-      <c r="H67" s="5">
-        <v>5.97</v>
-      </c>
-      <c r="I67" s="5">
-        <v>19</v>
-      </c>
-      <c r="J67" s="2">
+      <c r="C68" s="7">
+        <v>300987</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G68" s="2">
+        <v>18.420000000000002</v>
+      </c>
+      <c r="H68" s="5">
+        <v>6.79</v>
+      </c>
+      <c r="I68" s="5">
+        <v>25</v>
+      </c>
+      <c r="J68" s="2">
+        <v>23</v>
+      </c>
+      <c r="K68" s="2">
+        <v>28</v>
+      </c>
+      <c r="L68" s="2">
+        <v>52</v>
+      </c>
+      <c r="M68" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="O68" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K67" s="2">
-        <v>28</v>
-      </c>
-      <c r="L67" s="2">
-        <v>38</v>
-      </c>
-      <c r="M67" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="68" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C68" s="7">
-        <v>688383</v>
-      </c>
-      <c r="D68" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="E68" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="G68" s="2">
-        <v>19.510000000000002</v>
-      </c>
-      <c r="H68" s="5">
-        <v>19.579999999999998</v>
-      </c>
-      <c r="I68" s="5">
-        <v>30</v>
-      </c>
-      <c r="J68" s="2">
-        <v>29</v>
-      </c>
-      <c r="K68" s="2">
-        <v>37</v>
-      </c>
-      <c r="L68" s="2">
-        <v>66</v>
-      </c>
-      <c r="M68" s="9" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="69" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>254</v>
+      <c r="C69" s="7">
+        <v>300990</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="E69" s="9" t="s">
-        <v>256</v>
+        <v>120</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>255</v>
+        <v>121</v>
+      </c>
+      <c r="G69" s="2">
+        <v>36.270000000000003</v>
       </c>
       <c r="H69" s="5">
-        <v>19.05</v>
+        <v>85.5</v>
       </c>
       <c r="I69" s="5">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="J69" s="2">
-        <v>23</v>
+        <v>115</v>
       </c>
       <c r="K69" s="2">
-        <v>28</v>
+        <v>128</v>
       </c>
       <c r="L69" s="2">
-        <v>39</v>
+        <v>153</v>
       </c>
       <c r="M69" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="70" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+      <c r="O69" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C70" s="7">
-        <v>605180</v>
+        <v>603511</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="E70" s="9" t="s">
-        <v>238</v>
+        <v>123</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>258</v>
+        <v>125</v>
+      </c>
+      <c r="G70" s="2">
+        <v>21.98</v>
       </c>
       <c r="H70" s="5">
-        <v>22.38</v>
+        <v>20.99</v>
       </c>
       <c r="I70" s="5">
         <v>25</v>
@@ -6417,427 +7066,469 @@
         <v>30</v>
       </c>
       <c r="K70" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L70" s="2">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="M70" s="9" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="71" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+      <c r="O70" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C71" s="7">
+        <v>688113</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G71" s="2">
+        <v>17.309999999999999</v>
+      </c>
+      <c r="H71" s="5">
+        <v>19.14</v>
+      </c>
+      <c r="I71" s="5">
+        <v>34</v>
+      </c>
+      <c r="J71" s="2">
+        <v>47</v>
+      </c>
+      <c r="K71" s="2">
+        <v>58</v>
+      </c>
+      <c r="L71" s="2">
+        <v>78</v>
+      </c>
+      <c r="M71" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="O71" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C71" s="7">
-        <v>600032</v>
-      </c>
-      <c r="D71" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="E71" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="H71" s="5">
-        <v>3.51</v>
-      </c>
-      <c r="I71" s="5">
-        <v>6</v>
-      </c>
-      <c r="J71" s="2">
-        <v>4.8</v>
-      </c>
-      <c r="K71" s="2">
-        <v>8</v>
-      </c>
-      <c r="L71" s="2">
-        <v>12</v>
-      </c>
-      <c r="M71" s="9" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="72" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="C72" s="7">
-        <v>300982</v>
+        <v>605305</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="E72" s="9" t="s">
-        <v>231</v>
+        <v>129</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>265</v>
+        <v>130</v>
+      </c>
+      <c r="G72" s="2">
+        <v>22.99</v>
       </c>
       <c r="H72" s="5">
-        <v>15.83</v>
+        <v>37.94</v>
       </c>
       <c r="I72" s="5">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="J72" s="2">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="K72" s="2">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="L72" s="2">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="M72" s="9" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="73" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+      <c r="O72" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C73" s="7">
-        <v>300981</v>
+        <v>300988</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="E73" s="9" t="s">
-        <v>231</v>
+        <v>134</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>267</v>
+        <v>137</v>
+      </c>
+      <c r="G73" s="2">
+        <v>32.729999999999997</v>
       </c>
       <c r="H73" s="5">
-        <v>48.59</v>
+        <v>23.73</v>
       </c>
       <c r="I73" s="5">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="J73" s="2">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="K73" s="2">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="L73" s="2">
-        <v>180</v>
+        <v>95</v>
       </c>
       <c r="M73" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="O73" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C74" s="7">
+        <v>300989</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G74" s="2">
+        <v>36.01</v>
+      </c>
+      <c r="H74" s="5">
+        <v>51.62</v>
+      </c>
+      <c r="I74" s="5">
+        <v>58</v>
+      </c>
+      <c r="J74" s="2">
+        <v>66</v>
+      </c>
+      <c r="K74" s="2">
+        <v>83</v>
+      </c>
+      <c r="L74" s="2">
+        <v>116</v>
+      </c>
+      <c r="M74" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="O74" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" s="7">
+        <v>605080</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G75" s="2">
+        <v>22.99</v>
+      </c>
+      <c r="H75" s="5">
+        <v>31.16</v>
+      </c>
+      <c r="I75" s="5">
+        <v>45</v>
+      </c>
+      <c r="J75" s="2">
         <v>60</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C74" s="7">
-        <v>605089</v>
-      </c>
-      <c r="D74" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="E74" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="H74" s="5">
-        <v>28.53</v>
-      </c>
-      <c r="I74" s="5">
-        <v>40</v>
-      </c>
-      <c r="J74" s="2">
-        <v>50</v>
-      </c>
-      <c r="K74" s="2">
-        <v>65</v>
-      </c>
-      <c r="L74" s="2">
-        <v>100</v>
-      </c>
-      <c r="M74" s="9" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="75" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C75" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="D75" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="E75" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="H75" s="5">
-        <v>63.38</v>
-      </c>
-      <c r="I75" s="5">
-        <v>79</v>
-      </c>
-      <c r="J75" s="2">
-        <v>95</v>
-      </c>
       <c r="K75" s="2">
-        <v>118</v>
+        <v>70</v>
       </c>
       <c r="L75" s="2">
-        <v>158</v>
+        <v>80</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="76" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+      <c r="O75" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C76" s="7">
-        <v>605289</v>
+        <v>605300</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="E76" s="9" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>274</v>
+        <v>226</v>
+      </c>
+      <c r="G76" s="2">
+        <v>22.99</v>
       </c>
       <c r="H76" s="5">
-        <v>27.27</v>
+        <v>11.25</v>
       </c>
       <c r="I76" s="5">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="J76" s="2">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="K76" s="2">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="L76" s="2">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="M76" s="9" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="77" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C77" s="7">
-        <v>300979</v>
+        <v>12</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>229</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>276</v>
+        <v>234</v>
       </c>
       <c r="E77" s="9" t="s">
         <v>231</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>277</v>
+        <v>228</v>
+      </c>
+      <c r="G77" s="2">
+        <v>22.99</v>
       </c>
       <c r="H77" s="5">
-        <v>33.22</v>
+        <v>8.98</v>
       </c>
       <c r="I77" s="5">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="J77" s="2">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="K77" s="2">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="L77" s="2">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="M77" s="9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="78" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="78" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C78" s="7">
-        <v>300978</v>
+        <v>300985</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>279</v>
+        <v>232</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>280</v>
+        <v>233</v>
+      </c>
+      <c r="G78" s="2">
+        <v>14.91</v>
       </c>
       <c r="H78" s="5">
-        <v>8.42</v>
+        <v>24.9</v>
       </c>
       <c r="I78" s="5">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="J78" s="2">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="K78" s="2">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="L78" s="2">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="M78" s="9" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="79" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C79" s="7">
-        <v>688639</v>
+        <v>688395</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>282</v>
+        <v>237</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>283</v>
+        <v>239</v>
+      </c>
+      <c r="G79" s="2">
+        <v>20.59</v>
       </c>
       <c r="H79" s="5">
-        <v>23.16</v>
+        <v>15.95</v>
       </c>
       <c r="I79" s="5">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="J79" s="2">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="K79" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="L79" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="80" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+      <c r="M79" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="80" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C80" s="7">
-        <v>300975</v>
+        <v>600906</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>284</v>
+        <v>241</v>
       </c>
       <c r="E80" s="9" t="s">
         <v>231</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>285</v>
+        <v>240</v>
+      </c>
+      <c r="G80" s="2">
+        <v>22.94</v>
       </c>
       <c r="H80" s="5">
-        <v>5.48</v>
+        <v>3.76</v>
       </c>
       <c r="I80" s="5">
-        <v>15</v>
+        <v>6.2</v>
       </c>
       <c r="J80" s="2">
-        <v>9.1999999999999993</v>
+        <v>5.7</v>
       </c>
       <c r="K80" s="2">
-        <v>20</v>
+        <v>7.08</v>
       </c>
       <c r="L80" s="2">
-        <v>35</v>
+        <v>10</v>
+      </c>
+      <c r="M80" s="9" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="81" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C81" s="7">
-        <v>688682</v>
+        <v>300986</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>286</v>
+        <v>243</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>287</v>
+        <v>244</v>
+      </c>
+      <c r="G81" s="2">
+        <v>13.56</v>
       </c>
       <c r="H81" s="5">
-        <v>45.72</v>
+        <v>14.79</v>
       </c>
       <c r="I81" s="5">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="J81" s="2">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="K81" s="2">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="L81" s="2">
-        <v>162</v>
+        <v>60</v>
       </c>
       <c r="M81" s="9" t="s">
-        <v>288</v>
+        <v>236</v>
       </c>
     </row>
     <row r="82" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="2" t="s">
-        <v>12</v>
+        <v>246</v>
       </c>
       <c r="C82" s="7">
-        <v>605016</v>
+        <v>688323</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>289</v>
+        <v>245</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>290</v>
+        <v>231</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>291</v>
+        <v>247</v>
+      </c>
+      <c r="G82" s="2">
+        <v>24.38</v>
       </c>
       <c r="H82" s="5">
-        <v>14.62</v>
+        <v>5.97</v>
       </c>
       <c r="I82" s="5">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J82" s="2">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="K82" s="2">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="L82" s="2">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="M82" s="9" t="s">
-        <v>148</v>
+        <v>38</v>
       </c>
     </row>
     <row r="83" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -6845,174 +7536,177 @@
         <v>41</v>
       </c>
       <c r="C83" s="7">
-        <v>688201</v>
+        <v>688383</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>292</v>
+        <v>249</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>293</v>
+        <v>250</v>
+      </c>
+      <c r="G83" s="2">
+        <v>19.510000000000002</v>
       </c>
       <c r="H83" s="5">
-        <v>26.78</v>
+        <v>19.579999999999998</v>
       </c>
       <c r="I83" s="5">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J83" s="2">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="K83" s="2">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="L83" s="2">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="M83" s="9" t="s">
-        <v>294</v>
+        <v>252</v>
       </c>
     </row>
     <row r="84" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C84" s="7">
-        <v>605117</v>
+        <v>72</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>254</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>296</v>
+        <v>253</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>295</v>
+        <v>255</v>
       </c>
       <c r="H84" s="5">
-        <v>32.74</v>
+        <v>19.05</v>
       </c>
       <c r="I84" s="5">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="J84" s="2">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="K84" s="2">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="L84" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="M84" s="9" t="s">
-        <v>297</v>
+        <v>27</v>
       </c>
     </row>
     <row r="85" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C85" s="7">
-        <v>300983</v>
+        <v>605180</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>298</v>
+        <v>257</v>
       </c>
       <c r="E85" s="9" t="s">
         <v>238</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>299</v>
+        <v>258</v>
       </c>
       <c r="H85" s="5">
-        <v>120.8</v>
+        <v>22.38</v>
       </c>
       <c r="I85" s="5">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="J85" s="2">
-        <v>118</v>
+        <v>30</v>
       </c>
       <c r="K85" s="2">
-        <v>168</v>
+        <v>40</v>
       </c>
       <c r="L85" s="2">
-        <v>212</v>
+        <v>60</v>
       </c>
       <c r="M85" s="9" t="s">
-        <v>300</v>
+        <v>261</v>
       </c>
     </row>
     <row r="86" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C86" s="7">
-        <v>300980</v>
+        <v>600032</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>303</v>
+        <v>259</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>302</v>
+        <v>231</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>301</v>
+        <v>260</v>
       </c>
       <c r="H86" s="5">
-        <v>32.770000000000003</v>
+        <v>3.51</v>
       </c>
       <c r="I86" s="5">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="J86" s="2">
-        <v>50</v>
+        <v>4.8</v>
       </c>
       <c r="K86" s="2">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="L86" s="2">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="M86" s="9" t="s">
-        <v>304</v>
+        <v>262</v>
       </c>
     </row>
     <row r="87" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C87" s="7">
-        <v>605086</v>
+        <v>300982</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>305</v>
+        <v>263</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>306</v>
+        <v>265</v>
       </c>
       <c r="H87" s="5">
-        <v>12.86</v>
+        <v>15.83</v>
       </c>
       <c r="I87" s="5">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="J87" s="2">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K87" s="2">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="L87" s="2">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="M87" s="9" t="s">
-        <v>309</v>
+        <v>264</v>
       </c>
     </row>
     <row r="88" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -7020,244 +7714,241 @@
         <v>17</v>
       </c>
       <c r="C88" s="7">
-        <v>300977</v>
+        <v>300981</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>307</v>
+        <v>266</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>308</v>
+        <v>267</v>
       </c>
       <c r="H88" s="5">
-        <v>89.66</v>
+        <v>48.59</v>
       </c>
       <c r="I88" s="5">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="J88" s="2">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="K88" s="2">
-        <v>158</v>
+        <v>108</v>
       </c>
       <c r="L88" s="2">
-        <v>223</v>
+        <v>180</v>
       </c>
       <c r="M88" s="9" t="s">
-        <v>300</v>
+        <v>60</v>
       </c>
     </row>
     <row r="89" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C89" s="7">
-        <v>300976</v>
+        <v>605089</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>310</v>
+        <v>268</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>311</v>
+        <v>269</v>
       </c>
       <c r="H89" s="5">
-        <v>168</v>
+        <v>28.53</v>
       </c>
       <c r="I89" s="5">
-        <v>162</v>
+        <v>40</v>
       </c>
       <c r="J89" s="2">
-        <v>191</v>
+        <v>50</v>
       </c>
       <c r="K89" s="2">
-        <v>228</v>
+        <v>65</v>
       </c>
       <c r="L89" s="2">
-        <v>288</v>
+        <v>100</v>
       </c>
       <c r="M89" s="9" t="s">
-        <v>312</v>
+        <v>148</v>
       </c>
     </row>
     <row r="90" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C90" s="7">
-        <v>300973</v>
+        <v>72</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>271</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>313</v>
+        <v>270</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>302</v>
+        <v>238</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>314</v>
+        <v>272</v>
       </c>
       <c r="H90" s="5">
-        <v>28.28</v>
+        <v>63.38</v>
       </c>
       <c r="I90" s="5">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J90" s="2">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="K90" s="2">
-        <v>53</v>
+        <v>118</v>
       </c>
       <c r="L90" s="2">
-        <v>88</v>
+        <v>158</v>
       </c>
       <c r="M90" s="9" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
     </row>
     <row r="91" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C91" s="7">
-        <v>300972</v>
+        <v>605289</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>315</v>
+        <v>273</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>316</v>
+        <v>238</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>317</v>
+        <v>274</v>
       </c>
       <c r="H91" s="5">
-        <v>7.19</v>
+        <v>27.27</v>
       </c>
       <c r="I91" s="5">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="J91" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="K91" s="2">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="L91" s="2">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="M91" s="9" t="s">
-        <v>322</v>
+        <v>275</v>
       </c>
     </row>
     <row r="92" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B92" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C92" s="7">
-        <v>605098</v>
+        <v>300979</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>318</v>
+        <v>276</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>320</v>
+        <v>231</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>319</v>
+        <v>277</v>
       </c>
       <c r="H92" s="5">
-        <v>27.58</v>
+        <v>33.22</v>
       </c>
       <c r="I92" s="5">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="J92" s="2">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="K92" s="2">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="L92" s="2">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="M92" s="9" t="s">
-        <v>321</v>
+        <v>278</v>
       </c>
     </row>
     <row r="93" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B93" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C93" s="7">
+        <v>300978</v>
+      </c>
+      <c r="D93" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="E93" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="H93" s="5">
+        <v>8.42</v>
+      </c>
+      <c r="I93" s="5">
+        <v>15</v>
+      </c>
+      <c r="J93" s="2">
         <v>12</v>
       </c>
-      <c r="C93" s="7">
-        <v>601279</v>
-      </c>
-      <c r="D93" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="E93" s="9" t="s">
-        <v>320</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="H93" s="5">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="I93" s="5">
-        <v>6</v>
-      </c>
-      <c r="J93" s="2">
-        <v>3.5</v>
-      </c>
       <c r="K93" s="2">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="L93" s="2">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M93" s="9" t="s">
-        <v>159</v>
+        <v>281</v>
       </c>
     </row>
     <row r="94" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C94" s="7">
-        <v>300971</v>
+        <v>688639</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>325</v>
+        <v>282</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>326</v>
+        <v>283</v>
       </c>
       <c r="H94" s="5">
-        <v>18.239999999999998</v>
+        <v>23.16</v>
       </c>
       <c r="I94" s="5">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="J94" s="2">
+        <v>41</v>
+      </c>
+      <c r="K94" s="2">
         <v>48</v>
       </c>
-      <c r="K94" s="2">
-        <v>60</v>
-      </c>
       <c r="L94" s="2">
-        <v>95</v>
-      </c>
-      <c r="M94" s="9" t="s">
-        <v>327</v>
+        <v>75</v>
       </c>
     </row>
     <row r="95" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -7265,34 +7956,31 @@
         <v>17</v>
       </c>
       <c r="C95" s="7">
-        <v>300968</v>
+        <v>300975</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>328</v>
+        <v>284</v>
       </c>
       <c r="E95" s="9" t="s">
         <v>231</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>329</v>
+        <v>285</v>
       </c>
       <c r="H95" s="5">
-        <v>6.87</v>
+        <v>5.48</v>
       </c>
       <c r="I95" s="5">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J95" s="2">
-        <v>12</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="K95" s="2">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L95" s="2">
-        <v>39</v>
-      </c>
-      <c r="M95" s="9" t="s">
-        <v>330</v>
+        <v>35</v>
       </c>
     </row>
     <row r="96" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -7300,31 +7988,941 @@
         <v>41</v>
       </c>
       <c r="C96" s="7">
+        <v>688682</v>
+      </c>
+      <c r="D96" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="E96" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="H96" s="5">
+        <v>45.72</v>
+      </c>
+      <c r="I96" s="5">
+        <v>68</v>
+      </c>
+      <c r="J96" s="2">
+        <v>81</v>
+      </c>
+      <c r="K96" s="2">
+        <v>108</v>
+      </c>
+      <c r="L96" s="2">
+        <v>162</v>
+      </c>
+      <c r="M96" s="9" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="97" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B97" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C97" s="7">
+        <v>605016</v>
+      </c>
+      <c r="D97" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="E97" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="H97" s="5">
+        <v>14.62</v>
+      </c>
+      <c r="I97" s="5">
+        <v>22</v>
+      </c>
+      <c r="J97" s="2">
+        <v>31</v>
+      </c>
+      <c r="K97" s="2">
+        <v>39</v>
+      </c>
+      <c r="L97" s="2">
+        <v>58</v>
+      </c>
+      <c r="M97" s="9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="98" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B98" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C98" s="7">
+        <v>688201</v>
+      </c>
+      <c r="D98" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="E98" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H98" s="5">
+        <v>26.78</v>
+      </c>
+      <c r="I98" s="5">
+        <v>32</v>
+      </c>
+      <c r="J98" s="2">
+        <v>43</v>
+      </c>
+      <c r="K98" s="2">
+        <v>58</v>
+      </c>
+      <c r="L98" s="2">
+        <v>86</v>
+      </c>
+      <c r="M98" s="9" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="99" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B99" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C99" s="7">
+        <v>605117</v>
+      </c>
+      <c r="D99" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="E99" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="H99" s="5">
+        <v>32.74</v>
+      </c>
+      <c r="I99" s="5">
+        <v>38</v>
+      </c>
+      <c r="J99" s="2">
+        <v>47</v>
+      </c>
+      <c r="K99" s="2">
+        <v>58</v>
+      </c>
+      <c r="L99" s="2">
+        <v>76</v>
+      </c>
+      <c r="M99" s="9" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="100" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B100" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C100" s="7">
+        <v>300983</v>
+      </c>
+      <c r="D100" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="E100" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="H100" s="5">
+        <v>120.8</v>
+      </c>
+      <c r="I100" s="5">
+        <v>106</v>
+      </c>
+      <c r="J100" s="2">
+        <v>118</v>
+      </c>
+      <c r="K100" s="2">
+        <v>168</v>
+      </c>
+      <c r="L100" s="2">
+        <v>212</v>
+      </c>
+      <c r="M100" s="9" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="101" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B101" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C101" s="7">
+        <v>300980</v>
+      </c>
+      <c r="D101" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="E101" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="H101" s="5">
+        <v>32.770000000000003</v>
+      </c>
+      <c r="I101" s="5">
+        <v>45</v>
+      </c>
+      <c r="J101" s="2">
+        <v>50</v>
+      </c>
+      <c r="K101" s="2">
+        <v>70</v>
+      </c>
+      <c r="L101" s="2">
+        <v>88</v>
+      </c>
+      <c r="M101" s="9" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="102" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B102" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C102" s="7">
+        <v>605086</v>
+      </c>
+      <c r="D102" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="E102" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="H102" s="5">
+        <v>12.86</v>
+      </c>
+      <c r="I102" s="5">
+        <v>17</v>
+      </c>
+      <c r="J102" s="2">
+        <v>22</v>
+      </c>
+      <c r="K102" s="2">
+        <v>28</v>
+      </c>
+      <c r="L102" s="2">
+        <v>39</v>
+      </c>
+      <c r="M102" s="9" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="103" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B103" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C103" s="7">
+        <v>300977</v>
+      </c>
+      <c r="D103" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="E103" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="H103" s="5">
+        <v>89.66</v>
+      </c>
+      <c r="I103" s="5">
+        <v>111</v>
+      </c>
+      <c r="J103" s="2">
+        <v>133</v>
+      </c>
+      <c r="K103" s="2">
+        <v>158</v>
+      </c>
+      <c r="L103" s="2">
+        <v>223</v>
+      </c>
+      <c r="M103" s="9" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="104" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B104" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C104" s="7">
+        <v>300976</v>
+      </c>
+      <c r="D104" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="E104" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="H104" s="5">
+        <v>168</v>
+      </c>
+      <c r="I104" s="5">
+        <v>162</v>
+      </c>
+      <c r="J104" s="2">
+        <v>191</v>
+      </c>
+      <c r="K104" s="2">
+        <v>228</v>
+      </c>
+      <c r="L104" s="2">
+        <v>288</v>
+      </c>
+      <c r="M104" s="9" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="105" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B105" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C105" s="7">
+        <v>300973</v>
+      </c>
+      <c r="D105" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="E105" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="H105" s="5">
+        <v>28.28</v>
+      </c>
+      <c r="I105" s="5">
+        <v>38</v>
+      </c>
+      <c r="J105" s="2">
+        <v>45</v>
+      </c>
+      <c r="K105" s="2">
+        <v>53</v>
+      </c>
+      <c r="L105" s="2">
+        <v>88</v>
+      </c>
+      <c r="M105" s="9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="106" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B106" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C106" s="7">
+        <v>300972</v>
+      </c>
+      <c r="D106" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="E106" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="H106" s="5">
+        <v>7.19</v>
+      </c>
+      <c r="I106" s="5">
+        <v>15</v>
+      </c>
+      <c r="J106" s="2">
+        <v>20</v>
+      </c>
+      <c r="K106" s="2">
+        <v>30</v>
+      </c>
+      <c r="L106" s="2">
+        <v>39</v>
+      </c>
+      <c r="M106" s="9" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="107" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B107" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C107" s="7">
+        <v>605098</v>
+      </c>
+      <c r="D107" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="E107" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H107" s="5">
+        <v>27.58</v>
+      </c>
+      <c r="I107" s="5">
+        <v>41</v>
+      </c>
+      <c r="J107" s="2">
+        <v>59</v>
+      </c>
+      <c r="K107" s="2">
+        <v>77</v>
+      </c>
+      <c r="L107" s="2">
+        <v>99</v>
+      </c>
+      <c r="M107" s="9" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="108" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B108" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C108" s="7">
+        <v>601279</v>
+      </c>
+      <c r="D108" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="E108" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="H108" s="5">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="I108" s="5">
+        <v>6</v>
+      </c>
+      <c r="J108" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="K108" s="2">
+        <v>8</v>
+      </c>
+      <c r="L108" s="2">
+        <v>13</v>
+      </c>
+      <c r="M108" s="9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="109" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B109" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C109" s="7">
+        <v>300971</v>
+      </c>
+      <c r="D109" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="E109" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="H109" s="5">
+        <v>18.239999999999998</v>
+      </c>
+      <c r="I109" s="5">
+        <v>36</v>
+      </c>
+      <c r="J109" s="2">
+        <v>48</v>
+      </c>
+      <c r="K109" s="2">
+        <v>60</v>
+      </c>
+      <c r="L109" s="2">
+        <v>95</v>
+      </c>
+      <c r="M109" s="9" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="110" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B110" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C110" s="7">
+        <v>300968</v>
+      </c>
+      <c r="D110" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="E110" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="H110" s="5">
+        <v>6.87</v>
+      </c>
+      <c r="I110" s="5">
+        <v>18</v>
+      </c>
+      <c r="J110" s="2">
+        <v>12</v>
+      </c>
+      <c r="K110" s="2">
+        <v>25</v>
+      </c>
+      <c r="L110" s="2">
+        <v>39</v>
+      </c>
+      <c r="M110" s="9" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="111" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B111" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C111" s="7">
         <v>688663</v>
       </c>
-      <c r="D96" s="9" t="s">
+      <c r="D111" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="E96" s="9" t="s">
+      <c r="E111" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="F96" s="2" t="s">
+      <c r="F111" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="H96" s="5">
+      <c r="H111" s="5">
         <v>14.48</v>
       </c>
-      <c r="I96" s="5">
+      <c r="I111" s="5">
         <v>21</v>
       </c>
-      <c r="J96" s="2">
+      <c r="J111" s="2">
         <v>29</v>
       </c>
-      <c r="K96" s="2">
+      <c r="K111" s="2">
         <v>38</v>
       </c>
-      <c r="L96" s="2">
+      <c r="L111" s="2">
         <v>58</v>
+      </c>
+      <c r="M111" s="9" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="112" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B112" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C112" s="7">
+        <v>300967</v>
+      </c>
+      <c r="D112" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="E112" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="H112" s="5">
+        <v>4.54</v>
+      </c>
+      <c r="I112" s="5">
+        <v>19</v>
+      </c>
+      <c r="J112" s="2">
+        <v>16</v>
+      </c>
+      <c r="K112" s="2">
+        <v>25</v>
+      </c>
+      <c r="L112" s="2">
+        <v>39</v>
+      </c>
+      <c r="M112" s="9" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="113" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B113" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C113" s="7">
+        <v>688315</v>
+      </c>
+      <c r="D113" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="E113" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="H113" s="5">
+        <v>12.76</v>
+      </c>
+      <c r="I113" s="5">
+        <v>25</v>
+      </c>
+      <c r="J113" s="2">
+        <v>30</v>
+      </c>
+      <c r="K113" s="2">
+        <v>38</v>
+      </c>
+      <c r="L113" s="2">
+        <v>62</v>
+      </c>
+      <c r="M113" s="9" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="114" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B114" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C114" s="7">
+        <v>605378</v>
+      </c>
+      <c r="D114" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="E114" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="H114" s="5">
+        <v>17.62</v>
+      </c>
+      <c r="I114" s="5">
+        <v>23</v>
+      </c>
+      <c r="J114" s="2">
+        <v>30</v>
+      </c>
+      <c r="K114" s="2">
+        <v>34</v>
+      </c>
+      <c r="L114" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="115" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B115" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C115" s="7">
+        <v>688611</v>
+      </c>
+      <c r="D115" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="E115" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="H115" s="5">
+        <v>33.44</v>
+      </c>
+      <c r="I115" s="5">
+        <v>53</v>
+      </c>
+      <c r="J115" s="2">
+        <v>71</v>
+      </c>
+      <c r="K115" s="2">
+        <v>80</v>
+      </c>
+      <c r="L115" s="2">
+        <v>122</v>
+      </c>
+      <c r="M115" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="116" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B116" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C116" s="7">
+        <v>688683</v>
+      </c>
+      <c r="D116" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="E116" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="H116" s="5">
+        <v>9.51</v>
+      </c>
+      <c r="I116" s="5">
+        <v>15</v>
+      </c>
+      <c r="J116" s="2">
+        <v>20</v>
+      </c>
+      <c r="K116" s="2">
+        <v>28</v>
+      </c>
+      <c r="L116" s="2">
+        <v>38</v>
+      </c>
+      <c r="M116" s="9" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="117" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B117" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C117" s="7">
+        <v>300966</v>
+      </c>
+      <c r="D117" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="E117" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="H117" s="5">
+        <v>8.24</v>
+      </c>
+      <c r="I117" s="5">
+        <v>18</v>
+      </c>
+      <c r="J117" s="2">
+        <v>26</v>
+      </c>
+      <c r="K117" s="2">
+        <v>30</v>
+      </c>
+      <c r="L117" s="2">
+        <v>48</v>
+      </c>
+      <c r="M117" s="9" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="118" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B118" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C118" s="7">
+        <v>300970</v>
+      </c>
+      <c r="D118" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="E118" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="H118" s="5">
+        <v>44.77</v>
+      </c>
+      <c r="I118" s="5">
+        <v>51</v>
+      </c>
+      <c r="J118" s="2">
+        <v>68</v>
+      </c>
+      <c r="K118" s="2">
+        <v>98</v>
+      </c>
+      <c r="L118" s="2">
+        <v>120</v>
+      </c>
+      <c r="M118" s="9" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="119" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B119" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C119" s="7">
+        <v>300969</v>
+      </c>
+      <c r="D119" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="E119" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="H119" s="5">
+        <v>20.68</v>
+      </c>
+      <c r="I119" s="5">
+        <v>30</v>
+      </c>
+      <c r="J119" s="2">
+        <v>38</v>
+      </c>
+      <c r="K119" s="2">
+        <v>48</v>
+      </c>
+      <c r="L119" s="2">
+        <v>75</v>
+      </c>
+      <c r="M119" s="9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="120" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B120" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C120" s="7">
+        <v>688468</v>
+      </c>
+      <c r="D120" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="E120" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="H120" s="5">
+        <v>7.15</v>
+      </c>
+      <c r="I120" s="5">
+        <v>18</v>
+      </c>
+      <c r="J120" s="2">
+        <v>15</v>
+      </c>
+      <c r="K120" s="2">
+        <v>25</v>
+      </c>
+      <c r="L120" s="2">
+        <v>38</v>
+      </c>
+      <c r="M120" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="121" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B121" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C121" s="7">
+        <v>300963</v>
+      </c>
+      <c r="D121" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="E121" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="H121" s="5">
+        <v>12.13</v>
+      </c>
+      <c r="I121" s="5">
+        <v>20</v>
+      </c>
+      <c r="J121" s="2">
+        <v>25</v>
+      </c>
+      <c r="K121" s="2">
+        <v>30</v>
+      </c>
+      <c r="L121" s="2">
+        <v>50</v>
+      </c>
+      <c r="M121" s="9" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="122" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B122" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C122" s="7">
+        <v>688636</v>
+      </c>
+      <c r="D122" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="E122" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="H122" s="5">
+        <v>34.5</v>
+      </c>
+      <c r="I122" s="5">
+        <v>58</v>
+      </c>
+      <c r="J122" s="2">
+        <v>80</v>
+      </c>
+      <c r="K122" s="2">
+        <v>90</v>
+      </c>
+      <c r="L122" s="2">
+        <v>138</v>
+      </c>
+      <c r="M122" s="9" t="s">
+        <v>365</v>
       </c>
     </row>
   </sheetData>

--- a/次新股.xlsx
+++ b/次新股.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="160" yWindow="640" windowWidth="28560" windowHeight="16240"/>
+    <workbookView xWindow="5300" yWindow="620" windowWidth="28560" windowHeight="16240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="403">
   <si>
     <t>个股代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4163,9 +4163,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>华立科技</t>
-  </si>
-  <si>
     <t>主要从事游戏游艺设备的设计、研发。赛道不错，前景也看好，不过现阶段国产游艺机在科技上很难跟韩日相比，发行人公司利润率超低，属于劳动密集型企业。</t>
     <rPh sb="28" eb="29">
       <t>bu g</t>
@@ -4186,10 +4183,6 @@
     <t>金沃股份</t>
   </si>
   <si>
-    <t>主业轴承套，市场竞争非常充分，不存在过高的科技含量。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>机械部件</t>
     <rPh sb="0" eb="1">
       <t>ji x</t>
@@ -4197,6 +4190,41 @@
     <rPh sb="2" eb="3">
       <t>bu j</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金冠电气</t>
+  </si>
+  <si>
+    <t>主要为客户提供交、直流金属氧化物避雷器及智能配电网系列产品。</t>
+    <rPh sb="3" eb="4">
+      <t>ke hu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主业轴承套，市场竞争非常充分，不存在过高的科技含量。科技含量不高，竞争激烈，利润越走越低。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳光诺和</t>
+  </si>
+  <si>
+    <t>主营业务是为医药企业提供专业化研发外包服务，致力于协助中国医药制造企业加速实现进口替代和自主创新。目前以小分子化学仿制药为主，受益于cro高速发展，公司业绩高增长，但是关联交易多，将来集采也是风险，跟业内龙头有很大的差距。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生物医药</t>
+    <rPh sb="0" eb="1">
+      <t>sheng w</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yi y</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华立科技</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4634,8 +4662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="140" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="C27" zoomScale="140" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="34" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4726,13 +4754,78 @@
     </row>
     <row r="6" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
+      <c r="B6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="7">
+        <v>688621</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="H6" s="5">
+        <v>26.89</v>
+      </c>
+      <c r="I6" s="5">
+        <v>62</v>
+      </c>
+      <c r="J6" s="2">
+        <v>75</v>
+      </c>
+      <c r="K6" s="6">
+        <v>98</v>
+      </c>
+      <c r="L6" s="6">
+        <v>168</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>401</v>
+      </c>
     </row>
     <row r="7" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
+      <c r="B7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="7">
+        <v>688517</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="G7" s="2">
+        <v>15.28</v>
+      </c>
+      <c r="H7" s="5">
+        <v>7.71</v>
+      </c>
+      <c r="I7" s="5">
+        <v>13</v>
+      </c>
+      <c r="J7" s="2">
+        <v>15</v>
+      </c>
+      <c r="K7" s="6">
+        <v>20</v>
+      </c>
+      <c r="L7" s="6">
+        <v>35</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="8" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
@@ -4743,13 +4836,16 @@
         <v>300984</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>389</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>396</v>
+        <v>398</v>
+      </c>
+      <c r="G8" s="2">
+        <v>29.28</v>
       </c>
       <c r="H8" s="5">
         <v>30.97</v>
@@ -4767,7 +4863,7 @@
         <v>125</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -4779,13 +4875,16 @@
         <v>301011</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>389</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
+      </c>
+      <c r="G9" s="2">
+        <v>26.76</v>
       </c>
       <c r="H9" s="5">
         <v>14.2</v>
@@ -4803,7 +4902,7 @@
         <v>70</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -4823,6 +4922,9 @@
       <c r="F10" s="2" t="s">
         <v>390</v>
       </c>
+      <c r="G10" s="2">
+        <v>15.23</v>
+      </c>
       <c r="H10" s="5">
         <v>7.83</v>
       </c>
@@ -4859,6 +4961,9 @@
       <c r="F11" s="2" t="s">
         <v>387</v>
       </c>
+      <c r="G11" s="2">
+        <v>10.28</v>
+      </c>
       <c r="H11" s="5">
         <v>5.36</v>
       </c>
@@ -4894,6 +4999,9 @@
       </c>
       <c r="F12" s="2" t="s">
         <v>384</v>
+      </c>
+      <c r="G12" s="2">
+        <v>17.46</v>
       </c>
       <c r="H12" s="5">
         <v>5.88</v>

--- a/次新股.xlsx
+++ b/次新股.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5300" yWindow="620" windowWidth="28560" windowHeight="16240"/>
+    <workbookView xWindow="240" yWindow="620" windowWidth="28560" windowHeight="16240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="427">
   <si>
     <t>个股代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1936,19 +1936,6 @@
     <t>宁波方正</t>
   </si>
   <si>
-    <t>主营业务为汽车塑料模具的研发、设计、制造。科技含量低，属于劳动密集型，毛利率低下。亮点就是创业板概念而且超低价超低市值发行，有炒作的潜质。</t>
-    <rPh sb="21" eb="22">
-      <t>ke j</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>han l</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>di</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2660w</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2192,10 +2179,6 @@
     <t>呈和科技</t>
   </si>
   <si>
-    <t>主营产品成核剂、合成水滑石与复合助剂，主要是应用于高性能树脂材料的化工企业和改性塑料制造企业，处于高性能树脂及改性塑料制造行业的上游。技术、产品处于国内领先、国际先进的地位。逻辑是进口替代。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>欧林生物</t>
   </si>
   <si>
@@ -4225,6 +4208,167 @@
   </si>
   <si>
     <t>华立科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘001207</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本质上是化工周期股，主要产品是 二氧化硅和炭黑，是 轮胎企业、橡胶制品企业、橡塑企业、饲料企业和鞋业公司的上游企业。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联科科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>化工材料</t>
+    <rPh sb="0" eb="1">
+      <t>hua gong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cai l</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁建重工</t>
+  </si>
+  <si>
+    <t>从事掘进机装备、轨道交通设备和特种专业装备的研发。核心技术打破国外垄断，大国重器，盾构机，基建狂魔。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机械设备、专用设备</t>
+    <rPh sb="0" eb="1">
+      <t>ji xie</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>she b</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhuan yong</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>she b</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气派科技</t>
+  </si>
+  <si>
+    <t>半导体、集成电路</t>
+    <rPh sb="0" eb="1">
+      <t>ban dao ti</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ji cheng dian l</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从事集成电路封装与测试、提供封装技术解决方案的国家级高新技术企业，属于市场热点，缺点是公司研发投入少，高端产品不多，市占率低，但是赛道不错，报告期内业绩高增长。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保持关注</t>
+  </si>
+  <si>
+    <t>扬电科技</t>
+  </si>
+  <si>
+    <t>专业的高效节能电气机械制造厂商，专注于新型节能材料在电力和电子领域的应用，主要从事节能电力变压器、铁心、非晶及纳米晶磁性电子元器件三大系列产品的研发。产品同质化太严重，竞争力不强，报告期内业绩逐年走低。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电力设备</t>
+    <rPh sb="0" eb="1">
+      <t>dian li</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>she b</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从事电线电缆的研发，是国内领先的特种专用电缆生产企 业之一，产品广泛应用于航空航天、武器装备、轨道交通及高速机车。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘001208</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华菱线缆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纳微科技</t>
+  </si>
+  <si>
+    <t>专门从事高性能纳米微球材料研发、规模化生产，为生物医药、平板显示、分析检测及体外诊断等领域客户提供核心微球材料及相关技术解决方案。技术含量非常高，逻辑就是炒进口替代，报告期内营收规模非常小，但毛利率超高。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重点关注</t>
+    <rPh sb="0" eb="1">
+      <t>zhong d</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>guan zhu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新材料</t>
+    <rPh sb="0" eb="1">
+      <t>xin cai l</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百克生物</t>
+  </si>
+  <si>
+    <t>长春高新的子公司，公司目前拥有水痘疫苗、狂犬疫苗 以及冻干鼻喷流感疫苗三种已获批的疫苗产品，主要收入就是水痘疫苗。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疫苗</t>
+    <rPh sb="0" eb="1">
+      <t>yi miao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主营产品成核剂、合成水滑石与复合助剂，主要是应用于高性能树脂材料的化工企业和改性塑料制造企业，处于高性能树脂及改性塑料制造行业的上游。有一定的科技含量和市场，技术、产品处于国内领先、国际先进的地位。逻辑是进口替代。</t>
+    <rPh sb="67" eb="68">
+      <t>you</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>yi dng</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>d</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>ke j</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>han l</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>he</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>shi c</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4232,7 +4376,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4279,6 +4423,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="DengXian"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -4318,10 +4486,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4356,9 +4528,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -4660,10 +4839,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O122"/>
+  <dimension ref="A1:O131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C27" zoomScale="140" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="B30" zoomScale="140" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="34" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4699,7 +4878,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>14</v>
@@ -4754,233 +4933,165 @@
     </row>
     <row r="6" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
-      <c r="B6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="7">
-        <v>688621</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>399</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>302</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="H6" s="5">
-        <v>26.89</v>
-      </c>
-      <c r="I6" s="5">
-        <v>62</v>
-      </c>
-      <c r="J6" s="2">
-        <v>75</v>
-      </c>
-      <c r="K6" s="6">
-        <v>98</v>
-      </c>
-      <c r="L6" s="6">
-        <v>168</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>401</v>
-      </c>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
     </row>
     <row r="7" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
-      <c r="B7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="7">
-        <v>688517</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>396</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="G7" s="2">
-        <v>15.28</v>
-      </c>
-      <c r="H7" s="5">
-        <v>7.71</v>
-      </c>
-      <c r="I7" s="5">
-        <v>13</v>
-      </c>
-      <c r="J7" s="2">
-        <v>15</v>
-      </c>
-      <c r="K7" s="6">
-        <v>20</v>
-      </c>
-      <c r="L7" s="6">
-        <v>35</v>
-      </c>
-      <c r="M7" s="9" t="s">
-        <v>111</v>
-      </c>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
     </row>
     <row r="8" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C8" s="7">
-        <v>300984</v>
+        <v>688276</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>394</v>
+        <v>422</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>389</v>
+        <v>300</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="G8" s="2">
-        <v>29.28</v>
+        <v>423</v>
       </c>
       <c r="H8" s="5">
-        <v>30.97</v>
+        <v>36.35</v>
       </c>
       <c r="I8" s="5">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J8" s="2">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="K8" s="6">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L8" s="6">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>395</v>
+        <v>424</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C9" s="7">
-        <v>301011</v>
+        <v>688690</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>402</v>
+        <v>418</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>389</v>
+        <v>420</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>392</v>
+        <v>419</v>
       </c>
       <c r="G9" s="2">
-        <v>26.76</v>
+        <v>51.04</v>
       </c>
       <c r="H9" s="5">
-        <v>14.2</v>
+        <v>8.07</v>
       </c>
       <c r="I9" s="5">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="J9" s="2">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="K9" s="6">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="L9" s="6">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>393</v>
+        <v>421</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="7">
-        <v>301010</v>
+        <v>72</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>416</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>388</v>
+        <v>417</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>389</v>
+        <v>314</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>390</v>
+        <v>415</v>
       </c>
       <c r="G10" s="2">
-        <v>15.23</v>
+        <v>22.98</v>
       </c>
       <c r="H10" s="5">
-        <v>7.83</v>
+        <v>3.67</v>
       </c>
       <c r="I10" s="5">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="J10" s="2">
-        <v>28</v>
+        <v>9.36</v>
       </c>
       <c r="K10" s="6">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="L10" s="6">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>391</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C11" s="7">
-        <v>601665</v>
+        <v>301012</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>386</v>
+        <v>412</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>238</v>
+        <v>387</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>387</v>
+        <v>413</v>
       </c>
       <c r="G11" s="2">
-        <v>10.28</v>
+        <v>14.6</v>
       </c>
       <c r="H11" s="5">
-        <v>5.36</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="I11" s="5">
-        <v>4.18</v>
+        <v>28</v>
       </c>
       <c r="J11" s="2">
-        <v>4.5</v>
+        <v>24</v>
       </c>
       <c r="K11" s="6">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="L11" s="6">
-        <v>8.1999999999999993</v>
+        <v>60</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>176</v>
+        <v>414</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -4989,115 +5100,115 @@
         <v>41</v>
       </c>
       <c r="C12" s="7">
-        <v>688597</v>
+        <v>688216</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>385</v>
+        <v>408</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>384</v>
+        <v>410</v>
       </c>
       <c r="G12" s="2">
-        <v>17.46</v>
+        <v>21.11</v>
       </c>
       <c r="H12" s="5">
-        <v>5.88</v>
+        <v>14.82</v>
       </c>
       <c r="I12" s="5">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="J12" s="2">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="K12" s="6">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="L12" s="6">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>111</v>
+        <v>409</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C13" s="7">
-        <v>688597</v>
+        <v>688425</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>381</v>
+        <v>405</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>256</v>
+        <v>387</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>382</v>
+        <v>406</v>
       </c>
       <c r="G13" s="2">
-        <v>16.920000000000002</v>
+        <v>10.54</v>
       </c>
       <c r="H13" s="5">
-        <v>12.54</v>
+        <v>2.87</v>
       </c>
       <c r="I13" s="5">
-        <v>18</v>
+        <v>4.8</v>
       </c>
       <c r="J13" s="2">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="K13" s="6">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="L13" s="6">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>383</v>
+        <v>407</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="7">
-        <v>688700</v>
+        <v>72</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>401</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>378</v>
+        <v>403</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>238</v>
+        <v>288</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>379</v>
+        <v>402</v>
       </c>
       <c r="G14" s="2">
-        <v>17.55</v>
+        <v>22.99</v>
       </c>
       <c r="H14" s="5">
-        <v>9.41</v>
+        <v>14.27</v>
       </c>
       <c r="I14" s="5">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J14" s="2">
+        <v>25</v>
+      </c>
+      <c r="K14" s="6">
         <v>28</v>
       </c>
-      <c r="K14" s="6">
-        <v>35</v>
-      </c>
       <c r="L14" s="6">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>380</v>
+        <v>404</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -5106,828 +5217,862 @@
         <v>41</v>
       </c>
       <c r="C15" s="7">
-        <v>688067</v>
+        <v>688621</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>376</v>
+        <v>397</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>231</v>
+        <v>300</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>377</v>
+        <v>398</v>
       </c>
       <c r="G15" s="2">
-        <v>37.89</v>
+        <v>29.72</v>
       </c>
       <c r="H15" s="5">
-        <v>14.71</v>
+        <v>26.89</v>
       </c>
       <c r="I15" s="5">
-        <v>29.5</v>
+        <v>62</v>
       </c>
       <c r="J15" s="2">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="K15" s="6">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="L15" s="6">
-        <v>88</v>
+        <v>168</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>60</v>
+        <v>399</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="2" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C16" s="7">
-        <v>603529</v>
+        <v>688517</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>373</v>
+        <v>394</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>374</v>
+        <v>395</v>
       </c>
       <c r="G16" s="2">
-        <v>21.9</v>
+        <v>15.28</v>
       </c>
       <c r="H16" s="5">
-        <v>27.86</v>
+        <v>7.71</v>
       </c>
       <c r="I16" s="5">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="J16" s="2">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="K16" s="6">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="L16" s="6">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C17" s="7">
-        <v>688681</v>
+        <v>300984</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>371</v>
+        <v>392</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>238</v>
+        <v>387</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>372</v>
+        <v>396</v>
       </c>
       <c r="G17" s="2">
-        <v>18.91</v>
+        <v>29.28</v>
       </c>
       <c r="H17" s="5">
-        <v>9.56</v>
+        <v>30.97</v>
       </c>
       <c r="I17" s="5">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="J17" s="2">
-        <v>23.8</v>
+        <v>62</v>
       </c>
       <c r="K17" s="6">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="L17" s="6">
-        <v>38</v>
+        <v>125</v>
       </c>
       <c r="M17" s="9" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="7">
-        <v>301007</v>
+        <v>301011</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>369</v>
+        <v>400</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>231</v>
+        <v>387</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>370</v>
+        <v>390</v>
       </c>
       <c r="G18" s="2">
-        <v>17.3</v>
+        <v>26.76</v>
       </c>
       <c r="H18" s="5">
-        <v>5.29</v>
+        <v>14.2</v>
       </c>
       <c r="I18" s="5">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="J18" s="2">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="K18" s="6">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="L18" s="6">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="M18" s="9" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C19" s="7">
-        <v>688345</v>
+        <v>301010</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>368</v>
+        <v>386</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>231</v>
+        <v>387</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>366</v>
+        <v>388</v>
       </c>
       <c r="G19" s="2">
-        <v>22.15</v>
+        <v>15.23</v>
       </c>
       <c r="H19" s="5">
-        <v>25.91</v>
+        <v>7.83</v>
       </c>
       <c r="I19" s="5">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="J19" s="2">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="K19" s="6">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="L19" s="6">
-        <v>120</v>
+        <v>56</v>
       </c>
       <c r="M19" s="9" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="7">
-        <v>605259</v>
+        <v>601665</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>222</v>
+        <v>384</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>223</v>
+        <v>385</v>
       </c>
       <c r="G20" s="2">
-        <v>22.99</v>
+        <v>10.28</v>
       </c>
       <c r="H20" s="5">
-        <v>27.1</v>
+        <v>5.36</v>
       </c>
       <c r="I20" s="5">
-        <v>40</v>
+        <v>4.18</v>
       </c>
       <c r="J20" s="2">
-        <v>45</v>
+        <v>4.5</v>
       </c>
       <c r="K20" s="6">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="L20" s="6">
-        <v>80</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="M20" s="9" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="7">
+        <v>688597</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G21" s="2">
+        <v>17.46</v>
+      </c>
+      <c r="H21" s="5">
+        <v>5.88</v>
+      </c>
+      <c r="I21" s="5">
+        <v>12</v>
+      </c>
+      <c r="J21" s="2">
         <v>17</v>
       </c>
-      <c r="C21" s="7">
-        <v>301008</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="G21" s="2">
-        <v>35.200000000000003</v>
-      </c>
-      <c r="H21" s="5">
-        <v>37.6</v>
-      </c>
-      <c r="I21" s="5">
-        <v>60</v>
-      </c>
-      <c r="J21" s="2">
-        <v>68</v>
-      </c>
       <c r="K21" s="6">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="L21" s="6">
-        <v>108</v>
+        <v>36</v>
       </c>
       <c r="M21" s="9" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C22" s="7">
-        <v>688269</v>
+        <v>688597</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>217</v>
+        <v>379</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>254</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>218</v>
+        <v>380</v>
       </c>
       <c r="G22" s="2">
-        <v>18.010000000000002</v>
+        <v>16.920000000000002</v>
       </c>
       <c r="H22" s="5">
-        <v>18.940000000000001</v>
+        <v>12.54</v>
       </c>
       <c r="I22" s="5">
+        <v>18</v>
+      </c>
+      <c r="J22" s="2">
+        <v>25</v>
+      </c>
+      <c r="K22" s="6">
         <v>30</v>
       </c>
-      <c r="J22" s="2">
-        <v>32</v>
-      </c>
-      <c r="K22" s="6">
-        <v>38</v>
-      </c>
       <c r="L22" s="6">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="M22" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C23" s="7">
-        <v>688131</v>
+        <v>688700</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>215</v>
+        <v>376</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>236</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>216</v>
+        <v>377</v>
       </c>
       <c r="G23" s="2">
-        <v>40.729999999999997</v>
+        <v>17.55</v>
       </c>
       <c r="H23" s="5">
-        <v>64.989999999999995</v>
+        <v>9.41</v>
       </c>
       <c r="I23" s="5">
-        <v>108</v>
+        <v>23</v>
       </c>
       <c r="J23" s="2">
-        <v>135</v>
+        <v>28</v>
       </c>
       <c r="K23" s="6">
-        <v>148</v>
+        <v>35</v>
       </c>
       <c r="L23" s="6">
-        <v>243</v>
+        <v>58</v>
       </c>
       <c r="M23" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C24" s="7">
-        <v>688319</v>
+        <v>688067</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>211</v>
+        <v>374</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>229</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>213</v>
+        <v>375</v>
       </c>
       <c r="G24" s="2">
-        <v>146.44999999999999</v>
+        <v>37.89</v>
       </c>
       <c r="H24" s="5">
-        <v>9.8800000000000008</v>
+        <v>14.71</v>
       </c>
       <c r="I24" s="5">
-        <v>18</v>
+        <v>29.5</v>
       </c>
       <c r="J24" s="2">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="K24" s="6">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="L24" s="6">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="M24" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C25" s="7">
-        <v>688625</v>
+        <v>603529</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>209</v>
+        <v>371</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>229</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>210</v>
+        <v>372</v>
       </c>
       <c r="G25" s="2">
-        <v>19.95</v>
+        <v>21.9</v>
       </c>
       <c r="H25" s="5">
-        <v>16.48</v>
+        <v>27.86</v>
       </c>
       <c r="I25" s="5">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="J25" s="2">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="K25" s="6">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="L25" s="6">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="M25" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C26" s="7">
-        <v>301006</v>
+        <v>688681</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>205</v>
+        <v>369</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>236</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>206</v>
+        <v>370</v>
       </c>
       <c r="G26" s="2">
-        <v>12.61</v>
+        <v>18.91</v>
       </c>
       <c r="H26" s="5">
-        <v>14.42</v>
+        <v>9.56</v>
       </c>
       <c r="I26" s="5">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J26" s="2">
-        <v>29</v>
+        <v>23.8</v>
       </c>
       <c r="K26" s="6">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="L26" s="6">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="M26" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C27" s="7">
-        <v>601156</v>
+        <v>301007</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>203</v>
+        <v>367</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>229</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>204</v>
+        <v>368</v>
       </c>
       <c r="G27" s="2">
-        <v>10.93</v>
+        <v>17.3</v>
       </c>
       <c r="H27" s="5">
-        <v>15.77</v>
+        <v>5.29</v>
       </c>
       <c r="I27" s="5">
+        <v>18</v>
+      </c>
+      <c r="J27" s="2">
         <v>20</v>
       </c>
-      <c r="J27" s="2">
-        <v>22</v>
-      </c>
       <c r="K27" s="6">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="L27" s="6">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M27" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" s="2" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C28" s="7">
-        <v>605319</v>
+        <v>688345</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>199</v>
+        <v>366</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>229</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>201</v>
+        <v>364</v>
       </c>
       <c r="G28" s="2">
-        <v>22.98</v>
+        <v>22.15</v>
       </c>
       <c r="H28" s="5">
-        <v>11.22</v>
+        <v>25.91</v>
       </c>
       <c r="I28" s="5">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="J28" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="K28" s="6">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="L28" s="6">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="M28" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C29" s="7">
-        <v>301002</v>
+        <v>605259</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>197</v>
+        <v>220</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>229</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="G29" s="2">
-        <v>18.12</v>
+        <v>22.99</v>
       </c>
       <c r="H29" s="5">
-        <v>18.71</v>
+        <v>27.1</v>
       </c>
       <c r="I29" s="5">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J29" s="2">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="K29" s="6">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L29" s="6">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="M29" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C30" s="7">
-        <v>688117</v>
+        <v>301008</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>191</v>
+        <v>217</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>254</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="G30" s="2">
-        <v>27.7</v>
-      </c>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="O30" s="7" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="H30" s="5">
+        <v>37.6</v>
+      </c>
+      <c r="I30" s="5">
+        <v>60</v>
+      </c>
+      <c r="J30" s="2">
+        <v>68</v>
+      </c>
+      <c r="K30" s="6">
+        <v>75</v>
+      </c>
+      <c r="L30" s="6">
+        <v>108</v>
+      </c>
+      <c r="M30" s="9" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C31" s="7">
-        <v>300996</v>
+        <v>688269</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>190</v>
+        <v>215</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>254</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>188</v>
+        <v>216</v>
       </c>
       <c r="G31" s="2">
-        <v>23.16</v>
+        <v>18.010000000000002</v>
       </c>
       <c r="H31" s="5">
-        <v>20.81</v>
+        <v>18.940000000000001</v>
       </c>
       <c r="I31" s="5">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J31" s="2">
+        <v>32</v>
+      </c>
+      <c r="K31" s="6">
+        <v>38</v>
+      </c>
+      <c r="L31" s="6">
+        <v>64</v>
+      </c>
+      <c r="M31" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="K31" s="6">
-        <v>51</v>
-      </c>
-      <c r="L31" s="6">
-        <v>79</v>
-      </c>
-      <c r="M31" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="B32" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C32" s="7">
-        <v>300997</v>
+        <v>688131</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>183</v>
+        <v>213</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>411</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>185</v>
+        <v>214</v>
       </c>
       <c r="G32" s="2">
-        <v>12.76</v>
+        <v>40.729999999999997</v>
       </c>
       <c r="H32" s="5">
-        <v>4.9400000000000004</v>
+        <v>64.989999999999995</v>
       </c>
       <c r="I32" s="5">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="J32" s="2">
-        <v>11</v>
+        <v>135</v>
       </c>
       <c r="K32" s="6">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="L32" s="6">
-        <v>30</v>
+        <v>243</v>
       </c>
       <c r="M32" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>184</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
       <c r="B33" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C33" s="7">
-        <v>300998</v>
+        <v>688319</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>180</v>
+        <v>209</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>411</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>181</v>
+        <v>211</v>
       </c>
       <c r="G33" s="2">
-        <v>16.940000000000001</v>
+        <v>146.44999999999999</v>
       </c>
       <c r="H33" s="5">
-        <v>6.02</v>
+        <v>9.8800000000000008</v>
       </c>
       <c r="I33" s="5">
+        <v>18</v>
+      </c>
+      <c r="J33" s="2">
+        <v>15</v>
+      </c>
+      <c r="K33" s="6">
         <v>25</v>
       </c>
-      <c r="J33" s="2">
-        <v>18.8</v>
-      </c>
-      <c r="K33" s="6">
-        <v>28</v>
-      </c>
       <c r="L33" s="6">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="M33" s="9" t="s">
-        <v>159</v>
+        <v>212</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>182</v>
+        <v>210</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="B34" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C34" s="7">
-        <v>301005</v>
+        <v>688625</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>187</v>
+        <v>208</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>387</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>179</v>
+        <v>426</v>
       </c>
       <c r="G34" s="2">
-        <v>26.64</v>
+        <v>19.95</v>
       </c>
       <c r="H34" s="5">
-        <v>36.450000000000003</v>
+        <v>16.48</v>
       </c>
       <c r="I34" s="5">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="J34" s="2">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="K34" s="6">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="L34" s="6">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="M34" s="9" t="s">
-        <v>159</v>
+        <v>39</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>178</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C35" s="7">
-        <v>601528</v>
+        <v>301006</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>175</v>
+        <v>204</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>177</v>
+        <v>205</v>
+      </c>
+      <c r="G35" s="2">
+        <v>12.61</v>
       </c>
       <c r="H35" s="5">
-        <v>8.1199999999999992</v>
+        <v>14.42</v>
       </c>
       <c r="I35" s="5">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="J35" s="2">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="K35" s="6">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="L35" s="6">
-        <v>16.600000000000001</v>
+        <v>50</v>
       </c>
       <c r="M35" s="9" t="s">
-        <v>176</v>
+        <v>206</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="B36" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C36" s="7">
-        <v>301003</v>
+        <v>601156</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>168</v>
+        <v>202</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>172</v>
+        <v>203</v>
       </c>
       <c r="G36" s="2">
-        <v>32.01</v>
+        <v>10.93</v>
       </c>
       <c r="H36" s="5">
-        <v>55.88</v>
+        <v>15.77</v>
       </c>
       <c r="I36" s="5">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="J36" s="2">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="K36" s="6">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="L36" s="6">
-        <v>138</v>
+        <v>38</v>
       </c>
       <c r="M36" s="9" t="s">
-        <v>173</v>
+        <v>27</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>169</v>
+        <v>201</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -5936,37 +6081,37 @@
         <v>12</v>
       </c>
       <c r="C37" s="7">
-        <v>605296</v>
+        <v>605319</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>164</v>
+        <v>198</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>167</v>
+        <v>200</v>
       </c>
       <c r="G37" s="2">
-        <v>19.760000000000002</v>
+        <v>22.98</v>
       </c>
       <c r="H37" s="5">
-        <v>56.08</v>
+        <v>11.22</v>
       </c>
       <c r="I37" s="5">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="J37" s="2">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="K37" s="6">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="L37" s="6">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>165</v>
+        <v>199</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -5975,984 +6120,1001 @@
         <v>17</v>
       </c>
       <c r="C38" s="7">
-        <v>301001</v>
+        <v>301002</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>160</v>
+        <v>196</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="G38" s="2">
-        <v>26.19</v>
+        <v>18.12</v>
       </c>
       <c r="H38" s="5">
-        <v>25.54</v>
+        <v>18.71</v>
       </c>
       <c r="I38" s="5">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="J38" s="2">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="K38" s="6">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L38" s="6">
         <v>98</v>
       </c>
       <c r="M38" s="9" t="s">
-        <v>162</v>
+        <v>197</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>163</v>
+        <v>194</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
       <c r="B39" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C39" s="7">
-        <v>301000</v>
+        <v>688117</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>225</v>
+        <v>190</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
       <c r="G39" s="2">
-        <v>35</v>
-      </c>
-      <c r="H39" s="5">
-        <v>64.31</v>
-      </c>
-      <c r="I39" s="5">
-        <v>85</v>
-      </c>
-      <c r="J39" s="2">
-        <v>93</v>
-      </c>
-      <c r="K39" s="6">
-        <v>118</v>
-      </c>
-      <c r="L39" s="6">
-        <v>158</v>
-      </c>
-      <c r="M39" s="9" t="s">
-        <v>174</v>
-      </c>
+        <v>27.7</v>
+      </c>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
       <c r="O39" s="7" t="s">
-        <v>157</v>
+        <v>193</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
       <c r="B40" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C40" s="7">
-        <v>605189</v>
+        <v>300996</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>155</v>
+        <v>189</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>153</v>
+        <v>187</v>
       </c>
       <c r="G40" s="2">
-        <v>22.99</v>
+        <v>23.16</v>
       </c>
       <c r="H40" s="5">
-        <v>19.95</v>
+        <v>20.81</v>
       </c>
       <c r="I40" s="5">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="J40" s="2">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="K40" s="6">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="L40" s="6">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="M40" s="9" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>156</v>
+        <v>185</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
       <c r="B41" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C41" s="7">
-        <v>688538</v>
+        <v>300997</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>171</v>
+        <v>184</v>
+      </c>
+      <c r="G41" s="2">
+        <v>12.76</v>
       </c>
       <c r="H41" s="5">
-        <v>2.65</v>
+        <v>4.9400000000000004</v>
       </c>
       <c r="I41" s="5">
-        <v>3.5</v>
+        <v>15</v>
       </c>
       <c r="J41" s="2">
-        <v>2.23</v>
+        <v>11</v>
       </c>
       <c r="K41" s="6">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="L41" s="6">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="M41" s="9" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>151</v>
+        <v>183</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="4"/>
       <c r="B42" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C42" s="7">
-        <v>605499</v>
+        <v>300998</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>147</v>
+        <v>425</v>
       </c>
       <c r="G42" s="2">
-        <v>22.99</v>
+        <v>16.940000000000001</v>
       </c>
       <c r="H42" s="5">
-        <v>46.27</v>
+        <v>6.02</v>
       </c>
       <c r="I42" s="5">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="J42" s="2">
-        <v>88</v>
-      </c>
-      <c r="K42" s="2">
-        <v>98</v>
-      </c>
-      <c r="L42" s="2">
-        <v>125</v>
+        <v>18.8</v>
+      </c>
+      <c r="K42" s="6">
+        <v>28</v>
+      </c>
+      <c r="L42" s="6">
+        <v>57</v>
       </c>
       <c r="M42" s="9" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="4"/>
       <c r="B43" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C43" s="7">
-        <v>603836</v>
+        <v>301005</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>24</v>
+        <v>186</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>25</v>
+        <v>179</v>
       </c>
       <c r="G43" s="2">
-        <v>22.99</v>
+        <v>26.64</v>
       </c>
       <c r="H43" s="5">
-        <v>16.84</v>
+        <v>36.450000000000003</v>
       </c>
       <c r="I43" s="5">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="J43" s="2">
-        <v>25</v>
-      </c>
-      <c r="K43" s="2">
-        <v>30</v>
-      </c>
-      <c r="L43" s="2">
-        <v>50</v>
+        <v>52</v>
+      </c>
+      <c r="K43" s="6">
+        <v>70</v>
+      </c>
+      <c r="L43" s="6">
+        <v>105</v>
       </c>
       <c r="M43" s="9" t="s">
-        <v>27</v>
+        <v>159</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>26</v>
+        <v>178</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
       <c r="B44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="7">
+        <v>601528</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="H44" s="5">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="I44" s="5">
+        <v>9</v>
+      </c>
+      <c r="J44" s="2">
+        <v>10</v>
+      </c>
+      <c r="K44" s="6">
+        <v>12</v>
+      </c>
+      <c r="L44" s="6">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="M44" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="4"/>
+      <c r="B45" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C44" s="7">
-        <v>300614</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G44" s="2">
-        <v>11.78</v>
-      </c>
-      <c r="H44" s="5">
-        <v>9.19</v>
-      </c>
-      <c r="I44" s="5">
-        <v>20</v>
-      </c>
-      <c r="J44" s="2">
-        <v>19</v>
-      </c>
-      <c r="K44" s="6">
-        <v>25</v>
-      </c>
-      <c r="L44" s="6">
+      <c r="C45" s="7">
+        <v>301003</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G45" s="2">
+        <v>32.01</v>
+      </c>
+      <c r="H45" s="5">
+        <v>55.88</v>
+      </c>
+      <c r="I45" s="5">
+        <v>69</v>
+      </c>
+      <c r="J45" s="2">
+        <v>85</v>
+      </c>
+      <c r="K45" s="6">
+        <v>98</v>
+      </c>
+      <c r="L45" s="6">
+        <v>138</v>
+      </c>
+      <c r="M45" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="4"/>
+      <c r="B46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="7">
+        <v>605296</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="G46" s="2">
+        <v>19.760000000000002</v>
+      </c>
+      <c r="H46" s="5">
+        <v>56.08</v>
+      </c>
+      <c r="I46" s="5">
         <v>38</v>
       </c>
-      <c r="M44" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="O44" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C45" s="7">
-        <v>605090</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G45" s="2">
-        <v>20</v>
-      </c>
-      <c r="H45" s="5">
-        <v>34.57</v>
-      </c>
-      <c r="I45" s="5">
-        <v>37</v>
-      </c>
-      <c r="J45" s="2">
-        <v>42</v>
-      </c>
-      <c r="K45" s="2">
+      <c r="J46" s="2">
         <v>50</v>
       </c>
-      <c r="L45" s="2">
+      <c r="K46" s="6">
         <v>68</v>
       </c>
-      <c r="M45" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="O45" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C46" s="7">
-        <v>300992</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G46" s="2">
-        <v>12.84</v>
-      </c>
-      <c r="H46" s="5">
-        <v>9.36</v>
-      </c>
-      <c r="I46" s="5">
-        <v>28</v>
-      </c>
-      <c r="J46" s="2">
-        <v>33</v>
-      </c>
-      <c r="K46" s="2">
-        <v>38</v>
-      </c>
-      <c r="L46" s="2">
-        <v>65</v>
+      <c r="L46" s="6">
+        <v>95</v>
       </c>
       <c r="M46" s="9" t="s">
-        <v>30</v>
+        <v>166</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>29</v>
+        <v>165</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="4"/>
       <c r="B47" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C47" s="7">
-        <v>300995</v>
+        <v>301001</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>32</v>
+        <v>160</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>33</v>
+        <v>161</v>
       </c>
       <c r="G47" s="2">
-        <v>17.52</v>
+        <v>26.19</v>
       </c>
       <c r="H47" s="5">
-        <v>14.72</v>
+        <v>25.54</v>
       </c>
       <c r="I47" s="5">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="J47" s="2">
-        <v>36</v>
-      </c>
-      <c r="K47" s="2">
-        <v>42</v>
-      </c>
-      <c r="L47" s="2">
-        <v>65</v>
+        <v>43</v>
+      </c>
+      <c r="K47" s="6">
+        <v>56</v>
+      </c>
+      <c r="L47" s="6">
+        <v>98</v>
       </c>
       <c r="M47" s="9" t="s">
-        <v>38</v>
+        <v>162</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>34</v>
+        <v>163</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="4"/>
       <c r="B48" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C48" s="7">
-        <v>300993</v>
+        <v>301000</v>
       </c>
       <c r="D48" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G48" s="2">
         <v>35</v>
       </c>
-      <c r="F48" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G48" s="2">
-        <v>16.45</v>
-      </c>
       <c r="H48" s="5">
-        <v>12.1</v>
+        <v>64.31</v>
       </c>
       <c r="I48" s="5">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="J48" s="2">
-        <v>23</v>
-      </c>
-      <c r="K48" s="2">
-        <v>30</v>
-      </c>
-      <c r="L48" s="2">
-        <v>58</v>
+        <v>93</v>
+      </c>
+      <c r="K48" s="6">
+        <v>118</v>
+      </c>
+      <c r="L48" s="6">
+        <v>158</v>
       </c>
       <c r="M48" s="9" t="s">
-        <v>39</v>
+        <v>174</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="49" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="4"/>
       <c r="B49" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C49" s="7">
-        <v>688359</v>
+        <v>605189</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>40</v>
+        <v>155</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>42</v>
+        <v>153</v>
       </c>
       <c r="G49" s="2">
-        <v>22.3</v>
+        <v>22.99</v>
       </c>
       <c r="H49" s="5">
-        <v>11.03</v>
+        <v>19.95</v>
       </c>
       <c r="I49" s="5">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="J49" s="2">
-        <v>25</v>
-      </c>
-      <c r="K49" s="2">
-        <v>29</v>
-      </c>
-      <c r="L49" s="2">
+        <v>32</v>
+      </c>
+      <c r="K49" s="6">
+        <v>38</v>
+      </c>
+      <c r="L49" s="6">
         <v>48</v>
       </c>
       <c r="M49" s="9" t="s">
-        <v>39</v>
+        <v>154</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="50" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="4"/>
       <c r="B50" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C50" s="7">
-        <v>688613</v>
+        <v>688538</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G50" s="2">
-        <v>26.6</v>
+        <v>171</v>
       </c>
       <c r="H50" s="5">
-        <v>16.43</v>
+        <v>2.65</v>
       </c>
       <c r="I50" s="5">
-        <v>35</v>
+        <v>3.5</v>
       </c>
       <c r="J50" s="2">
-        <v>34</v>
-      </c>
-      <c r="K50" s="2">
-        <v>48</v>
-      </c>
-      <c r="L50" s="2">
-        <v>78</v>
+        <v>2.23</v>
+      </c>
+      <c r="K50" s="6">
+        <v>5</v>
+      </c>
+      <c r="L50" s="6">
+        <v>8</v>
       </c>
       <c r="M50" s="9" t="s">
-        <v>47</v>
+        <v>152</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="51" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C51" s="7">
-        <v>600905</v>
+        <v>605499</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>48</v>
+        <v>146</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>49</v>
+        <v>147</v>
       </c>
       <c r="G51" s="2">
-        <v>28.87</v>
+        <v>22.99</v>
       </c>
       <c r="H51" s="5">
-        <v>2.65</v>
+        <v>46.27</v>
       </c>
       <c r="I51" s="5">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="J51" s="2">
-        <v>3.5</v>
+        <v>88</v>
       </c>
       <c r="K51" s="2">
-        <v>5.8</v>
+        <v>98</v>
       </c>
       <c r="L51" s="2">
-        <v>8</v>
+        <v>125</v>
       </c>
       <c r="M51" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="O51" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" s="7">
+        <v>603836</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G52" s="2">
+        <v>22.99</v>
+      </c>
+      <c r="H52" s="5">
+        <v>16.84</v>
+      </c>
+      <c r="I52" s="5">
+        <v>22</v>
+      </c>
+      <c r="J52" s="2">
+        <v>25</v>
+      </c>
+      <c r="K52" s="2">
+        <v>30</v>
+      </c>
+      <c r="L52" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C52" s="7">
-        <v>688076</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G52" s="2">
-        <v>35.130000000000003</v>
-      </c>
-      <c r="H52" s="5">
-        <v>15.57</v>
-      </c>
-      <c r="I52" s="5">
-        <v>21</v>
-      </c>
-      <c r="J52" s="2">
-        <v>24</v>
-      </c>
-      <c r="K52" s="2">
-        <v>28</v>
-      </c>
-      <c r="L52" s="2">
-        <v>43</v>
-      </c>
       <c r="M52" s="9" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="53" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="4"/>
       <c r="B53" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C53" s="7">
-        <v>300991</v>
+        <v>300614</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="F53" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G53" s="2">
+        <v>11.78</v>
+      </c>
+      <c r="H53" s="5">
+        <v>9.19</v>
+      </c>
+      <c r="I53" s="5">
+        <v>20</v>
+      </c>
+      <c r="J53" s="2">
+        <v>19</v>
+      </c>
+      <c r="K53" s="6">
+        <v>25</v>
+      </c>
+      <c r="L53" s="6">
+        <v>38</v>
+      </c>
+      <c r="M53" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="O53" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" s="7">
+        <v>605090</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G54" s="2">
+        <v>20</v>
+      </c>
+      <c r="H54" s="5">
+        <v>34.57</v>
+      </c>
+      <c r="I54" s="5">
+        <v>37</v>
+      </c>
+      <c r="J54" s="2">
+        <v>42</v>
+      </c>
+      <c r="K54" s="2">
+        <v>50</v>
+      </c>
+      <c r="L54" s="2">
+        <v>68</v>
+      </c>
+      <c r="M54" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="O54" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55" s="7">
+        <v>300992</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G55" s="2">
+        <v>12.84</v>
+      </c>
+      <c r="H55" s="5">
+        <v>9.36</v>
+      </c>
+      <c r="I55" s="5">
+        <v>28</v>
+      </c>
+      <c r="J55" s="2">
+        <v>33</v>
+      </c>
+      <c r="K55" s="2">
+        <v>38</v>
+      </c>
+      <c r="L55" s="2">
+        <v>65</v>
+      </c>
+      <c r="M55" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="O55" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C56" s="7">
+        <v>300995</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G56" s="2">
+        <v>17.52</v>
+      </c>
+      <c r="H56" s="5">
+        <v>14.72</v>
+      </c>
+      <c r="I56" s="5">
+        <v>29</v>
+      </c>
+      <c r="J56" s="2">
+        <v>36</v>
+      </c>
+      <c r="K56" s="2">
+        <v>42</v>
+      </c>
+      <c r="L56" s="2">
+        <v>65</v>
+      </c>
+      <c r="M56" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="O56" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C57" s="7">
+        <v>300993</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G57" s="2">
+        <v>16.45</v>
+      </c>
+      <c r="H57" s="5">
+        <v>12.1</v>
+      </c>
+      <c r="I57" s="5">
+        <v>21</v>
+      </c>
+      <c r="J57" s="2">
+        <v>23</v>
+      </c>
+      <c r="K57" s="2">
+        <v>30</v>
+      </c>
+      <c r="L57" s="2">
         <v>58</v>
       </c>
-      <c r="G53" s="2">
-        <v>13.06</v>
-      </c>
-      <c r="H53" s="5">
-        <v>13.06</v>
-      </c>
-      <c r="L53" s="2">
-        <v>56</v>
-      </c>
-      <c r="M53" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="O53" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="54" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="2" t="s">
+      <c r="M57" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="O57" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C54" s="7">
-        <v>688314</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G54" s="2">
-        <v>22.17</v>
-      </c>
-      <c r="H54" s="5">
-        <v>17.34</v>
-      </c>
-      <c r="I54" s="5">
+      <c r="C58" s="7">
+        <v>688359</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G58" s="2">
+        <v>22.3</v>
+      </c>
+      <c r="H58" s="5">
+        <v>11.03</v>
+      </c>
+      <c r="I58" s="5">
+        <v>20</v>
+      </c>
+      <c r="J58" s="2">
+        <v>25</v>
+      </c>
+      <c r="K58" s="2">
+        <v>29</v>
+      </c>
+      <c r="L58" s="2">
         <v>48</v>
       </c>
-      <c r="J54" s="2">
-        <v>52</v>
-      </c>
-      <c r="K54" s="2">
-        <v>60</v>
-      </c>
-      <c r="L54" s="2">
-        <v>108</v>
-      </c>
-      <c r="M54" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="O54" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="55" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C55" s="7">
-        <v>688660</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G55" s="2">
-        <v>23.99</v>
-      </c>
-      <c r="H55" s="5">
-        <v>5.44</v>
-      </c>
-      <c r="I55" s="5">
-        <v>11.3</v>
-      </c>
-      <c r="J55" s="2">
-        <v>11.3</v>
-      </c>
-      <c r="K55" s="2">
-        <v>18</v>
-      </c>
-      <c r="L55" s="2">
-        <v>28</v>
-      </c>
-      <c r="M55" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="O55" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="56" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C56" s="7">
-        <v>688575</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G56" s="2">
-        <v>31.96</v>
-      </c>
-      <c r="H56" s="5">
-        <v>14.8</v>
-      </c>
-      <c r="L56" s="2">
-        <v>38</v>
-      </c>
-      <c r="M56" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="O56" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="57" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G57" s="2">
-        <v>22.99</v>
-      </c>
-      <c r="H57" s="5">
-        <v>44.6</v>
-      </c>
-      <c r="L57" s="2">
-        <v>126</v>
-      </c>
-      <c r="O57" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="58" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C58" s="7">
-        <v>605339</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G58" s="2">
-        <v>22.99</v>
-      </c>
-      <c r="H58" s="5">
-        <v>16.98</v>
-      </c>
-      <c r="L58" s="2">
-        <v>59</v>
-      </c>
       <c r="M58" s="9" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="59" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C59" s="7">
-        <v>688565</v>
+        <v>688613</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="G59" s="2">
-        <v>19.48</v>
+        <v>26.6</v>
       </c>
       <c r="H59" s="5">
-        <v>9.39</v>
+        <v>16.43</v>
       </c>
       <c r="I59" s="5">
-        <v>18.7</v>
+        <v>35</v>
       </c>
       <c r="J59" s="2">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="K59" s="2">
+        <v>48</v>
+      </c>
+      <c r="L59" s="2">
+        <v>78</v>
+      </c>
+      <c r="M59" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O59" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" s="7">
+        <v>600905</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G60" s="2">
+        <v>28.87</v>
+      </c>
+      <c r="H60" s="5">
+        <v>2.65</v>
+      </c>
+      <c r="I60" s="5">
+        <v>5</v>
+      </c>
+      <c r="J60" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="K60" s="2">
+        <v>5.8</v>
+      </c>
+      <c r="L60" s="2">
+        <v>8</v>
+      </c>
+      <c r="M60" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C61" s="7">
+        <v>688076</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G61" s="2">
+        <v>35.130000000000003</v>
+      </c>
+      <c r="H61" s="5">
+        <v>15.57</v>
+      </c>
+      <c r="I61" s="5">
+        <v>21</v>
+      </c>
+      <c r="J61" s="2">
+        <v>24</v>
+      </c>
+      <c r="K61" s="2">
         <v>28</v>
       </c>
-      <c r="L59" s="2">
-        <v>47</v>
-      </c>
-      <c r="M59" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="O59" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="60" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C60" s="7">
-        <v>688217</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G60" s="2">
-        <v>29.89</v>
-      </c>
-      <c r="H60" s="5">
-        <v>18.420000000000002</v>
-      </c>
-      <c r="I60" s="5">
-        <v>36</v>
-      </c>
-      <c r="J60" s="2">
-        <v>45</v>
-      </c>
-      <c r="K60" s="2">
-        <v>54</v>
-      </c>
-      <c r="L60" s="2">
-        <v>90</v>
-      </c>
-      <c r="M60" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="O60" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="61" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C61" s="7">
-        <v>605488</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G61" s="2">
-        <v>22.99</v>
-      </c>
-      <c r="H61" s="5">
-        <v>20.43</v>
-      </c>
-      <c r="I61" s="5">
-        <v>25</v>
-      </c>
-      <c r="J61" s="2">
-        <v>33</v>
-      </c>
-      <c r="K61" s="2">
-        <v>38</v>
-      </c>
       <c r="L61" s="2">
+        <v>43</v>
+      </c>
+      <c r="M61" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="O61" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C62" s="7">
+        <v>300991</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F62" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="M61" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="O61" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="62" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C62" s="7">
-        <v>688685</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="G62" s="2">
-        <v>22.83</v>
+        <v>13.06</v>
       </c>
       <c r="H62" s="5">
-        <v>9.02</v>
-      </c>
-      <c r="I62" s="5">
-        <v>30</v>
-      </c>
-      <c r="J62" s="2">
-        <v>36</v>
-      </c>
-      <c r="K62" s="2">
-        <v>45</v>
+        <v>13.06</v>
       </c>
       <c r="L62" s="2">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="M62" s="9" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="63" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C63" s="7">
-        <v>688355</v>
+        <v>688314</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="G63" s="2">
-        <v>22.95</v>
+        <v>22.17</v>
       </c>
       <c r="H63" s="5">
-        <v>17.649999999999999</v>
+        <v>17.34</v>
       </c>
       <c r="I63" s="5">
+        <v>48</v>
+      </c>
+      <c r="J63" s="2">
+        <v>52</v>
+      </c>
+      <c r="K63" s="2">
+        <v>60</v>
+      </c>
+      <c r="L63" s="2">
+        <v>108</v>
+      </c>
+      <c r="M63" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="O63" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C64" s="7">
+        <v>688660</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G64" s="2">
+        <v>23.99</v>
+      </c>
+      <c r="H64" s="5">
+        <v>5.44</v>
+      </c>
+      <c r="I64" s="5">
+        <v>11.3</v>
+      </c>
+      <c r="J64" s="2">
+        <v>11.3</v>
+      </c>
+      <c r="K64" s="2">
+        <v>18</v>
+      </c>
+      <c r="L64" s="2">
         <v>28</v>
       </c>
-      <c r="J63" s="2">
-        <v>33</v>
-      </c>
-      <c r="K63" s="2">
-        <v>38</v>
-      </c>
-      <c r="L63" s="2">
+      <c r="M64" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="O64" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="M63" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="O63" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="64" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D64" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G64" s="2">
-        <v>17.78</v>
-      </c>
-      <c r="H64" s="5">
-        <v>16.52</v>
-      </c>
-      <c r="I64" s="5">
-        <v>25</v>
-      </c>
-      <c r="J64" s="2">
-        <v>33</v>
-      </c>
-      <c r="K64" s="2">
-        <v>38</v>
-      </c>
-      <c r="L64" s="2">
-        <v>58</v>
-      </c>
-      <c r="M64" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="O64" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="65" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -6960,139 +7122,106 @@
         <v>41</v>
       </c>
       <c r="C65" s="7">
-        <v>688097</v>
+        <v>688575</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>107</v>
+        <v>68</v>
       </c>
       <c r="G65" s="2">
-        <v>15.97</v>
+        <v>31.96</v>
       </c>
       <c r="H65" s="5">
-        <v>11.27</v>
-      </c>
-      <c r="I65" s="5">
-        <v>18</v>
-      </c>
-      <c r="J65" s="2">
-        <v>15</v>
-      </c>
-      <c r="K65" s="2">
-        <v>23</v>
+        <v>14.8</v>
       </c>
       <c r="L65" s="2">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M65" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="N65" s="2" t="s">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
     </row>
     <row r="66" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C66" s="7">
-        <v>605196</v>
+        <v>72</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>71</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="G66" s="2">
-        <v>21.09</v>
+        <v>22.99</v>
       </c>
       <c r="H66" s="5">
-        <v>5.05</v>
-      </c>
-      <c r="I66" s="5">
-        <v>12</v>
-      </c>
-      <c r="J66" s="2">
-        <v>10</v>
-      </c>
-      <c r="K66" s="2">
-        <v>15</v>
+        <v>44.6</v>
       </c>
       <c r="L66" s="2">
-        <v>23</v>
-      </c>
-      <c r="M66" s="9" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
     </row>
     <row r="67" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C67" s="7">
-        <v>688655</v>
+        <v>605339</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="G67" s="2">
-        <v>20.350000000000001</v>
+        <v>22.99</v>
       </c>
       <c r="H67" s="5">
-        <v>7.59</v>
-      </c>
-      <c r="I67" s="5">
-        <v>18</v>
-      </c>
-      <c r="J67" s="2">
-        <v>20</v>
-      </c>
-      <c r="K67" s="2">
-        <v>25</v>
+        <v>16.98</v>
       </c>
       <c r="L67" s="2">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="M67" s="9" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>114</v>
+        <v>77</v>
       </c>
     </row>
     <row r="68" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C68" s="7">
-        <v>300987</v>
+        <v>688565</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="G68" s="2">
-        <v>18.420000000000002</v>
+        <v>19.48</v>
       </c>
       <c r="H68" s="5">
-        <v>6.79</v>
+        <v>9.39</v>
       </c>
       <c r="I68" s="5">
-        <v>25</v>
+        <v>18.7</v>
       </c>
       <c r="J68" s="2">
         <v>23</v>
@@ -7101,51 +7230,51 @@
         <v>28</v>
       </c>
       <c r="L68" s="2">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="M68" s="9" t="s">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C69" s="7">
-        <v>300990</v>
+        <v>688217</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>121</v>
+        <v>83</v>
       </c>
       <c r="G69" s="2">
-        <v>36.270000000000003</v>
+        <v>29.89</v>
       </c>
       <c r="H69" s="5">
-        <v>85.5</v>
+        <v>18.420000000000002</v>
       </c>
       <c r="I69" s="5">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="J69" s="2">
-        <v>115</v>
+        <v>45</v>
       </c>
       <c r="K69" s="2">
-        <v>128</v>
+        <v>54</v>
       </c>
       <c r="L69" s="2">
-        <v>153</v>
+        <v>90</v>
       </c>
       <c r="M69" s="9" t="s">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>122</v>
+        <v>85</v>
       </c>
     </row>
     <row r="70" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -7153,37 +7282,37 @@
         <v>12</v>
       </c>
       <c r="C70" s="7">
-        <v>603511</v>
+        <v>605488</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>125</v>
+        <v>88</v>
       </c>
       <c r="G70" s="2">
-        <v>21.98</v>
+        <v>22.99</v>
       </c>
       <c r="H70" s="5">
-        <v>20.99</v>
+        <v>20.43</v>
       </c>
       <c r="I70" s="5">
         <v>25</v>
       </c>
       <c r="J70" s="2">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K70" s="2">
         <v>38</v>
       </c>
       <c r="L70" s="2">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="M70" s="9" t="s">
-        <v>124</v>
+        <v>89</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>131</v>
+        <v>87</v>
       </c>
     </row>
     <row r="71" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -7191,151 +7320,154 @@
         <v>41</v>
       </c>
       <c r="C71" s="7">
-        <v>688113</v>
+        <v>688685</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>126</v>
+        <v>90</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>127</v>
+        <v>91</v>
       </c>
       <c r="G71" s="2">
-        <v>17.309999999999999</v>
+        <v>22.83</v>
       </c>
       <c r="H71" s="5">
-        <v>19.14</v>
+        <v>9.02</v>
       </c>
       <c r="I71" s="5">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J71" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="K71" s="2">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="L71" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="M71" s="9" t="s">
-        <v>128</v>
+        <v>92</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>132</v>
+        <v>93</v>
       </c>
     </row>
     <row r="72" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="2" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C72" s="7">
-        <v>605305</v>
+        <v>688355</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="G72" s="2">
-        <v>22.99</v>
+        <v>22.95</v>
       </c>
       <c r="H72" s="5">
-        <v>37.94</v>
+        <v>17.649999999999999</v>
       </c>
       <c r="I72" s="5">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="J72" s="2">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="K72" s="2">
+        <v>38</v>
+      </c>
+      <c r="L72" s="2">
         <v>65</v>
       </c>
-      <c r="L72" s="2">
-        <v>82</v>
-      </c>
       <c r="M72" s="9" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
     </row>
     <row r="73" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C73" s="7">
-        <v>300988</v>
+        <v>72</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>100</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="G73" s="2">
-        <v>32.729999999999997</v>
+        <v>17.78</v>
       </c>
       <c r="H73" s="5">
-        <v>23.73</v>
+        <v>16.52</v>
       </c>
       <c r="I73" s="5">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="J73" s="2">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="K73" s="2">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="L73" s="2">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="M73" s="9" t="s">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>135</v>
+        <v>101</v>
       </c>
     </row>
     <row r="74" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C74" s="7">
-        <v>300989</v>
+        <v>688097</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>138</v>
+        <v>102</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="G74" s="2">
-        <v>36.01</v>
+        <v>15.97</v>
       </c>
       <c r="H74" s="5">
-        <v>51.62</v>
+        <v>11.27</v>
       </c>
       <c r="I74" s="5">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="J74" s="2">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="K74" s="2">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="L74" s="2">
-        <v>116</v>
+        <v>35</v>
       </c>
       <c r="M74" s="9" t="s">
-        <v>141</v>
+        <v>105</v>
+      </c>
+      <c r="N74" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="O74" s="7" t="s">
-        <v>140</v>
+        <v>104</v>
       </c>
     </row>
     <row r="75" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -7343,57 +7475,57 @@
         <v>12</v>
       </c>
       <c r="C75" s="7">
-        <v>605080</v>
+        <v>605196</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="G75" s="2">
-        <v>22.99</v>
+        <v>21.09</v>
       </c>
       <c r="H75" s="5">
-        <v>31.16</v>
+        <v>5.05</v>
       </c>
       <c r="I75" s="5">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="J75" s="2">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="K75" s="2">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="L75" s="2">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="O75" s="7" t="s">
-        <v>144</v>
+        <v>110</v>
       </c>
     </row>
     <row r="76" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="2" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C76" s="7">
-        <v>605300</v>
+        <v>688655</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>227</v>
+        <v>112</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>226</v>
+        <v>113</v>
       </c>
       <c r="G76" s="2">
-        <v>22.99</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="H76" s="5">
-        <v>11.25</v>
+        <v>7.59</v>
       </c>
       <c r="I76" s="5">
         <v>18</v>
@@ -7405,48 +7537,51 @@
         <v>25</v>
       </c>
       <c r="L76" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M76" s="9" t="s">
-        <v>148</v>
+        <v>115</v>
+      </c>
+      <c r="O76" s="7" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="77" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>229</v>
+        <v>17</v>
+      </c>
+      <c r="C77" s="7">
+        <v>300987</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="E77" s="9" t="s">
-        <v>231</v>
+        <v>116</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>228</v>
+        <v>118</v>
       </c>
       <c r="G77" s="2">
-        <v>22.99</v>
+        <v>18.420000000000002</v>
       </c>
       <c r="H77" s="5">
-        <v>8.98</v>
+        <v>6.79</v>
       </c>
       <c r="I77" s="5">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="J77" s="2">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="K77" s="2">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="L77" s="2">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="M77" s="9" t="s">
-        <v>235</v>
+        <v>119</v>
+      </c>
+      <c r="O77" s="7" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="78" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -7454,816 +7589,846 @@
         <v>17</v>
       </c>
       <c r="C78" s="7">
-        <v>300985</v>
+        <v>300990</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="E78" s="9" t="s">
-        <v>231</v>
+        <v>120</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>233</v>
+        <v>121</v>
       </c>
       <c r="G78" s="2">
-        <v>14.91</v>
+        <v>36.270000000000003</v>
       </c>
       <c r="H78" s="5">
-        <v>24.9</v>
+        <v>85.5</v>
       </c>
       <c r="I78" s="5">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="J78" s="2">
-        <v>38</v>
+        <v>115</v>
       </c>
       <c r="K78" s="2">
-        <v>45</v>
+        <v>128</v>
       </c>
       <c r="L78" s="2">
-        <v>60</v>
+        <v>153</v>
       </c>
       <c r="M78" s="9" t="s">
-        <v>236</v>
+        <v>105</v>
+      </c>
+      <c r="O78" s="7" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="79" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C79" s="7">
-        <v>688395</v>
+        <v>603511</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="E79" s="9" t="s">
-        <v>238</v>
+        <v>123</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>239</v>
+        <v>125</v>
       </c>
       <c r="G79" s="2">
-        <v>20.59</v>
+        <v>21.98</v>
       </c>
       <c r="H79" s="5">
-        <v>15.95</v>
+        <v>20.99</v>
       </c>
       <c r="I79" s="5">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J79" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K79" s="2">
         <v>38</v>
       </c>
       <c r="L79" s="2">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="M79" s="9" t="s">
-        <v>111</v>
+        <v>124</v>
+      </c>
+      <c r="O79" s="7" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="80" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C80" s="7">
+        <v>688113</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G80" s="2">
+        <v>17.309999999999999</v>
+      </c>
+      <c r="H80" s="5">
+        <v>19.14</v>
+      </c>
+      <c r="I80" s="5">
+        <v>34</v>
+      </c>
+      <c r="J80" s="2">
+        <v>47</v>
+      </c>
+      <c r="K80" s="2">
+        <v>58</v>
+      </c>
+      <c r="L80" s="2">
+        <v>78</v>
+      </c>
+      <c r="M80" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="O80" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="81" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B81" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C80" s="7">
-        <v>600906</v>
-      </c>
-      <c r="D80" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="E80" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="G80" s="2">
-        <v>22.94</v>
-      </c>
-      <c r="H80" s="5">
-        <v>3.76</v>
-      </c>
-      <c r="I80" s="5">
-        <v>6.2</v>
-      </c>
-      <c r="J80" s="2">
-        <v>5.7</v>
-      </c>
-      <c r="K80" s="2">
-        <v>7.08</v>
-      </c>
-      <c r="L80" s="2">
-        <v>10</v>
-      </c>
-      <c r="M80" s="9" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="81" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B81" s="2" t="s">
+      <c r="C81" s="7">
+        <v>605305</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G81" s="2">
+        <v>22.99</v>
+      </c>
+      <c r="H81" s="5">
+        <v>37.94</v>
+      </c>
+      <c r="I81" s="5">
+        <v>45</v>
+      </c>
+      <c r="J81" s="2">
+        <v>54</v>
+      </c>
+      <c r="K81" s="2">
+        <v>65</v>
+      </c>
+      <c r="L81" s="2">
+        <v>82</v>
+      </c>
+      <c r="M81" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="O81" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="82" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B82" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C81" s="7">
-        <v>300986</v>
-      </c>
-      <c r="D81" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="E81" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="G81" s="2">
-        <v>13.56</v>
-      </c>
-      <c r="H81" s="5">
-        <v>14.79</v>
-      </c>
-      <c r="I81" s="5">
-        <v>30</v>
-      </c>
-      <c r="J81" s="2">
-        <v>30</v>
-      </c>
-      <c r="K81" s="2">
-        <v>38</v>
-      </c>
-      <c r="L81" s="2">
+      <c r="C82" s="7">
+        <v>300988</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G82" s="2">
+        <v>32.729999999999997</v>
+      </c>
+      <c r="H82" s="5">
+        <v>23.73</v>
+      </c>
+      <c r="I82" s="5">
+        <v>40</v>
+      </c>
+      <c r="J82" s="2">
+        <v>48</v>
+      </c>
+      <c r="K82" s="2">
+        <v>68</v>
+      </c>
+      <c r="L82" s="2">
+        <v>95</v>
+      </c>
+      <c r="M82" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="O82" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="83" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B83" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C83" s="7">
+        <v>300989</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G83" s="2">
+        <v>36.01</v>
+      </c>
+      <c r="H83" s="5">
+        <v>51.62</v>
+      </c>
+      <c r="I83" s="5">
+        <v>58</v>
+      </c>
+      <c r="J83" s="2">
+        <v>66</v>
+      </c>
+      <c r="K83" s="2">
+        <v>83</v>
+      </c>
+      <c r="L83" s="2">
+        <v>116</v>
+      </c>
+      <c r="M83" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="O83" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="84" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B84" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C84" s="7">
+        <v>605080</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G84" s="2">
+        <v>22.99</v>
+      </c>
+      <c r="H84" s="5">
+        <v>31.16</v>
+      </c>
+      <c r="I84" s="5">
+        <v>45</v>
+      </c>
+      <c r="J84" s="2">
         <v>60</v>
       </c>
-      <c r="M81" s="9" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="82" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B82" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="C82" s="7">
-        <v>688323</v>
-      </c>
-      <c r="D82" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="E82" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="G82" s="2">
-        <v>24.38</v>
-      </c>
-      <c r="H82" s="5">
-        <v>5.97</v>
-      </c>
-      <c r="I82" s="5">
-        <v>19</v>
-      </c>
-      <c r="J82" s="2">
-        <v>17</v>
-      </c>
-      <c r="K82" s="2">
-        <v>28</v>
-      </c>
-      <c r="L82" s="2">
-        <v>38</v>
-      </c>
-      <c r="M82" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="83" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B83" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C83" s="7">
-        <v>688383</v>
-      </c>
-      <c r="D83" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="E83" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="G83" s="2">
-        <v>19.510000000000002</v>
-      </c>
-      <c r="H83" s="5">
-        <v>19.579999999999998</v>
-      </c>
-      <c r="I83" s="5">
-        <v>30</v>
-      </c>
-      <c r="J83" s="2">
-        <v>29</v>
-      </c>
-      <c r="K83" s="2">
-        <v>37</v>
-      </c>
-      <c r="L83" s="2">
-        <v>66</v>
-      </c>
-      <c r="M83" s="9" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="84" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B84" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C84" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="D84" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="E84" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="H84" s="5">
-        <v>19.05</v>
-      </c>
-      <c r="I84" s="5">
-        <v>20</v>
-      </c>
-      <c r="J84" s="2">
-        <v>23</v>
-      </c>
       <c r="K84" s="2">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="L84" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="M84" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="85" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+      <c r="O84" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="85" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C85" s="7">
-        <v>605180</v>
+        <v>605300</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="E85" s="9" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>258</v>
+        <v>224</v>
+      </c>
+      <c r="G85" s="2">
+        <v>22.99</v>
       </c>
       <c r="H85" s="5">
-        <v>22.38</v>
+        <v>11.25</v>
       </c>
       <c r="I85" s="5">
+        <v>18</v>
+      </c>
+      <c r="J85" s="2">
+        <v>20</v>
+      </c>
+      <c r="K85" s="2">
         <v>25</v>
       </c>
-      <c r="J85" s="2">
-        <v>30</v>
-      </c>
-      <c r="K85" s="2">
-        <v>40</v>
-      </c>
       <c r="L85" s="2">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="M85" s="9" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="86" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="86" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C86" s="7">
-        <v>600032</v>
+      <c r="C86" s="7" t="s">
+        <v>227</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>259</v>
+        <v>232</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>260</v>
+        <v>226</v>
+      </c>
+      <c r="G86" s="2">
+        <v>22.99</v>
       </c>
       <c r="H86" s="5">
-        <v>3.51</v>
+        <v>8.98</v>
       </c>
       <c r="I86" s="5">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="J86" s="2">
-        <v>4.8</v>
+        <v>13</v>
       </c>
       <c r="K86" s="2">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="L86" s="2">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="M86" s="9" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="87" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="87" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C87" s="7">
-        <v>300982</v>
+        <v>300985</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>263</v>
+        <v>230</v>
       </c>
       <c r="E87" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="F87" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="F87" s="2" t="s">
-        <v>265</v>
+      <c r="G87" s="2">
+        <v>14.91</v>
       </c>
       <c r="H87" s="5">
-        <v>15.83</v>
+        <v>24.9</v>
       </c>
       <c r="I87" s="5">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="J87" s="2">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="K87" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L87" s="2">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="M87" s="9" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="88" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="88" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C88" s="7">
-        <v>300981</v>
+        <v>688395</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>266</v>
+        <v>235</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>267</v>
+        <v>237</v>
+      </c>
+      <c r="G88" s="2">
+        <v>20.59</v>
       </c>
       <c r="H88" s="5">
-        <v>48.59</v>
+        <v>15.95</v>
       </c>
       <c r="I88" s="5">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="J88" s="2">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="K88" s="2">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="L88" s="2">
-        <v>180</v>
+        <v>58</v>
       </c>
       <c r="M88" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="89" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="89" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C89" s="7">
-        <v>605089</v>
+        <v>600906</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="E89" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="G89" s="2">
+        <v>22.94</v>
+      </c>
+      <c r="H89" s="5">
+        <v>3.76</v>
+      </c>
+      <c r="I89" s="5">
+        <v>6.2</v>
+      </c>
+      <c r="J89" s="2">
+        <v>5.7</v>
+      </c>
+      <c r="K89" s="2">
+        <v>7.08</v>
+      </c>
+      <c r="L89" s="2">
+        <v>10</v>
+      </c>
+      <c r="M89" s="9" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="90" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B90" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C90" s="7">
+        <v>300986</v>
+      </c>
+      <c r="D90" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E90" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="G90" s="2">
+        <v>13.56</v>
+      </c>
+      <c r="H90" s="5">
+        <v>14.79</v>
+      </c>
+      <c r="I90" s="5">
+        <v>30</v>
+      </c>
+      <c r="J90" s="2">
+        <v>30</v>
+      </c>
+      <c r="K90" s="2">
+        <v>38</v>
+      </c>
+      <c r="L90" s="2">
+        <v>60</v>
+      </c>
+      <c r="M90" s="9" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="91" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B91" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C91" s="7">
+        <v>688323</v>
+      </c>
+      <c r="D91" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="E91" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="G91" s="2">
+        <v>24.38</v>
+      </c>
+      <c r="H91" s="5">
+        <v>5.97</v>
+      </c>
+      <c r="I91" s="5">
+        <v>19</v>
+      </c>
+      <c r="J91" s="2">
+        <v>17</v>
+      </c>
+      <c r="K91" s="2">
+        <v>28</v>
+      </c>
+      <c r="L91" s="2">
+        <v>38</v>
+      </c>
+      <c r="M91" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="92" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B92" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C92" s="7">
+        <v>688383</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="E92" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="G92" s="2">
+        <v>19.510000000000002</v>
+      </c>
+      <c r="H92" s="5">
+        <v>19.579999999999998</v>
+      </c>
+      <c r="I92" s="5">
+        <v>30</v>
+      </c>
+      <c r="J92" s="2">
+        <v>29</v>
+      </c>
+      <c r="K92" s="2">
+        <v>37</v>
+      </c>
+      <c r="L92" s="2">
+        <v>66</v>
+      </c>
+      <c r="M92" s="9" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="93" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B93" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="D93" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="E93" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="H93" s="5">
+        <v>19.05</v>
+      </c>
+      <c r="I93" s="5">
+        <v>20</v>
+      </c>
+      <c r="J93" s="2">
+        <v>23</v>
+      </c>
+      <c r="K93" s="2">
+        <v>28</v>
+      </c>
+      <c r="L93" s="2">
+        <v>39</v>
+      </c>
+      <c r="M93" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="94" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B94" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C94" s="7">
+        <v>605180</v>
+      </c>
+      <c r="D94" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="E94" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="F94" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="F89" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="H89" s="5">
-        <v>28.53</v>
-      </c>
-      <c r="I89" s="5">
+      <c r="H94" s="5">
+        <v>22.38</v>
+      </c>
+      <c r="I94" s="5">
+        <v>25</v>
+      </c>
+      <c r="J94" s="2">
+        <v>30</v>
+      </c>
+      <c r="K94" s="2">
         <v>40</v>
       </c>
-      <c r="J89" s="2">
-        <v>50</v>
-      </c>
-      <c r="K89" s="2">
+      <c r="L94" s="2">
+        <v>60</v>
+      </c>
+      <c r="M94" s="9" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="95" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B95" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C95" s="7">
+        <v>600032</v>
+      </c>
+      <c r="D95" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="E95" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="H95" s="5">
+        <v>3.51</v>
+      </c>
+      <c r="I95" s="5">
+        <v>6</v>
+      </c>
+      <c r="J95" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="K95" s="2">
+        <v>8</v>
+      </c>
+      <c r="L95" s="2">
+        <v>12</v>
+      </c>
+      <c r="M95" s="9" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="96" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B96" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C96" s="7">
+        <v>300982</v>
+      </c>
+      <c r="D96" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="E96" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="H96" s="5">
+        <v>15.83</v>
+      </c>
+      <c r="I96" s="5">
+        <v>25</v>
+      </c>
+      <c r="J96" s="2">
+        <v>32</v>
+      </c>
+      <c r="K96" s="2">
+        <v>43</v>
+      </c>
+      <c r="L96" s="2">
         <v>65</v>
       </c>
-      <c r="L89" s="2">
-        <v>100</v>
-      </c>
-      <c r="M89" s="9" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="90" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C90" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="D90" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="E90" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="H90" s="5">
-        <v>63.38</v>
-      </c>
-      <c r="I90" s="5">
-        <v>79</v>
-      </c>
-      <c r="J90" s="2">
-        <v>95</v>
-      </c>
-      <c r="K90" s="2">
-        <v>118</v>
-      </c>
-      <c r="L90" s="2">
-        <v>158</v>
-      </c>
-      <c r="M90" s="9" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="91" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B91" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C91" s="7">
-        <v>605289</v>
-      </c>
-      <c r="D91" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="E91" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="H91" s="5">
-        <v>27.27</v>
-      </c>
-      <c r="I91" s="5">
-        <v>32</v>
-      </c>
-      <c r="J91" s="2">
-        <v>40</v>
-      </c>
-      <c r="K91" s="2">
-        <v>48</v>
-      </c>
-      <c r="L91" s="2">
-        <v>70</v>
-      </c>
-      <c r="M91" s="9" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="92" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B92" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C92" s="7">
-        <v>300979</v>
-      </c>
-      <c r="D92" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="E92" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="H92" s="5">
-        <v>33.22</v>
-      </c>
-      <c r="I92" s="5">
-        <v>34</v>
-      </c>
-      <c r="J92" s="2">
-        <v>39</v>
-      </c>
-      <c r="K92" s="2">
-        <v>43</v>
-      </c>
-      <c r="L92" s="2">
-        <v>69</v>
-      </c>
-      <c r="M92" s="9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="93" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B93" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C93" s="7">
-        <v>300978</v>
-      </c>
-      <c r="D93" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="E93" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="H93" s="5">
-        <v>8.42</v>
-      </c>
-      <c r="I93" s="5">
-        <v>15</v>
-      </c>
-      <c r="J93" s="2">
-        <v>12</v>
-      </c>
-      <c r="K93" s="2">
-        <v>23</v>
-      </c>
-      <c r="L93" s="2">
-        <v>30</v>
-      </c>
-      <c r="M93" s="9" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="94" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B94" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C94" s="7">
-        <v>688639</v>
-      </c>
-      <c r="D94" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="E94" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="H94" s="5">
-        <v>23.16</v>
-      </c>
-      <c r="I94" s="5">
-        <v>32</v>
-      </c>
-      <c r="J94" s="2">
-        <v>41</v>
-      </c>
-      <c r="K94" s="2">
-        <v>48</v>
-      </c>
-      <c r="L94" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="95" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B95" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C95" s="7">
-        <v>300975</v>
-      </c>
-      <c r="D95" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="E95" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="H95" s="5">
-        <v>5.48</v>
-      </c>
-      <c r="I95" s="5">
-        <v>15</v>
-      </c>
-      <c r="J95" s="2">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="K95" s="2">
-        <v>20</v>
-      </c>
-      <c r="L95" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="96" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B96" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C96" s="7">
-        <v>688682</v>
-      </c>
-      <c r="D96" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="E96" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="H96" s="5">
-        <v>45.72</v>
-      </c>
-      <c r="I96" s="5">
-        <v>68</v>
-      </c>
-      <c r="J96" s="2">
-        <v>81</v>
-      </c>
-      <c r="K96" s="2">
-        <v>108</v>
-      </c>
-      <c r="L96" s="2">
-        <v>162</v>
-      </c>
       <c r="M96" s="9" t="s">
-        <v>288</v>
+        <v>262</v>
       </c>
     </row>
     <row r="97" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B97" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C97" s="7">
-        <v>605016</v>
+        <v>300981</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>289</v>
+        <v>264</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>290</v>
+        <v>229</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>291</v>
+        <v>265</v>
       </c>
       <c r="H97" s="5">
-        <v>14.62</v>
+        <v>48.59</v>
       </c>
       <c r="I97" s="5">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="J97" s="2">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="K97" s="2">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="L97" s="2">
-        <v>58</v>
+        <v>180</v>
       </c>
       <c r="M97" s="9" t="s">
-        <v>148</v>
+        <v>60</v>
       </c>
     </row>
     <row r="98" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B98" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C98" s="7">
-        <v>688201</v>
+        <v>605089</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>292</v>
+        <v>266</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>293</v>
+        <v>267</v>
       </c>
       <c r="H98" s="5">
-        <v>26.78</v>
+        <v>28.53</v>
       </c>
       <c r="I98" s="5">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="J98" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="K98" s="2">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="L98" s="2">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="M98" s="9" t="s">
-        <v>294</v>
+        <v>148</v>
       </c>
     </row>
     <row r="99" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C99" s="7">
-        <v>605117</v>
+        <v>72</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>269</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>296</v>
+        <v>268</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>295</v>
+        <v>270</v>
       </c>
       <c r="H99" s="5">
-        <v>32.74</v>
+        <v>63.38</v>
       </c>
       <c r="I99" s="5">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J99" s="2">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="K99" s="2">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="L99" s="2">
-        <v>76</v>
+        <v>158</v>
       </c>
       <c r="M99" s="9" t="s">
-        <v>297</v>
+        <v>166</v>
       </c>
     </row>
     <row r="100" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C100" s="7">
-        <v>300983</v>
+        <v>605289</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>298</v>
+        <v>271</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>299</v>
+        <v>272</v>
       </c>
       <c r="H100" s="5">
-        <v>120.8</v>
+        <v>27.27</v>
       </c>
       <c r="I100" s="5">
-        <v>106</v>
+        <v>32</v>
       </c>
       <c r="J100" s="2">
-        <v>118</v>
+        <v>40</v>
       </c>
       <c r="K100" s="2">
-        <v>168</v>
+        <v>48</v>
       </c>
       <c r="L100" s="2">
-        <v>212</v>
+        <v>70</v>
       </c>
       <c r="M100" s="9" t="s">
-        <v>300</v>
+        <v>273</v>
       </c>
     </row>
     <row r="101" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -8271,104 +8436,101 @@
         <v>17</v>
       </c>
       <c r="C101" s="7">
-        <v>300980</v>
+        <v>300979</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>303</v>
+        <v>274</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>302</v>
+        <v>229</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>301</v>
+        <v>275</v>
       </c>
       <c r="H101" s="5">
-        <v>32.770000000000003</v>
+        <v>33.22</v>
       </c>
       <c r="I101" s="5">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="J101" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="K101" s="2">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="L101" s="2">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="M101" s="9" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
     </row>
     <row r="102" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C102" s="7">
+        <v>300978</v>
+      </c>
+      <c r="D102" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="E102" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="H102" s="5">
+        <v>8.42</v>
+      </c>
+      <c r="I102" s="5">
+        <v>15</v>
+      </c>
+      <c r="J102" s="2">
         <v>12</v>
       </c>
-      <c r="C102" s="7">
-        <v>605086</v>
-      </c>
-      <c r="D102" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="E102" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="H102" s="5">
-        <v>12.86</v>
-      </c>
-      <c r="I102" s="5">
-        <v>17</v>
-      </c>
-      <c r="J102" s="2">
-        <v>22</v>
-      </c>
       <c r="K102" s="2">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="L102" s="2">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="M102" s="9" t="s">
-        <v>309</v>
+        <v>279</v>
       </c>
     </row>
     <row r="103" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B103" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C103" s="7">
-        <v>300977</v>
+        <v>688639</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>307</v>
+        <v>280</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>308</v>
+        <v>281</v>
       </c>
       <c r="H103" s="5">
-        <v>89.66</v>
+        <v>23.16</v>
       </c>
       <c r="I103" s="5">
-        <v>111</v>
+        <v>32</v>
       </c>
       <c r="J103" s="2">
-        <v>133</v>
+        <v>41</v>
       </c>
       <c r="K103" s="2">
-        <v>158</v>
+        <v>48</v>
       </c>
       <c r="L103" s="2">
-        <v>223</v>
-      </c>
-      <c r="M103" s="9" t="s">
-        <v>300</v>
+        <v>75</v>
       </c>
     </row>
     <row r="104" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -8376,139 +8538,136 @@
         <v>17</v>
       </c>
       <c r="C104" s="7">
-        <v>300976</v>
+        <v>300975</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>310</v>
+        <v>282</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>311</v>
+        <v>283</v>
       </c>
       <c r="H104" s="5">
-        <v>168</v>
+        <v>5.48</v>
       </c>
       <c r="I104" s="5">
-        <v>162</v>
+        <v>15</v>
       </c>
       <c r="J104" s="2">
-        <v>191</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="K104" s="2">
-        <v>228</v>
+        <v>20</v>
       </c>
       <c r="L104" s="2">
-        <v>288</v>
-      </c>
-      <c r="M104" s="9" t="s">
-        <v>312</v>
+        <v>35</v>
       </c>
     </row>
     <row r="105" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B105" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C105" s="7">
-        <v>300973</v>
+        <v>688682</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>313</v>
+        <v>284</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>302</v>
+        <v>254</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>314</v>
+        <v>285</v>
       </c>
       <c r="H105" s="5">
-        <v>28.28</v>
+        <v>45.72</v>
       </c>
       <c r="I105" s="5">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="J105" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="K105" s="2">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="L105" s="2">
-        <v>88</v>
+        <v>162</v>
       </c>
       <c r="M105" s="9" t="s">
-        <v>148</v>
+        <v>286</v>
       </c>
     </row>
     <row r="106" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B106" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C106" s="7">
-        <v>300972</v>
+        <v>605016</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>315</v>
+        <v>287</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>316</v>
+        <v>288</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>317</v>
+        <v>289</v>
       </c>
       <c r="H106" s="5">
-        <v>7.19</v>
+        <v>14.62</v>
       </c>
       <c r="I106" s="5">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="J106" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="K106" s="2">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="L106" s="2">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="M106" s="9" t="s">
-        <v>322</v>
+        <v>148</v>
       </c>
     </row>
     <row r="107" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B107" s="2" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C107" s="7">
-        <v>605098</v>
+        <v>688201</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>318</v>
+        <v>290</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>320</v>
+        <v>229</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>319</v>
+        <v>291</v>
       </c>
       <c r="H107" s="5">
-        <v>27.58</v>
+        <v>26.78</v>
       </c>
       <c r="I107" s="5">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="J107" s="2">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="K107" s="2">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="L107" s="2">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="M107" s="9" t="s">
-        <v>321</v>
+        <v>292</v>
       </c>
     </row>
     <row r="108" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -8516,34 +8675,34 @@
         <v>12</v>
       </c>
       <c r="C108" s="7">
-        <v>601279</v>
+        <v>605117</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>323</v>
+        <v>294</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>320</v>
+        <v>236</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>324</v>
+        <v>293</v>
       </c>
       <c r="H108" s="5">
-        <v>2.0699999999999998</v>
+        <v>32.74</v>
       </c>
       <c r="I108" s="5">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="J108" s="2">
-        <v>3.5</v>
+        <v>47</v>
       </c>
       <c r="K108" s="2">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="L108" s="2">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M108" s="9" t="s">
-        <v>159</v>
+        <v>295</v>
       </c>
     </row>
     <row r="109" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -8551,34 +8710,34 @@
         <v>17</v>
       </c>
       <c r="C109" s="7">
-        <v>300971</v>
+        <v>300983</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>325</v>
+        <v>296</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>326</v>
+        <v>297</v>
       </c>
       <c r="H109" s="5">
-        <v>18.239999999999998</v>
+        <v>120.8</v>
       </c>
       <c r="I109" s="5">
-        <v>36</v>
+        <v>106</v>
       </c>
       <c r="J109" s="2">
-        <v>48</v>
+        <v>118</v>
       </c>
       <c r="K109" s="2">
-        <v>60</v>
+        <v>168</v>
       </c>
       <c r="L109" s="2">
-        <v>95</v>
+        <v>212</v>
       </c>
       <c r="M109" s="9" t="s">
-        <v>327</v>
+        <v>298</v>
       </c>
     </row>
     <row r="110" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -8586,69 +8745,69 @@
         <v>17</v>
       </c>
       <c r="C110" s="7">
-        <v>300968</v>
+        <v>300980</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>328</v>
+        <v>301</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>231</v>
+        <v>300</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>329</v>
+        <v>299</v>
       </c>
       <c r="H110" s="5">
-        <v>6.87</v>
+        <v>32.770000000000003</v>
       </c>
       <c r="I110" s="5">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="J110" s="2">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="K110" s="2">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="L110" s="2">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="M110" s="9" t="s">
-        <v>330</v>
+        <v>302</v>
       </c>
     </row>
     <row r="111" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B111" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C111" s="7">
-        <v>688663</v>
+        <v>605086</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>331</v>
+        <v>303</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>332</v>
+        <v>304</v>
       </c>
       <c r="H111" s="5">
-        <v>14.48</v>
+        <v>12.86</v>
       </c>
       <c r="I111" s="5">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J111" s="2">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="K111" s="2">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="L111" s="2">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="M111" s="9" t="s">
-        <v>336</v>
+        <v>307</v>
       </c>
     </row>
     <row r="112" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -8656,206 +8815,209 @@
         <v>17</v>
       </c>
       <c r="C112" s="7">
-        <v>300967</v>
+        <v>300977</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>333</v>
+        <v>305</v>
       </c>
       <c r="E112" s="9" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>334</v>
+        <v>306</v>
       </c>
       <c r="H112" s="5">
-        <v>4.54</v>
+        <v>89.66</v>
       </c>
       <c r="I112" s="5">
-        <v>19</v>
+        <v>111</v>
       </c>
       <c r="J112" s="2">
-        <v>16</v>
+        <v>133</v>
       </c>
       <c r="K112" s="2">
-        <v>25</v>
+        <v>158</v>
       </c>
       <c r="L112" s="2">
-        <v>39</v>
+        <v>223</v>
       </c>
       <c r="M112" s="9" t="s">
-        <v>335</v>
+        <v>298</v>
       </c>
     </row>
     <row r="113" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B113" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C113" s="7">
-        <v>688315</v>
+        <v>300976</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>337</v>
+        <v>308</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>339</v>
+        <v>309</v>
       </c>
       <c r="H113" s="5">
-        <v>12.76</v>
+        <v>168</v>
       </c>
       <c r="I113" s="5">
-        <v>25</v>
+        <v>162</v>
       </c>
       <c r="J113" s="2">
-        <v>30</v>
+        <v>191</v>
       </c>
       <c r="K113" s="2">
-        <v>38</v>
+        <v>228</v>
       </c>
       <c r="L113" s="2">
-        <v>62</v>
+        <v>288</v>
       </c>
       <c r="M113" s="9" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
     </row>
     <row r="114" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B114" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C114" s="7">
-        <v>605378</v>
+        <v>300973</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>340</v>
+        <v>311</v>
       </c>
       <c r="E114" s="9" t="s">
-        <v>342</v>
+        <v>300</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>341</v>
+        <v>312</v>
       </c>
       <c r="H114" s="5">
-        <v>17.62</v>
+        <v>28.28</v>
       </c>
       <c r="I114" s="5">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="J114" s="2">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="K114" s="2">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="L114" s="2">
-        <v>45</v>
+        <v>88</v>
+      </c>
+      <c r="M114" s="9" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="115" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B115" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C115" s="7">
-        <v>688611</v>
+        <v>300972</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>343</v>
+        <v>313</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>344</v>
+        <v>314</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>345</v>
+        <v>315</v>
       </c>
       <c r="H115" s="5">
-        <v>33.44</v>
+        <v>7.19</v>
       </c>
       <c r="I115" s="5">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="J115" s="2">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="K115" s="2">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="L115" s="2">
-        <v>122</v>
+        <v>39</v>
       </c>
       <c r="M115" s="9" t="s">
-        <v>111</v>
+        <v>320</v>
       </c>
     </row>
     <row r="116" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B116" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C116" s="7">
+        <v>605098</v>
+      </c>
+      <c r="D116" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="E116" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="H116" s="5">
+        <v>27.58</v>
+      </c>
+      <c r="I116" s="5">
         <v>41</v>
       </c>
-      <c r="C116" s="7">
-        <v>688683</v>
-      </c>
-      <c r="D116" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="E116" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="H116" s="5">
-        <v>9.51</v>
-      </c>
-      <c r="I116" s="5">
-        <v>15</v>
-      </c>
       <c r="J116" s="2">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="K116" s="2">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="L116" s="2">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="M116" s="9" t="s">
-        <v>348</v>
+        <v>319</v>
       </c>
     </row>
     <row r="117" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B117" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C117" s="7">
-        <v>300966</v>
+        <v>601279</v>
       </c>
       <c r="D117" s="9" t="s">
-        <v>349</v>
+        <v>321</v>
       </c>
       <c r="E117" s="9" t="s">
-        <v>231</v>
+        <v>318</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>351</v>
+        <v>322</v>
       </c>
       <c r="H117" s="5">
-        <v>8.24</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="I117" s="5">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="J117" s="2">
-        <v>26</v>
+        <v>3.5</v>
       </c>
       <c r="K117" s="2">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="L117" s="2">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M117" s="9" t="s">
-        <v>350</v>
+        <v>159</v>
       </c>
     </row>
     <row r="118" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -8863,34 +9025,34 @@
         <v>17</v>
       </c>
       <c r="C118" s="7">
-        <v>300970</v>
+        <v>300971</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>352</v>
+        <v>323</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>353</v>
+        <v>324</v>
       </c>
       <c r="H118" s="5">
-        <v>44.77</v>
+        <v>18.239999999999998</v>
       </c>
       <c r="I118" s="5">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="J118" s="2">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="K118" s="2">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="L118" s="2">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="M118" s="9" t="s">
-        <v>354</v>
+        <v>325</v>
       </c>
     </row>
     <row r="119" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -8898,34 +9060,34 @@
         <v>17</v>
       </c>
       <c r="C119" s="7">
-        <v>300969</v>
+        <v>300968</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>355</v>
+        <v>326</v>
       </c>
       <c r="E119" s="9" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>356</v>
+        <v>327</v>
       </c>
       <c r="H119" s="5">
-        <v>20.68</v>
+        <v>6.87</v>
       </c>
       <c r="I119" s="5">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="J119" s="2">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="K119" s="2">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="L119" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="M119" s="9" t="s">
-        <v>159</v>
+        <v>328</v>
       </c>
     </row>
     <row r="120" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -8933,34 +9095,34 @@
         <v>41</v>
       </c>
       <c r="C120" s="7">
-        <v>688468</v>
+        <v>688663</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>357</v>
+        <v>329</v>
       </c>
       <c r="E120" s="9" t="s">
-        <v>256</v>
+        <v>229</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>358</v>
+        <v>330</v>
       </c>
       <c r="H120" s="5">
-        <v>7.15</v>
+        <v>14.48</v>
       </c>
       <c r="I120" s="5">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J120" s="2">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="K120" s="2">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="L120" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="M120" s="9" t="s">
-        <v>60</v>
+        <v>334</v>
       </c>
     </row>
     <row r="121" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -8968,34 +9130,34 @@
         <v>17</v>
       </c>
       <c r="C121" s="7">
-        <v>300963</v>
+        <v>300967</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>359</v>
+        <v>331</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>360</v>
+        <v>332</v>
       </c>
       <c r="H121" s="5">
-        <v>12.13</v>
+        <v>4.54</v>
       </c>
       <c r="I121" s="5">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J121" s="2">
+        <v>16</v>
+      </c>
+      <c r="K121" s="2">
         <v>25</v>
       </c>
-      <c r="K121" s="2">
-        <v>30</v>
-      </c>
       <c r="L121" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="M121" s="9" t="s">
-        <v>361</v>
+        <v>333</v>
       </c>
     </row>
     <row r="122" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -9003,34 +9165,346 @@
         <v>41</v>
       </c>
       <c r="C122" s="7">
+        <v>688315</v>
+      </c>
+      <c r="D122" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="E122" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="H122" s="5">
+        <v>12.76</v>
+      </c>
+      <c r="I122" s="5">
+        <v>25</v>
+      </c>
+      <c r="J122" s="2">
+        <v>30</v>
+      </c>
+      <c r="K122" s="2">
+        <v>38</v>
+      </c>
+      <c r="L122" s="2">
+        <v>62</v>
+      </c>
+      <c r="M122" s="9" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="123" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B123" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C123" s="7">
+        <v>605378</v>
+      </c>
+      <c r="D123" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="E123" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="H123" s="5">
+        <v>17.62</v>
+      </c>
+      <c r="I123" s="5">
+        <v>23</v>
+      </c>
+      <c r="J123" s="2">
+        <v>30</v>
+      </c>
+      <c r="K123" s="2">
+        <v>34</v>
+      </c>
+      <c r="L123" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="124" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B124" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C124" s="7">
+        <v>688611</v>
+      </c>
+      <c r="D124" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="E124" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="H124" s="5">
+        <v>33.44</v>
+      </c>
+      <c r="I124" s="5">
+        <v>53</v>
+      </c>
+      <c r="J124" s="2">
+        <v>71</v>
+      </c>
+      <c r="K124" s="2">
+        <v>80</v>
+      </c>
+      <c r="L124" s="2">
+        <v>122</v>
+      </c>
+      <c r="M124" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="125" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B125" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C125" s="7">
+        <v>688683</v>
+      </c>
+      <c r="D125" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="E125" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="H125" s="5">
+        <v>9.51</v>
+      </c>
+      <c r="I125" s="5">
+        <v>15</v>
+      </c>
+      <c r="J125" s="2">
+        <v>20</v>
+      </c>
+      <c r="K125" s="2">
+        <v>28</v>
+      </c>
+      <c r="L125" s="2">
+        <v>38</v>
+      </c>
+      <c r="M125" s="9" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="126" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B126" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C126" s="7">
+        <v>300966</v>
+      </c>
+      <c r="D126" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="E126" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="H126" s="5">
+        <v>8.24</v>
+      </c>
+      <c r="I126" s="5">
+        <v>18</v>
+      </c>
+      <c r="J126" s="2">
+        <v>26</v>
+      </c>
+      <c r="K126" s="2">
+        <v>30</v>
+      </c>
+      <c r="L126" s="2">
+        <v>48</v>
+      </c>
+      <c r="M126" s="9" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="127" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B127" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C127" s="7">
+        <v>300970</v>
+      </c>
+      <c r="D127" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="E127" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="H127" s="5">
+        <v>44.77</v>
+      </c>
+      <c r="I127" s="5">
+        <v>51</v>
+      </c>
+      <c r="J127" s="2">
+        <v>68</v>
+      </c>
+      <c r="K127" s="2">
+        <v>98</v>
+      </c>
+      <c r="L127" s="2">
+        <v>120</v>
+      </c>
+      <c r="M127" s="9" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="128" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B128" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C128" s="7">
+        <v>300969</v>
+      </c>
+      <c r="D128" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="E128" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="H128" s="5">
+        <v>20.68</v>
+      </c>
+      <c r="I128" s="5">
+        <v>30</v>
+      </c>
+      <c r="J128" s="2">
+        <v>38</v>
+      </c>
+      <c r="K128" s="2">
+        <v>48</v>
+      </c>
+      <c r="L128" s="2">
+        <v>75</v>
+      </c>
+      <c r="M128" s="9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="129" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B129" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C129" s="7">
+        <v>688468</v>
+      </c>
+      <c r="D129" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="E129" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="H129" s="5">
+        <v>7.15</v>
+      </c>
+      <c r="I129" s="5">
+        <v>18</v>
+      </c>
+      <c r="J129" s="2">
+        <v>15</v>
+      </c>
+      <c r="K129" s="2">
+        <v>25</v>
+      </c>
+      <c r="L129" s="2">
+        <v>38</v>
+      </c>
+      <c r="M129" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="130" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B130" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C130" s="7">
+        <v>300963</v>
+      </c>
+      <c r="D130" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="E130" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="H130" s="5">
+        <v>12.13</v>
+      </c>
+      <c r="I130" s="5">
+        <v>20</v>
+      </c>
+      <c r="J130" s="2">
+        <v>25</v>
+      </c>
+      <c r="K130" s="2">
+        <v>30</v>
+      </c>
+      <c r="L130" s="2">
+        <v>50</v>
+      </c>
+      <c r="M130" s="9" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="131" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B131" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C131" s="7">
         <v>688636</v>
       </c>
-      <c r="D122" s="9" t="s">
+      <c r="D131" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="E131" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="F131" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="E122" s="9" t="s">
+      <c r="H131" s="5">
+        <v>34.5</v>
+      </c>
+      <c r="I131" s="5">
+        <v>58</v>
+      </c>
+      <c r="J131" s="2">
+        <v>80</v>
+      </c>
+      <c r="K131" s="2">
+        <v>90</v>
+      </c>
+      <c r="L131" s="2">
+        <v>138</v>
+      </c>
+      <c r="M131" s="9" t="s">
         <v>363</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="H122" s="5">
-        <v>34.5</v>
-      </c>
-      <c r="I122" s="5">
-        <v>58</v>
-      </c>
-      <c r="J122" s="2">
-        <v>80</v>
-      </c>
-      <c r="K122" s="2">
-        <v>90</v>
-      </c>
-      <c r="L122" s="2">
-        <v>138</v>
-      </c>
-      <c r="M122" s="9" t="s">
-        <v>365</v>
       </c>
     </row>
   </sheetData>
@@ -9070,12 +9544,12 @@
     </row>
     <row r="4" spans="1:1" ht="126" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="42" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>

--- a/次新股.xlsx
+++ b/次新股.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="441">
   <si>
     <t>个股代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4369,6 +4369,124 @@
     <rPh sb="76" eb="77">
       <t>shi c</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发行人是一家高性能模拟芯片的设计公司，客户为三星、LG、小米等大厂，题材很好，但公司研发实力真的不算强。</t>
+    <rPh sb="11" eb="12">
+      <t>xin p</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>d</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>da chang</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ti c</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>hen</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>hao</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>dan</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>shi l</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力芯微</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般关注</t>
+  </si>
+  <si>
+    <t>嘉益股份</t>
+  </si>
+  <si>
+    <t>发行人主业保温杯，产品几乎靠出口，随着外贸政策的变动，公司业绩下滑严重。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家用轻工</t>
+    <rPh sb="0" eb="1">
+      <t>jia yong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>qing</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>gong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专业从事工业铁路信号控制与智能调度产品研发、生产，公司缺点是芯片依赖进口，应收账大，补贴占比也大，产品有一定的科技含量，公司规模比较小，业绩增速不错。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工大高科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁路设备</t>
+    <rPh sb="0" eb="1">
+      <t>tie l</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>she b</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利和兴</t>
+  </si>
+  <si>
+    <t>公司主业自动化、智能化设备，公司研发不高，现金流差，过去大客户华为是增长的动力，现在也变成了下滑的风险，但智能设备属于市场热点。</t>
+    <rPh sb="52" eb="53">
+      <t>dan</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>zhi neng</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>she b</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>shu y</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>shi c</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>re d</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宁波色母</t>
+  </si>
+  <si>
+    <t>一般关注</t>
+    <rPh sb="0" eb="1">
+      <t>yi ban</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>guan hzu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要从事色母粒的研发、生产，致力于为客户提供塑料着色定制化产品。老板上市前就把利润瓜分光，应收账款增长周转率低，报告期内营收利润增速都不错，预计几年内财务仍然会缓慢增长</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4839,10 +4957,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O131"/>
+  <dimension ref="A1:O134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B30" zoomScale="140" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="G2" zoomScale="140" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="34" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4933,13 +5051,81 @@
     </row>
     <row r="6" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="7">
+        <v>301019</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="G6" s="2">
+        <v>23.7</v>
+      </c>
+      <c r="H6" s="5">
+        <v>28.94</v>
+      </c>
+      <c r="I6" s="5">
+        <v>43</v>
+      </c>
+      <c r="J6" s="2">
+        <v>50</v>
+      </c>
+      <c r="K6" s="6">
+        <v>56</v>
+      </c>
+      <c r="L6" s="6">
+        <v>82</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="7" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="7">
+        <v>301013</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="G7" s="2">
+        <v>17.149999999999999</v>
+      </c>
+      <c r="H7" s="5">
+        <v>8.7200000000000006</v>
+      </c>
+      <c r="I7" s="5">
+        <v>20</v>
+      </c>
+      <c r="J7" s="2">
+        <v>18</v>
+      </c>
+      <c r="K7" s="6">
+        <v>28</v>
+      </c>
+      <c r="L7" s="6">
+        <v>38</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row r="8" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
@@ -4947,151 +5133,154 @@
         <v>41</v>
       </c>
       <c r="C8" s="7">
-        <v>688276</v>
+        <v>688367</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>300</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>423</v>
+        <v>433</v>
+      </c>
+      <c r="G8" s="2">
+        <v>26.21</v>
       </c>
       <c r="H8" s="5">
-        <v>36.35</v>
+        <v>11.53</v>
       </c>
       <c r="I8" s="5">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="J8" s="2">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="K8" s="6">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="L8" s="6">
-        <v>121</v>
+        <v>58</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C9" s="7">
-        <v>688690</v>
+        <v>301004</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>420</v>
+        <v>236</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="G9" s="2">
-        <v>51.04</v>
+        <v>14.98</v>
       </c>
       <c r="H9" s="5">
-        <v>8.07</v>
+        <v>7.81</v>
       </c>
       <c r="I9" s="5">
+        <v>25</v>
+      </c>
+      <c r="J9" s="2">
         <v>20</v>
       </c>
-      <c r="J9" s="2">
-        <v>15</v>
-      </c>
       <c r="K9" s="6">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L9" s="6">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>421</v>
+        <v>432</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>416</v>
+        <v>41</v>
+      </c>
+      <c r="C10" s="7">
+        <v>688601</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>314</v>
+        <v>429</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="G10" s="2">
-        <v>22.98</v>
+        <v>44.31</v>
       </c>
       <c r="H10" s="5">
-        <v>3.67</v>
+        <v>36.479999999999997</v>
       </c>
       <c r="I10" s="5">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="J10" s="2">
-        <v>9.36</v>
+        <v>156</v>
       </c>
       <c r="K10" s="6">
-        <v>13</v>
+        <v>168</v>
       </c>
       <c r="L10" s="6">
-        <v>18</v>
+        <v>235</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>111</v>
+        <v>409</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C11" s="7">
-        <v>301012</v>
+        <v>688276</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>387</v>
+        <v>300</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="G11" s="2">
-        <v>14.6</v>
+        <v>37.340000000000003</v>
       </c>
       <c r="H11" s="5">
-        <v>8.0500000000000007</v>
+        <v>36.35</v>
       </c>
       <c r="I11" s="5">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="J11" s="2">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="K11" s="6">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="L11" s="6">
-        <v>60</v>
+        <v>121</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -5100,115 +5289,115 @@
         <v>41</v>
       </c>
       <c r="C12" s="7">
-        <v>688216</v>
+        <v>688690</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>254</v>
+        <v>420</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="G12" s="2">
-        <v>21.11</v>
+        <v>51.04</v>
       </c>
       <c r="H12" s="5">
-        <v>14.82</v>
+        <v>8.07</v>
       </c>
       <c r="I12" s="5">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J12" s="2">
+        <v>15</v>
+      </c>
+      <c r="K12" s="6">
+        <v>25</v>
+      </c>
+      <c r="L12" s="6">
         <v>38</v>
       </c>
-      <c r="K12" s="6">
-        <v>48</v>
-      </c>
-      <c r="L12" s="6">
-        <v>95</v>
-      </c>
       <c r="M12" s="9" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="7">
-        <v>688425</v>
+        <v>72</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>416</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>387</v>
+        <v>314</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="G13" s="2">
-        <v>10.54</v>
+        <v>22.98</v>
       </c>
       <c r="H13" s="5">
-        <v>2.87</v>
+        <v>3.67</v>
       </c>
       <c r="I13" s="5">
-        <v>4.8</v>
+        <v>10</v>
       </c>
       <c r="J13" s="2">
-        <v>6</v>
+        <v>9.36</v>
       </c>
       <c r="K13" s="6">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="L13" s="6">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>407</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>401</v>
+        <v>17</v>
+      </c>
+      <c r="C14" s="7">
+        <v>301012</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>288</v>
+        <v>387</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="G14" s="2">
-        <v>22.99</v>
+        <v>14.6</v>
       </c>
       <c r="H14" s="5">
-        <v>14.27</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="I14" s="5">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="J14" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K14" s="6">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="L14" s="6">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -5217,37 +5406,37 @@
         <v>41</v>
       </c>
       <c r="C15" s="7">
-        <v>688621</v>
+        <v>688216</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>300</v>
+        <v>254</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="G15" s="2">
-        <v>29.72</v>
+        <v>21.11</v>
       </c>
       <c r="H15" s="5">
-        <v>26.89</v>
+        <v>14.82</v>
       </c>
       <c r="I15" s="5">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="J15" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="K15" s="6">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="L15" s="6">
-        <v>168</v>
+        <v>95</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -5256,232 +5445,232 @@
         <v>41</v>
       </c>
       <c r="C16" s="7">
-        <v>688517</v>
+        <v>688425</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>236</v>
+        <v>387</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="G16" s="2">
-        <v>15.28</v>
+        <v>10.54</v>
       </c>
       <c r="H16" s="5">
-        <v>7.71</v>
+        <v>2.87</v>
       </c>
       <c r="I16" s="5">
-        <v>13</v>
+        <v>4.8</v>
       </c>
       <c r="J16" s="2">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="K16" s="6">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="L16" s="6">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>111</v>
+        <v>407</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="7">
-        <v>300984</v>
+        <v>72</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>401</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>387</v>
+        <v>288</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="G17" s="2">
-        <v>29.28</v>
+        <v>22.99</v>
       </c>
       <c r="H17" s="5">
-        <v>30.97</v>
+        <v>14.27</v>
       </c>
       <c r="I17" s="5">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="J17" s="2">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="K17" s="6">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="L17" s="6">
-        <v>125</v>
+        <v>38</v>
       </c>
       <c r="M17" s="9" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C18" s="7">
-        <v>301011</v>
+        <v>688621</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>387</v>
+        <v>300</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="G18" s="2">
-        <v>26.76</v>
+        <v>29.72</v>
       </c>
       <c r="H18" s="5">
-        <v>14.2</v>
+        <v>26.89</v>
       </c>
       <c r="I18" s="5">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="J18" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="K18" s="6">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="L18" s="6">
-        <v>70</v>
+        <v>168</v>
       </c>
       <c r="M18" s="9" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C19" s="7">
-        <v>301010</v>
+        <v>688517</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>387</v>
+        <v>236</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="G19" s="2">
-        <v>15.23</v>
+        <v>15.28</v>
       </c>
       <c r="H19" s="5">
-        <v>7.83</v>
+        <v>7.71</v>
       </c>
       <c r="I19" s="5">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="J19" s="2">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="K19" s="6">
+        <v>20</v>
+      </c>
+      <c r="L19" s="6">
         <v>35</v>
       </c>
-      <c r="L19" s="6">
-        <v>56</v>
-      </c>
       <c r="M19" s="9" t="s">
-        <v>389</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C20" s="7">
-        <v>601665</v>
+        <v>300984</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>236</v>
+        <v>387</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="G20" s="2">
-        <v>10.28</v>
+        <v>29.28</v>
       </c>
       <c r="H20" s="5">
-        <v>5.36</v>
+        <v>30.97</v>
       </c>
       <c r="I20" s="5">
-        <v>4.18</v>
+        <v>52</v>
       </c>
       <c r="J20" s="2">
-        <v>4.5</v>
+        <v>62</v>
       </c>
       <c r="K20" s="6">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="L20" s="6">
-        <v>8.1999999999999993</v>
+        <v>125</v>
       </c>
       <c r="M20" s="9" t="s">
-        <v>176</v>
+        <v>393</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C21" s="7">
-        <v>688597</v>
+        <v>301011</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>383</v>
+        <v>400</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>236</v>
+        <v>387</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="G21" s="2">
-        <v>17.46</v>
+        <v>26.76</v>
       </c>
       <c r="H21" s="5">
-        <v>5.88</v>
+        <v>14.2</v>
       </c>
       <c r="I21" s="5">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="J21" s="2">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="K21" s="6">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="L21" s="6">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="M21" s="9" t="s">
-        <v>111</v>
+        <v>391</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -5490,76 +5679,76 @@
         <v>17</v>
       </c>
       <c r="C22" s="7">
-        <v>688597</v>
+        <v>301010</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>254</v>
+        <v>387</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="G22" s="2">
-        <v>16.920000000000002</v>
+        <v>15.23</v>
       </c>
       <c r="H22" s="5">
-        <v>12.54</v>
+        <v>7.83</v>
       </c>
       <c r="I22" s="5">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="J22" s="2">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K22" s="6">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="L22" s="6">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="M22" s="9" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>688700</v>
+        <v>601665</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>236</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="G23" s="2">
-        <v>17.55</v>
+        <v>10.28</v>
       </c>
       <c r="H23" s="5">
-        <v>9.41</v>
+        <v>5.36</v>
       </c>
       <c r="I23" s="5">
-        <v>23</v>
+        <v>4.18</v>
       </c>
       <c r="J23" s="2">
-        <v>28</v>
+        <v>4.5</v>
       </c>
       <c r="K23" s="6">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="L23" s="6">
-        <v>58</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="M23" s="9" t="s">
-        <v>378</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -5568,76 +5757,76 @@
         <v>41</v>
       </c>
       <c r="C24" s="7">
-        <v>688067</v>
+        <v>688597</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="G24" s="2">
-        <v>37.89</v>
+        <v>17.46</v>
       </c>
       <c r="H24" s="5">
-        <v>14.71</v>
+        <v>5.88</v>
       </c>
       <c r="I24" s="5">
-        <v>29.5</v>
+        <v>12</v>
       </c>
       <c r="J24" s="2">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="K24" s="6">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="L24" s="6">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="M24" s="9" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C25" s="7">
-        <v>603529</v>
+        <v>688597</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="G25" s="2">
-        <v>21.9</v>
+        <v>16.920000000000002</v>
       </c>
       <c r="H25" s="5">
-        <v>27.86</v>
+        <v>12.54</v>
       </c>
       <c r="I25" s="5">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="J25" s="2">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="K25" s="6">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="L25" s="6">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="M25" s="9" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -5646,154 +5835,154 @@
         <v>41</v>
       </c>
       <c r="C26" s="7">
-        <v>688681</v>
+        <v>688700</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>236</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="G26" s="2">
-        <v>18.91</v>
+        <v>17.55</v>
       </c>
       <c r="H26" s="5">
-        <v>9.56</v>
+        <v>9.41</v>
       </c>
       <c r="I26" s="5">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="J26" s="2">
-        <v>23.8</v>
+        <v>28</v>
       </c>
       <c r="K26" s="6">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="L26" s="6">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="M26" s="9" t="s">
-        <v>111</v>
+        <v>378</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C27" s="7">
-        <v>301007</v>
+        <v>688067</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>229</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="G27" s="2">
-        <v>17.3</v>
+        <v>37.89</v>
       </c>
       <c r="H27" s="5">
-        <v>5.29</v>
+        <v>14.71</v>
       </c>
       <c r="I27" s="5">
-        <v>18</v>
+        <v>29.5</v>
       </c>
       <c r="J27" s="2">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="K27" s="6">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="L27" s="6">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="M27" s="9" t="s">
-        <v>159</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C28" s="7">
-        <v>688345</v>
+        <v>603529</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="E28" s="9" t="s">
         <v>229</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="G28" s="2">
-        <v>22.15</v>
+        <v>21.9</v>
       </c>
       <c r="H28" s="5">
-        <v>25.91</v>
+        <v>27.86</v>
       </c>
       <c r="I28" s="5">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J28" s="2">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="K28" s="6">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L28" s="6">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="M28" s="9" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="2" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C29" s="7">
-        <v>605259</v>
+        <v>688681</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>220</v>
+        <v>369</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>221</v>
+        <v>370</v>
       </c>
       <c r="G29" s="2">
-        <v>22.99</v>
+        <v>18.91</v>
       </c>
       <c r="H29" s="5">
-        <v>27.1</v>
+        <v>9.56</v>
       </c>
       <c r="I29" s="5">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="J29" s="2">
-        <v>45</v>
+        <v>23.8</v>
       </c>
       <c r="K29" s="6">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="L29" s="6">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="M29" s="9" t="s">
-        <v>222</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -5802,37 +5991,37 @@
         <v>17</v>
       </c>
       <c r="C30" s="7">
-        <v>301008</v>
+        <v>301007</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>217</v>
+        <v>367</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>218</v>
+        <v>368</v>
       </c>
       <c r="G30" s="2">
-        <v>35.200000000000003</v>
+        <v>17.3</v>
       </c>
       <c r="H30" s="5">
-        <v>37.6</v>
+        <v>5.29</v>
       </c>
       <c r="I30" s="5">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="J30" s="2">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="K30" s="6">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="L30" s="6">
-        <v>108</v>
+        <v>39</v>
       </c>
       <c r="M30" s="9" t="s">
-        <v>219</v>
+        <v>159</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -5841,118 +6030,115 @@
         <v>41</v>
       </c>
       <c r="C31" s="7">
-        <v>688269</v>
+        <v>688345</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>215</v>
+        <v>366</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>216</v>
+        <v>364</v>
       </c>
       <c r="G31" s="2">
-        <v>18.010000000000002</v>
+        <v>22.15</v>
       </c>
       <c r="H31" s="5">
-        <v>18.940000000000001</v>
+        <v>25.91</v>
       </c>
       <c r="I31" s="5">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J31" s="2">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="K31" s="6">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="L31" s="6">
-        <v>64</v>
+        <v>120</v>
       </c>
       <c r="M31" s="9" t="s">
-        <v>39</v>
+        <v>365</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="B32" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C32" s="7">
-        <v>688131</v>
+        <v>605259</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>411</v>
+        <v>220</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>229</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="G32" s="2">
-        <v>40.729999999999997</v>
+        <v>22.99</v>
       </c>
       <c r="H32" s="5">
-        <v>64.989999999999995</v>
+        <v>27.1</v>
       </c>
       <c r="I32" s="5">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="J32" s="2">
-        <v>135</v>
+        <v>45</v>
       </c>
       <c r="K32" s="6">
-        <v>148</v>
+        <v>57</v>
       </c>
       <c r="L32" s="6">
-        <v>243</v>
+        <v>80</v>
       </c>
       <c r="M32" s="9" t="s">
-        <v>53</v>
+        <v>222</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
       <c r="B33" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C33" s="7">
-        <v>688319</v>
+        <v>301008</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>411</v>
+        <v>217</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>254</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="G33" s="2">
-        <v>146.44999999999999</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="H33" s="5">
-        <v>9.8800000000000008</v>
+        <v>37.6</v>
       </c>
       <c r="I33" s="5">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="J33" s="2">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="K33" s="6">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="L33" s="6">
-        <v>43</v>
+        <v>108</v>
       </c>
       <c r="M33" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -5961,157 +6147,160 @@
         <v>41</v>
       </c>
       <c r="C34" s="7">
-        <v>688625</v>
+        <v>688269</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>387</v>
+        <v>254</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>426</v>
+        <v>216</v>
       </c>
       <c r="G34" s="2">
-        <v>19.95</v>
+        <v>18.010000000000002</v>
       </c>
       <c r="H34" s="5">
-        <v>16.48</v>
+        <v>18.940000000000001</v>
       </c>
       <c r="I34" s="5">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J34" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K34" s="6">
         <v>38</v>
       </c>
       <c r="L34" s="6">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M34" s="9" t="s">
         <v>39</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C35" s="7">
-        <v>301006</v>
+        <v>688131</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>204</v>
+        <v>213</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>411</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="G35" s="2">
-        <v>12.61</v>
+        <v>40.729999999999997</v>
       </c>
       <c r="H35" s="5">
-        <v>14.42</v>
+        <v>64.989999999999995</v>
       </c>
       <c r="I35" s="5">
-        <v>21</v>
+        <v>108</v>
       </c>
       <c r="J35" s="2">
-        <v>29</v>
+        <v>135</v>
       </c>
       <c r="K35" s="6">
-        <v>33</v>
+        <v>148</v>
       </c>
       <c r="L35" s="6">
-        <v>50</v>
+        <v>243</v>
       </c>
       <c r="M35" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>207</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="B36" s="2" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C36" s="7">
-        <v>601156</v>
+        <v>688319</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>202</v>
+        <v>209</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>411</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="G36" s="2">
-        <v>10.93</v>
+        <v>146.44999999999999</v>
       </c>
       <c r="H36" s="5">
-        <v>15.77</v>
+        <v>9.8800000000000008</v>
       </c>
       <c r="I36" s="5">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J36" s="2">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K36" s="6">
         <v>25</v>
       </c>
       <c r="L36" s="6">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="M36" s="9" t="s">
-        <v>27</v>
+        <v>212</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="2" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C37" s="7">
-        <v>605319</v>
+        <v>688625</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>198</v>
+        <v>208</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>387</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>200</v>
+        <v>426</v>
       </c>
       <c r="G37" s="2">
-        <v>22.98</v>
+        <v>19.95</v>
       </c>
       <c r="H37" s="5">
-        <v>11.22</v>
+        <v>16.48</v>
       </c>
       <c r="I37" s="5">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="J37" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K37" s="6">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="L37" s="6">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>159</v>
+        <v>39</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>199</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -6120,99 +6309,115 @@
         <v>17</v>
       </c>
       <c r="C38" s="7">
-        <v>301002</v>
+        <v>301006</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="G38" s="2">
-        <v>18.12</v>
+        <v>12.61</v>
       </c>
       <c r="H38" s="5">
-        <v>18.71</v>
+        <v>14.42</v>
       </c>
       <c r="I38" s="5">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="J38" s="2">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K38" s="6">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="L38" s="6">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="M38" s="9" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
       <c r="B39" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C39" s="7">
-        <v>688117</v>
+        <v>601156</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="G39" s="2">
-        <v>27.7</v>
-      </c>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
+        <v>10.93</v>
+      </c>
+      <c r="H39" s="5">
+        <v>15.77</v>
+      </c>
+      <c r="I39" s="5">
+        <v>20</v>
+      </c>
+      <c r="J39" s="2">
+        <v>22</v>
+      </c>
+      <c r="K39" s="6">
+        <v>25</v>
+      </c>
+      <c r="L39" s="6">
+        <v>38</v>
+      </c>
+      <c r="M39" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="O39" s="7" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
       <c r="B40" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C40" s="7">
-        <v>300996</v>
+        <v>605319</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="G40" s="2">
-        <v>23.16</v>
+        <v>22.98</v>
       </c>
       <c r="H40" s="5">
-        <v>20.81</v>
+        <v>11.22</v>
       </c>
       <c r="I40" s="5">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="J40" s="2">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="K40" s="6">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="L40" s="6">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="M40" s="9" t="s">
-        <v>188</v>
+        <v>159</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -6221,76 +6426,60 @@
         <v>17</v>
       </c>
       <c r="C41" s="7">
-        <v>300997</v>
+        <v>301002</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="G41" s="2">
-        <v>12.76</v>
+        <v>18.12</v>
       </c>
       <c r="H41" s="5">
-        <v>4.9400000000000004</v>
+        <v>18.71</v>
       </c>
       <c r="I41" s="5">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="J41" s="2">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="K41" s="6">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="L41" s="6">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="M41" s="9" t="s">
-        <v>148</v>
+        <v>197</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
       <c r="B42" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C42" s="7">
-        <v>300998</v>
+        <v>688117</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>425</v>
+        <v>192</v>
       </c>
       <c r="G42" s="2">
-        <v>16.940000000000001</v>
-      </c>
-      <c r="H42" s="5">
-        <v>6.02</v>
-      </c>
-      <c r="I42" s="5">
-        <v>25</v>
-      </c>
-      <c r="J42" s="2">
-        <v>18.8</v>
-      </c>
-      <c r="K42" s="6">
-        <v>28</v>
-      </c>
-      <c r="L42" s="6">
-        <v>57</v>
-      </c>
-      <c r="M42" s="9" t="s">
-        <v>159</v>
-      </c>
+        <v>27.7</v>
+      </c>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
       <c r="O42" s="7" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -6299,70 +6488,76 @@
         <v>17</v>
       </c>
       <c r="C43" s="7">
-        <v>301005</v>
+        <v>300996</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="G43" s="2">
-        <v>26.64</v>
+        <v>23.16</v>
       </c>
       <c r="H43" s="5">
-        <v>36.450000000000003</v>
+        <v>20.81</v>
       </c>
       <c r="I43" s="5">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="J43" s="2">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="K43" s="6">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="L43" s="6">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="M43" s="9" t="s">
-        <v>159</v>
+        <v>188</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
       <c r="B44" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C44" s="7">
-        <v>601528</v>
+        <v>300997</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>177</v>
+        <v>184</v>
+      </c>
+      <c r="G44" s="2">
+        <v>12.76</v>
       </c>
       <c r="H44" s="5">
-        <v>8.1199999999999992</v>
+        <v>4.9400000000000004</v>
       </c>
       <c r="I44" s="5">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="J44" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K44" s="6">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L44" s="6">
-        <v>16.600000000000001</v>
+        <v>30</v>
       </c>
       <c r="M44" s="9" t="s">
-        <v>176</v>
+        <v>148</v>
+      </c>
+      <c r="O44" s="7" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -6371,115 +6566,109 @@
         <v>17</v>
       </c>
       <c r="C45" s="7">
-        <v>301003</v>
+        <v>300998</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>172</v>
+        <v>425</v>
       </c>
       <c r="G45" s="2">
-        <v>32.01</v>
+        <v>16.940000000000001</v>
       </c>
       <c r="H45" s="5">
-        <v>55.88</v>
+        <v>6.02</v>
       </c>
       <c r="I45" s="5">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="J45" s="2">
-        <v>85</v>
+        <v>18.8</v>
       </c>
       <c r="K45" s="6">
-        <v>98</v>
+        <v>28</v>
       </c>
       <c r="L45" s="6">
-        <v>138</v>
+        <v>57</v>
       </c>
       <c r="M45" s="9" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
       <c r="B46" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C46" s="7">
-        <v>605296</v>
+        <v>301005</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="G46" s="2">
-        <v>19.760000000000002</v>
+        <v>26.64</v>
       </c>
       <c r="H46" s="5">
-        <v>56.08</v>
+        <v>36.450000000000003</v>
       </c>
       <c r="I46" s="5">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J46" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K46" s="6">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L46" s="6">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="M46" s="9" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
       <c r="B47" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C47" s="7">
-        <v>301001</v>
+        <v>601528</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="G47" s="2">
-        <v>26.19</v>
+        <v>177</v>
       </c>
       <c r="H47" s="5">
-        <v>25.54</v>
+        <v>8.1199999999999992</v>
       </c>
       <c r="I47" s="5">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="J47" s="2">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="K47" s="6">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="L47" s="6">
-        <v>98</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="M47" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="O47" s="7" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -6488,37 +6677,37 @@
         <v>17</v>
       </c>
       <c r="C48" s="7">
-        <v>301000</v>
+        <v>301003</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>223</v>
+        <v>168</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="G48" s="2">
-        <v>35</v>
+        <v>32.01</v>
       </c>
       <c r="H48" s="5">
-        <v>64.31</v>
+        <v>55.88</v>
       </c>
       <c r="I48" s="5">
+        <v>69</v>
+      </c>
+      <c r="J48" s="2">
         <v>85</v>
       </c>
-      <c r="J48" s="2">
-        <v>93</v>
-      </c>
       <c r="K48" s="6">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="L48" s="6">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="M48" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -6527,188 +6716,190 @@
         <v>12</v>
       </c>
       <c r="C49" s="7">
-        <v>605189</v>
+        <v>605296</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="G49" s="2">
-        <v>22.99</v>
+        <v>19.760000000000002</v>
       </c>
       <c r="H49" s="5">
-        <v>19.95</v>
+        <v>56.08</v>
       </c>
       <c r="I49" s="5">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="J49" s="2">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="K49" s="6">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="L49" s="6">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="M49" s="9" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
       <c r="B50" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C50" s="7">
-        <v>688538</v>
+        <v>301001</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>171</v>
+        <v>161</v>
+      </c>
+      <c r="G50" s="2">
+        <v>26.19</v>
       </c>
       <c r="H50" s="5">
-        <v>2.65</v>
+        <v>25.54</v>
       </c>
       <c r="I50" s="5">
-        <v>3.5</v>
+        <v>43</v>
       </c>
       <c r="J50" s="2">
-        <v>2.23</v>
+        <v>43</v>
       </c>
       <c r="K50" s="6">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="L50" s="6">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="M50" s="9" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="4"/>
       <c r="B51" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C51" s="7">
-        <v>605499</v>
+        <v>301000</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>146</v>
+        <v>223</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G51" s="2">
-        <v>22.99</v>
+        <v>35</v>
       </c>
       <c r="H51" s="5">
-        <v>46.27</v>
+        <v>64.31</v>
       </c>
       <c r="I51" s="5">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J51" s="2">
-        <v>88</v>
-      </c>
-      <c r="K51" s="2">
-        <v>98</v>
-      </c>
-      <c r="L51" s="2">
-        <v>125</v>
+        <v>93</v>
+      </c>
+      <c r="K51" s="6">
+        <v>118</v>
+      </c>
+      <c r="L51" s="6">
+        <v>158</v>
       </c>
       <c r="M51" s="9" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="4"/>
       <c r="B52" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C52" s="7">
-        <v>603836</v>
+        <v>605189</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>24</v>
+        <v>155</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>25</v>
+        <v>153</v>
       </c>
       <c r="G52" s="2">
         <v>22.99</v>
       </c>
       <c r="H52" s="5">
-        <v>16.84</v>
+        <v>19.95</v>
       </c>
       <c r="I52" s="5">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="J52" s="2">
-        <v>25</v>
-      </c>
-      <c r="K52" s="2">
-        <v>30</v>
-      </c>
-      <c r="L52" s="2">
-        <v>50</v>
+        <v>32</v>
+      </c>
+      <c r="K52" s="6">
+        <v>38</v>
+      </c>
+      <c r="L52" s="6">
+        <v>48</v>
       </c>
       <c r="M52" s="9" t="s">
-        <v>27</v>
+        <v>154</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>26</v>
+        <v>156</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4"/>
       <c r="B53" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C53" s="7">
-        <v>300614</v>
+        <v>688538</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>13</v>
+        <v>150</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G53" s="2">
-        <v>11.78</v>
+        <v>171</v>
       </c>
       <c r="H53" s="5">
-        <v>9.19</v>
+        <v>2.65</v>
       </c>
       <c r="I53" s="5">
-        <v>20</v>
+        <v>3.5</v>
       </c>
       <c r="J53" s="2">
-        <v>19</v>
+        <v>2.23</v>
       </c>
       <c r="K53" s="6">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="L53" s="6">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="M53" s="9" t="s">
-        <v>15</v>
+        <v>152</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>18</v>
+        <v>151</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -6716,262 +6907,266 @@
         <v>12</v>
       </c>
       <c r="C54" s="7">
-        <v>605090</v>
+        <v>605499</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>19</v>
+        <v>146</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>20</v>
+        <v>147</v>
       </c>
       <c r="G54" s="2">
-        <v>20</v>
+        <v>22.99</v>
       </c>
       <c r="H54" s="5">
-        <v>34.57</v>
+        <v>46.27</v>
       </c>
       <c r="I54" s="5">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="J54" s="2">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="K54" s="2">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="L54" s="2">
-        <v>68</v>
+        <v>125</v>
       </c>
       <c r="M54" s="9" t="s">
-        <v>21</v>
+        <v>148</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>23</v>
+        <v>149</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C55" s="7">
-        <v>300992</v>
+        <v>603836</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="G55" s="2">
-        <v>12.84</v>
+        <v>22.99</v>
       </c>
       <c r="H55" s="5">
-        <v>9.36</v>
+        <v>16.84</v>
       </c>
       <c r="I55" s="5">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="J55" s="2">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="K55" s="2">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="L55" s="2">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="M55" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="4"/>
       <c r="B56" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C56" s="7">
-        <v>300995</v>
+        <v>300614</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="G56" s="2">
-        <v>17.52</v>
+        <v>11.78</v>
       </c>
       <c r="H56" s="5">
-        <v>14.72</v>
+        <v>9.19</v>
       </c>
       <c r="I56" s="5">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="J56" s="2">
-        <v>36</v>
-      </c>
-      <c r="K56" s="2">
-        <v>42</v>
-      </c>
-      <c r="L56" s="2">
-        <v>65</v>
+        <v>19</v>
+      </c>
+      <c r="K56" s="6">
+        <v>25</v>
+      </c>
+      <c r="L56" s="6">
+        <v>38</v>
       </c>
       <c r="M56" s="9" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C57" s="7">
-        <v>300993</v>
+        <v>605090</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="F57" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G57" s="2">
+        <v>20</v>
+      </c>
+      <c r="H57" s="5">
+        <v>34.57</v>
+      </c>
+      <c r="I57" s="5">
         <v>37</v>
       </c>
-      <c r="G57" s="2">
-        <v>16.45</v>
-      </c>
-      <c r="H57" s="5">
-        <v>12.1</v>
-      </c>
-      <c r="I57" s="5">
+      <c r="J57" s="2">
+        <v>42</v>
+      </c>
+      <c r="K57" s="2">
+        <v>50</v>
+      </c>
+      <c r="L57" s="2">
+        <v>68</v>
+      </c>
+      <c r="M57" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="J57" s="2">
+      <c r="O57" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="K57" s="2">
-        <v>30</v>
-      </c>
-      <c r="L57" s="2">
-        <v>58</v>
-      </c>
-      <c r="M57" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="O57" s="7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C58" s="7">
-        <v>688359</v>
+        <v>300992</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G58" s="2">
-        <v>22.3</v>
+        <v>12.84</v>
       </c>
       <c r="H58" s="5">
-        <v>11.03</v>
+        <v>9.36</v>
       </c>
       <c r="I58" s="5">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="J58" s="2">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="K58" s="2">
+        <v>38</v>
+      </c>
+      <c r="L58" s="2">
+        <v>65</v>
+      </c>
+      <c r="M58" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="O58" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="L58" s="2">
-        <v>48</v>
-      </c>
-      <c r="M58" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="O58" s="7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C59" s="7">
-        <v>688613</v>
+        <v>300995</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G59" s="2">
-        <v>26.6</v>
+        <v>17.52</v>
       </c>
       <c r="H59" s="5">
-        <v>16.43</v>
+        <v>14.72</v>
       </c>
       <c r="I59" s="5">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J59" s="2">
+        <v>36</v>
+      </c>
+      <c r="K59" s="2">
+        <v>42</v>
+      </c>
+      <c r="L59" s="2">
+        <v>65</v>
+      </c>
+      <c r="M59" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="O59" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="K59" s="2">
-        <v>48</v>
-      </c>
-      <c r="L59" s="2">
-        <v>78</v>
-      </c>
-      <c r="M59" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="O59" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C60" s="7">
-        <v>600905</v>
+        <v>300993</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="G60" s="2">
-        <v>28.87</v>
+        <v>16.45</v>
       </c>
       <c r="H60" s="5">
-        <v>2.65</v>
+        <v>12.1</v>
       </c>
       <c r="I60" s="5">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="J60" s="2">
-        <v>3.5</v>
+        <v>23</v>
       </c>
       <c r="K60" s="2">
-        <v>5.8</v>
+        <v>30</v>
       </c>
       <c r="L60" s="2">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="M60" s="9" t="s">
-        <v>50</v>
+        <v>39</v>
+      </c>
+      <c r="O60" s="7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="61" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -6979,104 +7174,110 @@
         <v>41</v>
       </c>
       <c r="C61" s="7">
-        <v>688076</v>
+        <v>688359</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="G61" s="2">
-        <v>35.130000000000003</v>
+        <v>22.3</v>
       </c>
       <c r="H61" s="5">
-        <v>15.57</v>
+        <v>11.03</v>
       </c>
       <c r="I61" s="5">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J61" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K61" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L61" s="2">
+        <v>48</v>
+      </c>
+      <c r="M61" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="O61" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="M61" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="O61" s="7" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="62" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C62" s="7">
-        <v>300991</v>
+        <v>688613</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="G62" s="2">
-        <v>13.06</v>
+        <v>26.6</v>
       </c>
       <c r="H62" s="5">
-        <v>13.06</v>
+        <v>16.43</v>
+      </c>
+      <c r="I62" s="5">
+        <v>35</v>
+      </c>
+      <c r="J62" s="2">
+        <v>34</v>
+      </c>
+      <c r="K62" s="2">
+        <v>48</v>
       </c>
       <c r="L62" s="2">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="M62" s="9" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="63" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C63" s="7">
-        <v>688314</v>
+        <v>600905</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="G63" s="2">
-        <v>22.17</v>
+        <v>28.87</v>
       </c>
       <c r="H63" s="5">
-        <v>17.34</v>
+        <v>2.65</v>
       </c>
       <c r="I63" s="5">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="J63" s="2">
-        <v>52</v>
+        <v>3.5</v>
       </c>
       <c r="K63" s="2">
-        <v>60</v>
+        <v>5.8</v>
       </c>
       <c r="L63" s="2">
-        <v>108</v>
+        <v>8</v>
       </c>
       <c r="M63" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="O63" s="7" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
     </row>
     <row r="64" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -7084,121 +7285,142 @@
         <v>41</v>
       </c>
       <c r="C64" s="7">
-        <v>688660</v>
+        <v>688076</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="G64" s="2">
-        <v>23.99</v>
+        <v>35.130000000000003</v>
       </c>
       <c r="H64" s="5">
-        <v>5.44</v>
+        <v>15.57</v>
       </c>
       <c r="I64" s="5">
-        <v>11.3</v>
+        <v>21</v>
       </c>
       <c r="J64" s="2">
-        <v>11.3</v>
+        <v>24</v>
       </c>
       <c r="K64" s="2">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="L64" s="2">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="M64" s="9" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
     </row>
     <row r="65" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C65" s="7">
-        <v>688575</v>
+        <v>300991</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="G65" s="2">
-        <v>31.96</v>
+        <v>13.06</v>
       </c>
       <c r="H65" s="5">
-        <v>14.8</v>
+        <v>13.06</v>
       </c>
       <c r="L65" s="2">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="M65" s="9" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
     </row>
     <row r="66" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>71</v>
+        <v>41</v>
+      </c>
+      <c r="C66" s="7">
+        <v>688314</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="G66" s="2">
-        <v>22.99</v>
+        <v>22.17</v>
       </c>
       <c r="H66" s="5">
-        <v>44.6</v>
+        <v>17.34</v>
+      </c>
+      <c r="I66" s="5">
+        <v>48</v>
+      </c>
+      <c r="J66" s="2">
+        <v>52</v>
+      </c>
+      <c r="K66" s="2">
+        <v>60</v>
       </c>
       <c r="L66" s="2">
-        <v>126</v>
+        <v>108</v>
+      </c>
+      <c r="M66" s="9" t="s">
+        <v>60</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
     </row>
     <row r="67" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="2" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C67" s="7">
-        <v>605339</v>
+        <v>688660</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="G67" s="2">
-        <v>22.99</v>
+        <v>23.99</v>
       </c>
       <c r="H67" s="5">
-        <v>16.98</v>
+        <v>5.44</v>
+      </c>
+      <c r="I67" s="5">
+        <v>11.3</v>
+      </c>
+      <c r="J67" s="2">
+        <v>11.3</v>
+      </c>
+      <c r="K67" s="2">
+        <v>18</v>
       </c>
       <c r="L67" s="2">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="M67" s="9" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="68" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -7206,75 +7428,54 @@
         <v>41</v>
       </c>
       <c r="C68" s="7">
-        <v>688565</v>
+        <v>688575</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="G68" s="2">
-        <v>19.48</v>
+        <v>31.96</v>
       </c>
       <c r="H68" s="5">
-        <v>9.39</v>
-      </c>
-      <c r="I68" s="5">
-        <v>18.7</v>
-      </c>
-      <c r="J68" s="2">
-        <v>23</v>
-      </c>
-      <c r="K68" s="2">
-        <v>28</v>
+        <v>14.8</v>
       </c>
       <c r="L68" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="M68" s="9" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
     </row>
     <row r="69" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C69" s="7">
-        <v>688217</v>
+        <v>72</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>71</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G69" s="2">
-        <v>29.89</v>
+        <v>22.99</v>
       </c>
       <c r="H69" s="5">
-        <v>18.420000000000002</v>
-      </c>
-      <c r="I69" s="5">
-        <v>36</v>
-      </c>
-      <c r="J69" s="2">
-        <v>45</v>
-      </c>
-      <c r="K69" s="2">
-        <v>54</v>
+        <v>44.6</v>
       </c>
       <c r="L69" s="2">
-        <v>90</v>
-      </c>
-      <c r="M69" s="9" t="s">
-        <v>60</v>
+        <v>126</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="70" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -7282,37 +7483,28 @@
         <v>12</v>
       </c>
       <c r="C70" s="7">
-        <v>605488</v>
+        <v>605339</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="G70" s="2">
         <v>22.99</v>
       </c>
       <c r="H70" s="5">
-        <v>20.43</v>
-      </c>
-      <c r="I70" s="5">
-        <v>25</v>
-      </c>
-      <c r="J70" s="2">
-        <v>33</v>
-      </c>
-      <c r="K70" s="2">
-        <v>38</v>
+        <v>16.98</v>
       </c>
       <c r="L70" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M70" s="9" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="71" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -7320,37 +7512,37 @@
         <v>41</v>
       </c>
       <c r="C71" s="7">
-        <v>688685</v>
+        <v>688565</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G71" s="2">
-        <v>22.83</v>
+        <v>19.48</v>
       </c>
       <c r="H71" s="5">
-        <v>9.02</v>
+        <v>9.39</v>
       </c>
       <c r="I71" s="5">
-        <v>30</v>
+        <v>18.7</v>
       </c>
       <c r="J71" s="2">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="K71" s="2">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="L71" s="2">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="M71" s="9" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="72" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -7358,57 +7550,57 @@
         <v>41</v>
       </c>
       <c r="C72" s="7">
-        <v>688355</v>
+        <v>688217</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="G72" s="2">
-        <v>22.95</v>
+        <v>29.89</v>
       </c>
       <c r="H72" s="5">
-        <v>17.649999999999999</v>
+        <v>18.420000000000002</v>
       </c>
       <c r="I72" s="5">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="J72" s="2">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="K72" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="L72" s="2">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="M72" s="9" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>100</v>
+        <v>12</v>
+      </c>
+      <c r="C73" s="7">
+        <v>605488</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="G73" s="2">
-        <v>17.78</v>
+        <v>22.99</v>
       </c>
       <c r="H73" s="5">
-        <v>16.52</v>
+        <v>20.43</v>
       </c>
       <c r="I73" s="5">
         <v>25</v>
@@ -7423,10 +7615,10 @@
         <v>58</v>
       </c>
       <c r="M73" s="9" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -7434,382 +7626,382 @@
         <v>41</v>
       </c>
       <c r="C74" s="7">
-        <v>688097</v>
+        <v>688685</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="G74" s="2">
-        <v>15.97</v>
+        <v>22.83</v>
       </c>
       <c r="H74" s="5">
-        <v>11.27</v>
+        <v>9.02</v>
       </c>
       <c r="I74" s="5">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="J74" s="2">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="K74" s="2">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="L74" s="2">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="M74" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="N74" s="2" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="O74" s="7" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="75" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="2" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C75" s="7">
-        <v>605196</v>
+        <v>688355</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="G75" s="2">
-        <v>21.09</v>
+        <v>22.95</v>
       </c>
       <c r="H75" s="5">
-        <v>5.05</v>
+        <v>17.649999999999999</v>
       </c>
       <c r="I75" s="5">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="J75" s="2">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="K75" s="2">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="L75" s="2">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="O75" s="7" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
     </row>
     <row r="76" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C76" s="7">
-        <v>688655</v>
+        <v>72</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>100</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="G76" s="2">
-        <v>20.350000000000001</v>
+        <v>17.78</v>
       </c>
       <c r="H76" s="5">
-        <v>7.59</v>
+        <v>16.52</v>
       </c>
       <c r="I76" s="5">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="J76" s="2">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="K76" s="2">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="L76" s="2">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="M76" s="9" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="O76" s="7" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
     </row>
     <row r="77" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C77" s="7">
-        <v>300987</v>
+        <v>688097</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="G77" s="2">
-        <v>18.420000000000002</v>
+        <v>15.97</v>
       </c>
       <c r="H77" s="5">
-        <v>6.79</v>
+        <v>11.27</v>
       </c>
       <c r="I77" s="5">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J77" s="2">
+        <v>15</v>
+      </c>
+      <c r="K77" s="2">
         <v>23</v>
       </c>
-      <c r="K77" s="2">
-        <v>28</v>
-      </c>
       <c r="L77" s="2">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="M77" s="9" t="s">
-        <v>119</v>
+        <v>105</v>
+      </c>
+      <c r="N77" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="O77" s="7" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
     </row>
     <row r="78" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C78" s="7">
-        <v>300990</v>
+        <v>605196</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="G78" s="2">
-        <v>36.270000000000003</v>
+        <v>21.09</v>
       </c>
       <c r="H78" s="5">
-        <v>85.5</v>
+        <v>5.05</v>
       </c>
       <c r="I78" s="5">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="J78" s="2">
-        <v>115</v>
+        <v>10</v>
       </c>
       <c r="K78" s="2">
-        <v>128</v>
+        <v>15</v>
       </c>
       <c r="L78" s="2">
-        <v>153</v>
+        <v>23</v>
       </c>
       <c r="M78" s="9" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="O78" s="7" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="79" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="2" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C79" s="7">
-        <v>603511</v>
+        <v>688655</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="G79" s="2">
-        <v>21.98</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="H79" s="5">
-        <v>20.99</v>
+        <v>7.59</v>
       </c>
       <c r="I79" s="5">
+        <v>18</v>
+      </c>
+      <c r="J79" s="2">
+        <v>20</v>
+      </c>
+      <c r="K79" s="2">
         <v>25</v>
       </c>
-      <c r="J79" s="2">
-        <v>30</v>
-      </c>
-      <c r="K79" s="2">
-        <v>38</v>
-      </c>
       <c r="L79" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="M79" s="9" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="O79" s="7" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
     </row>
     <row r="80" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C80" s="7">
-        <v>688113</v>
+        <v>300987</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="G80" s="2">
-        <v>17.309999999999999</v>
+        <v>18.420000000000002</v>
       </c>
       <c r="H80" s="5">
-        <v>19.14</v>
+        <v>6.79</v>
       </c>
       <c r="I80" s="5">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="J80" s="2">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="K80" s="2">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="L80" s="2">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="M80" s="9" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="O80" s="7" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="81" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C81" s="7">
-        <v>605305</v>
+        <v>300990</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="G81" s="2">
-        <v>22.99</v>
+        <v>36.270000000000003</v>
       </c>
       <c r="H81" s="5">
-        <v>37.94</v>
+        <v>85.5</v>
       </c>
       <c r="I81" s="5">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="J81" s="2">
-        <v>54</v>
+        <v>115</v>
       </c>
       <c r="K81" s="2">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="L81" s="2">
-        <v>82</v>
+        <v>153</v>
       </c>
       <c r="M81" s="9" t="s">
         <v>105</v>
       </c>
       <c r="O81" s="7" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="82" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C82" s="7">
-        <v>300988</v>
+        <v>603511</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="G82" s="2">
-        <v>32.729999999999997</v>
+        <v>21.98</v>
       </c>
       <c r="H82" s="5">
-        <v>23.73</v>
+        <v>20.99</v>
       </c>
       <c r="I82" s="5">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="J82" s="2">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="K82" s="2">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="L82" s="2">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="M82" s="9" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="O82" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="83" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C83" s="7">
-        <v>300989</v>
+        <v>688113</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="G83" s="2">
-        <v>36.01</v>
+        <v>17.309999999999999</v>
       </c>
       <c r="H83" s="5">
-        <v>51.62</v>
+        <v>19.14</v>
       </c>
       <c r="I83" s="5">
+        <v>34</v>
+      </c>
+      <c r="J83" s="2">
+        <v>47</v>
+      </c>
+      <c r="K83" s="2">
         <v>58</v>
       </c>
-      <c r="J83" s="2">
-        <v>66</v>
-      </c>
-      <c r="K83" s="2">
-        <v>83</v>
-      </c>
       <c r="L83" s="2">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="M83" s="9" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="O83" s="7" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="84" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -7817,224 +8009,224 @@
         <v>12</v>
       </c>
       <c r="C84" s="7">
-        <v>605080</v>
+        <v>605305</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="G84" s="2">
         <v>22.99</v>
       </c>
       <c r="H84" s="5">
-        <v>31.16</v>
+        <v>37.94</v>
       </c>
       <c r="I84" s="5">
         <v>45</v>
       </c>
       <c r="J84" s="2">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="K84" s="2">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="L84" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M84" s="9" t="s">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="O84" s="7" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="85" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C85" s="7">
-        <v>605300</v>
+        <v>300988</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>225</v>
+        <v>134</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>224</v>
+        <v>137</v>
       </c>
       <c r="G85" s="2">
-        <v>22.99</v>
+        <v>32.729999999999997</v>
       </c>
       <c r="H85" s="5">
-        <v>11.25</v>
+        <v>23.73</v>
       </c>
       <c r="I85" s="5">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="J85" s="2">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="K85" s="2">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="L85" s="2">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="M85" s="9" t="s">
-        <v>148</v>
+        <v>136</v>
+      </c>
+      <c r="O85" s="7" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="86" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C86" s="7" t="s">
-        <v>227</v>
+        <v>17</v>
+      </c>
+      <c r="C86" s="7">
+        <v>300989</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="E86" s="9" t="s">
-        <v>229</v>
+        <v>138</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>226</v>
+        <v>139</v>
       </c>
       <c r="G86" s="2">
-        <v>22.99</v>
+        <v>36.01</v>
       </c>
       <c r="H86" s="5">
-        <v>8.98</v>
+        <v>51.62</v>
       </c>
       <c r="I86" s="5">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="J86" s="2">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="K86" s="2">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="L86" s="2">
-        <v>32</v>
+        <v>116</v>
       </c>
       <c r="M86" s="9" t="s">
-        <v>233</v>
+        <v>141</v>
+      </c>
+      <c r="O86" s="7" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="87" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C87" s="7">
-        <v>300985</v>
+        <v>605080</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="E87" s="9" t="s">
-        <v>229</v>
+        <v>142</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>231</v>
+        <v>143</v>
       </c>
       <c r="G87" s="2">
-        <v>14.91</v>
+        <v>22.99</v>
       </c>
       <c r="H87" s="5">
-        <v>24.9</v>
+        <v>31.16</v>
       </c>
       <c r="I87" s="5">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="J87" s="2">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="K87" s="2">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="L87" s="2">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="M87" s="9" t="s">
-        <v>234</v>
+        <v>145</v>
+      </c>
+      <c r="O87" s="7" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="88" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C88" s="7">
-        <v>688395</v>
+        <v>605300</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="E88" s="9" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="G88" s="2">
-        <v>20.59</v>
+        <v>22.99</v>
       </c>
       <c r="H88" s="5">
-        <v>15.95</v>
+        <v>11.25</v>
       </c>
       <c r="I88" s="5">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J88" s="2">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="K88" s="2">
+        <v>25</v>
+      </c>
+      <c r="L88" s="2">
         <v>38</v>
       </c>
-      <c r="L88" s="2">
-        <v>58</v>
-      </c>
       <c r="M88" s="9" t="s">
-        <v>111</v>
+        <v>148</v>
       </c>
     </row>
     <row r="89" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C89" s="7">
-        <v>600906</v>
+      <c r="C89" s="7" t="s">
+        <v>227</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="E89" s="9" t="s">
         <v>229</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="G89" s="2">
-        <v>22.94</v>
+        <v>22.99</v>
       </c>
       <c r="H89" s="5">
-        <v>3.76</v>
+        <v>8.98</v>
       </c>
       <c r="I89" s="5">
-        <v>6.2</v>
+        <v>13</v>
       </c>
       <c r="J89" s="2">
-        <v>5.7</v>
+        <v>13</v>
       </c>
       <c r="K89" s="2">
-        <v>7.08</v>
+        <v>16</v>
       </c>
       <c r="L89" s="2">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="M89" s="9" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="90" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -8042,31 +8234,31 @@
         <v>17</v>
       </c>
       <c r="C90" s="7">
-        <v>300986</v>
+        <v>300985</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="E90" s="9" t="s">
         <v>229</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="G90" s="2">
-        <v>13.56</v>
+        <v>14.91</v>
       </c>
       <c r="H90" s="5">
-        <v>14.79</v>
+        <v>24.9</v>
       </c>
       <c r="I90" s="5">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J90" s="2">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="K90" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="L90" s="2">
         <v>60</v>
@@ -8077,253 +8269,262 @@
     </row>
     <row r="91" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="2" t="s">
-        <v>244</v>
+        <v>41</v>
       </c>
       <c r="C91" s="7">
-        <v>688323</v>
+        <v>688395</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="G91" s="2">
-        <v>24.38</v>
+        <v>20.59</v>
       </c>
       <c r="H91" s="5">
-        <v>5.97</v>
+        <v>15.95</v>
       </c>
       <c r="I91" s="5">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J91" s="2">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="K91" s="2">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="L91" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="M91" s="9" t="s">
-        <v>38</v>
+        <v>111</v>
       </c>
     </row>
     <row r="92" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B92" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C92" s="7">
-        <v>688383</v>
+        <v>600906</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="G92" s="2">
-        <v>19.510000000000002</v>
+        <v>22.94</v>
       </c>
       <c r="H92" s="5">
-        <v>19.579999999999998</v>
+        <v>3.76</v>
       </c>
       <c r="I92" s="5">
-        <v>30</v>
+        <v>6.2</v>
       </c>
       <c r="J92" s="2">
-        <v>29</v>
+        <v>5.7</v>
       </c>
       <c r="K92" s="2">
-        <v>37</v>
+        <v>7.08</v>
       </c>
       <c r="L92" s="2">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="M92" s="9" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
     </row>
     <row r="93" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B93" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C93" s="7" t="s">
-        <v>252</v>
+        <v>17</v>
+      </c>
+      <c r="C93" s="7">
+        <v>300986</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>253</v>
+        <v>242</v>
+      </c>
+      <c r="G93" s="2">
+        <v>13.56</v>
       </c>
       <c r="H93" s="5">
-        <v>19.05</v>
+        <v>14.79</v>
       </c>
       <c r="I93" s="5">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J93" s="2">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K93" s="2">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="L93" s="2">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="M93" s="9" t="s">
-        <v>27</v>
+        <v>234</v>
       </c>
     </row>
     <row r="94" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="2" t="s">
-        <v>12</v>
+        <v>244</v>
       </c>
       <c r="C94" s="7">
-        <v>605180</v>
+        <v>688323</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>256</v>
+        <v>245</v>
+      </c>
+      <c r="G94" s="2">
+        <v>24.38</v>
       </c>
       <c r="H94" s="5">
-        <v>22.38</v>
+        <v>5.97</v>
       </c>
       <c r="I94" s="5">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="J94" s="2">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="K94" s="2">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="L94" s="2">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="M94" s="9" t="s">
-        <v>259</v>
+        <v>38</v>
       </c>
     </row>
     <row r="95" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="2" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C95" s="7">
-        <v>600032</v>
+        <v>688383</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>229</v>
+        <v>249</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>258</v>
+        <v>248</v>
+      </c>
+      <c r="G95" s="2">
+        <v>19.510000000000002</v>
       </c>
       <c r="H95" s="5">
-        <v>3.51</v>
+        <v>19.579999999999998</v>
       </c>
       <c r="I95" s="5">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="J95" s="2">
-        <v>4.8</v>
+        <v>29</v>
       </c>
       <c r="K95" s="2">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="L95" s="2">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="M95" s="9" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
     </row>
     <row r="96" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B96" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C96" s="7">
-        <v>300982</v>
+        <v>72</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>252</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="H96" s="5">
-        <v>15.83</v>
+        <v>19.05</v>
       </c>
       <c r="I96" s="5">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J96" s="2">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="K96" s="2">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="L96" s="2">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="M96" s="9" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
     </row>
     <row r="97" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B97" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C97" s="7">
-        <v>300981</v>
+        <v>605180</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="H97" s="5">
-        <v>48.59</v>
+        <v>22.38</v>
       </c>
       <c r="I97" s="5">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="J97" s="2">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="K97" s="2">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="L97" s="2">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="M97" s="9" t="s">
-        <v>60</v>
+        <v>259</v>
       </c>
     </row>
     <row r="98" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -8331,206 +8532,209 @@
         <v>12</v>
       </c>
       <c r="C98" s="7">
-        <v>605089</v>
+        <v>600032</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="H98" s="5">
-        <v>28.53</v>
+        <v>3.51</v>
       </c>
       <c r="I98" s="5">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="J98" s="2">
-        <v>50</v>
+        <v>4.8</v>
       </c>
       <c r="K98" s="2">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="L98" s="2">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="M98" s="9" t="s">
-        <v>148</v>
+        <v>260</v>
       </c>
     </row>
     <row r="99" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C99" s="7" t="s">
-        <v>269</v>
+        <v>17</v>
+      </c>
+      <c r="C99" s="7">
+        <v>300982</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="H99" s="5">
-        <v>63.38</v>
+        <v>15.83</v>
       </c>
       <c r="I99" s="5">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="J99" s="2">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="K99" s="2">
-        <v>118</v>
+        <v>43</v>
       </c>
       <c r="L99" s="2">
-        <v>158</v>
+        <v>65</v>
       </c>
       <c r="M99" s="9" t="s">
-        <v>166</v>
+        <v>262</v>
       </c>
     </row>
     <row r="100" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C100" s="7">
-        <v>605289</v>
+        <v>300981</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="H100" s="5">
-        <v>27.27</v>
+        <v>48.59</v>
       </c>
       <c r="I100" s="5">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="J100" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="K100" s="2">
-        <v>48</v>
+        <v>108</v>
       </c>
       <c r="L100" s="2">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="M100" s="9" t="s">
-        <v>273</v>
+        <v>60</v>
       </c>
     </row>
     <row r="101" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C101" s="7">
-        <v>300979</v>
+        <v>605089</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="H101" s="5">
-        <v>33.22</v>
+        <v>28.53</v>
       </c>
       <c r="I101" s="5">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="J101" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K101" s="2">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="L101" s="2">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="M101" s="9" t="s">
-        <v>276</v>
+        <v>148</v>
       </c>
     </row>
     <row r="102" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C102" s="7">
-        <v>300978</v>
+        <v>72</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>269</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="E102" s="9" t="s">
         <v>236</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="H102" s="5">
-        <v>8.42</v>
+        <v>63.38</v>
       </c>
       <c r="I102" s="5">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="J102" s="2">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="K102" s="2">
-        <v>23</v>
+        <v>118</v>
       </c>
       <c r="L102" s="2">
-        <v>30</v>
+        <v>158</v>
       </c>
       <c r="M102" s="9" t="s">
-        <v>279</v>
+        <v>166</v>
       </c>
     </row>
     <row r="103" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B103" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C103" s="7">
-        <v>688639</v>
+        <v>605289</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="H103" s="5">
-        <v>23.16</v>
+        <v>27.27</v>
       </c>
       <c r="I103" s="5">
         <v>32</v>
       </c>
       <c r="J103" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K103" s="2">
         <v>48</v>
       </c>
       <c r="L103" s="2">
-        <v>75</v>
+        <v>70</v>
+      </c>
+      <c r="M103" s="9" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="104" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -8538,241 +8742,238 @@
         <v>17</v>
       </c>
       <c r="C104" s="7">
-        <v>300975</v>
+        <v>300979</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="E104" s="9" t="s">
         <v>229</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="H104" s="5">
-        <v>5.48</v>
+        <v>33.22</v>
       </c>
       <c r="I104" s="5">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="J104" s="2">
-        <v>9.1999999999999993</v>
+        <v>39</v>
       </c>
       <c r="K104" s="2">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="L104" s="2">
-        <v>35</v>
+        <v>69</v>
+      </c>
+      <c r="M104" s="9" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="105" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B105" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C105" s="7">
-        <v>688682</v>
+        <v>300978</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="H105" s="5">
-        <v>45.72</v>
+        <v>8.42</v>
       </c>
       <c r="I105" s="5">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="J105" s="2">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="K105" s="2">
-        <v>108</v>
+        <v>23</v>
       </c>
       <c r="L105" s="2">
-        <v>162</v>
+        <v>30</v>
       </c>
       <c r="M105" s="9" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
     </row>
     <row r="106" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B106" s="2" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C106" s="7">
-        <v>605016</v>
+        <v>688639</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>288</v>
+        <v>229</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="H106" s="5">
-        <v>14.62</v>
+        <v>23.16</v>
       </c>
       <c r="I106" s="5">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="J106" s="2">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="K106" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="L106" s="2">
-        <v>58</v>
-      </c>
-      <c r="M106" s="9" t="s">
-        <v>148</v>
+        <v>75</v>
       </c>
     </row>
     <row r="107" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B107" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C107" s="7">
-        <v>688201</v>
+        <v>300975</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="E107" s="9" t="s">
         <v>229</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="H107" s="5">
-        <v>26.78</v>
+        <v>5.48</v>
       </c>
       <c r="I107" s="5">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="J107" s="2">
-        <v>43</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="K107" s="2">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="L107" s="2">
-        <v>86</v>
-      </c>
-      <c r="M107" s="9" t="s">
-        <v>292</v>
+        <v>35</v>
       </c>
     </row>
     <row r="108" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B108" s="2" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C108" s="7">
-        <v>605117</v>
+        <v>688682</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="H108" s="5">
-        <v>32.74</v>
+        <v>45.72</v>
       </c>
       <c r="I108" s="5">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="J108" s="2">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="K108" s="2">
-        <v>58</v>
+        <v>108</v>
       </c>
       <c r="L108" s="2">
-        <v>76</v>
+        <v>162</v>
       </c>
       <c r="M108" s="9" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
     </row>
     <row r="109" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C109" s="7">
-        <v>300983</v>
+        <v>605016</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>236</v>
+        <v>288</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="H109" s="5">
-        <v>120.8</v>
+        <v>14.62</v>
       </c>
       <c r="I109" s="5">
-        <v>106</v>
+        <v>22</v>
       </c>
       <c r="J109" s="2">
-        <v>118</v>
+        <v>31</v>
       </c>
       <c r="K109" s="2">
-        <v>168</v>
+        <v>39</v>
       </c>
       <c r="L109" s="2">
-        <v>212</v>
+        <v>58</v>
       </c>
       <c r="M109" s="9" t="s">
-        <v>298</v>
+        <v>148</v>
       </c>
     </row>
     <row r="110" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B110" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C110" s="7">
-        <v>300980</v>
+        <v>688201</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>300</v>
+        <v>229</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="H110" s="5">
-        <v>32.770000000000003</v>
+        <v>26.78</v>
       </c>
       <c r="I110" s="5">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="J110" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="K110" s="2">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="L110" s="2">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M110" s="9" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
     </row>
     <row r="111" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -8780,34 +8981,34 @@
         <v>12</v>
       </c>
       <c r="C111" s="7">
-        <v>605086</v>
+        <v>605117</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="E111" s="9" t="s">
         <v>236</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="H111" s="5">
-        <v>12.86</v>
+        <v>32.74</v>
       </c>
       <c r="I111" s="5">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="J111" s="2">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="K111" s="2">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="L111" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="M111" s="9" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
     </row>
     <row r="112" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -8815,31 +9016,31 @@
         <v>17</v>
       </c>
       <c r="C112" s="7">
-        <v>300977</v>
+        <v>300983</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="E112" s="9" t="s">
         <v>236</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="H112" s="5">
-        <v>89.66</v>
+        <v>120.8</v>
       </c>
       <c r="I112" s="5">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="J112" s="2">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="K112" s="2">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="L112" s="2">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="M112" s="9" t="s">
         <v>298</v>
@@ -8850,69 +9051,69 @@
         <v>17</v>
       </c>
       <c r="C113" s="7">
-        <v>300976</v>
+        <v>300980</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>236</v>
+        <v>300</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="H113" s="5">
-        <v>168</v>
+        <v>32.770000000000003</v>
       </c>
       <c r="I113" s="5">
-        <v>162</v>
+        <v>45</v>
       </c>
       <c r="J113" s="2">
-        <v>191</v>
+        <v>50</v>
       </c>
       <c r="K113" s="2">
-        <v>228</v>
+        <v>70</v>
       </c>
       <c r="L113" s="2">
-        <v>288</v>
+        <v>88</v>
       </c>
       <c r="M113" s="9" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
     </row>
     <row r="114" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B114" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C114" s="7">
+        <v>605086</v>
+      </c>
+      <c r="D114" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="E114" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="H114" s="5">
+        <v>12.86</v>
+      </c>
+      <c r="I114" s="5">
         <v>17</v>
       </c>
-      <c r="C114" s="7">
-        <v>300973</v>
-      </c>
-      <c r="D114" s="9" t="s">
-        <v>311</v>
-      </c>
-      <c r="E114" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="H114" s="5">
-        <v>28.28</v>
-      </c>
-      <c r="I114" s="5">
-        <v>38</v>
-      </c>
       <c r="J114" s="2">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="K114" s="2">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="L114" s="2">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="M114" s="9" t="s">
-        <v>148</v>
+        <v>307</v>
       </c>
     </row>
     <row r="115" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -8920,104 +9121,104 @@
         <v>17</v>
       </c>
       <c r="C115" s="7">
-        <v>300972</v>
+        <v>300977</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>314</v>
+        <v>236</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="H115" s="5">
-        <v>7.19</v>
+        <v>89.66</v>
       </c>
       <c r="I115" s="5">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="J115" s="2">
-        <v>20</v>
+        <v>133</v>
       </c>
       <c r="K115" s="2">
-        <v>30</v>
+        <v>158</v>
       </c>
       <c r="L115" s="2">
-        <v>39</v>
+        <v>223</v>
       </c>
       <c r="M115" s="9" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
     </row>
     <row r="116" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B116" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C116" s="7">
-        <v>605098</v>
+        <v>300976</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="E116" s="9" t="s">
-        <v>318</v>
+        <v>236</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="H116" s="5">
-        <v>27.58</v>
+        <v>168</v>
       </c>
       <c r="I116" s="5">
-        <v>41</v>
+        <v>162</v>
       </c>
       <c r="J116" s="2">
-        <v>59</v>
+        <v>191</v>
       </c>
       <c r="K116" s="2">
-        <v>77</v>
+        <v>228</v>
       </c>
       <c r="L116" s="2">
-        <v>99</v>
+        <v>288</v>
       </c>
       <c r="M116" s="9" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
     </row>
     <row r="117" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B117" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C117" s="7">
-        <v>601279</v>
+        <v>300973</v>
       </c>
       <c r="D117" s="9" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="E117" s="9" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="H117" s="5">
-        <v>2.0699999999999998</v>
+        <v>28.28</v>
       </c>
       <c r="I117" s="5">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="J117" s="2">
-        <v>3.5</v>
+        <v>45</v>
       </c>
       <c r="K117" s="2">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="L117" s="2">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="M117" s="9" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="118" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -9025,104 +9226,104 @@
         <v>17</v>
       </c>
       <c r="C118" s="7">
-        <v>300971</v>
+        <v>300972</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>254</v>
+        <v>314</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="H118" s="5">
-        <v>18.239999999999998</v>
+        <v>7.19</v>
       </c>
       <c r="I118" s="5">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="J118" s="2">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="K118" s="2">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="L118" s="2">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="M118" s="9" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="119" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B119" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C119" s="7">
-        <v>300968</v>
+        <v>605098</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="E119" s="9" t="s">
-        <v>229</v>
+        <v>318</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="H119" s="5">
-        <v>6.87</v>
+        <v>27.58</v>
       </c>
       <c r="I119" s="5">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="J119" s="2">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="K119" s="2">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="L119" s="2">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="M119" s="9" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
     </row>
     <row r="120" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B120" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C120" s="7">
-        <v>688663</v>
+        <v>601279</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="E120" s="9" t="s">
-        <v>229</v>
+        <v>318</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="H120" s="5">
-        <v>14.48</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="I120" s="5">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="J120" s="2">
-        <v>29</v>
+        <v>3.5</v>
       </c>
       <c r="K120" s="2">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="L120" s="2">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M120" s="9" t="s">
-        <v>334</v>
+        <v>159</v>
       </c>
     </row>
     <row r="121" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -9130,136 +9331,139 @@
         <v>17</v>
       </c>
       <c r="C121" s="7">
-        <v>300967</v>
+        <v>300971</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="H121" s="5">
-        <v>4.54</v>
+        <v>18.239999999999998</v>
       </c>
       <c r="I121" s="5">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="J121" s="2">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="K121" s="2">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="L121" s="2">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="M121" s="9" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
     </row>
     <row r="122" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B122" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C122" s="7">
-        <v>688315</v>
+        <v>300968</v>
       </c>
       <c r="D122" s="9" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="E122" s="9" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="H122" s="5">
-        <v>12.76</v>
+        <v>6.87</v>
       </c>
       <c r="I122" s="5">
+        <v>18</v>
+      </c>
+      <c r="J122" s="2">
+        <v>12</v>
+      </c>
+      <c r="K122" s="2">
         <v>25</v>
       </c>
-      <c r="J122" s="2">
-        <v>30</v>
-      </c>
-      <c r="K122" s="2">
-        <v>38</v>
-      </c>
       <c r="L122" s="2">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="M122" s="9" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
     </row>
     <row r="123" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B123" s="2" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C123" s="7">
-        <v>605378</v>
+        <v>688663</v>
       </c>
       <c r="D123" s="9" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="E123" s="9" t="s">
-        <v>340</v>
+        <v>229</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="H123" s="5">
-        <v>17.62</v>
+        <v>14.48</v>
       </c>
       <c r="I123" s="5">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J123" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K123" s="2">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="L123" s="2">
-        <v>45</v>
+        <v>58</v>
+      </c>
+      <c r="M123" s="9" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="124" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B124" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C124" s="7">
-        <v>688611</v>
+        <v>300967</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="E124" s="9" t="s">
-        <v>342</v>
+        <v>229</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="H124" s="5">
-        <v>33.44</v>
+        <v>4.54</v>
       </c>
       <c r="I124" s="5">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="J124" s="2">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="K124" s="2">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="L124" s="2">
-        <v>122</v>
+        <v>39</v>
       </c>
       <c r="M124" s="9" t="s">
-        <v>111</v>
+        <v>333</v>
       </c>
     </row>
     <row r="125" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -9267,174 +9471,171 @@
         <v>41</v>
       </c>
       <c r="C125" s="7">
-        <v>688683</v>
+        <v>688315</v>
       </c>
       <c r="D125" s="9" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="E125" s="9" t="s">
         <v>254</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="H125" s="5">
-        <v>9.51</v>
+        <v>12.76</v>
       </c>
       <c r="I125" s="5">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="J125" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K125" s="2">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="L125" s="2">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="M125" s="9" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
     </row>
     <row r="126" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B126" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C126" s="7">
-        <v>300966</v>
+        <v>605378</v>
       </c>
       <c r="D126" s="9" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="E126" s="9" t="s">
-        <v>229</v>
+        <v>340</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="H126" s="5">
-        <v>8.24</v>
+        <v>17.62</v>
       </c>
       <c r="I126" s="5">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="J126" s="2">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K126" s="2">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="L126" s="2">
-        <v>48</v>
-      </c>
-      <c r="M126" s="9" t="s">
-        <v>348</v>
+        <v>45</v>
       </c>
     </row>
     <row r="127" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B127" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C127" s="7">
-        <v>300970</v>
+        <v>688611</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="E127" s="9" t="s">
-        <v>229</v>
+        <v>342</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="H127" s="5">
-        <v>44.77</v>
+        <v>33.44</v>
       </c>
       <c r="I127" s="5">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J127" s="2">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K127" s="2">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="L127" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M127" s="9" t="s">
-        <v>352</v>
+        <v>111</v>
       </c>
     </row>
     <row r="128" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B128" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C128" s="7">
-        <v>300969</v>
+        <v>688683</v>
       </c>
       <c r="D128" s="9" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="E128" s="9" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="H128" s="5">
-        <v>20.68</v>
+        <v>9.51</v>
       </c>
       <c r="I128" s="5">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J128" s="2">
+        <v>20</v>
+      </c>
+      <c r="K128" s="2">
+        <v>28</v>
+      </c>
+      <c r="L128" s="2">
         <v>38</v>
       </c>
-      <c r="K128" s="2">
-        <v>48</v>
-      </c>
-      <c r="L128" s="2">
-        <v>75</v>
-      </c>
       <c r="M128" s="9" t="s">
-        <v>159</v>
+        <v>346</v>
       </c>
     </row>
     <row r="129" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B129" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C129" s="7">
-        <v>688468</v>
+        <v>300966</v>
       </c>
       <c r="D129" s="9" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="E129" s="9" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="H129" s="5">
-        <v>7.15</v>
+        <v>8.24</v>
       </c>
       <c r="I129" s="5">
         <v>18</v>
       </c>
       <c r="J129" s="2">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="K129" s="2">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L129" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="M129" s="9" t="s">
-        <v>60</v>
+        <v>348</v>
       </c>
     </row>
     <row r="130" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -9442,68 +9643,173 @@
         <v>17</v>
       </c>
       <c r="C130" s="7">
-        <v>300963</v>
+        <v>300970</v>
       </c>
       <c r="D130" s="9" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="E130" s="9" t="s">
         <v>229</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="H130" s="5">
-        <v>12.13</v>
+        <v>44.77</v>
       </c>
       <c r="I130" s="5">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="J130" s="2">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="K130" s="2">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="L130" s="2">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="M130" s="9" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
     </row>
     <row r="131" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B131" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C131" s="7">
+        <v>300969</v>
+      </c>
+      <c r="D131" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="E131" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="H131" s="5">
+        <v>20.68</v>
+      </c>
+      <c r="I131" s="5">
+        <v>30</v>
+      </c>
+      <c r="J131" s="2">
+        <v>38</v>
+      </c>
+      <c r="K131" s="2">
+        <v>48</v>
+      </c>
+      <c r="L131" s="2">
+        <v>75</v>
+      </c>
+      <c r="M131" s="9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="132" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B132" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C131" s="7">
+      <c r="C132" s="7">
+        <v>688468</v>
+      </c>
+      <c r="D132" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="E132" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="H132" s="5">
+        <v>7.15</v>
+      </c>
+      <c r="I132" s="5">
+        <v>18</v>
+      </c>
+      <c r="J132" s="2">
+        <v>15</v>
+      </c>
+      <c r="K132" s="2">
+        <v>25</v>
+      </c>
+      <c r="L132" s="2">
+        <v>38</v>
+      </c>
+      <c r="M132" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="133" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B133" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C133" s="7">
+        <v>300963</v>
+      </c>
+      <c r="D133" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="E133" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="H133" s="5">
+        <v>12.13</v>
+      </c>
+      <c r="I133" s="5">
+        <v>20</v>
+      </c>
+      <c r="J133" s="2">
+        <v>25</v>
+      </c>
+      <c r="K133" s="2">
+        <v>30</v>
+      </c>
+      <c r="L133" s="2">
+        <v>50</v>
+      </c>
+      <c r="M133" s="9" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="134" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B134" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C134" s="7">
         <v>688636</v>
       </c>
-      <c r="D131" s="9" t="s">
+      <c r="D134" s="9" t="s">
         <v>360</v>
       </c>
-      <c r="E131" s="9" t="s">
+      <c r="E134" s="9" t="s">
         <v>361</v>
       </c>
-      <c r="F131" s="2" t="s">
+      <c r="F134" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="H131" s="5">
+      <c r="H134" s="5">
         <v>34.5</v>
       </c>
-      <c r="I131" s="5">
+      <c r="I134" s="5">
         <v>58</v>
       </c>
-      <c r="J131" s="2">
+      <c r="J134" s="2">
         <v>80</v>
       </c>
-      <c r="K131" s="2">
+      <c r="K134" s="2">
         <v>90</v>
       </c>
-      <c r="L131" s="2">
+      <c r="L134" s="2">
         <v>138</v>
       </c>
-      <c r="M131" s="9" t="s">
+      <c r="M134" s="9" t="s">
         <v>363</v>
       </c>
     </row>

--- a/次新股.xlsx
+++ b/次新股.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="467">
   <si>
     <t>个股代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4487,6 +4487,250 @@
   </si>
   <si>
     <t>主要从事色母粒的研发、生产，致力于为客户提供塑料着色定制化产品。老板上市前就把利润瓜分光，应收账款增长周转率低，报告期内营收利润增速都不错，预计几年内财务仍然会缓慢增长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百洋医药</t>
+  </si>
+  <si>
+    <t>药品代理商，兼职药品品牌营运，公关手段优于技术含量，报告期内业绩稳步增长，营收中药品配送占大部分。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保持关注</t>
+    <rPh sb="0" eb="1">
+      <t>bao c</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>guan zhu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医药商业</t>
+    <rPh sb="0" eb="1">
+      <t>yi yao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shang ye</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海泰科</t>
+  </si>
+  <si>
+    <t>主要从事注塑模具及塑料零部件的研发、制造，主要应用于汽车配件。公司的存货大应收账多，营收增速还可以，但是外汇的风险导致半年报业绩下滑。</t>
+    <rPh sb="21" eb="22">
+      <t>zhu y</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ying y</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>qi c</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>pei j</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>gong s</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>d</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模具</t>
+    <rPh sb="0" eb="1">
+      <t>mo ju</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杭州热电</t>
+  </si>
+  <si>
+    <t>传统的地方热电公司，业绩增速缓慢。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>税友股份</t>
+  </si>
+  <si>
+    <t>主要产品为税务系统开发与运维服务，区域性限制公司发展，规模比较小，虽然报告期内业绩增速比较缓慢，但是仍然有发展潜力。国家税务总局也是该公司的大客户。</t>
+    <rPh sb="58" eb="59">
+      <t>guo j</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>shui wu</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>zong j</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>ye s</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>gai</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>gong s</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>d</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>da</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>ke hu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保持关注</t>
+    <rPh sb="0" eb="1">
+      <t>bao chi guan zhu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件开发及服务、计算机应用</t>
+    <rPh sb="0" eb="1">
+      <t>ruan j</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>kai f</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fu wu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ji suan j</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ying y</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漱玉平民</t>
+  </si>
+  <si>
+    <t>一家地方性的药房连锁店，业务集中在山东，在现在互联网的冲击下，想继续发展越来越难。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医药商业</t>
+    <rPh sb="0" eb="1">
+      <t>yi yao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shang y</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷尔伟</t>
+  </si>
+  <si>
+    <t>这是一家背靠中国中车的轨道车辆配件公司，过去几年靠着铁路的高速发展而发展，但是未来铁路不再高投入，未来业绩高增长不可持续。</t>
+    <rPh sb="0" eb="1">
+      <t>zhe s y</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yi jia</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bei</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>kao</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>gao</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ke</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>chi x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利元亨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发行人主业智能装备研发制造企业，为锂电池、汽车零部件、 精密电子、安防、轨道交通等行业提供高端装备和工厂自动化解决方案；是宁德时代和比亚迪等的上游产业链，属于锂电池和智能装备概念，市场估值不低。</t>
+    <rPh sb="9" eb="10">
+      <t>yan f</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>zhi z</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>shu y</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锂电池、智能装备</t>
+    <rPh sb="0" eb="1">
+      <t>li dian c</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhi n</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhuang b</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主营业务为骨科医疗器械的研发、生产，是国内首批进入高端植入骨科医疗器械领域的厂商之一，产品在国内市占率非常高，细分领域的冠军，赛道好，市场容量也好，唯一不好的是采集必然要来，会带给公司非常大的业绩压力。</t>
+    <rPh sb="57" eb="58">
+      <t>ling y</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>d</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骨科、医疗器械</t>
+    <rPh sb="0" eb="1">
+      <t>gu ke</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yi l</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>qi x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>威高骨科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>世茂能源</t>
+  </si>
+  <si>
+    <t>公司所处赛道不错，垃圾发电供热概念高大上，有一定的前景，公司业务区域性强，报告期内业绩增长不错。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4957,10 +5201,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O134"/>
+  <dimension ref="A1:O145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G2" zoomScale="140" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="140" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="34" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5051,158 +5295,87 @@
     </row>
     <row r="6" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
-      <c r="B6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="7">
-        <v>301019</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>438</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>439</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="G6" s="2">
-        <v>23.7</v>
-      </c>
-      <c r="H6" s="5">
-        <v>28.94</v>
-      </c>
-      <c r="I6" s="5">
-        <v>43</v>
-      </c>
-      <c r="J6" s="2">
-        <v>50</v>
-      </c>
-      <c r="K6" s="6">
-        <v>56</v>
-      </c>
-      <c r="L6" s="6">
-        <v>82</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>173</v>
-      </c>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
     </row>
     <row r="7" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
-      <c r="B7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="7">
-        <v>301013</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>436</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>387</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="G7" s="2">
-        <v>17.149999999999999</v>
-      </c>
-      <c r="H7" s="5">
-        <v>8.7200000000000006</v>
-      </c>
-      <c r="I7" s="5">
-        <v>20</v>
-      </c>
-      <c r="J7" s="2">
-        <v>18</v>
-      </c>
-      <c r="K7" s="6">
-        <v>28</v>
-      </c>
-      <c r="L7" s="6">
-        <v>38</v>
-      </c>
-      <c r="M7" s="9" t="s">
-        <v>378</v>
-      </c>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
     </row>
     <row r="8" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C8" s="7">
-        <v>688367</v>
+        <v>605028</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>434</v>
+        <v>465</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>300</v>
+        <v>387</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="G8" s="2">
-        <v>26.21</v>
+        <v>466</v>
       </c>
       <c r="H8" s="5">
-        <v>11.53</v>
+        <v>14.18</v>
       </c>
       <c r="I8" s="5">
-        <v>23</v>
+        <v>23.75</v>
       </c>
       <c r="J8" s="2">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K8" s="6">
-        <v>35</v>
+        <v>31.25</v>
       </c>
       <c r="L8" s="6">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>435</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C9" s="7">
-        <v>301004</v>
+        <v>688161</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>430</v>
+        <v>464</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>236</v>
+        <v>443</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>431</v>
+        <v>462</v>
       </c>
       <c r="G9" s="2">
-        <v>14.98</v>
+        <v>26.88</v>
       </c>
       <c r="H9" s="5">
-        <v>7.81</v>
+        <v>36.22</v>
       </c>
       <c r="I9" s="5">
-        <v>25</v>
+        <v>62.5</v>
       </c>
       <c r="J9" s="2">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="K9" s="6">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="L9" s="6">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>432</v>
+        <v>463</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -5211,349 +5384,349 @@
         <v>41</v>
       </c>
       <c r="C10" s="7">
-        <v>688601</v>
+        <v>688499</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>428</v>
+        <v>459</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>429</v>
+        <v>300</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>427</v>
+        <v>460</v>
       </c>
       <c r="G10" s="2">
-        <v>44.31</v>
+        <v>27.44</v>
       </c>
       <c r="H10" s="5">
-        <v>36.479999999999997</v>
+        <v>38.85</v>
       </c>
       <c r="I10" s="5">
-        <v>78</v>
+        <v>90.91</v>
       </c>
       <c r="J10" s="2">
-        <v>156</v>
+        <v>113.64</v>
       </c>
       <c r="K10" s="6">
-        <v>168</v>
+        <v>136.36000000000001</v>
       </c>
       <c r="L10" s="6">
-        <v>235</v>
+        <v>202.27</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>409</v>
+        <v>461</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C11" s="7">
-        <v>688276</v>
+        <v>301016</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>422</v>
+        <v>457</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>300</v>
+        <v>387</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>423</v>
+        <v>458</v>
       </c>
       <c r="G11" s="2">
-        <v>37.340000000000003</v>
+        <v>15.06</v>
       </c>
       <c r="H11" s="5">
-        <v>36.35</v>
+        <v>13.75</v>
       </c>
       <c r="I11" s="5">
-        <v>48</v>
+        <v>23.33</v>
       </c>
       <c r="J11" s="2">
-        <v>72</v>
+        <v>29.17</v>
       </c>
       <c r="K11" s="6">
-        <v>85</v>
+        <v>41.67</v>
       </c>
       <c r="L11" s="6">
-        <v>121</v>
+        <v>58.33</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C12" s="7">
-        <v>688690</v>
+        <v>301017</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>418</v>
+        <v>454</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>420</v>
+        <v>387</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>419</v>
+        <v>455</v>
       </c>
       <c r="G12" s="2">
-        <v>51.04</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="H12" s="5">
-        <v>8.07</v>
+        <v>8.86</v>
       </c>
       <c r="I12" s="5">
-        <v>20</v>
+        <v>14.8</v>
       </c>
       <c r="J12" s="2">
-        <v>15</v>
+        <v>17.27</v>
       </c>
       <c r="K12" s="6">
-        <v>25</v>
+        <v>20.23</v>
       </c>
       <c r="L12" s="6">
-        <v>38</v>
+        <v>37.01</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>421</v>
+        <v>456</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>416</v>
+        <v>12</v>
+      </c>
+      <c r="C13" s="7">
+        <v>603171</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>417</v>
+        <v>450</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>314</v>
+        <v>452</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>415</v>
+        <v>451</v>
       </c>
       <c r="G13" s="2">
-        <v>22.98</v>
+        <v>22.99</v>
       </c>
       <c r="H13" s="5">
-        <v>3.67</v>
+        <v>13.33</v>
       </c>
       <c r="I13" s="5">
-        <v>10</v>
+        <v>20.2</v>
       </c>
       <c r="J13" s="2">
-        <v>9.36</v>
+        <v>24.64</v>
       </c>
       <c r="K13" s="6">
-        <v>13</v>
+        <v>29.56</v>
       </c>
       <c r="L13" s="6">
-        <v>18</v>
+        <v>41.88</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>111</v>
+        <v>453</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C14" s="7">
-        <v>301012</v>
+        <v>605011</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>412</v>
+        <v>448</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>387</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>413</v>
+        <v>449</v>
       </c>
       <c r="G14" s="2">
-        <v>14.6</v>
+        <v>12.65</v>
       </c>
       <c r="H14" s="5">
-        <v>8.0500000000000007</v>
+        <v>6.17</v>
       </c>
       <c r="I14" s="5">
-        <v>28</v>
+        <v>12.5</v>
       </c>
       <c r="J14" s="2">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="K14" s="6">
-        <v>36</v>
+        <v>17.5</v>
       </c>
       <c r="L14" s="6">
-        <v>60</v>
+        <v>25.24</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>414</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C15" s="7">
-        <v>688216</v>
+        <v>301022</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>408</v>
+        <v>445</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>254</v>
+        <v>387</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>410</v>
+        <v>446</v>
       </c>
       <c r="G15" s="2">
-        <v>21.11</v>
+        <v>34.82</v>
       </c>
       <c r="H15" s="5">
-        <v>14.82</v>
+        <v>32.29</v>
       </c>
       <c r="I15" s="5">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="J15" s="2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="K15" s="6">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="L15" s="6">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>409</v>
+        <v>447</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C16" s="7">
-        <v>688425</v>
+        <v>301015</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>405</v>
+        <v>441</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>387</v>
+        <v>443</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>406</v>
+        <v>442</v>
       </c>
       <c r="G16" s="2">
-        <v>10.54</v>
+        <v>15.25</v>
       </c>
       <c r="H16" s="5">
-        <v>2.87</v>
+        <v>7.64</v>
       </c>
       <c r="I16" s="5">
-        <v>4.8</v>
+        <v>18.09</v>
       </c>
       <c r="J16" s="2">
-        <v>6</v>
+        <v>15.24</v>
       </c>
       <c r="K16" s="6">
-        <v>7</v>
+        <v>22.85</v>
       </c>
       <c r="L16" s="6">
-        <v>12</v>
+        <v>38.090000000000003</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>407</v>
+        <v>444</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>401</v>
+        <v>17</v>
+      </c>
+      <c r="C17" s="7">
+        <v>301019</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>403</v>
+        <v>438</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>288</v>
+        <v>439</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>402</v>
+        <v>440</v>
       </c>
       <c r="G17" s="2">
-        <v>22.99</v>
+        <v>23.7</v>
       </c>
       <c r="H17" s="5">
-        <v>14.27</v>
+        <v>28.94</v>
       </c>
       <c r="I17" s="5">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="J17" s="2">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="K17" s="6">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="L17" s="6">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="M17" s="9" t="s">
-        <v>404</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C18" s="7">
-        <v>688621</v>
+        <v>301013</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>397</v>
+        <v>436</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>300</v>
+        <v>387</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>398</v>
+        <v>437</v>
       </c>
       <c r="G18" s="2">
-        <v>29.72</v>
+        <v>17.149999999999999</v>
       </c>
       <c r="H18" s="5">
-        <v>26.89</v>
+        <v>8.7200000000000006</v>
       </c>
       <c r="I18" s="5">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="J18" s="2">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="K18" s="6">
-        <v>98</v>
+        <v>28</v>
       </c>
       <c r="L18" s="6">
-        <v>168</v>
+        <v>38</v>
       </c>
       <c r="M18" s="9" t="s">
-        <v>399</v>
+        <v>378</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -5562,37 +5735,37 @@
         <v>41</v>
       </c>
       <c r="C19" s="7">
-        <v>688517</v>
+        <v>688367</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>394</v>
+        <v>434</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>236</v>
+        <v>300</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>395</v>
+        <v>433</v>
       </c>
       <c r="G19" s="2">
-        <v>15.28</v>
+        <v>26.21</v>
       </c>
       <c r="H19" s="5">
-        <v>7.71</v>
+        <v>11.53</v>
       </c>
       <c r="I19" s="5">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="J19" s="2">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="K19" s="6">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="L19" s="6">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="M19" s="9" t="s">
-        <v>111</v>
+        <v>435</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -5601,190 +5774,190 @@
         <v>17</v>
       </c>
       <c r="C20" s="7">
-        <v>300984</v>
+        <v>301004</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>392</v>
+        <v>430</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>387</v>
+        <v>236</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>396</v>
+        <v>431</v>
       </c>
       <c r="G20" s="2">
-        <v>29.28</v>
+        <v>14.98</v>
       </c>
       <c r="H20" s="5">
-        <v>30.97</v>
+        <v>7.81</v>
       </c>
       <c r="I20" s="5">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="J20" s="2">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="K20" s="6">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="L20" s="6">
-        <v>125</v>
+        <v>48</v>
       </c>
       <c r="M20" s="9" t="s">
-        <v>393</v>
+        <v>432</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C21" s="7">
-        <v>301011</v>
+        <v>688601</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>400</v>
+        <v>428</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>387</v>
+        <v>429</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>390</v>
+        <v>427</v>
       </c>
       <c r="G21" s="2">
-        <v>26.76</v>
+        <v>44.31</v>
       </c>
       <c r="H21" s="5">
-        <v>14.2</v>
+        <v>36.479999999999997</v>
       </c>
       <c r="I21" s="5">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="J21" s="2">
-        <v>35</v>
+        <v>156</v>
       </c>
       <c r="K21" s="6">
-        <v>42</v>
+        <v>168</v>
       </c>
       <c r="L21" s="6">
-        <v>70</v>
+        <v>235</v>
       </c>
       <c r="M21" s="9" t="s">
-        <v>391</v>
+        <v>409</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C22" s="7">
-        <v>301010</v>
+        <v>688276</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>386</v>
+        <v>422</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>387</v>
+        <v>300</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>388</v>
+        <v>423</v>
       </c>
       <c r="G22" s="2">
-        <v>15.23</v>
+        <v>37.340000000000003</v>
       </c>
       <c r="H22" s="5">
-        <v>7.83</v>
+        <v>36.35</v>
       </c>
       <c r="I22" s="5">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="J22" s="2">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="K22" s="6">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="L22" s="6">
-        <v>56</v>
+        <v>121</v>
       </c>
       <c r="M22" s="9" t="s">
-        <v>389</v>
+        <v>424</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="2" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C23" s="7">
-        <v>601665</v>
+        <v>688690</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>384</v>
+        <v>418</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>236</v>
+        <v>420</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>385</v>
+        <v>419</v>
       </c>
       <c r="G23" s="2">
-        <v>10.28</v>
+        <v>51.04</v>
       </c>
       <c r="H23" s="5">
-        <v>5.36</v>
+        <v>8.07</v>
       </c>
       <c r="I23" s="5">
-        <v>4.18</v>
+        <v>20</v>
       </c>
       <c r="J23" s="2">
-        <v>4.5</v>
+        <v>15</v>
       </c>
       <c r="K23" s="6">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="L23" s="6">
-        <v>8.1999999999999993</v>
+        <v>38</v>
       </c>
       <c r="M23" s="9" t="s">
-        <v>176</v>
+        <v>421</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="7">
-        <v>688597</v>
+        <v>72</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>416</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>383</v>
+        <v>417</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>236</v>
+        <v>314</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>382</v>
+        <v>415</v>
       </c>
       <c r="G24" s="2">
-        <v>17.46</v>
+        <v>22.98</v>
       </c>
       <c r="H24" s="5">
-        <v>5.88</v>
+        <v>3.67</v>
       </c>
       <c r="I24" s="5">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J24" s="2">
-        <v>17</v>
+        <v>9.36</v>
       </c>
       <c r="K24" s="6">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="L24" s="6">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="M24" s="9" t="s">
         <v>111</v>
@@ -5796,37 +5969,37 @@
         <v>17</v>
       </c>
       <c r="C25" s="7">
-        <v>688597</v>
+        <v>301012</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>379</v>
+        <v>412</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>254</v>
+        <v>387</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>380</v>
+        <v>413</v>
       </c>
       <c r="G25" s="2">
-        <v>16.920000000000002</v>
+        <v>14.6</v>
       </c>
       <c r="H25" s="5">
-        <v>12.54</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="I25" s="5">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="J25" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K25" s="6">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="L25" s="6">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="M25" s="9" t="s">
-        <v>381</v>
+        <v>414</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -5835,37 +6008,37 @@
         <v>41</v>
       </c>
       <c r="C26" s="7">
-        <v>688700</v>
+        <v>688216</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>376</v>
+        <v>408</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>377</v>
+        <v>410</v>
       </c>
       <c r="G26" s="2">
-        <v>17.55</v>
+        <v>21.11</v>
       </c>
       <c r="H26" s="5">
-        <v>9.41</v>
+        <v>14.82</v>
       </c>
       <c r="I26" s="5">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="J26" s="2">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="K26" s="6">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="L26" s="6">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="M26" s="9" t="s">
-        <v>378</v>
+        <v>409</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -5874,76 +6047,76 @@
         <v>41</v>
       </c>
       <c r="C27" s="7">
-        <v>688067</v>
+        <v>688425</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>374</v>
+        <v>405</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>229</v>
+        <v>387</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>375</v>
+        <v>406</v>
       </c>
       <c r="G27" s="2">
-        <v>37.89</v>
+        <v>10.54</v>
       </c>
       <c r="H27" s="5">
-        <v>14.71</v>
+        <v>2.87</v>
       </c>
       <c r="I27" s="5">
-        <v>29.5</v>
+        <v>4.8</v>
       </c>
       <c r="J27" s="2">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="K27" s="6">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="L27" s="6">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="M27" s="9" t="s">
-        <v>60</v>
+        <v>407</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="7">
-        <v>603529</v>
+        <v>72</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>401</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>371</v>
+        <v>403</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>229</v>
+        <v>288</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>372</v>
+        <v>402</v>
       </c>
       <c r="G28" s="2">
-        <v>21.9</v>
+        <v>22.99</v>
       </c>
       <c r="H28" s="5">
-        <v>27.86</v>
+        <v>14.27</v>
       </c>
       <c r="I28" s="5">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="J28" s="2">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="K28" s="6">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="L28" s="6">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="M28" s="9" t="s">
-        <v>373</v>
+        <v>404</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -5952,154 +6125,154 @@
         <v>41</v>
       </c>
       <c r="C29" s="7">
-        <v>688681</v>
+        <v>688621</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>369</v>
+        <v>397</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>236</v>
+        <v>300</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>370</v>
+        <v>398</v>
       </c>
       <c r="G29" s="2">
-        <v>18.91</v>
+        <v>29.72</v>
       </c>
       <c r="H29" s="5">
-        <v>9.56</v>
+        <v>26.89</v>
       </c>
       <c r="I29" s="5">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="J29" s="2">
-        <v>23.8</v>
+        <v>75</v>
       </c>
       <c r="K29" s="6">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="L29" s="6">
-        <v>38</v>
+        <v>168</v>
       </c>
       <c r="M29" s="9" t="s">
-        <v>111</v>
+        <v>399</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C30" s="7">
-        <v>301007</v>
+        <v>688517</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>367</v>
+        <v>394</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>368</v>
+        <v>395</v>
       </c>
       <c r="G30" s="2">
-        <v>17.3</v>
+        <v>15.28</v>
       </c>
       <c r="H30" s="5">
-        <v>5.29</v>
+        <v>7.71</v>
       </c>
       <c r="I30" s="5">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J30" s="2">
+        <v>15</v>
+      </c>
+      <c r="K30" s="6">
         <v>20</v>
       </c>
-      <c r="K30" s="6">
-        <v>28</v>
-      </c>
       <c r="L30" s="6">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="M30" s="9" t="s">
-        <v>159</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C31" s="7">
-        <v>688345</v>
+        <v>300984</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>366</v>
+        <v>392</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>229</v>
+        <v>387</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>364</v>
+        <v>396</v>
       </c>
       <c r="G31" s="2">
-        <v>22.15</v>
+        <v>29.28</v>
       </c>
       <c r="H31" s="5">
-        <v>25.91</v>
+        <v>30.97</v>
       </c>
       <c r="I31" s="5">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J31" s="2">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="K31" s="6">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="L31" s="6">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="M31" s="9" t="s">
-        <v>365</v>
+        <v>393</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="B32" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C32" s="7">
-        <v>605259</v>
+        <v>301011</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>220</v>
+        <v>400</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>229</v>
+        <v>387</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>221</v>
+        <v>390</v>
       </c>
       <c r="G32" s="2">
-        <v>22.99</v>
+        <v>26.76</v>
       </c>
       <c r="H32" s="5">
-        <v>27.1</v>
+        <v>14.2</v>
       </c>
       <c r="I32" s="5">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="J32" s="2">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="K32" s="6">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="L32" s="6">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="M32" s="9" t="s">
-        <v>222</v>
+        <v>391</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -6108,76 +6281,76 @@
         <v>17</v>
       </c>
       <c r="C33" s="7">
-        <v>301008</v>
+        <v>301010</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>217</v>
+        <v>386</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>254</v>
+        <v>387</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>218</v>
+        <v>388</v>
       </c>
       <c r="G33" s="2">
-        <v>35.200000000000003</v>
+        <v>15.23</v>
       </c>
       <c r="H33" s="5">
-        <v>37.6</v>
+        <v>7.83</v>
       </c>
       <c r="I33" s="5">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="J33" s="2">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="K33" s="6">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="L33" s="6">
-        <v>108</v>
+        <v>56</v>
       </c>
       <c r="M33" s="9" t="s">
-        <v>219</v>
+        <v>389</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="B34" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C34" s="7">
-        <v>688269</v>
+        <v>601665</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>215</v>
+        <v>384</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>216</v>
+        <v>385</v>
       </c>
       <c r="G34" s="2">
-        <v>18.010000000000002</v>
+        <v>10.28</v>
       </c>
       <c r="H34" s="5">
-        <v>18.940000000000001</v>
+        <v>5.36</v>
       </c>
       <c r="I34" s="5">
-        <v>30</v>
+        <v>4.18</v>
       </c>
       <c r="J34" s="2">
-        <v>32</v>
+        <v>4.5</v>
       </c>
       <c r="K34" s="6">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="L34" s="6">
-        <v>64</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="M34" s="9" t="s">
-        <v>39</v>
+        <v>176</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -6186,79 +6359,76 @@
         <v>41</v>
       </c>
       <c r="C35" s="7">
-        <v>688131</v>
+        <v>688597</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>411</v>
+        <v>383</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>236</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>214</v>
+        <v>382</v>
       </c>
       <c r="G35" s="2">
-        <v>40.729999999999997</v>
+        <v>17.46</v>
       </c>
       <c r="H35" s="5">
-        <v>64.989999999999995</v>
+        <v>5.88</v>
       </c>
       <c r="I35" s="5">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="J35" s="2">
-        <v>135</v>
+        <v>17</v>
       </c>
       <c r="K35" s="6">
-        <v>148</v>
+        <v>25</v>
       </c>
       <c r="L35" s="6">
-        <v>243</v>
+        <v>36</v>
       </c>
       <c r="M35" s="9" t="s">
-        <v>53</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="B36" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C36" s="7">
-        <v>688319</v>
+        <v>688597</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>411</v>
+        <v>379</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>254</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>211</v>
+        <v>380</v>
       </c>
       <c r="G36" s="2">
-        <v>146.44999999999999</v>
+        <v>16.920000000000002</v>
       </c>
       <c r="H36" s="5">
-        <v>9.8800000000000008</v>
+        <v>12.54</v>
       </c>
       <c r="I36" s="5">
         <v>18</v>
       </c>
       <c r="J36" s="2">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K36" s="6">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L36" s="6">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="M36" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>210</v>
+        <v>381</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -6267,79 +6437,76 @@
         <v>41</v>
       </c>
       <c r="C37" s="7">
-        <v>688625</v>
+        <v>688700</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>208</v>
+        <v>376</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>387</v>
+        <v>236</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>426</v>
+        <v>377</v>
       </c>
       <c r="G37" s="2">
-        <v>19.95</v>
+        <v>17.55</v>
       </c>
       <c r="H37" s="5">
-        <v>16.48</v>
+        <v>9.41</v>
       </c>
       <c r="I37" s="5">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J37" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K37" s="6">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="L37" s="6">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>45</v>
+        <v>378</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C38" s="7">
-        <v>301006</v>
+        <v>688067</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>204</v>
+        <v>374</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>229</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>205</v>
+        <v>375</v>
       </c>
       <c r="G38" s="2">
-        <v>12.61</v>
+        <v>37.89</v>
       </c>
       <c r="H38" s="5">
-        <v>14.42</v>
+        <v>14.71</v>
       </c>
       <c r="I38" s="5">
-        <v>21</v>
+        <v>29.5</v>
       </c>
       <c r="J38" s="2">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K38" s="6">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="L38" s="6">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="M38" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>207</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -6348,76 +6515,76 @@
         <v>12</v>
       </c>
       <c r="C39" s="7">
-        <v>601156</v>
+        <v>603529</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>202</v>
+        <v>371</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>229</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>203</v>
+        <v>372</v>
       </c>
       <c r="G39" s="2">
-        <v>10.93</v>
+        <v>21.9</v>
       </c>
       <c r="H39" s="5">
-        <v>15.77</v>
+        <v>27.86</v>
       </c>
       <c r="I39" s="5">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="J39" s="2">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="K39" s="6">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="L39" s="6">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="M39" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="O39" s="7" t="s">
-        <v>201</v>
+        <v>373</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
       <c r="B40" s="2" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C40" s="7">
-        <v>605319</v>
+        <v>688681</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>198</v>
+        <v>369</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>236</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>200</v>
+        <v>370</v>
       </c>
       <c r="G40" s="2">
-        <v>22.98</v>
+        <v>18.91</v>
       </c>
       <c r="H40" s="5">
-        <v>11.22</v>
+        <v>9.56</v>
       </c>
       <c r="I40" s="5">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J40" s="2">
-        <v>20</v>
+        <v>23.8</v>
       </c>
       <c r="K40" s="6">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="L40" s="6">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M40" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="O40" s="7" t="s">
-        <v>199</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -6426,37 +6593,37 @@
         <v>17</v>
       </c>
       <c r="C41" s="7">
-        <v>301002</v>
+        <v>301007</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>196</v>
+        <v>367</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>229</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>195</v>
+        <v>368</v>
       </c>
       <c r="G41" s="2">
-        <v>18.12</v>
+        <v>17.3</v>
       </c>
       <c r="H41" s="5">
-        <v>18.71</v>
+        <v>5.29</v>
       </c>
       <c r="I41" s="5">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="J41" s="2">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="K41" s="6">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="L41" s="6">
-        <v>98</v>
+        <v>39</v>
       </c>
       <c r="M41" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="O41" s="7" t="s">
-        <v>194</v>
+        <v>159</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -6465,60 +6632,76 @@
         <v>41</v>
       </c>
       <c r="C42" s="7">
-        <v>688117</v>
+        <v>688345</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>190</v>
+        <v>366</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>229</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>192</v>
+        <v>364</v>
       </c>
       <c r="G42" s="2">
-        <v>27.7</v>
-      </c>
-      <c r="K42" s="6"/>
-      <c r="L42" s="6"/>
-      <c r="O42" s="7" t="s">
-        <v>193</v>
+        <v>22.15</v>
+      </c>
+      <c r="H42" s="5">
+        <v>25.91</v>
+      </c>
+      <c r="I42" s="5">
+        <v>40</v>
+      </c>
+      <c r="J42" s="2">
+        <v>50</v>
+      </c>
+      <c r="K42" s="6">
+        <v>70</v>
+      </c>
+      <c r="L42" s="6">
+        <v>120</v>
+      </c>
+      <c r="M42" s="9" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
       <c r="B43" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C43" s="7">
-        <v>300996</v>
+        <v>605259</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>189</v>
+        <v>220</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>229</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>187</v>
+        <v>221</v>
       </c>
       <c r="G43" s="2">
-        <v>23.16</v>
+        <v>22.99</v>
       </c>
       <c r="H43" s="5">
-        <v>20.81</v>
+        <v>27.1</v>
       </c>
       <c r="I43" s="5">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="J43" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="K43" s="6">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="L43" s="6">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M43" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="O43" s="7" t="s">
-        <v>185</v>
+        <v>222</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -6527,343 +6710,355 @@
         <v>17</v>
       </c>
       <c r="C44" s="7">
-        <v>300997</v>
+        <v>301008</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>182</v>
+        <v>217</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>254</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>184</v>
+        <v>218</v>
       </c>
       <c r="G44" s="2">
-        <v>12.76</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="H44" s="5">
-        <v>4.9400000000000004</v>
+        <v>37.6</v>
       </c>
       <c r="I44" s="5">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="J44" s="2">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="K44" s="6">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="L44" s="6">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="M44" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="O44" s="7" t="s">
-        <v>183</v>
+        <v>219</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
       <c r="B45" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C45" s="7">
-        <v>300998</v>
+        <v>688269</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>180</v>
+        <v>215</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>254</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>425</v>
+        <v>216</v>
       </c>
       <c r="G45" s="2">
-        <v>16.940000000000001</v>
+        <v>18.010000000000002</v>
       </c>
       <c r="H45" s="5">
-        <v>6.02</v>
+        <v>18.940000000000001</v>
       </c>
       <c r="I45" s="5">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J45" s="2">
-        <v>18.8</v>
+        <v>32</v>
       </c>
       <c r="K45" s="6">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="L45" s="6">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="M45" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="O45" s="7" t="s">
-        <v>181</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
       <c r="B46" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C46" s="7">
-        <v>301005</v>
+        <v>688131</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>186</v>
+        <v>213</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>411</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>179</v>
+        <v>214</v>
       </c>
       <c r="G46" s="2">
-        <v>26.64</v>
+        <v>40.729999999999997</v>
       </c>
       <c r="H46" s="5">
-        <v>36.450000000000003</v>
+        <v>64.989999999999995</v>
       </c>
       <c r="I46" s="5">
-        <v>43</v>
+        <v>108</v>
       </c>
       <c r="J46" s="2">
-        <v>52</v>
+        <v>135</v>
       </c>
       <c r="K46" s="6">
-        <v>70</v>
+        <v>148</v>
       </c>
       <c r="L46" s="6">
-        <v>105</v>
+        <v>243</v>
       </c>
       <c r="M46" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="O46" s="7" t="s">
-        <v>178</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
       <c r="B47" s="2" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C47" s="7">
-        <v>601528</v>
+        <v>688319</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>175</v>
+        <v>209</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>411</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>177</v>
+        <v>211</v>
+      </c>
+      <c r="G47" s="2">
+        <v>146.44999999999999</v>
       </c>
       <c r="H47" s="5">
-        <v>8.1199999999999992</v>
+        <v>9.8800000000000008</v>
       </c>
       <c r="I47" s="5">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J47" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K47" s="6">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="L47" s="6">
-        <v>16.600000000000001</v>
+        <v>43</v>
       </c>
       <c r="M47" s="9" t="s">
-        <v>176</v>
+        <v>212</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
       <c r="B48" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C48" s="7">
-        <v>301003</v>
+        <v>688625</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>168</v>
+        <v>208</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>387</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>172</v>
+        <v>426</v>
       </c>
       <c r="G48" s="2">
-        <v>32.01</v>
+        <v>19.95</v>
       </c>
       <c r="H48" s="5">
-        <v>55.88</v>
+        <v>16.48</v>
       </c>
       <c r="I48" s="5">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="J48" s="2">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="K48" s="6">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="L48" s="6">
-        <v>138</v>
+        <v>60</v>
       </c>
       <c r="M48" s="9" t="s">
-        <v>173</v>
+        <v>39</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>169</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
       <c r="B49" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C49" s="7">
-        <v>605296</v>
+        <v>301006</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>164</v>
+        <v>204</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>167</v>
+        <v>205</v>
       </c>
       <c r="G49" s="2">
-        <v>19.760000000000002</v>
+        <v>12.61</v>
       </c>
       <c r="H49" s="5">
-        <v>56.08</v>
+        <v>14.42</v>
       </c>
       <c r="I49" s="5">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="J49" s="2">
+        <v>29</v>
+      </c>
+      <c r="K49" s="6">
+        <v>33</v>
+      </c>
+      <c r="L49" s="6">
         <v>50</v>
       </c>
-      <c r="K49" s="6">
-        <v>68</v>
-      </c>
-      <c r="L49" s="6">
-        <v>95</v>
-      </c>
       <c r="M49" s="9" t="s">
-        <v>166</v>
+        <v>206</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>165</v>
+        <v>207</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
       <c r="B50" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C50" s="7">
-        <v>301001</v>
+        <v>601156</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>160</v>
+        <v>202</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>161</v>
+        <v>203</v>
       </c>
       <c r="G50" s="2">
-        <v>26.19</v>
+        <v>10.93</v>
       </c>
       <c r="H50" s="5">
-        <v>25.54</v>
+        <v>15.77</v>
       </c>
       <c r="I50" s="5">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="J50" s="2">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="K50" s="6">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="L50" s="6">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="M50" s="9" t="s">
-        <v>162</v>
+        <v>27</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>163</v>
+        <v>201</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
       <c r="B51" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C51" s="7">
-        <v>301000</v>
+        <v>605319</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>158</v>
+        <v>200</v>
       </c>
       <c r="G51" s="2">
+        <v>22.98</v>
+      </c>
+      <c r="H51" s="5">
+        <v>11.22</v>
+      </c>
+      <c r="I51" s="5">
+        <v>15</v>
+      </c>
+      <c r="J51" s="2">
+        <v>20</v>
+      </c>
+      <c r="K51" s="6">
+        <v>25</v>
+      </c>
+      <c r="L51" s="6">
         <v>35</v>
       </c>
-      <c r="H51" s="5">
-        <v>64.31</v>
-      </c>
-      <c r="I51" s="5">
-        <v>85</v>
-      </c>
-      <c r="J51" s="2">
-        <v>93</v>
-      </c>
-      <c r="K51" s="6">
-        <v>118</v>
-      </c>
-      <c r="L51" s="6">
-        <v>158</v>
-      </c>
       <c r="M51" s="9" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>157</v>
+        <v>199</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4"/>
       <c r="B52" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C52" s="7">
-        <v>605189</v>
+        <v>301002</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>155</v>
+        <v>196</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>153</v>
+        <v>195</v>
       </c>
       <c r="G52" s="2">
-        <v>22.99</v>
+        <v>18.12</v>
       </c>
       <c r="H52" s="5">
-        <v>19.95</v>
+        <v>18.71</v>
       </c>
       <c r="I52" s="5">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="J52" s="2">
         <v>32</v>
       </c>
       <c r="K52" s="6">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="L52" s="6">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="M52" s="9" t="s">
-        <v>154</v>
+        <v>197</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>156</v>
+        <v>194</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -6872,110 +7067,99 @@
         <v>41</v>
       </c>
       <c r="C53" s="7">
-        <v>688538</v>
+        <v>688117</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="H53" s="5">
-        <v>2.65</v>
-      </c>
-      <c r="I53" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="J53" s="2">
-        <v>2.23</v>
-      </c>
-      <c r="K53" s="6">
-        <v>5</v>
-      </c>
-      <c r="L53" s="6">
-        <v>8</v>
-      </c>
-      <c r="M53" s="9" t="s">
-        <v>152</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="G53" s="2">
+        <v>27.7</v>
+      </c>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
       <c r="O53" s="7" t="s">
-        <v>151</v>
+        <v>193</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="4"/>
       <c r="B54" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C54" s="7">
-        <v>605499</v>
+        <v>300996</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>146</v>
+        <v>189</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>147</v>
+        <v>187</v>
       </c>
       <c r="G54" s="2">
-        <v>22.99</v>
+        <v>23.16</v>
       </c>
       <c r="H54" s="5">
-        <v>46.27</v>
+        <v>20.81</v>
       </c>
       <c r="I54" s="5">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="J54" s="2">
-        <v>88</v>
-      </c>
-      <c r="K54" s="2">
-        <v>98</v>
-      </c>
-      <c r="L54" s="2">
-        <v>125</v>
+        <v>39</v>
+      </c>
+      <c r="K54" s="6">
+        <v>51</v>
+      </c>
+      <c r="L54" s="6">
+        <v>79</v>
       </c>
       <c r="M54" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="O54" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="4"/>
+      <c r="B55" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55" s="7">
+        <v>300997</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G55" s="2">
+        <v>12.76</v>
+      </c>
+      <c r="H55" s="5">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="I55" s="5">
+        <v>15</v>
+      </c>
+      <c r="J55" s="2">
+        <v>11</v>
+      </c>
+      <c r="K55" s="6">
+        <v>18</v>
+      </c>
+      <c r="L55" s="6">
+        <v>30</v>
+      </c>
+      <c r="M55" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="O54" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C55" s="7">
-        <v>603836</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G55" s="2">
-        <v>22.99</v>
-      </c>
-      <c r="H55" s="5">
-        <v>16.84</v>
-      </c>
-      <c r="I55" s="5">
-        <v>22</v>
-      </c>
-      <c r="J55" s="2">
-        <v>25</v>
-      </c>
-      <c r="K55" s="2">
-        <v>30</v>
-      </c>
-      <c r="L55" s="2">
-        <v>50</v>
-      </c>
-      <c r="M55" s="9" t="s">
-        <v>27</v>
-      </c>
       <c r="O55" s="7" t="s">
-        <v>26</v>
+        <v>183</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -6984,986 +7168,983 @@
         <v>17</v>
       </c>
       <c r="C56" s="7">
-        <v>300614</v>
+        <v>300998</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>13</v>
+        <v>180</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>16</v>
+        <v>425</v>
       </c>
       <c r="G56" s="2">
-        <v>11.78</v>
+        <v>16.940000000000001</v>
       </c>
       <c r="H56" s="5">
-        <v>9.19</v>
+        <v>6.02</v>
       </c>
       <c r="I56" s="5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J56" s="2">
-        <v>19</v>
+        <v>18.8</v>
       </c>
       <c r="K56" s="6">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="L56" s="6">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="M56" s="9" t="s">
-        <v>15</v>
+        <v>159</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>18</v>
+        <v>181</v>
       </c>
     </row>
     <row r="57" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="4"/>
       <c r="B57" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C57" s="7">
+        <v>301005</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G57" s="2">
+        <v>26.64</v>
+      </c>
+      <c r="H57" s="5">
+        <v>36.450000000000003</v>
+      </c>
+      <c r="I57" s="5">
+        <v>43</v>
+      </c>
+      <c r="J57" s="2">
+        <v>52</v>
+      </c>
+      <c r="K57" s="6">
+        <v>70</v>
+      </c>
+      <c r="L57" s="6">
+        <v>105</v>
+      </c>
+      <c r="M57" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="O57" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="4"/>
+      <c r="B58" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C57" s="7">
-        <v>605090</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G57" s="2">
-        <v>20</v>
-      </c>
-      <c r="H57" s="5">
-        <v>34.57</v>
-      </c>
-      <c r="I57" s="5">
-        <v>37</v>
-      </c>
-      <c r="J57" s="2">
-        <v>42</v>
-      </c>
-      <c r="K57" s="2">
-        <v>50</v>
-      </c>
-      <c r="L57" s="2">
-        <v>68</v>
-      </c>
-      <c r="M57" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="O57" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="C58" s="7">
-        <v>300992</v>
+        <v>601528</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>28</v>
+        <v>175</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G58" s="2">
-        <v>12.84</v>
+        <v>177</v>
       </c>
       <c r="H58" s="5">
-        <v>9.36</v>
+        <v>8.1199999999999992</v>
       </c>
       <c r="I58" s="5">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="J58" s="2">
-        <v>33</v>
-      </c>
-      <c r="K58" s="2">
-        <v>38</v>
-      </c>
-      <c r="L58" s="2">
-        <v>65</v>
+        <v>10</v>
+      </c>
+      <c r="K58" s="6">
+        <v>12</v>
+      </c>
+      <c r="L58" s="6">
+        <v>16.600000000000001</v>
       </c>
       <c r="M58" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="O58" s="7" t="s">
-        <v>29</v>
+        <v>176</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="4"/>
       <c r="B59" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C59" s="7">
-        <v>300995</v>
+        <v>301003</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>32</v>
+        <v>168</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>33</v>
+        <v>172</v>
       </c>
       <c r="G59" s="2">
-        <v>17.52</v>
+        <v>32.01</v>
       </c>
       <c r="H59" s="5">
-        <v>14.72</v>
+        <v>55.88</v>
       </c>
       <c r="I59" s="5">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="J59" s="2">
-        <v>36</v>
-      </c>
-      <c r="K59" s="2">
-        <v>42</v>
-      </c>
-      <c r="L59" s="2">
-        <v>65</v>
+        <v>85</v>
+      </c>
+      <c r="K59" s="6">
+        <v>98</v>
+      </c>
+      <c r="L59" s="6">
+        <v>138</v>
       </c>
       <c r="M59" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="O59" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="4"/>
+      <c r="B60" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" s="7">
+        <v>605296</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="G60" s="2">
+        <v>19.760000000000002</v>
+      </c>
+      <c r="H60" s="5">
+        <v>56.08</v>
+      </c>
+      <c r="I60" s="5">
         <v>38</v>
       </c>
-      <c r="O59" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="2" t="s">
+      <c r="J60" s="2">
+        <v>50</v>
+      </c>
+      <c r="K60" s="6">
+        <v>68</v>
+      </c>
+      <c r="L60" s="6">
+        <v>95</v>
+      </c>
+      <c r="M60" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="O60" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="4"/>
+      <c r="B61" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C60" s="7">
-        <v>300993</v>
-      </c>
-      <c r="D60" s="9" t="s">
+      <c r="C61" s="7">
+        <v>301001</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G61" s="2">
+        <v>26.19</v>
+      </c>
+      <c r="H61" s="5">
+        <v>25.54</v>
+      </c>
+      <c r="I61" s="5">
+        <v>43</v>
+      </c>
+      <c r="J61" s="2">
+        <v>43</v>
+      </c>
+      <c r="K61" s="6">
+        <v>56</v>
+      </c>
+      <c r="L61" s="6">
+        <v>98</v>
+      </c>
+      <c r="M61" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="O61" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="4"/>
+      <c r="B62" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C62" s="7">
+        <v>301000</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G62" s="2">
         <v>35</v>
       </c>
-      <c r="F60" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G60" s="2">
-        <v>16.45</v>
-      </c>
-      <c r="H60" s="5">
-        <v>12.1</v>
-      </c>
-      <c r="I60" s="5">
-        <v>21</v>
-      </c>
-      <c r="J60" s="2">
-        <v>23</v>
-      </c>
-      <c r="K60" s="2">
-        <v>30</v>
-      </c>
-      <c r="L60" s="2">
-        <v>58</v>
-      </c>
-      <c r="M60" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="O60" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C61" s="7">
-        <v>688359</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G61" s="2">
-        <v>22.3</v>
-      </c>
-      <c r="H61" s="5">
-        <v>11.03</v>
-      </c>
-      <c r="I61" s="5">
-        <v>20</v>
-      </c>
-      <c r="J61" s="2">
-        <v>25</v>
-      </c>
-      <c r="K61" s="2">
-        <v>29</v>
-      </c>
-      <c r="L61" s="2">
-        <v>48</v>
-      </c>
-      <c r="M61" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="O61" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C62" s="7">
-        <v>688613</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G62" s="2">
-        <v>26.6</v>
-      </c>
       <c r="H62" s="5">
-        <v>16.43</v>
+        <v>64.31</v>
       </c>
       <c r="I62" s="5">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="J62" s="2">
-        <v>34</v>
-      </c>
-      <c r="K62" s="2">
-        <v>48</v>
-      </c>
-      <c r="L62" s="2">
-        <v>78</v>
+        <v>93</v>
+      </c>
+      <c r="K62" s="6">
+        <v>118</v>
+      </c>
+      <c r="L62" s="6">
+        <v>158</v>
       </c>
       <c r="M62" s="9" t="s">
-        <v>47</v>
+        <v>174</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>45</v>
+        <v>157</v>
       </c>
     </row>
     <row r="63" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="4"/>
       <c r="B63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C63" s="7">
-        <v>600905</v>
+        <v>605189</v>
       </c>
       <c r="D63" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G63" s="2">
+        <v>22.99</v>
+      </c>
+      <c r="H63" s="5">
+        <v>19.95</v>
+      </c>
+      <c r="I63" s="5">
+        <v>28</v>
+      </c>
+      <c r="J63" s="2">
+        <v>32</v>
+      </c>
+      <c r="K63" s="6">
+        <v>38</v>
+      </c>
+      <c r="L63" s="6">
         <v>48</v>
       </c>
-      <c r="F63" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G63" s="2">
-        <v>28.87</v>
-      </c>
-      <c r="H63" s="5">
-        <v>2.65</v>
-      </c>
-      <c r="I63" s="5">
-        <v>5</v>
-      </c>
-      <c r="J63" s="2">
-        <v>3.5</v>
-      </c>
-      <c r="K63" s="2">
-        <v>5.8</v>
-      </c>
-      <c r="L63" s="2">
-        <v>8</v>
-      </c>
       <c r="M63" s="9" t="s">
-        <v>50</v>
+        <v>154</v>
+      </c>
+      <c r="O63" s="7" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="64" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="4"/>
       <c r="B64" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C64" s="7">
-        <v>688076</v>
+        <v>688538</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>51</v>
+        <v>150</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G64" s="2">
-        <v>35.130000000000003</v>
+        <v>171</v>
       </c>
       <c r="H64" s="5">
-        <v>15.57</v>
+        <v>2.65</v>
       </c>
       <c r="I64" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="J64" s="2">
+        <v>2.23</v>
+      </c>
+      <c r="K64" s="6">
+        <v>5</v>
+      </c>
+      <c r="L64" s="6">
+        <v>8</v>
+      </c>
+      <c r="M64" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="O64" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" s="7">
+        <v>605499</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G65" s="2">
+        <v>22.99</v>
+      </c>
+      <c r="H65" s="5">
+        <v>46.27</v>
+      </c>
+      <c r="I65" s="5">
+        <v>75</v>
+      </c>
+      <c r="J65" s="2">
+        <v>88</v>
+      </c>
+      <c r="K65" s="2">
+        <v>98</v>
+      </c>
+      <c r="L65" s="2">
+        <v>125</v>
+      </c>
+      <c r="M65" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="O65" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="7">
+        <v>603836</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G66" s="2">
+        <v>22.99</v>
+      </c>
+      <c r="H66" s="5">
+        <v>16.84</v>
+      </c>
+      <c r="I66" s="5">
+        <v>22</v>
+      </c>
+      <c r="J66" s="2">
+        <v>25</v>
+      </c>
+      <c r="K66" s="2">
+        <v>30</v>
+      </c>
+      <c r="L66" s="2">
+        <v>50</v>
+      </c>
+      <c r="M66" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="O66" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="4"/>
+      <c r="B67" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C67" s="7">
+        <v>300614</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G67" s="2">
+        <v>11.78</v>
+      </c>
+      <c r="H67" s="5">
+        <v>9.19</v>
+      </c>
+      <c r="I67" s="5">
+        <v>20</v>
+      </c>
+      <c r="J67" s="2">
+        <v>19</v>
+      </c>
+      <c r="K67" s="6">
+        <v>25</v>
+      </c>
+      <c r="L67" s="6">
+        <v>38</v>
+      </c>
+      <c r="M67" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="O67" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" s="7">
+        <v>605090</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G68" s="2">
+        <v>20</v>
+      </c>
+      <c r="H68" s="5">
+        <v>34.57</v>
+      </c>
+      <c r="I68" s="5">
+        <v>37</v>
+      </c>
+      <c r="J68" s="2">
+        <v>42</v>
+      </c>
+      <c r="K68" s="2">
+        <v>50</v>
+      </c>
+      <c r="L68" s="2">
+        <v>68</v>
+      </c>
+      <c r="M68" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="J64" s="2">
-        <v>24</v>
-      </c>
-      <c r="K64" s="2">
+      <c r="O68" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C69" s="7">
+        <v>300992</v>
+      </c>
+      <c r="D69" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="L64" s="2">
-        <v>43</v>
-      </c>
-      <c r="M64" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="O64" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="65" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="2" t="s">
+      <c r="F69" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G69" s="2">
+        <v>12.84</v>
+      </c>
+      <c r="H69" s="5">
+        <v>9.36</v>
+      </c>
+      <c r="I69" s="5">
+        <v>28</v>
+      </c>
+      <c r="J69" s="2">
+        <v>33</v>
+      </c>
+      <c r="K69" s="2">
+        <v>38</v>
+      </c>
+      <c r="L69" s="2">
+        <v>65</v>
+      </c>
+      <c r="M69" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="O69" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C65" s="7">
-        <v>300991</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G65" s="2">
-        <v>13.06</v>
-      </c>
-      <c r="H65" s="5">
-        <v>13.06</v>
-      </c>
-      <c r="L65" s="2">
-        <v>56</v>
-      </c>
-      <c r="M65" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="O65" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="66" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C66" s="7">
-        <v>688314</v>
-      </c>
-      <c r="D66" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G66" s="2">
-        <v>22.17</v>
-      </c>
-      <c r="H66" s="5">
-        <v>17.34</v>
-      </c>
-      <c r="I66" s="5">
-        <v>48</v>
-      </c>
-      <c r="J66" s="2">
-        <v>52</v>
-      </c>
-      <c r="K66" s="2">
-        <v>60</v>
-      </c>
-      <c r="L66" s="2">
-        <v>108</v>
-      </c>
-      <c r="M66" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="O66" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="67" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C67" s="7">
-        <v>688660</v>
-      </c>
-      <c r="D67" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G67" s="2">
-        <v>23.99</v>
-      </c>
-      <c r="H67" s="5">
-        <v>5.44</v>
-      </c>
-      <c r="I67" s="5">
-        <v>11.3</v>
-      </c>
-      <c r="J67" s="2">
-        <v>11.3</v>
-      </c>
-      <c r="K67" s="2">
-        <v>18</v>
-      </c>
-      <c r="L67" s="2">
-        <v>28</v>
-      </c>
-      <c r="M67" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="O67" s="7" t="s">
+      <c r="C70" s="7">
+        <v>300995</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G70" s="2">
+        <v>17.52</v>
+      </c>
+      <c r="H70" s="5">
+        <v>14.72</v>
+      </c>
+      <c r="I70" s="5">
+        <v>29</v>
+      </c>
+      <c r="J70" s="2">
+        <v>36</v>
+      </c>
+      <c r="K70" s="2">
+        <v>42</v>
+      </c>
+      <c r="L70" s="2">
         <v>65</v>
       </c>
-    </row>
-    <row r="68" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C68" s="7">
-        <v>688575</v>
-      </c>
-      <c r="D68" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G68" s="2">
-        <v>31.96</v>
-      </c>
-      <c r="H68" s="5">
-        <v>14.8</v>
-      </c>
-      <c r="L68" s="2">
+      <c r="M70" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="M68" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="O68" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="69" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D69" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G69" s="2">
-        <v>22.99</v>
-      </c>
-      <c r="H69" s="5">
-        <v>44.6</v>
-      </c>
-      <c r="L69" s="2">
-        <v>126</v>
-      </c>
-      <c r="O69" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="70" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C70" s="7">
-        <v>605339</v>
-      </c>
-      <c r="D70" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G70" s="2">
-        <v>22.99</v>
-      </c>
-      <c r="H70" s="5">
-        <v>16.98</v>
-      </c>
-      <c r="L70" s="2">
-        <v>59</v>
-      </c>
-      <c r="M70" s="9" t="s">
-        <v>78</v>
-      </c>
       <c r="O70" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="71" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C71" s="7">
-        <v>688565</v>
+        <v>300993</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="G71" s="2">
-        <v>19.48</v>
+        <v>16.45</v>
       </c>
       <c r="H71" s="5">
-        <v>9.39</v>
+        <v>12.1</v>
       </c>
       <c r="I71" s="5">
-        <v>18.7</v>
+        <v>21</v>
       </c>
       <c r="J71" s="2">
         <v>23</v>
       </c>
       <c r="K71" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L71" s="2">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="M71" s="9" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="72" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C72" s="7">
-        <v>688217</v>
+        <v>688359</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="G72" s="2">
-        <v>29.89</v>
+        <v>22.3</v>
       </c>
       <c r="H72" s="5">
-        <v>18.420000000000002</v>
+        <v>11.03</v>
       </c>
       <c r="I72" s="5">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="J72" s="2">
+        <v>25</v>
+      </c>
+      <c r="K72" s="2">
+        <v>29</v>
+      </c>
+      <c r="L72" s="2">
+        <v>48</v>
+      </c>
+      <c r="M72" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="O72" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C73" s="7">
+        <v>688613</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G73" s="2">
+        <v>26.6</v>
+      </c>
+      <c r="H73" s="5">
+        <v>16.43</v>
+      </c>
+      <c r="I73" s="5">
+        <v>35</v>
+      </c>
+      <c r="J73" s="2">
+        <v>34</v>
+      </c>
+      <c r="K73" s="2">
+        <v>48</v>
+      </c>
+      <c r="L73" s="2">
+        <v>78</v>
+      </c>
+      <c r="M73" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O73" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K72" s="2">
-        <v>54</v>
-      </c>
-      <c r="L72" s="2">
-        <v>90</v>
-      </c>
-      <c r="M72" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="O72" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="73" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="2" t="s">
+    </row>
+    <row r="74" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C73" s="7">
-        <v>605488</v>
-      </c>
-      <c r="D73" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G73" s="2">
-        <v>22.99</v>
-      </c>
-      <c r="H73" s="5">
-        <v>20.43</v>
-      </c>
-      <c r="I73" s="5">
-        <v>25</v>
-      </c>
-      <c r="J73" s="2">
-        <v>33</v>
-      </c>
-      <c r="K73" s="2">
-        <v>38</v>
-      </c>
-      <c r="L73" s="2">
-        <v>58</v>
-      </c>
-      <c r="M73" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="O73" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="74" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="C74" s="7">
-        <v>688685</v>
+        <v>600905</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="G74" s="2">
-        <v>22.83</v>
+        <v>28.87</v>
       </c>
       <c r="H74" s="5">
-        <v>9.02</v>
+        <v>2.65</v>
       </c>
       <c r="I74" s="5">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="J74" s="2">
-        <v>36</v>
+        <v>3.5</v>
       </c>
       <c r="K74" s="2">
-        <v>45</v>
+        <v>5.8</v>
       </c>
       <c r="L74" s="2">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="M74" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="O74" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="75" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C75" s="7">
-        <v>688355</v>
+        <v>688076</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="G75" s="2">
-        <v>22.95</v>
+        <v>35.130000000000003</v>
       </c>
       <c r="H75" s="5">
-        <v>17.649999999999999</v>
+        <v>15.57</v>
       </c>
       <c r="I75" s="5">
+        <v>21</v>
+      </c>
+      <c r="J75" s="2">
+        <v>24</v>
+      </c>
+      <c r="K75" s="2">
         <v>28</v>
       </c>
-      <c r="J75" s="2">
-        <v>33</v>
-      </c>
-      <c r="K75" s="2">
-        <v>38</v>
-      </c>
       <c r="L75" s="2">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="O75" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="76" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>100</v>
+        <v>17</v>
+      </c>
+      <c r="C76" s="7">
+        <v>300991</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="G76" s="2">
-        <v>17.78</v>
+        <v>13.06</v>
       </c>
       <c r="H76" s="5">
-        <v>16.52</v>
-      </c>
-      <c r="I76" s="5">
-        <v>25</v>
-      </c>
-      <c r="J76" s="2">
-        <v>33</v>
-      </c>
-      <c r="K76" s="2">
-        <v>38</v>
+        <v>13.06</v>
       </c>
       <c r="L76" s="2">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M76" s="9" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="O76" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="77" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C77" s="7">
-        <v>688097</v>
+        <v>688314</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="G77" s="2">
-        <v>15.97</v>
+        <v>22.17</v>
       </c>
       <c r="H77" s="5">
-        <v>11.27</v>
+        <v>17.34</v>
       </c>
       <c r="I77" s="5">
+        <v>48</v>
+      </c>
+      <c r="J77" s="2">
+        <v>52</v>
+      </c>
+      <c r="K77" s="2">
+        <v>60</v>
+      </c>
+      <c r="L77" s="2">
+        <v>108</v>
+      </c>
+      <c r="M77" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="O77" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B78" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C78" s="7">
+        <v>688660</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G78" s="2">
+        <v>23.99</v>
+      </c>
+      <c r="H78" s="5">
+        <v>5.44</v>
+      </c>
+      <c r="I78" s="5">
+        <v>11.3</v>
+      </c>
+      <c r="J78" s="2">
+        <v>11.3</v>
+      </c>
+      <c r="K78" s="2">
         <v>18</v>
       </c>
-      <c r="J77" s="2">
-        <v>15</v>
-      </c>
-      <c r="K77" s="2">
-        <v>23</v>
-      </c>
-      <c r="L77" s="2">
-        <v>35</v>
-      </c>
-      <c r="M77" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="N77" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="O77" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="78" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C78" s="7">
-        <v>605196</v>
-      </c>
-      <c r="D78" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G78" s="2">
-        <v>21.09</v>
-      </c>
-      <c r="H78" s="5">
-        <v>5.05</v>
-      </c>
-      <c r="I78" s="5">
-        <v>12</v>
-      </c>
-      <c r="J78" s="2">
-        <v>10</v>
-      </c>
-      <c r="K78" s="2">
-        <v>15</v>
-      </c>
       <c r="L78" s="2">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M78" s="9" t="s">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c r="O78" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="79" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C79" s="7">
-        <v>688655</v>
+        <v>688575</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>112</v>
+        <v>67</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="G79" s="2">
-        <v>20.350000000000001</v>
+        <v>31.96</v>
       </c>
       <c r="H79" s="5">
-        <v>7.59</v>
-      </c>
-      <c r="I79" s="5">
-        <v>18</v>
-      </c>
-      <c r="J79" s="2">
-        <v>20</v>
-      </c>
-      <c r="K79" s="2">
-        <v>25</v>
+        <v>14.8</v>
       </c>
       <c r="L79" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M79" s="9" t="s">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="O79" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="80" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C80" s="7">
-        <v>300987</v>
+        <v>72</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>71</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>116</v>
+        <v>70</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="G80" s="2">
-        <v>18.420000000000002</v>
+        <v>22.99</v>
       </c>
       <c r="H80" s="5">
-        <v>6.79</v>
-      </c>
-      <c r="I80" s="5">
-        <v>25</v>
-      </c>
-      <c r="J80" s="2">
-        <v>23</v>
-      </c>
-      <c r="K80" s="2">
-        <v>28</v>
+        <v>44.6</v>
       </c>
       <c r="L80" s="2">
-        <v>52</v>
-      </c>
-      <c r="M80" s="9" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="O80" s="7" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
     </row>
     <row r="81" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C81" s="7">
-        <v>300990</v>
+        <v>605339</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>121</v>
+        <v>76</v>
       </c>
       <c r="G81" s="2">
-        <v>36.270000000000003</v>
+        <v>22.99</v>
       </c>
       <c r="H81" s="5">
-        <v>85.5</v>
-      </c>
-      <c r="I81" s="5">
-        <v>86</v>
-      </c>
-      <c r="J81" s="2">
-        <v>115</v>
-      </c>
-      <c r="K81" s="2">
-        <v>128</v>
+        <v>16.98</v>
       </c>
       <c r="L81" s="2">
-        <v>153</v>
+        <v>59</v>
       </c>
       <c r="M81" s="9" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="O81" s="7" t="s">
-        <v>122</v>
+        <v>77</v>
       </c>
     </row>
     <row r="82" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="2" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C82" s="7">
-        <v>603511</v>
+        <v>688565</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="G82" s="2">
-        <v>21.98</v>
+        <v>19.48</v>
       </c>
       <c r="H82" s="5">
-        <v>20.99</v>
+        <v>9.39</v>
       </c>
       <c r="I82" s="5">
-        <v>25</v>
+        <v>18.7</v>
       </c>
       <c r="J82" s="2">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="K82" s="2">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="L82" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M82" s="9" t="s">
-        <v>124</v>
+        <v>81</v>
       </c>
       <c r="O82" s="7" t="s">
-        <v>131</v>
+        <v>82</v>
       </c>
     </row>
     <row r="83" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -7971,37 +8152,37 @@
         <v>41</v>
       </c>
       <c r="C83" s="7">
-        <v>688113</v>
+        <v>688217</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="G83" s="2">
-        <v>17.309999999999999</v>
+        <v>29.89</v>
       </c>
       <c r="H83" s="5">
-        <v>19.14</v>
+        <v>18.420000000000002</v>
       </c>
       <c r="I83" s="5">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J83" s="2">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K83" s="2">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="L83" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="M83" s="9" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="O83" s="7" t="s">
-        <v>132</v>
+        <v>85</v>
       </c>
     </row>
     <row r="84" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -8009,364 +8190,367 @@
         <v>12</v>
       </c>
       <c r="C84" s="7">
-        <v>605305</v>
+        <v>605488</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>129</v>
+        <v>86</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>130</v>
+        <v>88</v>
       </c>
       <c r="G84" s="2">
         <v>22.99</v>
       </c>
       <c r="H84" s="5">
-        <v>37.94</v>
+        <v>20.43</v>
       </c>
       <c r="I84" s="5">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="J84" s="2">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="K84" s="2">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="L84" s="2">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="M84" s="9" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="O84" s="7" t="s">
-        <v>133</v>
+        <v>87</v>
       </c>
     </row>
     <row r="85" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C85" s="7">
-        <v>300988</v>
+        <v>688685</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>137</v>
+        <v>91</v>
       </c>
       <c r="G85" s="2">
-        <v>32.729999999999997</v>
+        <v>22.83</v>
       </c>
       <c r="H85" s="5">
-        <v>23.73</v>
+        <v>9.02</v>
       </c>
       <c r="I85" s="5">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="J85" s="2">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="K85" s="2">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="L85" s="2">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="M85" s="9" t="s">
-        <v>136</v>
+        <v>92</v>
       </c>
       <c r="O85" s="7" t="s">
-        <v>135</v>
+        <v>93</v>
       </c>
     </row>
     <row r="86" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C86" s="7">
-        <v>300989</v>
+        <v>688355</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>139</v>
+        <v>96</v>
       </c>
       <c r="G86" s="2">
-        <v>36.01</v>
+        <v>22.95</v>
       </c>
       <c r="H86" s="5">
-        <v>51.62</v>
+        <v>17.649999999999999</v>
       </c>
       <c r="I86" s="5">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="J86" s="2">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="K86" s="2">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="L86" s="2">
-        <v>116</v>
+        <v>65</v>
       </c>
       <c r="M86" s="9" t="s">
-        <v>141</v>
+        <v>97</v>
       </c>
       <c r="O86" s="7" t="s">
-        <v>140</v>
+        <v>95</v>
       </c>
     </row>
     <row r="87" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C87" s="7">
-        <v>605080</v>
+        <v>72</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>100</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>142</v>
+        <v>99</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>143</v>
+        <v>98</v>
       </c>
       <c r="G87" s="2">
-        <v>22.99</v>
+        <v>17.78</v>
       </c>
       <c r="H87" s="5">
-        <v>31.16</v>
+        <v>16.52</v>
       </c>
       <c r="I87" s="5">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="J87" s="2">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="K87" s="2">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="L87" s="2">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="M87" s="9" t="s">
-        <v>145</v>
+        <v>103</v>
       </c>
       <c r="O87" s="7" t="s">
-        <v>144</v>
+        <v>101</v>
       </c>
     </row>
     <row r="88" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="2" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C88" s="7">
-        <v>605300</v>
+        <v>688097</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>225</v>
+        <v>102</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>224</v>
+        <v>107</v>
       </c>
       <c r="G88" s="2">
-        <v>22.99</v>
+        <v>15.97</v>
       </c>
       <c r="H88" s="5">
-        <v>11.25</v>
+        <v>11.27</v>
       </c>
       <c r="I88" s="5">
         <v>18</v>
       </c>
       <c r="J88" s="2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K88" s="2">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L88" s="2">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M88" s="9" t="s">
-        <v>148</v>
+        <v>105</v>
+      </c>
+      <c r="N88" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="O88" s="7" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="89" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C89" s="7" t="s">
-        <v>227</v>
+      <c r="C89" s="7">
+        <v>605196</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="E89" s="9" t="s">
-        <v>229</v>
+        <v>108</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>226</v>
+        <v>109</v>
       </c>
       <c r="G89" s="2">
-        <v>22.99</v>
+        <v>21.09</v>
       </c>
       <c r="H89" s="5">
-        <v>8.98</v>
+        <v>5.05</v>
       </c>
       <c r="I89" s="5">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J89" s="2">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K89" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L89" s="2">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="M89" s="9" t="s">
-        <v>233</v>
+        <v>111</v>
+      </c>
+      <c r="O89" s="7" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="90" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C90" s="7">
-        <v>300985</v>
+        <v>688655</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="E90" s="9" t="s">
-        <v>229</v>
+        <v>112</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
       <c r="G90" s="2">
-        <v>14.91</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="H90" s="5">
-        <v>24.9</v>
+        <v>7.59</v>
       </c>
       <c r="I90" s="5">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="J90" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="K90" s="2">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="L90" s="2">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="M90" s="9" t="s">
-        <v>234</v>
+        <v>115</v>
+      </c>
+      <c r="O90" s="7" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="91" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C91" s="7">
-        <v>688395</v>
+        <v>300987</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="E91" s="9" t="s">
-        <v>236</v>
+        <v>116</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>237</v>
+        <v>118</v>
       </c>
       <c r="G91" s="2">
-        <v>20.59</v>
+        <v>18.420000000000002</v>
       </c>
       <c r="H91" s="5">
-        <v>15.95</v>
+        <v>6.79</v>
       </c>
       <c r="I91" s="5">
+        <v>25</v>
+      </c>
+      <c r="J91" s="2">
         <v>23</v>
       </c>
-      <c r="J91" s="2">
-        <v>29</v>
-      </c>
       <c r="K91" s="2">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="L91" s="2">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="M91" s="9" t="s">
-        <v>111</v>
+        <v>119</v>
+      </c>
+      <c r="O91" s="7" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="92" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B92" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C92" s="7">
-        <v>600906</v>
+        <v>300990</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="E92" s="9" t="s">
-        <v>229</v>
+        <v>120</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>238</v>
+        <v>121</v>
       </c>
       <c r="G92" s="2">
-        <v>22.94</v>
+        <v>36.270000000000003</v>
       </c>
       <c r="H92" s="5">
-        <v>3.76</v>
+        <v>85.5</v>
       </c>
       <c r="I92" s="5">
-        <v>6.2</v>
+        <v>86</v>
       </c>
       <c r="J92" s="2">
-        <v>5.7</v>
+        <v>115</v>
       </c>
       <c r="K92" s="2">
-        <v>7.08</v>
+        <v>128</v>
       </c>
       <c r="L92" s="2">
-        <v>10</v>
+        <v>153</v>
       </c>
       <c r="M92" s="9" t="s">
-        <v>240</v>
+        <v>105</v>
+      </c>
+      <c r="O92" s="7" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="93" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B93" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C93" s="7">
-        <v>300986</v>
+        <v>603511</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="E93" s="9" t="s">
-        <v>229</v>
+        <v>123</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>242</v>
+        <v>125</v>
       </c>
       <c r="G93" s="2">
-        <v>13.56</v>
+        <v>21.98</v>
       </c>
       <c r="H93" s="5">
-        <v>14.79</v>
+        <v>20.99</v>
       </c>
       <c r="I93" s="5">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J93" s="2">
         <v>30</v>
@@ -8375,710 +8559,749 @@
         <v>38</v>
       </c>
       <c r="L93" s="2">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="M93" s="9" t="s">
-        <v>234</v>
+        <v>124</v>
+      </c>
+      <c r="O93" s="7" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="94" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="2" t="s">
-        <v>244</v>
+        <v>41</v>
       </c>
       <c r="C94" s="7">
-        <v>688323</v>
+        <v>688113</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="E94" s="9" t="s">
-        <v>229</v>
+        <v>126</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>245</v>
+        <v>127</v>
       </c>
       <c r="G94" s="2">
-        <v>24.38</v>
+        <v>17.309999999999999</v>
       </c>
       <c r="H94" s="5">
-        <v>5.97</v>
+        <v>19.14</v>
       </c>
       <c r="I94" s="5">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="J94" s="2">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="K94" s="2">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="L94" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="M94" s="9" t="s">
-        <v>38</v>
+        <v>128</v>
+      </c>
+      <c r="O94" s="7" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="95" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C95" s="7">
-        <v>688383</v>
+        <v>605305</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="E95" s="9" t="s">
-        <v>249</v>
+        <v>129</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>248</v>
+        <v>130</v>
       </c>
       <c r="G95" s="2">
-        <v>19.510000000000002</v>
+        <v>22.99</v>
       </c>
       <c r="H95" s="5">
-        <v>19.579999999999998</v>
+        <v>37.94</v>
       </c>
       <c r="I95" s="5">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="J95" s="2">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="K95" s="2">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="L95" s="2">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="M95" s="9" t="s">
-        <v>250</v>
+        <v>105</v>
+      </c>
+      <c r="O95" s="7" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="96" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B96" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C96" s="7" t="s">
-        <v>252</v>
+        <v>17</v>
+      </c>
+      <c r="C96" s="7">
+        <v>300988</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="E96" s="9" t="s">
-        <v>254</v>
+        <v>134</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>253</v>
+        <v>137</v>
+      </c>
+      <c r="G96" s="2">
+        <v>32.729999999999997</v>
       </c>
       <c r="H96" s="5">
-        <v>19.05</v>
+        <v>23.73</v>
       </c>
       <c r="I96" s="5">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="J96" s="2">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="K96" s="2">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="L96" s="2">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="M96" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="97" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+      <c r="O96" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="97" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B97" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C97" s="7">
-        <v>605180</v>
+        <v>300989</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="E97" s="9" t="s">
-        <v>236</v>
+        <v>138</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>256</v>
+        <v>139</v>
+      </c>
+      <c r="G97" s="2">
+        <v>36.01</v>
       </c>
       <c r="H97" s="5">
-        <v>22.38</v>
+        <v>51.62</v>
       </c>
       <c r="I97" s="5">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="J97" s="2">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="K97" s="2">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="L97" s="2">
-        <v>60</v>
+        <v>116</v>
       </c>
       <c r="M97" s="9" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="98" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+      <c r="O97" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="98" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B98" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C98" s="7">
-        <v>600032</v>
+        <v>605080</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="E98" s="9" t="s">
-        <v>229</v>
+        <v>142</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>258</v>
+        <v>143</v>
+      </c>
+      <c r="G98" s="2">
+        <v>22.99</v>
       </c>
       <c r="H98" s="5">
-        <v>3.51</v>
+        <v>31.16</v>
       </c>
       <c r="I98" s="5">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="J98" s="2">
-        <v>4.8</v>
+        <v>60</v>
       </c>
       <c r="K98" s="2">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="L98" s="2">
+        <v>80</v>
+      </c>
+      <c r="M98" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="O98" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="99" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B99" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M98" s="9" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="99" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B99" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="C99" s="7">
-        <v>300982</v>
+        <v>605300</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="E99" s="9" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>263</v>
+        <v>224</v>
+      </c>
+      <c r="G99" s="2">
+        <v>22.99</v>
       </c>
       <c r="H99" s="5">
-        <v>15.83</v>
+        <v>11.25</v>
       </c>
       <c r="I99" s="5">
+        <v>18</v>
+      </c>
+      <c r="J99" s="2">
+        <v>20</v>
+      </c>
+      <c r="K99" s="2">
         <v>25</v>
       </c>
-      <c r="J99" s="2">
-        <v>32</v>
-      </c>
-      <c r="K99" s="2">
-        <v>43</v>
-      </c>
       <c r="L99" s="2">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="M99" s="9" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="100" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="100" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C100" s="7">
-        <v>300981</v>
+        <v>12</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>227</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="E100" s="9" t="s">
         <v>229</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>265</v>
+        <v>226</v>
+      </c>
+      <c r="G100" s="2">
+        <v>22.99</v>
       </c>
       <c r="H100" s="5">
-        <v>48.59</v>
+        <v>8.98</v>
       </c>
       <c r="I100" s="5">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="J100" s="2">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="K100" s="2">
-        <v>108</v>
+        <v>16</v>
       </c>
       <c r="L100" s="2">
-        <v>180</v>
+        <v>32</v>
       </c>
       <c r="M100" s="9" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="101" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B101" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C101" s="7">
+        <v>300985</v>
+      </c>
+      <c r="D101" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="E101" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="G101" s="2">
+        <v>14.91</v>
+      </c>
+      <c r="H101" s="5">
+        <v>24.9</v>
+      </c>
+      <c r="I101" s="5">
+        <v>33</v>
+      </c>
+      <c r="J101" s="2">
+        <v>38</v>
+      </c>
+      <c r="K101" s="2">
+        <v>45</v>
+      </c>
+      <c r="L101" s="2">
         <v>60</v>
       </c>
-    </row>
-    <row r="101" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B101" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C101" s="7">
-        <v>605089</v>
-      </c>
-      <c r="D101" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="E101" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="H101" s="5">
-        <v>28.53</v>
-      </c>
-      <c r="I101" s="5">
-        <v>40</v>
-      </c>
-      <c r="J101" s="2">
-        <v>50</v>
-      </c>
-      <c r="K101" s="2">
-        <v>65</v>
-      </c>
-      <c r="L101" s="2">
-        <v>100</v>
-      </c>
       <c r="M101" s="9" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="102" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="102" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C102" s="7" t="s">
-        <v>269</v>
+        <v>41</v>
+      </c>
+      <c r="C102" s="7">
+        <v>688395</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>268</v>
+        <v>235</v>
       </c>
       <c r="E102" s="9" t="s">
         <v>236</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>270</v>
+        <v>237</v>
+      </c>
+      <c r="G102" s="2">
+        <v>20.59</v>
       </c>
       <c r="H102" s="5">
-        <v>63.38</v>
+        <v>15.95</v>
       </c>
       <c r="I102" s="5">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="J102" s="2">
-        <v>95</v>
+        <v>29</v>
       </c>
       <c r="K102" s="2">
-        <v>118</v>
+        <v>38</v>
       </c>
       <c r="L102" s="2">
-        <v>158</v>
+        <v>58</v>
       </c>
       <c r="M102" s="9" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="103" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="103" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B103" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C103" s="7">
-        <v>605289</v>
+        <v>600906</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>272</v>
+        <v>238</v>
+      </c>
+      <c r="G103" s="2">
+        <v>22.94</v>
       </c>
       <c r="H103" s="5">
-        <v>27.27</v>
+        <v>3.76</v>
       </c>
       <c r="I103" s="5">
-        <v>32</v>
+        <v>6.2</v>
       </c>
       <c r="J103" s="2">
-        <v>40</v>
+        <v>5.7</v>
       </c>
       <c r="K103" s="2">
-        <v>48</v>
+        <v>7.08</v>
       </c>
       <c r="L103" s="2">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="M103" s="9" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="104" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="104" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B104" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C104" s="7">
-        <v>300979</v>
+        <v>300986</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>274</v>
+        <v>241</v>
       </c>
       <c r="E104" s="9" t="s">
         <v>229</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>275</v>
+        <v>242</v>
+      </c>
+      <c r="G104" s="2">
+        <v>13.56</v>
       </c>
       <c r="H104" s="5">
-        <v>33.22</v>
+        <v>14.79</v>
       </c>
       <c r="I104" s="5">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J104" s="2">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="K104" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="L104" s="2">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="M104" s="9" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="105" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="105" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B105" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C105" s="7">
+        <v>688323</v>
+      </c>
+      <c r="D105" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="E105" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="G105" s="2">
+        <v>24.38</v>
+      </c>
+      <c r="H105" s="5">
+        <v>5.97</v>
+      </c>
+      <c r="I105" s="5">
+        <v>19</v>
+      </c>
+      <c r="J105" s="2">
         <v>17</v>
       </c>
-      <c r="C105" s="7">
-        <v>300978</v>
-      </c>
-      <c r="D105" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="E105" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="H105" s="5">
-        <v>8.42</v>
-      </c>
-      <c r="I105" s="5">
-        <v>15</v>
-      </c>
-      <c r="J105" s="2">
-        <v>12</v>
-      </c>
       <c r="K105" s="2">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="L105" s="2">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="M105" s="9" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="106" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="106" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B106" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C106" s="7">
-        <v>688639</v>
+        <v>688383</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>280</v>
+        <v>247</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>229</v>
+        <v>249</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>281</v>
+        <v>248</v>
+      </c>
+      <c r="G106" s="2">
+        <v>19.510000000000002</v>
       </c>
       <c r="H106" s="5">
-        <v>23.16</v>
+        <v>19.579999999999998</v>
       </c>
       <c r="I106" s="5">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J106" s="2">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="K106" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="L106" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="107" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+      <c r="M106" s="9" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="107" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B107" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C107" s="7">
-        <v>300975</v>
+        <v>72</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>252</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>282</v>
+        <v>251</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>283</v>
+        <v>253</v>
       </c>
       <c r="H107" s="5">
-        <v>5.48</v>
+        <v>19.05</v>
       </c>
       <c r="I107" s="5">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J107" s="2">
-        <v>9.1999999999999993</v>
+        <v>23</v>
       </c>
       <c r="K107" s="2">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="L107" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="108" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="M107" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="108" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B108" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C108" s="7">
-        <v>688682</v>
+        <v>605180</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>284</v>
+        <v>255</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>285</v>
+        <v>256</v>
       </c>
       <c r="H108" s="5">
-        <v>45.72</v>
+        <v>22.38</v>
       </c>
       <c r="I108" s="5">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="J108" s="2">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="K108" s="2">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="L108" s="2">
-        <v>162</v>
+        <v>60</v>
       </c>
       <c r="M108" s="9" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="109" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="109" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C109" s="7">
-        <v>605016</v>
+        <v>600032</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>287</v>
+        <v>257</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>288</v>
+        <v>229</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>289</v>
+        <v>258</v>
       </c>
       <c r="H109" s="5">
-        <v>14.62</v>
+        <v>3.51</v>
       </c>
       <c r="I109" s="5">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="J109" s="2">
-        <v>31</v>
+        <v>4.8</v>
       </c>
       <c r="K109" s="2">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="L109" s="2">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="M109" s="9" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="110" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="110" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B110" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C110" s="7">
-        <v>688201</v>
+        <v>300982</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>290</v>
+        <v>261</v>
       </c>
       <c r="E110" s="9" t="s">
         <v>229</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>291</v>
+        <v>263</v>
       </c>
       <c r="H110" s="5">
-        <v>26.78</v>
+        <v>15.83</v>
       </c>
       <c r="I110" s="5">
+        <v>25</v>
+      </c>
+      <c r="J110" s="2">
         <v>32</v>
       </c>
-      <c r="J110" s="2">
+      <c r="K110" s="2">
         <v>43</v>
       </c>
-      <c r="K110" s="2">
-        <v>58</v>
-      </c>
       <c r="L110" s="2">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="M110" s="9" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="111" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="111" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B111" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C111" s="7">
+        <v>300981</v>
+      </c>
+      <c r="D111" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="E111" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="H111" s="5">
+        <v>48.59</v>
+      </c>
+      <c r="I111" s="5">
+        <v>90</v>
+      </c>
+      <c r="J111" s="2">
+        <v>99</v>
+      </c>
+      <c r="K111" s="2">
+        <v>108</v>
+      </c>
+      <c r="L111" s="2">
+        <v>180</v>
+      </c>
+      <c r="M111" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="112" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B112" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C111" s="7">
-        <v>605117</v>
-      </c>
-      <c r="D111" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="E111" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="H111" s="5">
-        <v>32.74</v>
-      </c>
-      <c r="I111" s="5">
-        <v>38</v>
-      </c>
-      <c r="J111" s="2">
-        <v>47</v>
-      </c>
-      <c r="K111" s="2">
-        <v>58</v>
-      </c>
-      <c r="L111" s="2">
-        <v>76</v>
-      </c>
-      <c r="M111" s="9" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="112" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B112" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="C112" s="7">
-        <v>300983</v>
+        <v>605089</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>296</v>
+        <v>266</v>
       </c>
       <c r="E112" s="9" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>297</v>
+        <v>267</v>
       </c>
       <c r="H112" s="5">
-        <v>120.8</v>
+        <v>28.53</v>
       </c>
       <c r="I112" s="5">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c r="J112" s="2">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="K112" s="2">
-        <v>168</v>
+        <v>65</v>
       </c>
       <c r="L112" s="2">
-        <v>212</v>
+        <v>100</v>
       </c>
       <c r="M112" s="9" t="s">
-        <v>298</v>
+        <v>148</v>
       </c>
     </row>
     <row r="113" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B113" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C113" s="7">
-        <v>300980</v>
+        <v>72</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>269</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>300</v>
+        <v>236</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>299</v>
+        <v>270</v>
       </c>
       <c r="H113" s="5">
-        <v>32.770000000000003</v>
+        <v>63.38</v>
       </c>
       <c r="I113" s="5">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="J113" s="2">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="K113" s="2">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="L113" s="2">
-        <v>88</v>
+        <v>158</v>
       </c>
       <c r="M113" s="9" t="s">
-        <v>302</v>
+        <v>166</v>
       </c>
     </row>
     <row r="114" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -9086,34 +9309,34 @@
         <v>12</v>
       </c>
       <c r="C114" s="7">
-        <v>605086</v>
+        <v>605289</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>303</v>
+        <v>271</v>
       </c>
       <c r="E114" s="9" t="s">
         <v>236</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>304</v>
+        <v>272</v>
       </c>
       <c r="H114" s="5">
-        <v>12.86</v>
+        <v>27.27</v>
       </c>
       <c r="I114" s="5">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="J114" s="2">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="K114" s="2">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="L114" s="2">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="M114" s="9" t="s">
-        <v>307</v>
+        <v>273</v>
       </c>
     </row>
     <row r="115" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -9121,34 +9344,34 @@
         <v>17</v>
       </c>
       <c r="C115" s="7">
-        <v>300977</v>
+        <v>300979</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>305</v>
+        <v>274</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>306</v>
+        <v>275</v>
       </c>
       <c r="H115" s="5">
-        <v>89.66</v>
+        <v>33.22</v>
       </c>
       <c r="I115" s="5">
-        <v>111</v>
+        <v>34</v>
       </c>
       <c r="J115" s="2">
-        <v>133</v>
+        <v>39</v>
       </c>
       <c r="K115" s="2">
-        <v>158</v>
+        <v>43</v>
       </c>
       <c r="L115" s="2">
-        <v>223</v>
+        <v>69</v>
       </c>
       <c r="M115" s="9" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
     </row>
     <row r="116" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -9156,69 +9379,66 @@
         <v>17</v>
       </c>
       <c r="C116" s="7">
-        <v>300976</v>
+        <v>300978</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="E116" s="9" t="s">
         <v>236</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>309</v>
+        <v>278</v>
       </c>
       <c r="H116" s="5">
-        <v>168</v>
+        <v>8.42</v>
       </c>
       <c r="I116" s="5">
-        <v>162</v>
+        <v>15</v>
       </c>
       <c r="J116" s="2">
-        <v>191</v>
+        <v>12</v>
       </c>
       <c r="K116" s="2">
-        <v>228</v>
+        <v>23</v>
       </c>
       <c r="L116" s="2">
-        <v>288</v>
+        <v>30</v>
       </c>
       <c r="M116" s="9" t="s">
-        <v>310</v>
+        <v>279</v>
       </c>
     </row>
     <row r="117" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B117" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C117" s="7">
-        <v>300973</v>
+        <v>688639</v>
       </c>
       <c r="D117" s="9" t="s">
-        <v>311</v>
+        <v>280</v>
       </c>
       <c r="E117" s="9" t="s">
-        <v>300</v>
+        <v>229</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>312</v>
+        <v>281</v>
       </c>
       <c r="H117" s="5">
-        <v>28.28</v>
+        <v>23.16</v>
       </c>
       <c r="I117" s="5">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="J117" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K117" s="2">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="L117" s="2">
-        <v>88</v>
-      </c>
-      <c r="M117" s="9" t="s">
-        <v>148</v>
+        <v>75</v>
       </c>
     </row>
     <row r="118" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -9226,69 +9446,66 @@
         <v>17</v>
       </c>
       <c r="C118" s="7">
-        <v>300972</v>
+        <v>300975</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>313</v>
+        <v>282</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>314</v>
+        <v>229</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>315</v>
+        <v>283</v>
       </c>
       <c r="H118" s="5">
-        <v>7.19</v>
+        <v>5.48</v>
       </c>
       <c r="I118" s="5">
         <v>15</v>
       </c>
       <c r="J118" s="2">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="K118" s="2">
         <v>20</v>
       </c>
-      <c r="K118" s="2">
-        <v>30</v>
-      </c>
       <c r="L118" s="2">
-        <v>39</v>
-      </c>
-      <c r="M118" s="9" t="s">
-        <v>320</v>
+        <v>35</v>
       </c>
     </row>
     <row r="119" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B119" s="2" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C119" s="7">
-        <v>605098</v>
+        <v>688682</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>316</v>
+        <v>284</v>
       </c>
       <c r="E119" s="9" t="s">
-        <v>318</v>
+        <v>254</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>317</v>
+        <v>285</v>
       </c>
       <c r="H119" s="5">
-        <v>27.58</v>
+        <v>45.72</v>
       </c>
       <c r="I119" s="5">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="J119" s="2">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="K119" s="2">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="L119" s="2">
-        <v>99</v>
+        <v>162</v>
       </c>
       <c r="M119" s="9" t="s">
-        <v>319</v>
+        <v>286</v>
       </c>
     </row>
     <row r="120" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -9296,139 +9513,139 @@
         <v>12</v>
       </c>
       <c r="C120" s="7">
-        <v>601279</v>
+        <v>605016</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>321</v>
+        <v>287</v>
       </c>
       <c r="E120" s="9" t="s">
-        <v>318</v>
+        <v>288</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>322</v>
+        <v>289</v>
       </c>
       <c r="H120" s="5">
-        <v>2.0699999999999998</v>
+        <v>14.62</v>
       </c>
       <c r="I120" s="5">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="J120" s="2">
-        <v>3.5</v>
+        <v>31</v>
       </c>
       <c r="K120" s="2">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="L120" s="2">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M120" s="9" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="121" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B121" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C121" s="7">
-        <v>300971</v>
+        <v>688201</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>323</v>
+        <v>290</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>324</v>
+        <v>291</v>
       </c>
       <c r="H121" s="5">
-        <v>18.239999999999998</v>
+        <v>26.78</v>
       </c>
       <c r="I121" s="5">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="J121" s="2">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="K121" s="2">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L121" s="2">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="M121" s="9" t="s">
-        <v>325</v>
+        <v>292</v>
       </c>
     </row>
     <row r="122" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B122" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C122" s="7">
-        <v>300968</v>
+        <v>605117</v>
       </c>
       <c r="D122" s="9" t="s">
-        <v>326</v>
+        <v>294</v>
       </c>
       <c r="E122" s="9" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>327</v>
+        <v>293</v>
       </c>
       <c r="H122" s="5">
-        <v>6.87</v>
+        <v>32.74</v>
       </c>
       <c r="I122" s="5">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="J122" s="2">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="K122" s="2">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="L122" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="M122" s="9" t="s">
-        <v>328</v>
+        <v>295</v>
       </c>
     </row>
     <row r="123" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B123" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C123" s="7">
-        <v>688663</v>
+        <v>300983</v>
       </c>
       <c r="D123" s="9" t="s">
-        <v>329</v>
+        <v>296</v>
       </c>
       <c r="E123" s="9" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>330</v>
+        <v>297</v>
       </c>
       <c r="H123" s="5">
-        <v>14.48</v>
+        <v>120.8</v>
       </c>
       <c r="I123" s="5">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="J123" s="2">
-        <v>29</v>
+        <v>118</v>
       </c>
       <c r="K123" s="2">
-        <v>38</v>
+        <v>168</v>
       </c>
       <c r="L123" s="2">
-        <v>58</v>
+        <v>212</v>
       </c>
       <c r="M123" s="9" t="s">
-        <v>334</v>
+        <v>298</v>
       </c>
     </row>
     <row r="124" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -9436,171 +9653,174 @@
         <v>17</v>
       </c>
       <c r="C124" s="7">
-        <v>300967</v>
+        <v>300980</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>331</v>
+        <v>301</v>
       </c>
       <c r="E124" s="9" t="s">
-        <v>229</v>
+        <v>300</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>332</v>
+        <v>299</v>
       </c>
       <c r="H124" s="5">
-        <v>4.54</v>
+        <v>32.770000000000003</v>
       </c>
       <c r="I124" s="5">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="J124" s="2">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="K124" s="2">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="L124" s="2">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="M124" s="9" t="s">
-        <v>333</v>
+        <v>302</v>
       </c>
     </row>
     <row r="125" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B125" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C125" s="7">
-        <v>688315</v>
+        <v>605086</v>
       </c>
       <c r="D125" s="9" t="s">
-        <v>335</v>
+        <v>303</v>
       </c>
       <c r="E125" s="9" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>337</v>
+        <v>304</v>
       </c>
       <c r="H125" s="5">
-        <v>12.76</v>
+        <v>12.86</v>
       </c>
       <c r="I125" s="5">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="J125" s="2">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K125" s="2">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="L125" s="2">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="M125" s="9" t="s">
-        <v>336</v>
+        <v>307</v>
       </c>
     </row>
     <row r="126" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B126" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C126" s="7">
-        <v>605378</v>
+        <v>300977</v>
       </c>
       <c r="D126" s="9" t="s">
-        <v>338</v>
+        <v>305</v>
       </c>
       <c r="E126" s="9" t="s">
-        <v>340</v>
+        <v>236</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>339</v>
+        <v>306</v>
       </c>
       <c r="H126" s="5">
-        <v>17.62</v>
+        <v>89.66</v>
       </c>
       <c r="I126" s="5">
-        <v>23</v>
+        <v>111</v>
       </c>
       <c r="J126" s="2">
-        <v>30</v>
+        <v>133</v>
       </c>
       <c r="K126" s="2">
-        <v>34</v>
+        <v>158</v>
       </c>
       <c r="L126" s="2">
-        <v>45</v>
+        <v>223</v>
+      </c>
+      <c r="M126" s="9" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="127" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B127" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C127" s="7">
-        <v>688611</v>
+        <v>300976</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>341</v>
+        <v>308</v>
       </c>
       <c r="E127" s="9" t="s">
-        <v>342</v>
+        <v>236</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>343</v>
+        <v>309</v>
       </c>
       <c r="H127" s="5">
-        <v>33.44</v>
+        <v>168</v>
       </c>
       <c r="I127" s="5">
-        <v>53</v>
+        <v>162</v>
       </c>
       <c r="J127" s="2">
-        <v>71</v>
+        <v>191</v>
       </c>
       <c r="K127" s="2">
-        <v>80</v>
+        <v>228</v>
       </c>
       <c r="L127" s="2">
-        <v>122</v>
+        <v>288</v>
       </c>
       <c r="M127" s="9" t="s">
-        <v>111</v>
+        <v>310</v>
       </c>
     </row>
     <row r="128" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B128" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C128" s="7">
-        <v>688683</v>
+        <v>300973</v>
       </c>
       <c r="D128" s="9" t="s">
-        <v>344</v>
+        <v>311</v>
       </c>
       <c r="E128" s="9" t="s">
-        <v>254</v>
+        <v>300</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>345</v>
+        <v>312</v>
       </c>
       <c r="H128" s="5">
-        <v>9.51</v>
+        <v>28.28</v>
       </c>
       <c r="I128" s="5">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="J128" s="2">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="K128" s="2">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="L128" s="2">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="M128" s="9" t="s">
-        <v>346</v>
+        <v>148</v>
       </c>
     </row>
     <row r="129" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -9608,101 +9828,101 @@
         <v>17</v>
       </c>
       <c r="C129" s="7">
-        <v>300966</v>
+        <v>300972</v>
       </c>
       <c r="D129" s="9" t="s">
-        <v>347</v>
+        <v>313</v>
       </c>
       <c r="E129" s="9" t="s">
-        <v>229</v>
+        <v>314</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>349</v>
+        <v>315</v>
       </c>
       <c r="H129" s="5">
-        <v>8.24</v>
+        <v>7.19</v>
       </c>
       <c r="I129" s="5">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J129" s="2">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="K129" s="2">
         <v>30</v>
       </c>
       <c r="L129" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="M129" s="9" t="s">
-        <v>348</v>
+        <v>320</v>
       </c>
     </row>
     <row r="130" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B130" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C130" s="7">
-        <v>300970</v>
+        <v>605098</v>
       </c>
       <c r="D130" s="9" t="s">
-        <v>350</v>
+        <v>316</v>
       </c>
       <c r="E130" s="9" t="s">
-        <v>229</v>
+        <v>318</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>351</v>
+        <v>317</v>
       </c>
       <c r="H130" s="5">
-        <v>44.77</v>
+        <v>27.58</v>
       </c>
       <c r="I130" s="5">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J130" s="2">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="K130" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="L130" s="2">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="M130" s="9" t="s">
-        <v>352</v>
+        <v>319</v>
       </c>
     </row>
     <row r="131" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B131" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C131" s="7">
-        <v>300969</v>
+        <v>601279</v>
       </c>
       <c r="D131" s="9" t="s">
-        <v>353</v>
+        <v>321</v>
       </c>
       <c r="E131" s="9" t="s">
-        <v>229</v>
+        <v>318</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>354</v>
+        <v>322</v>
       </c>
       <c r="H131" s="5">
-        <v>20.68</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="I131" s="5">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="J131" s="2">
-        <v>38</v>
+        <v>3.5</v>
       </c>
       <c r="K131" s="2">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="L131" s="2">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M131" s="9" t="s">
         <v>159</v>
@@ -9710,37 +9930,37 @@
     </row>
     <row r="132" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B132" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C132" s="7">
-        <v>688468</v>
+        <v>300971</v>
       </c>
       <c r="D132" s="9" t="s">
-        <v>355</v>
+        <v>323</v>
       </c>
       <c r="E132" s="9" t="s">
         <v>254</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>356</v>
+        <v>324</v>
       </c>
       <c r="H132" s="5">
-        <v>7.15</v>
+        <v>18.239999999999998</v>
       </c>
       <c r="I132" s="5">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="J132" s="2">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="K132" s="2">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="L132" s="2">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="M132" s="9" t="s">
-        <v>60</v>
+        <v>325</v>
       </c>
     </row>
     <row r="133" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -9748,34 +9968,34 @@
         <v>17</v>
       </c>
       <c r="C133" s="7">
-        <v>300963</v>
+        <v>300968</v>
       </c>
       <c r="D133" s="9" t="s">
-        <v>357</v>
+        <v>326</v>
       </c>
       <c r="E133" s="9" t="s">
         <v>229</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>358</v>
+        <v>327</v>
       </c>
       <c r="H133" s="5">
-        <v>12.13</v>
+        <v>6.87</v>
       </c>
       <c r="I133" s="5">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J133" s="2">
+        <v>12</v>
+      </c>
+      <c r="K133" s="2">
         <v>25</v>
       </c>
-      <c r="K133" s="2">
-        <v>30</v>
-      </c>
       <c r="L133" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="M133" s="9" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
     </row>
     <row r="134" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -9783,33 +10003,415 @@
         <v>41</v>
       </c>
       <c r="C134" s="7">
+        <v>688663</v>
+      </c>
+      <c r="D134" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="E134" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="H134" s="5">
+        <v>14.48</v>
+      </c>
+      <c r="I134" s="5">
+        <v>21</v>
+      </c>
+      <c r="J134" s="2">
+        <v>29</v>
+      </c>
+      <c r="K134" s="2">
+        <v>38</v>
+      </c>
+      <c r="L134" s="2">
+        <v>58</v>
+      </c>
+      <c r="M134" s="9" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="135" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B135" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C135" s="7">
+        <v>300967</v>
+      </c>
+      <c r="D135" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E135" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="H135" s="5">
+        <v>4.54</v>
+      </c>
+      <c r="I135" s="5">
+        <v>19</v>
+      </c>
+      <c r="J135" s="2">
+        <v>16</v>
+      </c>
+      <c r="K135" s="2">
+        <v>25</v>
+      </c>
+      <c r="L135" s="2">
+        <v>39</v>
+      </c>
+      <c r="M135" s="9" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="136" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B136" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C136" s="7">
+        <v>688315</v>
+      </c>
+      <c r="D136" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="E136" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="H136" s="5">
+        <v>12.76</v>
+      </c>
+      <c r="I136" s="5">
+        <v>25</v>
+      </c>
+      <c r="J136" s="2">
+        <v>30</v>
+      </c>
+      <c r="K136" s="2">
+        <v>38</v>
+      </c>
+      <c r="L136" s="2">
+        <v>62</v>
+      </c>
+      <c r="M136" s="9" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="137" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B137" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C137" s="7">
+        <v>605378</v>
+      </c>
+      <c r="D137" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="E137" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="H137" s="5">
+        <v>17.62</v>
+      </c>
+      <c r="I137" s="5">
+        <v>23</v>
+      </c>
+      <c r="J137" s="2">
+        <v>30</v>
+      </c>
+      <c r="K137" s="2">
+        <v>34</v>
+      </c>
+      <c r="L137" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="138" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B138" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C138" s="7">
+        <v>688611</v>
+      </c>
+      <c r="D138" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="E138" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="H138" s="5">
+        <v>33.44</v>
+      </c>
+      <c r="I138" s="5">
+        <v>53</v>
+      </c>
+      <c r="J138" s="2">
+        <v>71</v>
+      </c>
+      <c r="K138" s="2">
+        <v>80</v>
+      </c>
+      <c r="L138" s="2">
+        <v>122</v>
+      </c>
+      <c r="M138" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="139" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B139" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C139" s="7">
+        <v>688683</v>
+      </c>
+      <c r="D139" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="E139" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="H139" s="5">
+        <v>9.51</v>
+      </c>
+      <c r="I139" s="5">
+        <v>15</v>
+      </c>
+      <c r="J139" s="2">
+        <v>20</v>
+      </c>
+      <c r="K139" s="2">
+        <v>28</v>
+      </c>
+      <c r="L139" s="2">
+        <v>38</v>
+      </c>
+      <c r="M139" s="9" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="140" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B140" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C140" s="7">
+        <v>300966</v>
+      </c>
+      <c r="D140" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="E140" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="H140" s="5">
+        <v>8.24</v>
+      </c>
+      <c r="I140" s="5">
+        <v>18</v>
+      </c>
+      <c r="J140" s="2">
+        <v>26</v>
+      </c>
+      <c r="K140" s="2">
+        <v>30</v>
+      </c>
+      <c r="L140" s="2">
+        <v>48</v>
+      </c>
+      <c r="M140" s="9" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="141" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B141" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C141" s="7">
+        <v>300970</v>
+      </c>
+      <c r="D141" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="E141" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="H141" s="5">
+        <v>44.77</v>
+      </c>
+      <c r="I141" s="5">
+        <v>51</v>
+      </c>
+      <c r="J141" s="2">
+        <v>68</v>
+      </c>
+      <c r="K141" s="2">
+        <v>98</v>
+      </c>
+      <c r="L141" s="2">
+        <v>120</v>
+      </c>
+      <c r="M141" s="9" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="142" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B142" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C142" s="7">
+        <v>300969</v>
+      </c>
+      <c r="D142" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="E142" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="H142" s="5">
+        <v>20.68</v>
+      </c>
+      <c r="I142" s="5">
+        <v>30</v>
+      </c>
+      <c r="J142" s="2">
+        <v>38</v>
+      </c>
+      <c r="K142" s="2">
+        <v>48</v>
+      </c>
+      <c r="L142" s="2">
+        <v>75</v>
+      </c>
+      <c r="M142" s="9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="143" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B143" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C143" s="7">
+        <v>688468</v>
+      </c>
+      <c r="D143" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="E143" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="H143" s="5">
+        <v>7.15</v>
+      </c>
+      <c r="I143" s="5">
+        <v>18</v>
+      </c>
+      <c r="J143" s="2">
+        <v>15</v>
+      </c>
+      <c r="K143" s="2">
+        <v>25</v>
+      </c>
+      <c r="L143" s="2">
+        <v>38</v>
+      </c>
+      <c r="M143" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="144" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B144" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C144" s="7">
+        <v>300963</v>
+      </c>
+      <c r="D144" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="E144" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="H144" s="5">
+        <v>12.13</v>
+      </c>
+      <c r="I144" s="5">
+        <v>20</v>
+      </c>
+      <c r="J144" s="2">
+        <v>25</v>
+      </c>
+      <c r="K144" s="2">
+        <v>30</v>
+      </c>
+      <c r="L144" s="2">
+        <v>50</v>
+      </c>
+      <c r="M144" s="9" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="145" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B145" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C145" s="7">
         <v>688636</v>
       </c>
-      <c r="D134" s="9" t="s">
+      <c r="D145" s="9" t="s">
         <v>360</v>
       </c>
-      <c r="E134" s="9" t="s">
+      <c r="E145" s="9" t="s">
         <v>361</v>
       </c>
-      <c r="F134" s="2" t="s">
+      <c r="F145" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="H134" s="5">
+      <c r="H145" s="5">
         <v>34.5</v>
       </c>
-      <c r="I134" s="5">
+      <c r="I145" s="5">
         <v>58</v>
       </c>
-      <c r="J134" s="2">
+      <c r="J145" s="2">
         <v>80</v>
       </c>
-      <c r="K134" s="2">
+      <c r="K145" s="2">
         <v>90</v>
       </c>
-      <c r="L134" s="2">
+      <c r="L145" s="2">
         <v>138</v>
       </c>
-      <c r="M134" s="9" t="s">
+      <c r="M145" s="9" t="s">
         <v>363</v>
       </c>
     </row>

--- a/次新股.xlsx
+++ b/次新股.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="475">
   <si>
     <t>个股代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4731,6 +4731,125 @@
   </si>
   <si>
     <t>公司所处赛道不错，垃圾发电供热概念高大上，有一定的前景，公司业务区域性强，报告期内业绩增长不错。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>航宇科技</t>
+  </si>
+  <si>
+    <t>公司主业航空锻造配件，标准军工企业，业绩稳步增长。不过跟已经上市的派克新材相比有不少距离，产品也比较低端，毛利不高。</t>
+    <rPh sb="15" eb="16">
+      <t>qi y</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ye j</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>wen bu</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>zeng z</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>bu g</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>军工、航空装备</t>
+    <rPh sb="0" eb="1">
+      <t>jun gon</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>hang k</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhuang b</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英诺激光</t>
+  </si>
+  <si>
+    <t>公司在激光器及激光加工解决方案方面有一定的技术，激光器产品用于3D 打印，芯片制造等。但是业绩表现不好。</t>
+    <rPh sb="24" eb="25">
+      <t>ji guang</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>qi</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>chan p</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>yong yu</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>dan s</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ye j</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>biao x</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>bu hao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光、专业设备</t>
+    <rPh sb="0" eb="1">
+      <t>ji guang</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhuan y</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>she b</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>德才股份</t>
+  </si>
+  <si>
+    <t>房地产建材企业，公司利润虽然增速不错，但国内施压房地产业，发展前景不能预期太高。</t>
+    <rPh sb="19" eb="20">
+      <t>dan</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>guo n</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>shi ya</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>fang di c</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ye</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>fa z</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>qian j</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>bu n</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>neng</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>yu q</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>tai gao</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5201,10 +5320,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O145"/>
+  <dimension ref="A1:O148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="140" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" zoomScale="140" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="34" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5300,277 +5419,271 @@
     </row>
     <row r="7" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
+      <c r="B7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="7">
+        <v>688239</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="G7" s="2">
+        <v>22.86</v>
+      </c>
+      <c r="H7" s="5">
+        <v>11.48</v>
+      </c>
+      <c r="I7" s="5">
+        <v>26.67</v>
+      </c>
+      <c r="J7" s="2">
+        <v>33.33</v>
+      </c>
+      <c r="K7" s="6">
+        <v>40</v>
+      </c>
+      <c r="L7" s="6">
+        <v>56.67</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>469</v>
+      </c>
     </row>
     <row r="8" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
-      <c r="B8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="7">
-        <v>605028</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>465</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>387</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="H8" s="5">
-        <v>14.18</v>
-      </c>
-      <c r="I8" s="5">
-        <v>23.75</v>
-      </c>
-      <c r="J8" s="2">
-        <v>25</v>
-      </c>
-      <c r="K8" s="6">
-        <v>31.25</v>
-      </c>
-      <c r="L8" s="6">
-        <v>50</v>
-      </c>
-      <c r="M8" s="9" t="s">
-        <v>260</v>
-      </c>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
     </row>
     <row r="9" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C9" s="7">
-        <v>688161</v>
+        <v>605287</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>443</v>
+        <v>236</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="G9" s="2">
-        <v>26.88</v>
+        <v>474</v>
       </c>
       <c r="H9" s="5">
-        <v>36.22</v>
+        <v>31.56</v>
       </c>
       <c r="I9" s="5">
-        <v>62.5</v>
+        <v>40</v>
       </c>
       <c r="J9" s="2">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="K9" s="6">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="L9" s="6">
         <v>100</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>463</v>
+        <v>298</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C10" s="7">
-        <v>688499</v>
+        <v>301021</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>300</v>
+        <v>254</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="G10" s="2">
-        <v>27.44</v>
+        <v>471</v>
       </c>
       <c r="H10" s="5">
-        <v>38.85</v>
+        <v>9.4600000000000009</v>
       </c>
       <c r="I10" s="5">
-        <v>90.91</v>
+        <v>21.76</v>
       </c>
       <c r="J10" s="2">
-        <v>113.64</v>
+        <v>25.06</v>
       </c>
       <c r="K10" s="6">
-        <v>136.36000000000001</v>
+        <v>26.38</v>
       </c>
       <c r="L10" s="6">
-        <v>202.27</v>
+        <v>52.75</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>301016</v>
+        <v>605028</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>387</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="G11" s="2">
-        <v>15.06</v>
+        <v>466</v>
       </c>
       <c r="H11" s="5">
-        <v>13.75</v>
+        <v>14.18</v>
       </c>
       <c r="I11" s="5">
-        <v>23.33</v>
+        <v>23.75</v>
       </c>
       <c r="J11" s="2">
-        <v>29.17</v>
+        <v>25</v>
       </c>
       <c r="K11" s="6">
-        <v>41.67</v>
+        <v>31.25</v>
       </c>
       <c r="L11" s="6">
-        <v>58.33</v>
+        <v>50</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>435</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C12" s="7">
-        <v>301017</v>
+        <v>688161</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>387</v>
+        <v>443</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="G12" s="2">
-        <v>16.600000000000001</v>
+        <v>26.88</v>
       </c>
       <c r="H12" s="5">
-        <v>8.86</v>
+        <v>36.22</v>
       </c>
       <c r="I12" s="5">
-        <v>14.8</v>
+        <v>62.5</v>
       </c>
       <c r="J12" s="2">
-        <v>17.27</v>
+        <v>70</v>
       </c>
       <c r="K12" s="6">
-        <v>20.23</v>
+        <v>75</v>
       </c>
       <c r="L12" s="6">
-        <v>37.01</v>
+        <v>100</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="2" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C13" s="7">
-        <v>603171</v>
+        <v>688499</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>452</v>
+        <v>300</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="G13" s="2">
-        <v>22.99</v>
+        <v>27.44</v>
       </c>
       <c r="H13" s="5">
-        <v>13.33</v>
+        <v>38.85</v>
       </c>
       <c r="I13" s="5">
-        <v>20.2</v>
+        <v>90.91</v>
       </c>
       <c r="J13" s="2">
-        <v>24.64</v>
+        <v>113.64</v>
       </c>
       <c r="K13" s="6">
-        <v>29.56</v>
+        <v>136.36000000000001</v>
       </c>
       <c r="L13" s="6">
-        <v>41.88</v>
+        <v>202.27</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C14" s="7">
-        <v>605011</v>
+        <v>301016</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>387</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="G14" s="2">
-        <v>12.65</v>
+        <v>15.06</v>
       </c>
       <c r="H14" s="5">
-        <v>6.17</v>
+        <v>13.75</v>
       </c>
       <c r="I14" s="5">
-        <v>12.5</v>
+        <v>23.33</v>
       </c>
       <c r="J14" s="2">
-        <v>10</v>
+        <v>29.17</v>
       </c>
       <c r="K14" s="6">
-        <v>17.5</v>
+        <v>41.67</v>
       </c>
       <c r="L14" s="6">
-        <v>25.24</v>
+        <v>58.33</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>260</v>
+        <v>435</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -5579,115 +5692,115 @@
         <v>17</v>
       </c>
       <c r="C15" s="7">
-        <v>301022</v>
+        <v>301017</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>387</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="G15" s="2">
-        <v>34.82</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="H15" s="5">
-        <v>32.29</v>
+        <v>8.86</v>
       </c>
       <c r="I15" s="5">
-        <v>39</v>
+        <v>14.8</v>
       </c>
       <c r="J15" s="2">
-        <v>55</v>
+        <v>17.27</v>
       </c>
       <c r="K15" s="6">
-        <v>62</v>
+        <v>20.23</v>
       </c>
       <c r="L15" s="6">
-        <v>78</v>
+        <v>37.01</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C16" s="7">
-        <v>301015</v>
+        <v>603171</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="G16" s="2">
-        <v>15.25</v>
+        <v>22.99</v>
       </c>
       <c r="H16" s="5">
-        <v>7.64</v>
+        <v>13.33</v>
       </c>
       <c r="I16" s="5">
-        <v>18.09</v>
+        <v>20.2</v>
       </c>
       <c r="J16" s="2">
-        <v>15.24</v>
+        <v>24.64</v>
       </c>
       <c r="K16" s="6">
-        <v>22.85</v>
+        <v>29.56</v>
       </c>
       <c r="L16" s="6">
-        <v>38.090000000000003</v>
+        <v>41.88</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>301019</v>
+        <v>605011</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>439</v>
+        <v>387</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="G17" s="2">
-        <v>23.7</v>
+        <v>12.65</v>
       </c>
       <c r="H17" s="5">
-        <v>28.94</v>
+        <v>6.17</v>
       </c>
       <c r="I17" s="5">
-        <v>43</v>
+        <v>12.5</v>
       </c>
       <c r="J17" s="2">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="K17" s="6">
-        <v>56</v>
+        <v>17.5</v>
       </c>
       <c r="L17" s="6">
-        <v>82</v>
+        <v>25.24</v>
       </c>
       <c r="M17" s="9" t="s">
-        <v>173</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -5696,76 +5809,76 @@
         <v>17</v>
       </c>
       <c r="C18" s="7">
-        <v>301013</v>
+        <v>301022</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>387</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="G18" s="2">
-        <v>17.149999999999999</v>
+        <v>34.82</v>
       </c>
       <c r="H18" s="5">
-        <v>8.7200000000000006</v>
+        <v>32.29</v>
       </c>
       <c r="I18" s="5">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="J18" s="2">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="K18" s="6">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="L18" s="6">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="M18" s="9" t="s">
-        <v>378</v>
+        <v>447</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C19" s="7">
-        <v>688367</v>
+        <v>301015</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>300</v>
+        <v>443</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="G19" s="2">
-        <v>26.21</v>
+        <v>15.25</v>
       </c>
       <c r="H19" s="5">
-        <v>11.53</v>
+        <v>7.64</v>
       </c>
       <c r="I19" s="5">
-        <v>23</v>
+        <v>18.09</v>
       </c>
       <c r="J19" s="2">
-        <v>29</v>
+        <v>15.24</v>
       </c>
       <c r="K19" s="6">
-        <v>35</v>
+        <v>22.85</v>
       </c>
       <c r="L19" s="6">
-        <v>58</v>
+        <v>38.090000000000003</v>
       </c>
       <c r="M19" s="9" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -5774,76 +5887,76 @@
         <v>17</v>
       </c>
       <c r="C20" s="7">
-        <v>301004</v>
+        <v>301019</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>236</v>
+        <v>439</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="G20" s="2">
-        <v>14.98</v>
+        <v>23.7</v>
       </c>
       <c r="H20" s="5">
-        <v>7.81</v>
+        <v>28.94</v>
       </c>
       <c r="I20" s="5">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="J20" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="K20" s="6">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="L20" s="6">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="M20" s="9" t="s">
-        <v>432</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C21" s="7">
-        <v>688601</v>
+        <v>301013</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>429</v>
+        <v>387</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="G21" s="2">
-        <v>44.31</v>
+        <v>17.149999999999999</v>
       </c>
       <c r="H21" s="5">
-        <v>36.479999999999997</v>
+        <v>8.7200000000000006</v>
       </c>
       <c r="I21" s="5">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="J21" s="2">
-        <v>156</v>
+        <v>18</v>
       </c>
       <c r="K21" s="6">
-        <v>168</v>
+        <v>28</v>
       </c>
       <c r="L21" s="6">
-        <v>235</v>
+        <v>38</v>
       </c>
       <c r="M21" s="9" t="s">
-        <v>409</v>
+        <v>378</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -5852,154 +5965,154 @@
         <v>41</v>
       </c>
       <c r="C22" s="7">
-        <v>688276</v>
+        <v>688367</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>300</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="G22" s="2">
-        <v>37.340000000000003</v>
+        <v>26.21</v>
       </c>
       <c r="H22" s="5">
-        <v>36.35</v>
+        <v>11.53</v>
       </c>
       <c r="I22" s="5">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="J22" s="2">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="K22" s="6">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="L22" s="6">
-        <v>121</v>
+        <v>58</v>
       </c>
       <c r="M22" s="9" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C23" s="7">
-        <v>688690</v>
+        <v>301004</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>420</v>
+        <v>236</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="G23" s="2">
-        <v>51.04</v>
+        <v>14.98</v>
       </c>
       <c r="H23" s="5">
-        <v>8.07</v>
+        <v>7.81</v>
       </c>
       <c r="I23" s="5">
+        <v>25</v>
+      </c>
+      <c r="J23" s="2">
         <v>20</v>
       </c>
-      <c r="J23" s="2">
-        <v>15</v>
-      </c>
       <c r="K23" s="6">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L23" s="6">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="M23" s="9" t="s">
-        <v>421</v>
+        <v>432</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>416</v>
+        <v>41</v>
+      </c>
+      <c r="C24" s="7">
+        <v>688601</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>314</v>
+        <v>429</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="G24" s="2">
-        <v>22.98</v>
+        <v>44.31</v>
       </c>
       <c r="H24" s="5">
-        <v>3.67</v>
+        <v>36.479999999999997</v>
       </c>
       <c r="I24" s="5">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="J24" s="2">
-        <v>9.36</v>
+        <v>156</v>
       </c>
       <c r="K24" s="6">
-        <v>13</v>
+        <v>168</v>
       </c>
       <c r="L24" s="6">
-        <v>18</v>
+        <v>235</v>
       </c>
       <c r="M24" s="9" t="s">
-        <v>111</v>
+        <v>409</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C25" s="7">
-        <v>301012</v>
+        <v>688276</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>387</v>
+        <v>300</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="G25" s="2">
-        <v>14.6</v>
+        <v>37.340000000000003</v>
       </c>
       <c r="H25" s="5">
-        <v>8.0500000000000007</v>
+        <v>36.35</v>
       </c>
       <c r="I25" s="5">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="J25" s="2">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="K25" s="6">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="L25" s="6">
-        <v>60</v>
+        <v>121</v>
       </c>
       <c r="M25" s="9" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -6008,115 +6121,115 @@
         <v>41</v>
       </c>
       <c r="C26" s="7">
-        <v>688216</v>
+        <v>688690</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>254</v>
+        <v>420</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="G26" s="2">
-        <v>21.11</v>
+        <v>51.04</v>
       </c>
       <c r="H26" s="5">
-        <v>14.82</v>
+        <v>8.07</v>
       </c>
       <c r="I26" s="5">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J26" s="2">
+        <v>15</v>
+      </c>
+      <c r="K26" s="6">
+        <v>25</v>
+      </c>
+      <c r="L26" s="6">
         <v>38</v>
       </c>
-      <c r="K26" s="6">
-        <v>48</v>
-      </c>
-      <c r="L26" s="6">
-        <v>95</v>
-      </c>
       <c r="M26" s="9" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="7">
-        <v>688425</v>
+        <v>72</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>416</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>387</v>
+        <v>314</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="G27" s="2">
-        <v>10.54</v>
+        <v>22.98</v>
       </c>
       <c r="H27" s="5">
-        <v>2.87</v>
+        <v>3.67</v>
       </c>
       <c r="I27" s="5">
-        <v>4.8</v>
+        <v>10</v>
       </c>
       <c r="J27" s="2">
-        <v>6</v>
+        <v>9.36</v>
       </c>
       <c r="K27" s="6">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="L27" s="6">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="M27" s="9" t="s">
-        <v>407</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>401</v>
+        <v>17</v>
+      </c>
+      <c r="C28" s="7">
+        <v>301012</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>288</v>
+        <v>387</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="G28" s="2">
-        <v>22.99</v>
+        <v>14.6</v>
       </c>
       <c r="H28" s="5">
-        <v>14.27</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="I28" s="5">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="J28" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K28" s="6">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="L28" s="6">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="M28" s="9" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -6125,37 +6238,37 @@
         <v>41</v>
       </c>
       <c r="C29" s="7">
-        <v>688621</v>
+        <v>688216</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>300</v>
+        <v>254</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="G29" s="2">
-        <v>29.72</v>
+        <v>21.11</v>
       </c>
       <c r="H29" s="5">
-        <v>26.89</v>
+        <v>14.82</v>
       </c>
       <c r="I29" s="5">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="J29" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="K29" s="6">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="L29" s="6">
-        <v>168</v>
+        <v>95</v>
       </c>
       <c r="M29" s="9" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -6164,862 +6277,862 @@
         <v>41</v>
       </c>
       <c r="C30" s="7">
-        <v>688517</v>
+        <v>688425</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>236</v>
+        <v>387</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="G30" s="2">
-        <v>15.28</v>
+        <v>10.54</v>
       </c>
       <c r="H30" s="5">
-        <v>7.71</v>
+        <v>2.87</v>
       </c>
       <c r="I30" s="5">
-        <v>13</v>
+        <v>4.8</v>
       </c>
       <c r="J30" s="2">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="K30" s="6">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="L30" s="6">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="M30" s="9" t="s">
-        <v>111</v>
+        <v>407</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" s="7">
-        <v>300984</v>
+        <v>72</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>401</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>387</v>
+        <v>288</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="G31" s="2">
-        <v>29.28</v>
+        <v>22.99</v>
       </c>
       <c r="H31" s="5">
-        <v>30.97</v>
+        <v>14.27</v>
       </c>
       <c r="I31" s="5">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="J31" s="2">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="K31" s="6">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="L31" s="6">
-        <v>125</v>
+        <v>38</v>
       </c>
       <c r="M31" s="9" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="B32" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C32" s="7">
-        <v>301011</v>
+        <v>688621</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>387</v>
+        <v>300</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="G32" s="2">
-        <v>26.76</v>
+        <v>29.72</v>
       </c>
       <c r="H32" s="5">
-        <v>14.2</v>
+        <v>26.89</v>
       </c>
       <c r="I32" s="5">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="J32" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="K32" s="6">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="L32" s="6">
-        <v>70</v>
+        <v>168</v>
       </c>
       <c r="M32" s="9" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
       <c r="B33" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C33" s="7">
-        <v>301010</v>
+        <v>688517</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>387</v>
+        <v>236</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="G33" s="2">
-        <v>15.23</v>
+        <v>15.28</v>
       </c>
       <c r="H33" s="5">
-        <v>7.83</v>
+        <v>7.71</v>
       </c>
       <c r="I33" s="5">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="J33" s="2">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="K33" s="6">
+        <v>20</v>
+      </c>
+      <c r="L33" s="6">
         <v>35</v>
       </c>
-      <c r="L33" s="6">
-        <v>56</v>
-      </c>
       <c r="M33" s="9" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="B34" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C34" s="7">
-        <v>601665</v>
+        <v>300984</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>236</v>
+        <v>387</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="G34" s="2">
-        <v>10.28</v>
+        <v>29.28</v>
       </c>
       <c r="H34" s="5">
-        <v>5.36</v>
+        <v>30.97</v>
       </c>
       <c r="I34" s="5">
-        <v>4.18</v>
+        <v>52</v>
       </c>
       <c r="J34" s="2">
-        <v>4.5</v>
+        <v>62</v>
       </c>
       <c r="K34" s="6">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="L34" s="6">
-        <v>8.1999999999999993</v>
+        <v>125</v>
       </c>
       <c r="M34" s="9" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C35" s="7">
-        <v>688597</v>
+        <v>301011</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>383</v>
+        <v>400</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>236</v>
+        <v>387</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="G35" s="2">
-        <v>17.46</v>
+        <v>26.76</v>
       </c>
       <c r="H35" s="5">
-        <v>5.88</v>
+        <v>14.2</v>
       </c>
       <c r="I35" s="5">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="J35" s="2">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="K35" s="6">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="L35" s="6">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="M35" s="9" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="B36" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C36" s="7">
-        <v>688597</v>
+        <v>301010</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>254</v>
+        <v>387</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="G36" s="2">
-        <v>16.920000000000002</v>
+        <v>15.23</v>
       </c>
       <c r="H36" s="5">
-        <v>12.54</v>
+        <v>7.83</v>
       </c>
       <c r="I36" s="5">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="J36" s="2">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K36" s="6">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="L36" s="6">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="M36" s="9" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C37" s="7">
-        <v>688700</v>
+        <v>601665</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="E37" s="9" t="s">
         <v>236</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="G37" s="2">
-        <v>17.55</v>
+        <v>10.28</v>
       </c>
       <c r="H37" s="5">
-        <v>9.41</v>
+        <v>5.36</v>
       </c>
       <c r="I37" s="5">
-        <v>23</v>
+        <v>4.18</v>
       </c>
       <c r="J37" s="2">
-        <v>28</v>
+        <v>4.5</v>
       </c>
       <c r="K37" s="6">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="L37" s="6">
-        <v>58</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C38" s="7">
-        <v>688067</v>
+        <v>688597</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="G38" s="2">
-        <v>37.89</v>
+        <v>17.46</v>
       </c>
       <c r="H38" s="5">
-        <v>14.71</v>
+        <v>5.88</v>
       </c>
       <c r="I38" s="5">
-        <v>29.5</v>
+        <v>12</v>
       </c>
       <c r="J38" s="2">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="K38" s="6">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="L38" s="6">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="M38" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
       <c r="B39" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C39" s="7">
-        <v>603529</v>
+        <v>688597</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="G39" s="2">
-        <v>21.9</v>
+        <v>16.920000000000002</v>
       </c>
       <c r="H39" s="5">
-        <v>27.86</v>
+        <v>12.54</v>
       </c>
       <c r="I39" s="5">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="J39" s="2">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="K39" s="6">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="L39" s="6">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="M39" s="9" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
       <c r="B40" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C40" s="7">
-        <v>688681</v>
+        <v>688700</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="E40" s="9" t="s">
         <v>236</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="G40" s="2">
-        <v>18.91</v>
+        <v>17.55</v>
       </c>
       <c r="H40" s="5">
-        <v>9.56</v>
+        <v>9.41</v>
       </c>
       <c r="I40" s="5">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="J40" s="2">
-        <v>23.8</v>
+        <v>28</v>
       </c>
       <c r="K40" s="6">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="L40" s="6">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="M40" s="9" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
       <c r="B41" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C41" s="7">
-        <v>301007</v>
+        <v>688067</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="E41" s="9" t="s">
         <v>229</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="G41" s="2">
-        <v>17.3</v>
+        <v>37.89</v>
       </c>
       <c r="H41" s="5">
-        <v>5.29</v>
+        <v>14.71</v>
       </c>
       <c r="I41" s="5">
-        <v>18</v>
+        <v>29.5</v>
       </c>
       <c r="J41" s="2">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="K41" s="6">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="L41" s="6">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="M41" s="9" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
       <c r="B42" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C42" s="7">
-        <v>688345</v>
+        <v>603529</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="E42" s="9" t="s">
         <v>229</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="G42" s="2">
-        <v>22.15</v>
+        <v>21.9</v>
       </c>
       <c r="H42" s="5">
-        <v>25.91</v>
+        <v>27.86</v>
       </c>
       <c r="I42" s="5">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J42" s="2">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="K42" s="6">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L42" s="6">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="M42" s="9" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
       <c r="B43" s="2" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C43" s="7">
-        <v>605259</v>
+        <v>688681</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>220</v>
+        <v>369</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>221</v>
+        <v>370</v>
       </c>
       <c r="G43" s="2">
-        <v>22.99</v>
+        <v>18.91</v>
       </c>
       <c r="H43" s="5">
-        <v>27.1</v>
+        <v>9.56</v>
       </c>
       <c r="I43" s="5">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="J43" s="2">
-        <v>45</v>
+        <v>23.8</v>
       </c>
       <c r="K43" s="6">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="L43" s="6">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="M43" s="9" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
       <c r="B44" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C44" s="7">
-        <v>301008</v>
+        <v>301007</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>217</v>
+        <v>367</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>218</v>
+        <v>368</v>
       </c>
       <c r="G44" s="2">
-        <v>35.200000000000003</v>
+        <v>17.3</v>
       </c>
       <c r="H44" s="5">
-        <v>37.6</v>
+        <v>5.29</v>
       </c>
       <c r="I44" s="5">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="J44" s="2">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="K44" s="6">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="L44" s="6">
-        <v>108</v>
+        <v>39</v>
       </c>
       <c r="M44" s="9" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
       <c r="B45" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C45" s="7">
-        <v>688269</v>
+        <v>688345</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>215</v>
+        <v>366</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>216</v>
+        <v>364</v>
       </c>
       <c r="G45" s="2">
-        <v>18.010000000000002</v>
+        <v>22.15</v>
       </c>
       <c r="H45" s="5">
-        <v>18.940000000000001</v>
+        <v>25.91</v>
       </c>
       <c r="I45" s="5">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J45" s="2">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="K45" s="6">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="L45" s="6">
-        <v>64</v>
+        <v>120</v>
       </c>
       <c r="M45" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
       <c r="B46" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C46" s="7">
-        <v>688131</v>
+        <v>605259</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="E46" s="12" t="s">
-        <v>411</v>
+        <v>220</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>229</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="G46" s="2">
-        <v>40.729999999999997</v>
+        <v>22.99</v>
       </c>
       <c r="H46" s="5">
-        <v>64.989999999999995</v>
+        <v>27.1</v>
       </c>
       <c r="I46" s="5">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="J46" s="2">
-        <v>135</v>
+        <v>45</v>
       </c>
       <c r="K46" s="6">
-        <v>148</v>
+        <v>57</v>
       </c>
       <c r="L46" s="6">
-        <v>243</v>
+        <v>80</v>
       </c>
       <c r="M46" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
       <c r="B47" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C47" s="7">
-        <v>688319</v>
+        <v>301008</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="E47" s="12" t="s">
-        <v>411</v>
+        <v>217</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>254</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="G47" s="2">
-        <v>146.44999999999999</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="H47" s="5">
-        <v>9.8800000000000008</v>
+        <v>37.6</v>
       </c>
       <c r="I47" s="5">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="J47" s="2">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="K47" s="6">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="L47" s="6">
-        <v>43</v>
+        <v>108</v>
       </c>
       <c r="M47" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="O47" s="7" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
       <c r="B48" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C48" s="7">
-        <v>688625</v>
+        <v>688269</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>387</v>
+        <v>254</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>426</v>
+        <v>216</v>
       </c>
       <c r="G48" s="2">
-        <v>19.95</v>
+        <v>18.010000000000002</v>
       </c>
       <c r="H48" s="5">
-        <v>16.48</v>
+        <v>18.940000000000001</v>
       </c>
       <c r="I48" s="5">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J48" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K48" s="6">
         <v>38</v>
       </c>
       <c r="L48" s="6">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M48" s="9" t="s">
         <v>39</v>
-      </c>
-      <c r="O48" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
       <c r="B49" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C49" s="7">
-        <v>301006</v>
+        <v>688131</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>204</v>
+        <v>213</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>411</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="G49" s="2">
-        <v>12.61</v>
+        <v>40.729999999999997</v>
       </c>
       <c r="H49" s="5">
-        <v>14.42</v>
+        <v>64.989999999999995</v>
       </c>
       <c r="I49" s="5">
-        <v>21</v>
+        <v>108</v>
       </c>
       <c r="J49" s="2">
-        <v>29</v>
+        <v>135</v>
       </c>
       <c r="K49" s="6">
-        <v>33</v>
+        <v>148</v>
       </c>
       <c r="L49" s="6">
-        <v>50</v>
+        <v>243</v>
       </c>
       <c r="M49" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="O49" s="7" t="s">
-        <v>207</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
       <c r="B50" s="2" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C50" s="7">
-        <v>601156</v>
+        <v>688319</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>202</v>
+        <v>209</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>411</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="G50" s="2">
-        <v>10.93</v>
+        <v>146.44999999999999</v>
       </c>
       <c r="H50" s="5">
-        <v>15.77</v>
+        <v>9.8800000000000008</v>
       </c>
       <c r="I50" s="5">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J50" s="2">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K50" s="6">
         <v>25</v>
       </c>
       <c r="L50" s="6">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="M50" s="9" t="s">
-        <v>27</v>
+        <v>212</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
       <c r="B51" s="2" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C51" s="7">
-        <v>605319</v>
+        <v>688625</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>198</v>
+        <v>208</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>387</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>200</v>
+        <v>426</v>
       </c>
       <c r="G51" s="2">
-        <v>22.98</v>
+        <v>19.95</v>
       </c>
       <c r="H51" s="5">
-        <v>11.22</v>
+        <v>16.48</v>
       </c>
       <c r="I51" s="5">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="J51" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K51" s="6">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="L51" s="6">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="M51" s="9" t="s">
-        <v>159</v>
+        <v>39</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>199</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -7028,99 +7141,115 @@
         <v>17</v>
       </c>
       <c r="C52" s="7">
-        <v>301002</v>
+        <v>301006</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="G52" s="2">
-        <v>18.12</v>
+        <v>12.61</v>
       </c>
       <c r="H52" s="5">
-        <v>18.71</v>
+        <v>14.42</v>
       </c>
       <c r="I52" s="5">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="J52" s="2">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K52" s="6">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="L52" s="6">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="M52" s="9" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4"/>
       <c r="B53" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C53" s="7">
-        <v>688117</v>
+        <v>601156</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="G53" s="2">
-        <v>27.7</v>
-      </c>
-      <c r="K53" s="6"/>
-      <c r="L53" s="6"/>
+        <v>10.93</v>
+      </c>
+      <c r="H53" s="5">
+        <v>15.77</v>
+      </c>
+      <c r="I53" s="5">
+        <v>20</v>
+      </c>
+      <c r="J53" s="2">
+        <v>22</v>
+      </c>
+      <c r="K53" s="6">
+        <v>25</v>
+      </c>
+      <c r="L53" s="6">
+        <v>38</v>
+      </c>
+      <c r="M53" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="O53" s="7" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4"/>
       <c r="B54" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C54" s="7">
-        <v>300996</v>
+        <v>605319</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="G54" s="2">
-        <v>23.16</v>
+        <v>22.98</v>
       </c>
       <c r="H54" s="5">
-        <v>20.81</v>
+        <v>11.22</v>
       </c>
       <c r="I54" s="5">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="J54" s="2">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="K54" s="6">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="L54" s="6">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="M54" s="9" t="s">
-        <v>188</v>
+        <v>159</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -7129,76 +7258,60 @@
         <v>17</v>
       </c>
       <c r="C55" s="7">
-        <v>300997</v>
+        <v>301002</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="G55" s="2">
-        <v>12.76</v>
+        <v>18.12</v>
       </c>
       <c r="H55" s="5">
-        <v>4.9400000000000004</v>
+        <v>18.71</v>
       </c>
       <c r="I55" s="5">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="J55" s="2">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="K55" s="6">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="L55" s="6">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="M55" s="9" t="s">
-        <v>148</v>
+        <v>197</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
       <c r="B56" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C56" s="7">
-        <v>300998</v>
+        <v>688117</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>425</v>
+        <v>192</v>
       </c>
       <c r="G56" s="2">
-        <v>16.940000000000001</v>
-      </c>
-      <c r="H56" s="5">
-        <v>6.02</v>
-      </c>
-      <c r="I56" s="5">
-        <v>25</v>
-      </c>
-      <c r="J56" s="2">
-        <v>18.8</v>
-      </c>
-      <c r="K56" s="6">
-        <v>28</v>
-      </c>
-      <c r="L56" s="6">
-        <v>57</v>
-      </c>
-      <c r="M56" s="9" t="s">
-        <v>159</v>
-      </c>
+        <v>27.7</v>
+      </c>
+      <c r="K56" s="6"/>
+      <c r="L56" s="6"/>
       <c r="O56" s="7" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
     </row>
     <row r="57" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -7207,70 +7320,76 @@
         <v>17</v>
       </c>
       <c r="C57" s="7">
-        <v>301005</v>
+        <v>300996</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="G57" s="2">
-        <v>26.64</v>
+        <v>23.16</v>
       </c>
       <c r="H57" s="5">
-        <v>36.450000000000003</v>
+        <v>20.81</v>
       </c>
       <c r="I57" s="5">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="J57" s="2">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="K57" s="6">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="L57" s="6">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="M57" s="9" t="s">
-        <v>159</v>
+        <v>188</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
       <c r="B58" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C58" s="7">
-        <v>601528</v>
+        <v>300997</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>177</v>
+        <v>184</v>
+      </c>
+      <c r="G58" s="2">
+        <v>12.76</v>
       </c>
       <c r="H58" s="5">
-        <v>8.1199999999999992</v>
+        <v>4.9400000000000004</v>
       </c>
       <c r="I58" s="5">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="J58" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K58" s="6">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L58" s="6">
-        <v>16.600000000000001</v>
+        <v>30</v>
       </c>
       <c r="M58" s="9" t="s">
-        <v>176</v>
+        <v>148</v>
+      </c>
+      <c r="O58" s="7" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -7279,115 +7398,109 @@
         <v>17</v>
       </c>
       <c r="C59" s="7">
-        <v>301003</v>
+        <v>300998</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>172</v>
+        <v>425</v>
       </c>
       <c r="G59" s="2">
-        <v>32.01</v>
+        <v>16.940000000000001</v>
       </c>
       <c r="H59" s="5">
-        <v>55.88</v>
+        <v>6.02</v>
       </c>
       <c r="I59" s="5">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="J59" s="2">
-        <v>85</v>
+        <v>18.8</v>
       </c>
       <c r="K59" s="6">
-        <v>98</v>
+        <v>28</v>
       </c>
       <c r="L59" s="6">
-        <v>138</v>
+        <v>57</v>
       </c>
       <c r="M59" s="9" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
       <c r="B60" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C60" s="7">
-        <v>605296</v>
+        <v>301005</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="G60" s="2">
-        <v>19.760000000000002</v>
+        <v>26.64</v>
       </c>
       <c r="H60" s="5">
-        <v>56.08</v>
+        <v>36.450000000000003</v>
       </c>
       <c r="I60" s="5">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J60" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K60" s="6">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L60" s="6">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="M60" s="9" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
     </row>
     <row r="61" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4"/>
       <c r="B61" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C61" s="7">
-        <v>301001</v>
+        <v>601528</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="G61" s="2">
-        <v>26.19</v>
+        <v>177</v>
       </c>
       <c r="H61" s="5">
-        <v>25.54</v>
+        <v>8.1199999999999992</v>
       </c>
       <c r="I61" s="5">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="J61" s="2">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="K61" s="6">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="L61" s="6">
-        <v>98</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="M61" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="O61" s="7" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
     </row>
     <row r="62" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -7396,37 +7509,37 @@
         <v>17</v>
       </c>
       <c r="C62" s="7">
-        <v>301000</v>
+        <v>301003</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>223</v>
+        <v>168</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="G62" s="2">
-        <v>35</v>
+        <v>32.01</v>
       </c>
       <c r="H62" s="5">
-        <v>64.31</v>
+        <v>55.88</v>
       </c>
       <c r="I62" s="5">
+        <v>69</v>
+      </c>
+      <c r="J62" s="2">
         <v>85</v>
       </c>
-      <c r="J62" s="2">
-        <v>93</v>
-      </c>
       <c r="K62" s="6">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="L62" s="6">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="M62" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
     </row>
     <row r="63" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -7435,188 +7548,190 @@
         <v>12</v>
       </c>
       <c r="C63" s="7">
-        <v>605189</v>
+        <v>605296</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="G63" s="2">
-        <v>22.99</v>
+        <v>19.760000000000002</v>
       </c>
       <c r="H63" s="5">
-        <v>19.95</v>
+        <v>56.08</v>
       </c>
       <c r="I63" s="5">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="J63" s="2">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="K63" s="6">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="L63" s="6">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="M63" s="9" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
     </row>
     <row r="64" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4"/>
       <c r="B64" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C64" s="7">
-        <v>688538</v>
+        <v>301001</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>171</v>
+        <v>161</v>
+      </c>
+      <c r="G64" s="2">
+        <v>26.19</v>
       </c>
       <c r="H64" s="5">
-        <v>2.65</v>
+        <v>25.54</v>
       </c>
       <c r="I64" s="5">
-        <v>3.5</v>
+        <v>43</v>
       </c>
       <c r="J64" s="2">
-        <v>2.23</v>
+        <v>43</v>
       </c>
       <c r="K64" s="6">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="L64" s="6">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="M64" s="9" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
     </row>
     <row r="65" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="4"/>
       <c r="B65" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C65" s="7">
-        <v>605499</v>
+        <v>301000</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>146</v>
+        <v>223</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G65" s="2">
-        <v>22.99</v>
+        <v>35</v>
       </c>
       <c r="H65" s="5">
-        <v>46.27</v>
+        <v>64.31</v>
       </c>
       <c r="I65" s="5">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J65" s="2">
-        <v>88</v>
-      </c>
-      <c r="K65" s="2">
-        <v>98</v>
-      </c>
-      <c r="L65" s="2">
-        <v>125</v>
+        <v>93</v>
+      </c>
+      <c r="K65" s="6">
+        <v>118</v>
+      </c>
+      <c r="L65" s="6">
+        <v>158</v>
       </c>
       <c r="M65" s="9" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="66" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="4"/>
       <c r="B66" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C66" s="7">
-        <v>603836</v>
+        <v>605189</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>24</v>
+        <v>155</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>25</v>
+        <v>153</v>
       </c>
       <c r="G66" s="2">
         <v>22.99</v>
       </c>
       <c r="H66" s="5">
-        <v>16.84</v>
+        <v>19.95</v>
       </c>
       <c r="I66" s="5">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="J66" s="2">
-        <v>25</v>
-      </c>
-      <c r="K66" s="2">
-        <v>30</v>
-      </c>
-      <c r="L66" s="2">
-        <v>50</v>
+        <v>32</v>
+      </c>
+      <c r="K66" s="6">
+        <v>38</v>
+      </c>
+      <c r="L66" s="6">
+        <v>48</v>
       </c>
       <c r="M66" s="9" t="s">
-        <v>27</v>
+        <v>154</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>26</v>
+        <v>156</v>
       </c>
     </row>
     <row r="67" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4"/>
       <c r="B67" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C67" s="7">
-        <v>300614</v>
+        <v>688538</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>13</v>
+        <v>150</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G67" s="2">
-        <v>11.78</v>
+        <v>171</v>
       </c>
       <c r="H67" s="5">
-        <v>9.19</v>
+        <v>2.65</v>
       </c>
       <c r="I67" s="5">
-        <v>20</v>
+        <v>3.5</v>
       </c>
       <c r="J67" s="2">
-        <v>19</v>
+        <v>2.23</v>
       </c>
       <c r="K67" s="6">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="L67" s="6">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="M67" s="9" t="s">
-        <v>15</v>
+        <v>152</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>18</v>
+        <v>151</v>
       </c>
     </row>
     <row r="68" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -7624,262 +7739,266 @@
         <v>12</v>
       </c>
       <c r="C68" s="7">
-        <v>605090</v>
+        <v>605499</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>19</v>
+        <v>146</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>20</v>
+        <v>147</v>
       </c>
       <c r="G68" s="2">
-        <v>20</v>
+        <v>22.99</v>
       </c>
       <c r="H68" s="5">
-        <v>34.57</v>
+        <v>46.27</v>
       </c>
       <c r="I68" s="5">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="J68" s="2">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="K68" s="2">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="L68" s="2">
-        <v>68</v>
+        <v>125</v>
       </c>
       <c r="M68" s="9" t="s">
-        <v>21</v>
+        <v>148</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>23</v>
+        <v>149</v>
       </c>
     </row>
     <row r="69" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C69" s="7">
-        <v>300992</v>
+        <v>603836</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="G69" s="2">
-        <v>12.84</v>
+        <v>22.99</v>
       </c>
       <c r="H69" s="5">
-        <v>9.36</v>
+        <v>16.84</v>
       </c>
       <c r="I69" s="5">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="J69" s="2">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="K69" s="2">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="L69" s="2">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="M69" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="4"/>
       <c r="B70" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C70" s="7">
-        <v>300995</v>
+        <v>300614</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="G70" s="2">
-        <v>17.52</v>
+        <v>11.78</v>
       </c>
       <c r="H70" s="5">
-        <v>14.72</v>
+        <v>9.19</v>
       </c>
       <c r="I70" s="5">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="J70" s="2">
-        <v>36</v>
-      </c>
-      <c r="K70" s="2">
-        <v>42</v>
-      </c>
-      <c r="L70" s="2">
-        <v>65</v>
+        <v>19</v>
+      </c>
+      <c r="K70" s="6">
+        <v>25</v>
+      </c>
+      <c r="L70" s="6">
+        <v>38</v>
       </c>
       <c r="M70" s="9" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C71" s="7">
-        <v>300993</v>
+        <v>605090</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="F71" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G71" s="2">
+        <v>20</v>
+      </c>
+      <c r="H71" s="5">
+        <v>34.57</v>
+      </c>
+      <c r="I71" s="5">
         <v>37</v>
       </c>
-      <c r="G71" s="2">
-        <v>16.45</v>
-      </c>
-      <c r="H71" s="5">
-        <v>12.1</v>
-      </c>
-      <c r="I71" s="5">
+      <c r="J71" s="2">
+        <v>42</v>
+      </c>
+      <c r="K71" s="2">
+        <v>50</v>
+      </c>
+      <c r="L71" s="2">
+        <v>68</v>
+      </c>
+      <c r="M71" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="J71" s="2">
+      <c r="O71" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="K71" s="2">
-        <v>30</v>
-      </c>
-      <c r="L71" s="2">
-        <v>58</v>
-      </c>
-      <c r="M71" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="O71" s="7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="72" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C72" s="7">
-        <v>688359</v>
+        <v>300992</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G72" s="2">
-        <v>22.3</v>
+        <v>12.84</v>
       </c>
       <c r="H72" s="5">
-        <v>11.03</v>
+        <v>9.36</v>
       </c>
       <c r="I72" s="5">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="J72" s="2">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="K72" s="2">
+        <v>38</v>
+      </c>
+      <c r="L72" s="2">
+        <v>65</v>
+      </c>
+      <c r="M72" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="O72" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="L72" s="2">
-        <v>48</v>
-      </c>
-      <c r="M72" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="O72" s="7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="73" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C73" s="7">
-        <v>688613</v>
+        <v>300995</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G73" s="2">
-        <v>26.6</v>
+        <v>17.52</v>
       </c>
       <c r="H73" s="5">
-        <v>16.43</v>
+        <v>14.72</v>
       </c>
       <c r="I73" s="5">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J73" s="2">
+        <v>36</v>
+      </c>
+      <c r="K73" s="2">
+        <v>42</v>
+      </c>
+      <c r="L73" s="2">
+        <v>65</v>
+      </c>
+      <c r="M73" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="O73" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="K73" s="2">
-        <v>48</v>
-      </c>
-      <c r="L73" s="2">
-        <v>78</v>
-      </c>
-      <c r="M73" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="O73" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="74" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C74" s="7">
-        <v>600905</v>
+        <v>300993</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="G74" s="2">
-        <v>28.87</v>
+        <v>16.45</v>
       </c>
       <c r="H74" s="5">
-        <v>2.65</v>
+        <v>12.1</v>
       </c>
       <c r="I74" s="5">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="J74" s="2">
-        <v>3.5</v>
+        <v>23</v>
       </c>
       <c r="K74" s="2">
-        <v>5.8</v>
+        <v>30</v>
       </c>
       <c r="L74" s="2">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="M74" s="9" t="s">
-        <v>50</v>
+        <v>39</v>
+      </c>
+      <c r="O74" s="7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="75" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -7887,104 +8006,110 @@
         <v>41</v>
       </c>
       <c r="C75" s="7">
-        <v>688076</v>
+        <v>688359</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="G75" s="2">
-        <v>35.130000000000003</v>
+        <v>22.3</v>
       </c>
       <c r="H75" s="5">
-        <v>15.57</v>
+        <v>11.03</v>
       </c>
       <c r="I75" s="5">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J75" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K75" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L75" s="2">
+        <v>48</v>
+      </c>
+      <c r="M75" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="O75" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="M75" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="O75" s="7" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="76" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C76" s="7">
-        <v>300991</v>
+        <v>688613</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="G76" s="2">
-        <v>13.06</v>
+        <v>26.6</v>
       </c>
       <c r="H76" s="5">
-        <v>13.06</v>
+        <v>16.43</v>
+      </c>
+      <c r="I76" s="5">
+        <v>35</v>
+      </c>
+      <c r="J76" s="2">
+        <v>34</v>
+      </c>
+      <c r="K76" s="2">
+        <v>48</v>
       </c>
       <c r="L76" s="2">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="M76" s="9" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="O76" s="7" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="77" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C77" s="7">
-        <v>688314</v>
+        <v>600905</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="G77" s="2">
-        <v>22.17</v>
+        <v>28.87</v>
       </c>
       <c r="H77" s="5">
-        <v>17.34</v>
+        <v>2.65</v>
       </c>
       <c r="I77" s="5">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="J77" s="2">
-        <v>52</v>
+        <v>3.5</v>
       </c>
       <c r="K77" s="2">
-        <v>60</v>
+        <v>5.8</v>
       </c>
       <c r="L77" s="2">
-        <v>108</v>
+        <v>8</v>
       </c>
       <c r="M77" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="O77" s="7" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
     </row>
     <row r="78" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -7992,121 +8117,142 @@
         <v>41</v>
       </c>
       <c r="C78" s="7">
-        <v>688660</v>
+        <v>688076</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="G78" s="2">
-        <v>23.99</v>
+        <v>35.130000000000003</v>
       </c>
       <c r="H78" s="5">
-        <v>5.44</v>
+        <v>15.57</v>
       </c>
       <c r="I78" s="5">
-        <v>11.3</v>
+        <v>21</v>
       </c>
       <c r="J78" s="2">
-        <v>11.3</v>
+        <v>24</v>
       </c>
       <c r="K78" s="2">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="L78" s="2">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="M78" s="9" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="O78" s="7" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
     </row>
     <row r="79" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C79" s="7">
-        <v>688575</v>
+        <v>300991</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="G79" s="2">
-        <v>31.96</v>
+        <v>13.06</v>
       </c>
       <c r="H79" s="5">
-        <v>14.8</v>
+        <v>13.06</v>
       </c>
       <c r="L79" s="2">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="M79" s="9" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="O79" s="7" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
     </row>
     <row r="80" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C80" s="7" t="s">
-        <v>71</v>
+        <v>41</v>
+      </c>
+      <c r="C80" s="7">
+        <v>688314</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="G80" s="2">
-        <v>22.99</v>
+        <v>22.17</v>
       </c>
       <c r="H80" s="5">
-        <v>44.6</v>
+        <v>17.34</v>
+      </c>
+      <c r="I80" s="5">
+        <v>48</v>
+      </c>
+      <c r="J80" s="2">
+        <v>52</v>
+      </c>
+      <c r="K80" s="2">
+        <v>60</v>
       </c>
       <c r="L80" s="2">
-        <v>126</v>
+        <v>108</v>
+      </c>
+      <c r="M80" s="9" t="s">
+        <v>60</v>
       </c>
       <c r="O80" s="7" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
     </row>
     <row r="81" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="2" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C81" s="7">
-        <v>605339</v>
+        <v>688660</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="G81" s="2">
-        <v>22.99</v>
+        <v>23.99</v>
       </c>
       <c r="H81" s="5">
-        <v>16.98</v>
+        <v>5.44</v>
+      </c>
+      <c r="I81" s="5">
+        <v>11.3</v>
+      </c>
+      <c r="J81" s="2">
+        <v>11.3</v>
+      </c>
+      <c r="K81" s="2">
+        <v>18</v>
       </c>
       <c r="L81" s="2">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="M81" s="9" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="O81" s="7" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="82" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -8114,75 +8260,54 @@
         <v>41</v>
       </c>
       <c r="C82" s="7">
-        <v>688565</v>
+        <v>688575</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="G82" s="2">
-        <v>19.48</v>
+        <v>31.96</v>
       </c>
       <c r="H82" s="5">
-        <v>9.39</v>
-      </c>
-      <c r="I82" s="5">
-        <v>18.7</v>
-      </c>
-      <c r="J82" s="2">
-        <v>23</v>
-      </c>
-      <c r="K82" s="2">
-        <v>28</v>
+        <v>14.8</v>
       </c>
       <c r="L82" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="M82" s="9" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="O82" s="7" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
     </row>
     <row r="83" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C83" s="7">
-        <v>688217</v>
+        <v>72</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>71</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G83" s="2">
-        <v>29.89</v>
+        <v>22.99</v>
       </c>
       <c r="H83" s="5">
-        <v>18.420000000000002</v>
-      </c>
-      <c r="I83" s="5">
-        <v>36</v>
-      </c>
-      <c r="J83" s="2">
-        <v>45</v>
-      </c>
-      <c r="K83" s="2">
-        <v>54</v>
+        <v>44.6</v>
       </c>
       <c r="L83" s="2">
-        <v>90</v>
-      </c>
-      <c r="M83" s="9" t="s">
-        <v>60</v>
+        <v>126</v>
       </c>
       <c r="O83" s="7" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="84" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -8190,37 +8315,28 @@
         <v>12</v>
       </c>
       <c r="C84" s="7">
-        <v>605488</v>
+        <v>605339</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="G84" s="2">
         <v>22.99</v>
       </c>
       <c r="H84" s="5">
-        <v>20.43</v>
-      </c>
-      <c r="I84" s="5">
-        <v>25</v>
-      </c>
-      <c r="J84" s="2">
-        <v>33</v>
-      </c>
-      <c r="K84" s="2">
-        <v>38</v>
+        <v>16.98</v>
       </c>
       <c r="L84" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M84" s="9" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="O84" s="7" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="85" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -8228,37 +8344,37 @@
         <v>41</v>
       </c>
       <c r="C85" s="7">
-        <v>688685</v>
+        <v>688565</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G85" s="2">
-        <v>22.83</v>
+        <v>19.48</v>
       </c>
       <c r="H85" s="5">
-        <v>9.02</v>
+        <v>9.39</v>
       </c>
       <c r="I85" s="5">
-        <v>30</v>
+        <v>18.7</v>
       </c>
       <c r="J85" s="2">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="K85" s="2">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="L85" s="2">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="M85" s="9" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="O85" s="7" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="86" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -8266,57 +8382,57 @@
         <v>41</v>
       </c>
       <c r="C86" s="7">
-        <v>688355</v>
+        <v>688217</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="G86" s="2">
-        <v>22.95</v>
+        <v>29.89</v>
       </c>
       <c r="H86" s="5">
-        <v>17.649999999999999</v>
+        <v>18.420000000000002</v>
       </c>
       <c r="I86" s="5">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="J86" s="2">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="K86" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="L86" s="2">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="M86" s="9" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="O86" s="7" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="87" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C87" s="7" t="s">
-        <v>100</v>
+        <v>12</v>
+      </c>
+      <c r="C87" s="7">
+        <v>605488</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="G87" s="2">
-        <v>17.78</v>
+        <v>22.99</v>
       </c>
       <c r="H87" s="5">
-        <v>16.52</v>
+        <v>20.43</v>
       </c>
       <c r="I87" s="5">
         <v>25</v>
@@ -8331,10 +8447,10 @@
         <v>58</v>
       </c>
       <c r="M87" s="9" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="O87" s="7" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
     </row>
     <row r="88" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -8342,382 +8458,382 @@
         <v>41</v>
       </c>
       <c r="C88" s="7">
-        <v>688097</v>
+        <v>688685</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="G88" s="2">
-        <v>15.97</v>
+        <v>22.83</v>
       </c>
       <c r="H88" s="5">
-        <v>11.27</v>
+        <v>9.02</v>
       </c>
       <c r="I88" s="5">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="J88" s="2">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="K88" s="2">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="L88" s="2">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="M88" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="N88" s="2" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="O88" s="7" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="89" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="2" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C89" s="7">
-        <v>605196</v>
+        <v>688355</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="G89" s="2">
-        <v>21.09</v>
+        <v>22.95</v>
       </c>
       <c r="H89" s="5">
-        <v>5.05</v>
+        <v>17.649999999999999</v>
       </c>
       <c r="I89" s="5">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="J89" s="2">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="K89" s="2">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="L89" s="2">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="M89" s="9" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="O89" s="7" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
     </row>
     <row r="90" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C90" s="7">
-        <v>688655</v>
+        <v>72</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>100</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="G90" s="2">
-        <v>20.350000000000001</v>
+        <v>17.78</v>
       </c>
       <c r="H90" s="5">
-        <v>7.59</v>
+        <v>16.52</v>
       </c>
       <c r="I90" s="5">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="J90" s="2">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="K90" s="2">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="L90" s="2">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="M90" s="9" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="O90" s="7" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
     </row>
     <row r="91" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C91" s="7">
-        <v>300987</v>
+        <v>688097</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="G91" s="2">
-        <v>18.420000000000002</v>
+        <v>15.97</v>
       </c>
       <c r="H91" s="5">
-        <v>6.79</v>
+        <v>11.27</v>
       </c>
       <c r="I91" s="5">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J91" s="2">
+        <v>15</v>
+      </c>
+      <c r="K91" s="2">
         <v>23</v>
       </c>
-      <c r="K91" s="2">
-        <v>28</v>
-      </c>
       <c r="L91" s="2">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="M91" s="9" t="s">
-        <v>119</v>
+        <v>105</v>
+      </c>
+      <c r="N91" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="O91" s="7" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
     </row>
     <row r="92" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B92" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C92" s="7">
-        <v>300990</v>
+        <v>605196</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="G92" s="2">
-        <v>36.270000000000003</v>
+        <v>21.09</v>
       </c>
       <c r="H92" s="5">
-        <v>85.5</v>
+        <v>5.05</v>
       </c>
       <c r="I92" s="5">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="J92" s="2">
-        <v>115</v>
+        <v>10</v>
       </c>
       <c r="K92" s="2">
-        <v>128</v>
+        <v>15</v>
       </c>
       <c r="L92" s="2">
-        <v>153</v>
+        <v>23</v>
       </c>
       <c r="M92" s="9" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="O92" s="7" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="93" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B93" s="2" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C93" s="7">
-        <v>603511</v>
+        <v>688655</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="G93" s="2">
-        <v>21.98</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="H93" s="5">
-        <v>20.99</v>
+        <v>7.59</v>
       </c>
       <c r="I93" s="5">
+        <v>18</v>
+      </c>
+      <c r="J93" s="2">
+        <v>20</v>
+      </c>
+      <c r="K93" s="2">
         <v>25</v>
       </c>
-      <c r="J93" s="2">
-        <v>30</v>
-      </c>
-      <c r="K93" s="2">
-        <v>38</v>
-      </c>
       <c r="L93" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="M93" s="9" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="O93" s="7" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
     </row>
     <row r="94" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C94" s="7">
-        <v>688113</v>
+        <v>300987</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="G94" s="2">
-        <v>17.309999999999999</v>
+        <v>18.420000000000002</v>
       </c>
       <c r="H94" s="5">
-        <v>19.14</v>
+        <v>6.79</v>
       </c>
       <c r="I94" s="5">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="J94" s="2">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="K94" s="2">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="L94" s="2">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="M94" s="9" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="O94" s="7" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="95" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C95" s="7">
-        <v>605305</v>
+        <v>300990</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="G95" s="2">
-        <v>22.99</v>
+        <v>36.270000000000003</v>
       </c>
       <c r="H95" s="5">
-        <v>37.94</v>
+        <v>85.5</v>
       </c>
       <c r="I95" s="5">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="J95" s="2">
-        <v>54</v>
+        <v>115</v>
       </c>
       <c r="K95" s="2">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="L95" s="2">
-        <v>82</v>
+        <v>153</v>
       </c>
       <c r="M95" s="9" t="s">
         <v>105</v>
       </c>
       <c r="O95" s="7" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="96" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B96" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C96" s="7">
-        <v>300988</v>
+        <v>603511</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="G96" s="2">
-        <v>32.729999999999997</v>
+        <v>21.98</v>
       </c>
       <c r="H96" s="5">
-        <v>23.73</v>
+        <v>20.99</v>
       </c>
       <c r="I96" s="5">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="J96" s="2">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="K96" s="2">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="L96" s="2">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="M96" s="9" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="O96" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="97" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B97" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C97" s="7">
-        <v>300989</v>
+        <v>688113</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="G97" s="2">
-        <v>36.01</v>
+        <v>17.309999999999999</v>
       </c>
       <c r="H97" s="5">
-        <v>51.62</v>
+        <v>19.14</v>
       </c>
       <c r="I97" s="5">
+        <v>34</v>
+      </c>
+      <c r="J97" s="2">
+        <v>47</v>
+      </c>
+      <c r="K97" s="2">
         <v>58</v>
       </c>
-      <c r="J97" s="2">
-        <v>66</v>
-      </c>
-      <c r="K97" s="2">
-        <v>83</v>
-      </c>
       <c r="L97" s="2">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="M97" s="9" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="O97" s="7" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="98" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -8725,224 +8841,224 @@
         <v>12</v>
       </c>
       <c r="C98" s="7">
-        <v>605080</v>
+        <v>605305</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="G98" s="2">
         <v>22.99</v>
       </c>
       <c r="H98" s="5">
-        <v>31.16</v>
+        <v>37.94</v>
       </c>
       <c r="I98" s="5">
         <v>45</v>
       </c>
       <c r="J98" s="2">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="K98" s="2">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="L98" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M98" s="9" t="s">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="O98" s="7" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="99" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C99" s="7">
-        <v>605300</v>
+        <v>300988</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>225</v>
+        <v>134</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>224</v>
+        <v>137</v>
       </c>
       <c r="G99" s="2">
-        <v>22.99</v>
+        <v>32.729999999999997</v>
       </c>
       <c r="H99" s="5">
-        <v>11.25</v>
+        <v>23.73</v>
       </c>
       <c r="I99" s="5">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="J99" s="2">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="K99" s="2">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="L99" s="2">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="M99" s="9" t="s">
-        <v>148</v>
+        <v>136</v>
+      </c>
+      <c r="O99" s="7" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="100" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C100" s="7" t="s">
-        <v>227</v>
+        <v>17</v>
+      </c>
+      <c r="C100" s="7">
+        <v>300989</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="E100" s="9" t="s">
-        <v>229</v>
+        <v>138</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>226</v>
+        <v>139</v>
       </c>
       <c r="G100" s="2">
-        <v>22.99</v>
+        <v>36.01</v>
       </c>
       <c r="H100" s="5">
-        <v>8.98</v>
+        <v>51.62</v>
       </c>
       <c r="I100" s="5">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="J100" s="2">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="K100" s="2">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="L100" s="2">
-        <v>32</v>
+        <v>116</v>
       </c>
       <c r="M100" s="9" t="s">
-        <v>233</v>
+        <v>141</v>
+      </c>
+      <c r="O100" s="7" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="101" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C101" s="7">
-        <v>300985</v>
+        <v>605080</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="E101" s="9" t="s">
-        <v>229</v>
+        <v>142</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>231</v>
+        <v>143</v>
       </c>
       <c r="G101" s="2">
-        <v>14.91</v>
+        <v>22.99</v>
       </c>
       <c r="H101" s="5">
-        <v>24.9</v>
+        <v>31.16</v>
       </c>
       <c r="I101" s="5">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="J101" s="2">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="K101" s="2">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="L101" s="2">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="M101" s="9" t="s">
-        <v>234</v>
+        <v>145</v>
+      </c>
+      <c r="O101" s="7" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="102" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C102" s="7">
-        <v>688395</v>
+        <v>605300</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="E102" s="9" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="G102" s="2">
-        <v>20.59</v>
+        <v>22.99</v>
       </c>
       <c r="H102" s="5">
-        <v>15.95</v>
+        <v>11.25</v>
       </c>
       <c r="I102" s="5">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J102" s="2">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="K102" s="2">
+        <v>25</v>
+      </c>
+      <c r="L102" s="2">
         <v>38</v>
       </c>
-      <c r="L102" s="2">
-        <v>58</v>
-      </c>
       <c r="M102" s="9" t="s">
-        <v>111</v>
+        <v>148</v>
       </c>
     </row>
     <row r="103" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B103" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C103" s="7">
-        <v>600906</v>
+      <c r="C103" s="7" t="s">
+        <v>227</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="E103" s="9" t="s">
         <v>229</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="G103" s="2">
-        <v>22.94</v>
+        <v>22.99</v>
       </c>
       <c r="H103" s="5">
-        <v>3.76</v>
+        <v>8.98</v>
       </c>
       <c r="I103" s="5">
-        <v>6.2</v>
+        <v>13</v>
       </c>
       <c r="J103" s="2">
-        <v>5.7</v>
+        <v>13</v>
       </c>
       <c r="K103" s="2">
-        <v>7.08</v>
+        <v>16</v>
       </c>
       <c r="L103" s="2">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="M103" s="9" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="104" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -8950,31 +9066,31 @@
         <v>17</v>
       </c>
       <c r="C104" s="7">
-        <v>300986</v>
+        <v>300985</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="E104" s="9" t="s">
         <v>229</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="G104" s="2">
-        <v>13.56</v>
+        <v>14.91</v>
       </c>
       <c r="H104" s="5">
-        <v>14.79</v>
+        <v>24.9</v>
       </c>
       <c r="I104" s="5">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J104" s="2">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="K104" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="L104" s="2">
         <v>60</v>
@@ -8985,253 +9101,262 @@
     </row>
     <row r="105" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B105" s="2" t="s">
-        <v>244</v>
+        <v>41</v>
       </c>
       <c r="C105" s="7">
-        <v>688323</v>
+        <v>688395</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="G105" s="2">
-        <v>24.38</v>
+        <v>20.59</v>
       </c>
       <c r="H105" s="5">
-        <v>5.97</v>
+        <v>15.95</v>
       </c>
       <c r="I105" s="5">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J105" s="2">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="K105" s="2">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="L105" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="M105" s="9" t="s">
-        <v>38</v>
+        <v>111</v>
       </c>
     </row>
     <row r="106" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B106" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C106" s="7">
-        <v>688383</v>
+        <v>600906</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="G106" s="2">
-        <v>19.510000000000002</v>
+        <v>22.94</v>
       </c>
       <c r="H106" s="5">
-        <v>19.579999999999998</v>
+        <v>3.76</v>
       </c>
       <c r="I106" s="5">
-        <v>30</v>
+        <v>6.2</v>
       </c>
       <c r="J106" s="2">
-        <v>29</v>
+        <v>5.7</v>
       </c>
       <c r="K106" s="2">
-        <v>37</v>
+        <v>7.08</v>
       </c>
       <c r="L106" s="2">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="M106" s="9" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
     </row>
     <row r="107" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B107" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C107" s="7" t="s">
-        <v>252</v>
+        <v>17</v>
+      </c>
+      <c r="C107" s="7">
+        <v>300986</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>253</v>
+        <v>242</v>
+      </c>
+      <c r="G107" s="2">
+        <v>13.56</v>
       </c>
       <c r="H107" s="5">
-        <v>19.05</v>
+        <v>14.79</v>
       </c>
       <c r="I107" s="5">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J107" s="2">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K107" s="2">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="L107" s="2">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="M107" s="9" t="s">
-        <v>27</v>
+        <v>234</v>
       </c>
     </row>
     <row r="108" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B108" s="2" t="s">
-        <v>12</v>
+        <v>244</v>
       </c>
       <c r="C108" s="7">
-        <v>605180</v>
+        <v>688323</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>256</v>
+        <v>245</v>
+      </c>
+      <c r="G108" s="2">
+        <v>24.38</v>
       </c>
       <c r="H108" s="5">
-        <v>22.38</v>
+        <v>5.97</v>
       </c>
       <c r="I108" s="5">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="J108" s="2">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="K108" s="2">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="L108" s="2">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="M108" s="9" t="s">
-        <v>259</v>
+        <v>38</v>
       </c>
     </row>
     <row r="109" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="2" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C109" s="7">
-        <v>600032</v>
+        <v>688383</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>229</v>
+        <v>249</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>258</v>
+        <v>248</v>
+      </c>
+      <c r="G109" s="2">
+        <v>19.510000000000002</v>
       </c>
       <c r="H109" s="5">
-        <v>3.51</v>
+        <v>19.579999999999998</v>
       </c>
       <c r="I109" s="5">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="J109" s="2">
-        <v>4.8</v>
+        <v>29</v>
       </c>
       <c r="K109" s="2">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="L109" s="2">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="M109" s="9" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
     </row>
     <row r="110" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B110" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C110" s="7">
-        <v>300982</v>
+        <v>72</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>252</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="H110" s="5">
-        <v>15.83</v>
+        <v>19.05</v>
       </c>
       <c r="I110" s="5">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J110" s="2">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="K110" s="2">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="L110" s="2">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="M110" s="9" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
     </row>
     <row r="111" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B111" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C111" s="7">
-        <v>300981</v>
+        <v>605180</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="H111" s="5">
-        <v>48.59</v>
+        <v>22.38</v>
       </c>
       <c r="I111" s="5">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="J111" s="2">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="K111" s="2">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="L111" s="2">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="M111" s="9" t="s">
-        <v>60</v>
+        <v>259</v>
       </c>
     </row>
     <row r="112" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -9239,206 +9364,209 @@
         <v>12</v>
       </c>
       <c r="C112" s="7">
-        <v>605089</v>
+        <v>600032</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="E112" s="9" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="H112" s="5">
-        <v>28.53</v>
+        <v>3.51</v>
       </c>
       <c r="I112" s="5">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="J112" s="2">
-        <v>50</v>
+        <v>4.8</v>
       </c>
       <c r="K112" s="2">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="L112" s="2">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="M112" s="9" t="s">
-        <v>148</v>
+        <v>260</v>
       </c>
     </row>
     <row r="113" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B113" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C113" s="7" t="s">
-        <v>269</v>
+        <v>17</v>
+      </c>
+      <c r="C113" s="7">
+        <v>300982</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="H113" s="5">
-        <v>63.38</v>
+        <v>15.83</v>
       </c>
       <c r="I113" s="5">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="J113" s="2">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="K113" s="2">
-        <v>118</v>
+        <v>43</v>
       </c>
       <c r="L113" s="2">
-        <v>158</v>
+        <v>65</v>
       </c>
       <c r="M113" s="9" t="s">
-        <v>166</v>
+        <v>262</v>
       </c>
     </row>
     <row r="114" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B114" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C114" s="7">
-        <v>605289</v>
+        <v>300981</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="E114" s="9" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="H114" s="5">
-        <v>27.27</v>
+        <v>48.59</v>
       </c>
       <c r="I114" s="5">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="J114" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="K114" s="2">
-        <v>48</v>
+        <v>108</v>
       </c>
       <c r="L114" s="2">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="M114" s="9" t="s">
-        <v>273</v>
+        <v>60</v>
       </c>
     </row>
     <row r="115" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B115" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C115" s="7">
-        <v>300979</v>
+        <v>605089</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="H115" s="5">
-        <v>33.22</v>
+        <v>28.53</v>
       </c>
       <c r="I115" s="5">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="J115" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K115" s="2">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="L115" s="2">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="M115" s="9" t="s">
-        <v>276</v>
+        <v>148</v>
       </c>
     </row>
     <row r="116" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B116" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C116" s="7">
-        <v>300978</v>
+        <v>72</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>269</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="E116" s="9" t="s">
         <v>236</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="H116" s="5">
-        <v>8.42</v>
+        <v>63.38</v>
       </c>
       <c r="I116" s="5">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="J116" s="2">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="K116" s="2">
-        <v>23</v>
+        <v>118</v>
       </c>
       <c r="L116" s="2">
-        <v>30</v>
+        <v>158</v>
       </c>
       <c r="M116" s="9" t="s">
-        <v>279</v>
+        <v>166</v>
       </c>
     </row>
     <row r="117" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B117" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C117" s="7">
-        <v>688639</v>
+        <v>605289</v>
       </c>
       <c r="D117" s="9" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="E117" s="9" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="H117" s="5">
-        <v>23.16</v>
+        <v>27.27</v>
       </c>
       <c r="I117" s="5">
         <v>32</v>
       </c>
       <c r="J117" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K117" s="2">
         <v>48</v>
       </c>
       <c r="L117" s="2">
-        <v>75</v>
+        <v>70</v>
+      </c>
+      <c r="M117" s="9" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="118" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -9446,241 +9574,238 @@
         <v>17</v>
       </c>
       <c r="C118" s="7">
-        <v>300975</v>
+        <v>300979</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="E118" s="9" t="s">
         <v>229</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="H118" s="5">
-        <v>5.48</v>
+        <v>33.22</v>
       </c>
       <c r="I118" s="5">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="J118" s="2">
-        <v>9.1999999999999993</v>
+        <v>39</v>
       </c>
       <c r="K118" s="2">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="L118" s="2">
-        <v>35</v>
+        <v>69</v>
+      </c>
+      <c r="M118" s="9" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="119" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B119" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C119" s="7">
-        <v>688682</v>
+        <v>300978</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="E119" s="9" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="H119" s="5">
-        <v>45.72</v>
+        <v>8.42</v>
       </c>
       <c r="I119" s="5">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="J119" s="2">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="K119" s="2">
-        <v>108</v>
+        <v>23</v>
       </c>
       <c r="L119" s="2">
-        <v>162</v>
+        <v>30</v>
       </c>
       <c r="M119" s="9" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
     </row>
     <row r="120" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B120" s="2" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C120" s="7">
-        <v>605016</v>
+        <v>688639</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="E120" s="9" t="s">
-        <v>288</v>
+        <v>229</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="H120" s="5">
-        <v>14.62</v>
+        <v>23.16</v>
       </c>
       <c r="I120" s="5">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="J120" s="2">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="K120" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="L120" s="2">
-        <v>58</v>
-      </c>
-      <c r="M120" s="9" t="s">
-        <v>148</v>
+        <v>75</v>
       </c>
     </row>
     <row r="121" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B121" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C121" s="7">
-        <v>688201</v>
+        <v>300975</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="E121" s="9" t="s">
         <v>229</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="H121" s="5">
-        <v>26.78</v>
+        <v>5.48</v>
       </c>
       <c r="I121" s="5">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="J121" s="2">
-        <v>43</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="K121" s="2">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="L121" s="2">
-        <v>86</v>
-      </c>
-      <c r="M121" s="9" t="s">
-        <v>292</v>
+        <v>35</v>
       </c>
     </row>
     <row r="122" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B122" s="2" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C122" s="7">
-        <v>605117</v>
+        <v>688682</v>
       </c>
       <c r="D122" s="9" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="E122" s="9" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="H122" s="5">
-        <v>32.74</v>
+        <v>45.72</v>
       </c>
       <c r="I122" s="5">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="J122" s="2">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="K122" s="2">
-        <v>58</v>
+        <v>108</v>
       </c>
       <c r="L122" s="2">
-        <v>76</v>
+        <v>162</v>
       </c>
       <c r="M122" s="9" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
     </row>
     <row r="123" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B123" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C123" s="7">
-        <v>300983</v>
+        <v>605016</v>
       </c>
       <c r="D123" s="9" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="E123" s="9" t="s">
-        <v>236</v>
+        <v>288</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="H123" s="5">
-        <v>120.8</v>
+        <v>14.62</v>
       </c>
       <c r="I123" s="5">
-        <v>106</v>
+        <v>22</v>
       </c>
       <c r="J123" s="2">
-        <v>118</v>
+        <v>31</v>
       </c>
       <c r="K123" s="2">
-        <v>168</v>
+        <v>39</v>
       </c>
       <c r="L123" s="2">
-        <v>212</v>
+        <v>58</v>
       </c>
       <c r="M123" s="9" t="s">
-        <v>298</v>
+        <v>148</v>
       </c>
     </row>
     <row r="124" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B124" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C124" s="7">
-        <v>300980</v>
+        <v>688201</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="E124" s="9" t="s">
-        <v>300</v>
+        <v>229</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="H124" s="5">
-        <v>32.770000000000003</v>
+        <v>26.78</v>
       </c>
       <c r="I124" s="5">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="J124" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="K124" s="2">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="L124" s="2">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M124" s="9" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
     </row>
     <row r="125" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -9688,34 +9813,34 @@
         <v>12</v>
       </c>
       <c r="C125" s="7">
-        <v>605086</v>
+        <v>605117</v>
       </c>
       <c r="D125" s="9" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="E125" s="9" t="s">
         <v>236</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="H125" s="5">
-        <v>12.86</v>
+        <v>32.74</v>
       </c>
       <c r="I125" s="5">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="J125" s="2">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="K125" s="2">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="L125" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="M125" s="9" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
     </row>
     <row r="126" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -9723,31 +9848,31 @@
         <v>17</v>
       </c>
       <c r="C126" s="7">
-        <v>300977</v>
+        <v>300983</v>
       </c>
       <c r="D126" s="9" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="E126" s="9" t="s">
         <v>236</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="H126" s="5">
-        <v>89.66</v>
+        <v>120.8</v>
       </c>
       <c r="I126" s="5">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="J126" s="2">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="K126" s="2">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="L126" s="2">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="M126" s="9" t="s">
         <v>298</v>
@@ -9758,69 +9883,69 @@
         <v>17</v>
       </c>
       <c r="C127" s="7">
-        <v>300976</v>
+        <v>300980</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="E127" s="9" t="s">
-        <v>236</v>
+        <v>300</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="H127" s="5">
-        <v>168</v>
+        <v>32.770000000000003</v>
       </c>
       <c r="I127" s="5">
-        <v>162</v>
+        <v>45</v>
       </c>
       <c r="J127" s="2">
-        <v>191</v>
+        <v>50</v>
       </c>
       <c r="K127" s="2">
-        <v>228</v>
+        <v>70</v>
       </c>
       <c r="L127" s="2">
-        <v>288</v>
+        <v>88</v>
       </c>
       <c r="M127" s="9" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
     </row>
     <row r="128" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B128" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C128" s="7">
+        <v>605086</v>
+      </c>
+      <c r="D128" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="E128" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="H128" s="5">
+        <v>12.86</v>
+      </c>
+      <c r="I128" s="5">
         <v>17</v>
       </c>
-      <c r="C128" s="7">
-        <v>300973</v>
-      </c>
-      <c r="D128" s="9" t="s">
-        <v>311</v>
-      </c>
-      <c r="E128" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="H128" s="5">
-        <v>28.28</v>
-      </c>
-      <c r="I128" s="5">
-        <v>38</v>
-      </c>
       <c r="J128" s="2">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="K128" s="2">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="L128" s="2">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="M128" s="9" t="s">
-        <v>148</v>
+        <v>307</v>
       </c>
     </row>
     <row r="129" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -9828,104 +9953,104 @@
         <v>17</v>
       </c>
       <c r="C129" s="7">
-        <v>300972</v>
+        <v>300977</v>
       </c>
       <c r="D129" s="9" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="E129" s="9" t="s">
-        <v>314</v>
+        <v>236</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="H129" s="5">
-        <v>7.19</v>
+        <v>89.66</v>
       </c>
       <c r="I129" s="5">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="J129" s="2">
-        <v>20</v>
+        <v>133</v>
       </c>
       <c r="K129" s="2">
-        <v>30</v>
+        <v>158</v>
       </c>
       <c r="L129" s="2">
-        <v>39</v>
+        <v>223</v>
       </c>
       <c r="M129" s="9" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
     </row>
     <row r="130" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B130" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C130" s="7">
-        <v>605098</v>
+        <v>300976</v>
       </c>
       <c r="D130" s="9" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="E130" s="9" t="s">
-        <v>318</v>
+        <v>236</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="H130" s="5">
-        <v>27.58</v>
+        <v>168</v>
       </c>
       <c r="I130" s="5">
-        <v>41</v>
+        <v>162</v>
       </c>
       <c r="J130" s="2">
-        <v>59</v>
+        <v>191</v>
       </c>
       <c r="K130" s="2">
-        <v>77</v>
+        <v>228</v>
       </c>
       <c r="L130" s="2">
-        <v>99</v>
+        <v>288</v>
       </c>
       <c r="M130" s="9" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
     </row>
     <row r="131" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B131" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C131" s="7">
-        <v>601279</v>
+        <v>300973</v>
       </c>
       <c r="D131" s="9" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="E131" s="9" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="H131" s="5">
-        <v>2.0699999999999998</v>
+        <v>28.28</v>
       </c>
       <c r="I131" s="5">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="J131" s="2">
-        <v>3.5</v>
+        <v>45</v>
       </c>
       <c r="K131" s="2">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="L131" s="2">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="M131" s="9" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="132" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -9933,104 +10058,104 @@
         <v>17</v>
       </c>
       <c r="C132" s="7">
-        <v>300971</v>
+        <v>300972</v>
       </c>
       <c r="D132" s="9" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="E132" s="9" t="s">
-        <v>254</v>
+        <v>314</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="H132" s="5">
-        <v>18.239999999999998</v>
+        <v>7.19</v>
       </c>
       <c r="I132" s="5">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="J132" s="2">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="K132" s="2">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="L132" s="2">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="M132" s="9" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="133" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B133" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C133" s="7">
-        <v>300968</v>
+        <v>605098</v>
       </c>
       <c r="D133" s="9" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="E133" s="9" t="s">
-        <v>229</v>
+        <v>318</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="H133" s="5">
-        <v>6.87</v>
+        <v>27.58</v>
       </c>
       <c r="I133" s="5">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="J133" s="2">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="K133" s="2">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="L133" s="2">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="M133" s="9" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
     </row>
     <row r="134" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B134" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C134" s="7">
-        <v>688663</v>
+        <v>601279</v>
       </c>
       <c r="D134" s="9" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="E134" s="9" t="s">
-        <v>229</v>
+        <v>318</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="H134" s="5">
-        <v>14.48</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="I134" s="5">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="J134" s="2">
-        <v>29</v>
+        <v>3.5</v>
       </c>
       <c r="K134" s="2">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="L134" s="2">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M134" s="9" t="s">
-        <v>334</v>
+        <v>159</v>
       </c>
     </row>
     <row r="135" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -10038,136 +10163,139 @@
         <v>17</v>
       </c>
       <c r="C135" s="7">
-        <v>300967</v>
+        <v>300971</v>
       </c>
       <c r="D135" s="9" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="E135" s="9" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="H135" s="5">
-        <v>4.54</v>
+        <v>18.239999999999998</v>
       </c>
       <c r="I135" s="5">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="J135" s="2">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="K135" s="2">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="L135" s="2">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="M135" s="9" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
     </row>
     <row r="136" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B136" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C136" s="7">
-        <v>688315</v>
+        <v>300968</v>
       </c>
       <c r="D136" s="9" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="E136" s="9" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="H136" s="5">
-        <v>12.76</v>
+        <v>6.87</v>
       </c>
       <c r="I136" s="5">
+        <v>18</v>
+      </c>
+      <c r="J136" s="2">
+        <v>12</v>
+      </c>
+      <c r="K136" s="2">
         <v>25</v>
       </c>
-      <c r="J136" s="2">
-        <v>30</v>
-      </c>
-      <c r="K136" s="2">
-        <v>38</v>
-      </c>
       <c r="L136" s="2">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="M136" s="9" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
     </row>
     <row r="137" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B137" s="2" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C137" s="7">
-        <v>605378</v>
+        <v>688663</v>
       </c>
       <c r="D137" s="9" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="E137" s="9" t="s">
-        <v>340</v>
+        <v>229</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="H137" s="5">
-        <v>17.62</v>
+        <v>14.48</v>
       </c>
       <c r="I137" s="5">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J137" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K137" s="2">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="L137" s="2">
-        <v>45</v>
+        <v>58</v>
+      </c>
+      <c r="M137" s="9" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="138" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B138" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C138" s="7">
-        <v>688611</v>
+        <v>300967</v>
       </c>
       <c r="D138" s="9" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="E138" s="9" t="s">
-        <v>342</v>
+        <v>229</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="H138" s="5">
-        <v>33.44</v>
+        <v>4.54</v>
       </c>
       <c r="I138" s="5">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="J138" s="2">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="K138" s="2">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="L138" s="2">
-        <v>122</v>
+        <v>39</v>
       </c>
       <c r="M138" s="9" t="s">
-        <v>111</v>
+        <v>333</v>
       </c>
     </row>
     <row r="139" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -10175,174 +10303,171 @@
         <v>41</v>
       </c>
       <c r="C139" s="7">
-        <v>688683</v>
+        <v>688315</v>
       </c>
       <c r="D139" s="9" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="E139" s="9" t="s">
         <v>254</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="H139" s="5">
-        <v>9.51</v>
+        <v>12.76</v>
       </c>
       <c r="I139" s="5">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="J139" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K139" s="2">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="L139" s="2">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="M139" s="9" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
     </row>
     <row r="140" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B140" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C140" s="7">
-        <v>300966</v>
+        <v>605378</v>
       </c>
       <c r="D140" s="9" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="E140" s="9" t="s">
-        <v>229</v>
+        <v>340</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="H140" s="5">
-        <v>8.24</v>
+        <v>17.62</v>
       </c>
       <c r="I140" s="5">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="J140" s="2">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K140" s="2">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="L140" s="2">
-        <v>48</v>
-      </c>
-      <c r="M140" s="9" t="s">
-        <v>348</v>
+        <v>45</v>
       </c>
     </row>
     <row r="141" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B141" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C141" s="7">
-        <v>300970</v>
+        <v>688611</v>
       </c>
       <c r="D141" s="9" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="E141" s="9" t="s">
-        <v>229</v>
+        <v>342</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="H141" s="5">
-        <v>44.77</v>
+        <v>33.44</v>
       </c>
       <c r="I141" s="5">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J141" s="2">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K141" s="2">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="L141" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M141" s="9" t="s">
-        <v>352</v>
+        <v>111</v>
       </c>
     </row>
     <row r="142" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B142" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C142" s="7">
-        <v>300969</v>
+        <v>688683</v>
       </c>
       <c r="D142" s="9" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="E142" s="9" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="H142" s="5">
-        <v>20.68</v>
+        <v>9.51</v>
       </c>
       <c r="I142" s="5">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J142" s="2">
+        <v>20</v>
+      </c>
+      <c r="K142" s="2">
+        <v>28</v>
+      </c>
+      <c r="L142" s="2">
         <v>38</v>
       </c>
-      <c r="K142" s="2">
-        <v>48</v>
-      </c>
-      <c r="L142" s="2">
-        <v>75</v>
-      </c>
       <c r="M142" s="9" t="s">
-        <v>159</v>
+        <v>346</v>
       </c>
     </row>
     <row r="143" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B143" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C143" s="7">
-        <v>688468</v>
+        <v>300966</v>
       </c>
       <c r="D143" s="9" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="E143" s="9" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="H143" s="5">
-        <v>7.15</v>
+        <v>8.24</v>
       </c>
       <c r="I143" s="5">
         <v>18</v>
       </c>
       <c r="J143" s="2">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="K143" s="2">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L143" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="M143" s="9" t="s">
-        <v>60</v>
+        <v>348</v>
       </c>
     </row>
     <row r="144" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -10350,68 +10475,173 @@
         <v>17</v>
       </c>
       <c r="C144" s="7">
-        <v>300963</v>
+        <v>300970</v>
       </c>
       <c r="D144" s="9" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="E144" s="9" t="s">
         <v>229</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="H144" s="5">
-        <v>12.13</v>
+        <v>44.77</v>
       </c>
       <c r="I144" s="5">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="J144" s="2">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="K144" s="2">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="L144" s="2">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="M144" s="9" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
     </row>
     <row r="145" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B145" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C145" s="7">
+        <v>300969</v>
+      </c>
+      <c r="D145" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="E145" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="H145" s="5">
+        <v>20.68</v>
+      </c>
+      <c r="I145" s="5">
+        <v>30</v>
+      </c>
+      <c r="J145" s="2">
+        <v>38</v>
+      </c>
+      <c r="K145" s="2">
+        <v>48</v>
+      </c>
+      <c r="L145" s="2">
+        <v>75</v>
+      </c>
+      <c r="M145" s="9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="146" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B146" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C145" s="7">
+      <c r="C146" s="7">
+        <v>688468</v>
+      </c>
+      <c r="D146" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="E146" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="H146" s="5">
+        <v>7.15</v>
+      </c>
+      <c r="I146" s="5">
+        <v>18</v>
+      </c>
+      <c r="J146" s="2">
+        <v>15</v>
+      </c>
+      <c r="K146" s="2">
+        <v>25</v>
+      </c>
+      <c r="L146" s="2">
+        <v>38</v>
+      </c>
+      <c r="M146" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="147" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B147" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C147" s="7">
+        <v>300963</v>
+      </c>
+      <c r="D147" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="E147" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="H147" s="5">
+        <v>12.13</v>
+      </c>
+      <c r="I147" s="5">
+        <v>20</v>
+      </c>
+      <c r="J147" s="2">
+        <v>25</v>
+      </c>
+      <c r="K147" s="2">
+        <v>30</v>
+      </c>
+      <c r="L147" s="2">
+        <v>50</v>
+      </c>
+      <c r="M147" s="9" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="148" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B148" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C148" s="7">
         <v>688636</v>
       </c>
-      <c r="D145" s="9" t="s">
+      <c r="D148" s="9" t="s">
         <v>360</v>
       </c>
-      <c r="E145" s="9" t="s">
+      <c r="E148" s="9" t="s">
         <v>361</v>
       </c>
-      <c r="F145" s="2" t="s">
+      <c r="F148" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="H145" s="5">
+      <c r="H148" s="5">
         <v>34.5</v>
       </c>
-      <c r="I145" s="5">
+      <c r="I148" s="5">
         <v>58</v>
       </c>
-      <c r="J145" s="2">
+      <c r="J148" s="2">
         <v>80</v>
       </c>
-      <c r="K145" s="2">
+      <c r="K148" s="2">
         <v>90</v>
       </c>
-      <c r="L145" s="2">
+      <c r="L148" s="2">
         <v>138</v>
       </c>
-      <c r="M145" s="9" t="s">
+      <c r="M148" s="9" t="s">
         <v>363</v>
       </c>
     </row>

--- a/次新股.xlsx
+++ b/次新股.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="487">
   <si>
     <t>个股代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4849,6 +4849,92 @@
     </rPh>
     <rPh sb="37" eb="38">
       <t>tai gao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申菱环境</t>
+  </si>
+  <si>
+    <t>以空调来调节室内环境的营运企业，简单一点就是特殊一点的空调企业，技术含量一般，有一定的市场，但是空间不算很大，报告期内业绩比较稳定，但是利润包含很多补贴，应收账也有点多。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制冷空调</t>
+    <rPh sb="0" eb="1">
+      <t>zhi len</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>kong t</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密封科技</t>
+  </si>
+  <si>
+    <t>作为汽车配件中的密封垫片，产品最终用于燃油车，发行人产品市占率非常高，算是行业前列部队，但是业绩增速不高，一般的制造业，市场给的估值都不高。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>威腾电气</t>
+  </si>
+  <si>
+    <t>母线替代电缆有科技预期，发行人在国内也算行业前队，但低利润率的行业注定是密集型加工行业。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江南奕帆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要产品是输配电行业储能减速电机和房车减速电机，后者概念比较特别和稀缺性，房车在国内市场不大，市场增速也不高，如果以配电电机概念估值也不高。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新中港</t>
+  </si>
+  <si>
+    <t>采用热电联产的方式进行热力产品和电力产品的生产及供应。煤炭、天然气作为发电燃料，是一家传统的电力企业。</t>
+    <rPh sb="27" eb="28">
+      <t>mei t</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>tian ran q</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>zuo w</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>fa dian</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ran l</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>s</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>yi jia</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>chuan t</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>d</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>dian l</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>qi y</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电机</t>
+    <rPh sb="0" eb="1">
+      <t>dian ji</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5320,10 +5406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O148"/>
+  <dimension ref="A1:O152"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="34" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5420,231 +5506,262 @@
     <row r="7" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C7" s="7">
-        <v>688239</v>
+        <v>605162</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>467</v>
+        <v>484</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>387</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>468</v>
+        <v>485</v>
       </c>
       <c r="G7" s="2">
-        <v>22.86</v>
+        <v>16.18</v>
       </c>
       <c r="H7" s="5">
-        <v>11.48</v>
+        <v>6.07</v>
       </c>
       <c r="I7" s="5">
-        <v>26.67</v>
+        <v>10.49</v>
       </c>
       <c r="J7" s="2">
-        <v>33.33</v>
+        <v>9.99</v>
       </c>
       <c r="K7" s="6">
-        <v>40</v>
+        <v>13.73</v>
       </c>
       <c r="L7" s="6">
-        <v>56.67</v>
+        <v>20.23</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>469</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
+      <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="7">
+        <v>301023</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="G8" s="2">
+        <v>35.18</v>
+      </c>
+      <c r="H8" s="5">
+        <v>58.31</v>
+      </c>
+      <c r="I8" s="5">
+        <v>80.349999999999994</v>
+      </c>
+      <c r="J8" s="5">
+        <v>107.14</v>
+      </c>
+      <c r="K8" s="2">
+        <v>133.91999999999999</v>
+      </c>
+      <c r="L8" s="6">
+        <v>200.88</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="9" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="2" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C9" s="7">
-        <v>605287</v>
+        <v>688239</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>236</v>
+        <v>387</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>474</v>
+        <v>468</v>
+      </c>
+      <c r="G9" s="2">
+        <v>22.86</v>
       </c>
       <c r="H9" s="5">
-        <v>31.56</v>
+        <v>11.48</v>
       </c>
       <c r="I9" s="5">
+        <v>26.67</v>
+      </c>
+      <c r="J9" s="2">
+        <v>33.33</v>
+      </c>
+      <c r="K9" s="6">
         <v>40</v>
       </c>
-      <c r="J9" s="2">
-        <v>45</v>
-      </c>
-      <c r="K9" s="6">
-        <v>60</v>
-      </c>
       <c r="L9" s="6">
-        <v>100</v>
+        <v>56.67</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>298</v>
+        <v>469</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C10" s="7">
-        <v>301021</v>
+        <v>688226</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="H10" s="5">
-        <v>9.4600000000000009</v>
+        <v>6.42</v>
       </c>
       <c r="I10" s="5">
-        <v>21.76</v>
+        <v>12.82</v>
       </c>
       <c r="J10" s="2">
-        <v>25.06</v>
+        <v>16.03</v>
       </c>
       <c r="K10" s="6">
-        <v>26.38</v>
+        <v>17.95</v>
       </c>
       <c r="L10" s="6">
-        <v>52.75</v>
+        <v>32.049999999999997</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>472</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C11" s="7">
-        <v>605028</v>
+        <v>301020</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>465</v>
+        <v>478</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>387</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>466</v>
+        <v>479</v>
       </c>
       <c r="H11" s="5">
-        <v>14.18</v>
+        <v>10.64</v>
       </c>
       <c r="I11" s="5">
-        <v>23.75</v>
+        <v>26.67</v>
       </c>
       <c r="J11" s="2">
-        <v>25</v>
+        <v>29.17</v>
       </c>
       <c r="K11" s="6">
-        <v>31.25</v>
+        <v>33.33</v>
       </c>
       <c r="L11" s="6">
         <v>50</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>260</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C12" s="7">
-        <v>688161</v>
+        <v>301018</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>443</v>
+        <v>387</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="G12" s="2">
-        <v>26.88</v>
+        <v>476</v>
       </c>
       <c r="H12" s="5">
-        <v>36.22</v>
+        <v>8.2899999999999991</v>
       </c>
       <c r="I12" s="5">
-        <v>62.5</v>
+        <v>15.83</v>
       </c>
       <c r="J12" s="2">
-        <v>70</v>
+        <v>16.670000000000002</v>
       </c>
       <c r="K12" s="6">
-        <v>75</v>
+        <v>24.17</v>
       </c>
       <c r="L12" s="6">
-        <v>100</v>
+        <v>33.33</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>463</v>
+        <v>477</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C13" s="7">
-        <v>688499</v>
+        <v>605287</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>300</v>
+        <v>236</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="G13" s="2">
-        <v>27.44</v>
+        <v>474</v>
       </c>
       <c r="H13" s="5">
-        <v>38.85</v>
+        <v>31.56</v>
       </c>
       <c r="I13" s="5">
-        <v>90.91</v>
+        <v>40</v>
       </c>
       <c r="J13" s="2">
-        <v>113.64</v>
+        <v>45</v>
       </c>
       <c r="K13" s="6">
-        <v>136.36000000000001</v>
+        <v>60</v>
       </c>
       <c r="L13" s="6">
-        <v>202.27</v>
+        <v>100</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>461</v>
+        <v>298</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -5653,154 +5770,148 @@
         <v>17</v>
       </c>
       <c r="C14" s="7">
-        <v>301016</v>
+        <v>301021</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>457</v>
+        <v>470</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>387</v>
+        <v>254</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="G14" s="2">
-        <v>15.06</v>
+        <v>471</v>
       </c>
       <c r="H14" s="5">
-        <v>13.75</v>
+        <v>9.4600000000000009</v>
       </c>
       <c r="I14" s="5">
-        <v>23.33</v>
+        <v>21.76</v>
       </c>
       <c r="J14" s="2">
-        <v>29.17</v>
+        <v>25.06</v>
       </c>
       <c r="K14" s="6">
-        <v>41.67</v>
+        <v>26.38</v>
       </c>
       <c r="L14" s="6">
-        <v>58.33</v>
+        <v>52.75</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>435</v>
+        <v>472</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C15" s="7">
-        <v>301017</v>
+        <v>605028</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>387</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="G15" s="2">
-        <v>16.600000000000001</v>
+        <v>466</v>
       </c>
       <c r="H15" s="5">
-        <v>8.86</v>
+        <v>14.18</v>
       </c>
       <c r="I15" s="5">
-        <v>14.8</v>
+        <v>23.75</v>
       </c>
       <c r="J15" s="2">
-        <v>17.27</v>
+        <v>25</v>
       </c>
       <c r="K15" s="6">
-        <v>20.23</v>
+        <v>31.25</v>
       </c>
       <c r="L15" s="6">
-        <v>37.01</v>
+        <v>50</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>456</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="2" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C16" s="7">
-        <v>603171</v>
+        <v>688161</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>450</v>
+        <v>464</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>451</v>
+        <v>462</v>
       </c>
       <c r="G16" s="2">
-        <v>22.99</v>
+        <v>26.88</v>
       </c>
       <c r="H16" s="5">
-        <v>13.33</v>
+        <v>36.22</v>
       </c>
       <c r="I16" s="5">
-        <v>20.2</v>
+        <v>62.5</v>
       </c>
       <c r="J16" s="2">
-        <v>24.64</v>
+        <v>70</v>
       </c>
       <c r="K16" s="6">
-        <v>29.56</v>
+        <v>75</v>
       </c>
       <c r="L16" s="6">
-        <v>41.88</v>
+        <v>100</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="2" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C17" s="7">
-        <v>605011</v>
+        <v>688499</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>387</v>
+        <v>300</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>449</v>
+        <v>460</v>
       </c>
       <c r="G17" s="2">
-        <v>12.65</v>
+        <v>27.44</v>
       </c>
       <c r="H17" s="5">
-        <v>6.17</v>
+        <v>38.85</v>
       </c>
       <c r="I17" s="5">
-        <v>12.5</v>
+        <v>90.91</v>
       </c>
       <c r="J17" s="2">
-        <v>10</v>
+        <v>113.64</v>
       </c>
       <c r="K17" s="6">
-        <v>17.5</v>
+        <v>136.36000000000001</v>
       </c>
       <c r="L17" s="6">
-        <v>25.24</v>
+        <v>202.27</v>
       </c>
       <c r="M17" s="9" t="s">
-        <v>260</v>
+        <v>461</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -5809,37 +5920,37 @@
         <v>17</v>
       </c>
       <c r="C18" s="7">
-        <v>301022</v>
+        <v>301016</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>387</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="G18" s="2">
-        <v>34.82</v>
+        <v>15.06</v>
       </c>
       <c r="H18" s="5">
-        <v>32.29</v>
+        <v>13.75</v>
       </c>
       <c r="I18" s="5">
-        <v>39</v>
+        <v>23.33</v>
       </c>
       <c r="J18" s="2">
-        <v>55</v>
+        <v>29.17</v>
       </c>
       <c r="K18" s="6">
-        <v>62</v>
+        <v>41.67</v>
       </c>
       <c r="L18" s="6">
-        <v>78</v>
+        <v>58.33</v>
       </c>
       <c r="M18" s="9" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -5848,154 +5959,154 @@
         <v>17</v>
       </c>
       <c r="C19" s="7">
-        <v>301015</v>
+        <v>301017</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>441</v>
+        <v>454</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>443</v>
+        <v>387</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>442</v>
+        <v>455</v>
       </c>
       <c r="G19" s="2">
-        <v>15.25</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="H19" s="5">
-        <v>7.64</v>
+        <v>8.86</v>
       </c>
       <c r="I19" s="5">
-        <v>18.09</v>
+        <v>14.8</v>
       </c>
       <c r="J19" s="2">
-        <v>15.24</v>
+        <v>17.27</v>
       </c>
       <c r="K19" s="6">
-        <v>22.85</v>
+        <v>20.23</v>
       </c>
       <c r="L19" s="6">
-        <v>38.090000000000003</v>
+        <v>37.01</v>
       </c>
       <c r="M19" s="9" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C20" s="7">
-        <v>301019</v>
+        <v>603171</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>439</v>
+        <v>452</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="G20" s="2">
-        <v>23.7</v>
+        <v>22.99</v>
       </c>
       <c r="H20" s="5">
-        <v>28.94</v>
+        <v>13.33</v>
       </c>
       <c r="I20" s="5">
-        <v>43</v>
+        <v>20.2</v>
       </c>
       <c r="J20" s="2">
-        <v>50</v>
+        <v>24.64</v>
       </c>
       <c r="K20" s="6">
-        <v>56</v>
+        <v>29.56</v>
       </c>
       <c r="L20" s="6">
-        <v>82</v>
+        <v>41.88</v>
       </c>
       <c r="M20" s="9" t="s">
-        <v>173</v>
+        <v>453</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C21" s="7">
-        <v>301013</v>
+        <v>605011</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>387</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="G21" s="2">
-        <v>17.149999999999999</v>
+        <v>12.65</v>
       </c>
       <c r="H21" s="5">
-        <v>8.7200000000000006</v>
+        <v>6.17</v>
       </c>
       <c r="I21" s="5">
-        <v>20</v>
+        <v>12.5</v>
       </c>
       <c r="J21" s="2">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="K21" s="6">
-        <v>28</v>
+        <v>17.5</v>
       </c>
       <c r="L21" s="6">
-        <v>38</v>
+        <v>25.24</v>
       </c>
       <c r="M21" s="9" t="s">
-        <v>378</v>
+        <v>260</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C22" s="7">
-        <v>688367</v>
+        <v>301022</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>300</v>
+        <v>387</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>433</v>
+        <v>446</v>
       </c>
       <c r="G22" s="2">
-        <v>26.21</v>
+        <v>34.82</v>
       </c>
       <c r="H22" s="5">
-        <v>11.53</v>
+        <v>32.29</v>
       </c>
       <c r="I22" s="5">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="J22" s="2">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="K22" s="6">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="L22" s="6">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="M22" s="9" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -6004,115 +6115,115 @@
         <v>17</v>
       </c>
       <c r="C23" s="7">
-        <v>301004</v>
+        <v>301015</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>236</v>
+        <v>443</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="G23" s="2">
-        <v>14.98</v>
+        <v>15.25</v>
       </c>
       <c r="H23" s="5">
-        <v>7.81</v>
+        <v>7.64</v>
       </c>
       <c r="I23" s="5">
-        <v>25</v>
+        <v>18.09</v>
       </c>
       <c r="J23" s="2">
-        <v>20</v>
+        <v>15.24</v>
       </c>
       <c r="K23" s="6">
-        <v>30</v>
+        <v>22.85</v>
       </c>
       <c r="L23" s="6">
-        <v>48</v>
+        <v>38.090000000000003</v>
       </c>
       <c r="M23" s="9" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C24" s="7">
-        <v>688601</v>
+        <v>301019</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>427</v>
+        <v>440</v>
       </c>
       <c r="G24" s="2">
-        <v>44.31</v>
+        <v>23.7</v>
       </c>
       <c r="H24" s="5">
-        <v>36.479999999999997</v>
+        <v>28.94</v>
       </c>
       <c r="I24" s="5">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="J24" s="2">
-        <v>156</v>
+        <v>50</v>
       </c>
       <c r="K24" s="6">
-        <v>168</v>
+        <v>56</v>
       </c>
       <c r="L24" s="6">
-        <v>235</v>
+        <v>82</v>
       </c>
       <c r="M24" s="9" t="s">
-        <v>409</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C25" s="7">
-        <v>688276</v>
+        <v>301013</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>422</v>
+        <v>436</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>300</v>
+        <v>387</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>423</v>
+        <v>437</v>
       </c>
       <c r="G25" s="2">
-        <v>37.340000000000003</v>
+        <v>17.149999999999999</v>
       </c>
       <c r="H25" s="5">
-        <v>36.35</v>
+        <v>8.7200000000000006</v>
       </c>
       <c r="I25" s="5">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="J25" s="2">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="K25" s="6">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="L25" s="6">
-        <v>121</v>
+        <v>38</v>
       </c>
       <c r="M25" s="9" t="s">
-        <v>424</v>
+        <v>378</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -6121,115 +6232,115 @@
         <v>41</v>
       </c>
       <c r="C26" s="7">
-        <v>688690</v>
+        <v>688367</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>418</v>
+        <v>434</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>420</v>
+        <v>300</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>419</v>
+        <v>433</v>
       </c>
       <c r="G26" s="2">
-        <v>51.04</v>
+        <v>26.21</v>
       </c>
       <c r="H26" s="5">
-        <v>8.07</v>
+        <v>11.53</v>
       </c>
       <c r="I26" s="5">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J26" s="2">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="K26" s="6">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="L26" s="6">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="M26" s="9" t="s">
-        <v>421</v>
+        <v>435</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>416</v>
+        <v>17</v>
+      </c>
+      <c r="C27" s="7">
+        <v>301004</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>314</v>
+        <v>236</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="G27" s="2">
-        <v>22.98</v>
+        <v>14.98</v>
       </c>
       <c r="H27" s="5">
-        <v>3.67</v>
+        <v>7.81</v>
       </c>
       <c r="I27" s="5">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="J27" s="2">
-        <v>9.36</v>
+        <v>20</v>
       </c>
       <c r="K27" s="6">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L27" s="6">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="M27" s="9" t="s">
-        <v>111</v>
+        <v>432</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C28" s="7">
-        <v>301012</v>
+        <v>688601</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>412</v>
+        <v>428</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>387</v>
+        <v>429</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>413</v>
+        <v>427</v>
       </c>
       <c r="G28" s="2">
-        <v>14.6</v>
+        <v>44.31</v>
       </c>
       <c r="H28" s="5">
-        <v>8.0500000000000007</v>
+        <v>36.479999999999997</v>
       </c>
       <c r="I28" s="5">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="J28" s="2">
-        <v>24</v>
+        <v>156</v>
       </c>
       <c r="K28" s="6">
-        <v>36</v>
+        <v>168</v>
       </c>
       <c r="L28" s="6">
-        <v>60</v>
+        <v>235</v>
       </c>
       <c r="M28" s="9" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -6238,37 +6349,37 @@
         <v>41</v>
       </c>
       <c r="C29" s="7">
-        <v>688216</v>
+        <v>688276</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>408</v>
+        <v>422</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>254</v>
+        <v>300</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>410</v>
+        <v>423</v>
       </c>
       <c r="G29" s="2">
-        <v>21.11</v>
+        <v>37.340000000000003</v>
       </c>
       <c r="H29" s="5">
-        <v>14.82</v>
+        <v>36.35</v>
       </c>
       <c r="I29" s="5">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="J29" s="2">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="K29" s="6">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="L29" s="6">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="M29" s="9" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -6277,37 +6388,37 @@
         <v>41</v>
       </c>
       <c r="C30" s="7">
-        <v>688425</v>
+        <v>688690</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>405</v>
+        <v>418</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>387</v>
+        <v>420</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>406</v>
+        <v>419</v>
       </c>
       <c r="G30" s="2">
-        <v>10.54</v>
+        <v>51.04</v>
       </c>
       <c r="H30" s="5">
-        <v>2.87</v>
+        <v>8.07</v>
       </c>
       <c r="I30" s="5">
-        <v>4.8</v>
+        <v>20</v>
       </c>
       <c r="J30" s="2">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="K30" s="6">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="L30" s="6">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="M30" s="9" t="s">
-        <v>407</v>
+        <v>421</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -6316,76 +6427,76 @@
         <v>72</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>401</v>
+        <v>416</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>403</v>
+        <v>417</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>288</v>
+        <v>314</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="G31" s="2">
-        <v>22.99</v>
+        <v>22.98</v>
       </c>
       <c r="H31" s="5">
-        <v>14.27</v>
+        <v>3.67</v>
       </c>
       <c r="I31" s="5">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="J31" s="2">
-        <v>25</v>
+        <v>9.36</v>
       </c>
       <c r="K31" s="6">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="L31" s="6">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="M31" s="9" t="s">
-        <v>404</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="B32" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C32" s="7">
-        <v>688621</v>
+        <v>301012</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>397</v>
+        <v>412</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>300</v>
+        <v>387</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>398</v>
+        <v>413</v>
       </c>
       <c r="G32" s="2">
-        <v>29.72</v>
+        <v>14.6</v>
       </c>
       <c r="H32" s="5">
-        <v>26.89</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="I32" s="5">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="J32" s="2">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="K32" s="6">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="L32" s="6">
-        <v>168</v>
+        <v>60</v>
       </c>
       <c r="M32" s="9" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -6394,232 +6505,232 @@
         <v>41</v>
       </c>
       <c r="C33" s="7">
-        <v>688517</v>
+        <v>688216</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>394</v>
+        <v>408</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="G33" s="2">
-        <v>15.28</v>
+        <v>21.11</v>
       </c>
       <c r="H33" s="5">
-        <v>7.71</v>
+        <v>14.82</v>
       </c>
       <c r="I33" s="5">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="J33" s="2">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="K33" s="6">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="L33" s="6">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="M33" s="9" t="s">
-        <v>111</v>
+        <v>409</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="B34" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C34" s="7">
-        <v>300984</v>
+        <v>688425</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="E34" s="9" t="s">
         <v>387</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="G34" s="2">
-        <v>29.28</v>
+        <v>10.54</v>
       </c>
       <c r="H34" s="5">
-        <v>30.97</v>
+        <v>2.87</v>
       </c>
       <c r="I34" s="5">
-        <v>52</v>
+        <v>4.8</v>
       </c>
       <c r="J34" s="2">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="K34" s="6">
-        <v>83</v>
+        <v>7</v>
       </c>
       <c r="L34" s="6">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="M34" s="9" t="s">
-        <v>393</v>
+        <v>407</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35" s="7">
-        <v>301011</v>
+        <v>72</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>401</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>387</v>
+        <v>288</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="G35" s="2">
-        <v>26.76</v>
+        <v>22.99</v>
       </c>
       <c r="H35" s="5">
-        <v>14.2</v>
+        <v>14.27</v>
       </c>
       <c r="I35" s="5">
+        <v>19</v>
+      </c>
+      <c r="J35" s="2">
+        <v>25</v>
+      </c>
+      <c r="K35" s="6">
         <v>28</v>
       </c>
-      <c r="J35" s="2">
-        <v>35</v>
-      </c>
-      <c r="K35" s="6">
-        <v>42</v>
-      </c>
       <c r="L35" s="6">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="M35" s="9" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="B36" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C36" s="7">
-        <v>301010</v>
+        <v>688621</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>387</v>
+        <v>300</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="G36" s="2">
-        <v>15.23</v>
+        <v>29.72</v>
       </c>
       <c r="H36" s="5">
-        <v>7.83</v>
+        <v>26.89</v>
       </c>
       <c r="I36" s="5">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="J36" s="2">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="K36" s="6">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="L36" s="6">
-        <v>56</v>
+        <v>168</v>
       </c>
       <c r="M36" s="9" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="2" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C37" s="7">
-        <v>601665</v>
+        <v>688517</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="E37" s="9" t="s">
         <v>236</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="G37" s="2">
-        <v>10.28</v>
+        <v>15.28</v>
       </c>
       <c r="H37" s="5">
-        <v>5.36</v>
+        <v>7.71</v>
       </c>
       <c r="I37" s="5">
-        <v>4.18</v>
+        <v>13</v>
       </c>
       <c r="J37" s="2">
-        <v>4.5</v>
+        <v>15</v>
       </c>
       <c r="K37" s="6">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="L37" s="6">
-        <v>8.1999999999999993</v>
+        <v>35</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>176</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C38" s="7">
-        <v>688597</v>
+        <v>300984</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>236</v>
+        <v>387</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>382</v>
+        <v>396</v>
       </c>
       <c r="G38" s="2">
-        <v>17.46</v>
+        <v>29.28</v>
       </c>
       <c r="H38" s="5">
-        <v>5.88</v>
+        <v>30.97</v>
       </c>
       <c r="I38" s="5">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="J38" s="2">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="K38" s="6">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="L38" s="6">
-        <v>36</v>
+        <v>125</v>
       </c>
       <c r="M38" s="9" t="s">
-        <v>111</v>
+        <v>393</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -6628,61 +6739,61 @@
         <v>17</v>
       </c>
       <c r="C39" s="7">
-        <v>688597</v>
+        <v>301011</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>379</v>
+        <v>400</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>254</v>
+        <v>387</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="G39" s="2">
-        <v>16.920000000000002</v>
+        <v>26.76</v>
       </c>
       <c r="H39" s="5">
-        <v>12.54</v>
+        <v>14.2</v>
       </c>
       <c r="I39" s="5">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="J39" s="2">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K39" s="6">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="L39" s="6">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="M39" s="9" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
       <c r="B40" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C40" s="7">
-        <v>688700</v>
+        <v>301010</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>236</v>
+        <v>387</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="G40" s="2">
-        <v>17.55</v>
+        <v>15.23</v>
       </c>
       <c r="H40" s="5">
-        <v>9.41</v>
+        <v>7.83</v>
       </c>
       <c r="I40" s="5">
         <v>23</v>
@@ -6694,166 +6805,166 @@
         <v>35</v>
       </c>
       <c r="L40" s="6">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M40" s="9" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
       <c r="B41" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C41" s="7">
-        <v>688067</v>
+        <v>601665</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="G41" s="2">
-        <v>37.89</v>
+        <v>10.28</v>
       </c>
       <c r="H41" s="5">
-        <v>14.71</v>
+        <v>5.36</v>
       </c>
       <c r="I41" s="5">
-        <v>29.5</v>
+        <v>4.18</v>
       </c>
       <c r="J41" s="2">
-        <v>48</v>
+        <v>4.5</v>
       </c>
       <c r="K41" s="6">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="L41" s="6">
-        <v>88</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="M41" s="9" t="s">
-        <v>60</v>
+        <v>176</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
       <c r="B42" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" s="7">
+        <v>688597</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G42" s="2">
+        <v>17.46</v>
+      </c>
+      <c r="H42" s="5">
+        <v>5.88</v>
+      </c>
+      <c r="I42" s="5">
         <v>12</v>
       </c>
-      <c r="C42" s="7">
-        <v>603529</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>371</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="G42" s="2">
-        <v>21.9</v>
-      </c>
-      <c r="H42" s="5">
-        <v>27.86</v>
-      </c>
-      <c r="I42" s="5">
-        <v>49</v>
-      </c>
       <c r="J42" s="2">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="K42" s="6">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="L42" s="6">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="M42" s="9" t="s">
-        <v>373</v>
+        <v>111</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
       <c r="B43" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C43" s="7">
-        <v>688681</v>
+        <v>688597</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="G43" s="2">
-        <v>18.91</v>
+        <v>16.920000000000002</v>
       </c>
       <c r="H43" s="5">
-        <v>9.56</v>
+        <v>12.54</v>
       </c>
       <c r="I43" s="5">
         <v>18</v>
       </c>
       <c r="J43" s="2">
-        <v>23.8</v>
+        <v>25</v>
       </c>
       <c r="K43" s="6">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L43" s="6">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M43" s="9" t="s">
-        <v>111</v>
+        <v>381</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
       <c r="B44" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C44" s="7">
-        <v>301007</v>
+        <v>688700</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="G44" s="2">
-        <v>17.3</v>
+        <v>17.55</v>
       </c>
       <c r="H44" s="5">
-        <v>5.29</v>
+        <v>9.41</v>
       </c>
       <c r="I44" s="5">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="J44" s="2">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="K44" s="6">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="L44" s="6">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="M44" s="9" t="s">
-        <v>159</v>
+        <v>378</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -6862,37 +6973,37 @@
         <v>41</v>
       </c>
       <c r="C45" s="7">
-        <v>688345</v>
+        <v>688067</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="E45" s="9" t="s">
         <v>229</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="G45" s="2">
-        <v>22.15</v>
+        <v>37.89</v>
       </c>
       <c r="H45" s="5">
-        <v>25.91</v>
+        <v>14.71</v>
       </c>
       <c r="I45" s="5">
-        <v>40</v>
+        <v>29.5</v>
       </c>
       <c r="J45" s="2">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K45" s="6">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="L45" s="6">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="M45" s="9" t="s">
-        <v>365</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -6901,115 +7012,115 @@
         <v>12</v>
       </c>
       <c r="C46" s="7">
-        <v>605259</v>
+        <v>603529</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>220</v>
+        <v>371</v>
       </c>
       <c r="E46" s="9" t="s">
         <v>229</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>221</v>
+        <v>372</v>
       </c>
       <c r="G46" s="2">
-        <v>22.99</v>
+        <v>21.9</v>
       </c>
       <c r="H46" s="5">
-        <v>27.1</v>
+        <v>27.86</v>
       </c>
       <c r="I46" s="5">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J46" s="2">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="K46" s="6">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="L46" s="6">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="M46" s="9" t="s">
-        <v>222</v>
+        <v>373</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
       <c r="B47" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C47" s="7">
-        <v>301008</v>
+        <v>688681</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>217</v>
+        <v>369</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>218</v>
+        <v>370</v>
       </c>
       <c r="G47" s="2">
-        <v>35.200000000000003</v>
+        <v>18.91</v>
       </c>
       <c r="H47" s="5">
-        <v>37.6</v>
+        <v>9.56</v>
       </c>
       <c r="I47" s="5">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="J47" s="2">
-        <v>68</v>
+        <v>23.8</v>
       </c>
       <c r="K47" s="6">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="L47" s="6">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="M47" s="9" t="s">
-        <v>219</v>
+        <v>111</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
       <c r="B48" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C48" s="7">
-        <v>688269</v>
+        <v>301007</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>215</v>
+        <v>367</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>216</v>
+        <v>368</v>
       </c>
       <c r="G48" s="2">
-        <v>18.010000000000002</v>
+        <v>17.3</v>
       </c>
       <c r="H48" s="5">
-        <v>18.940000000000001</v>
+        <v>5.29</v>
       </c>
       <c r="I48" s="5">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="J48" s="2">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="K48" s="6">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="L48" s="6">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="M48" s="9" t="s">
-        <v>39</v>
+        <v>159</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -7018,378 +7129,394 @@
         <v>41</v>
       </c>
       <c r="C49" s="7">
-        <v>688131</v>
+        <v>688345</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="E49" s="12" t="s">
-        <v>411</v>
+        <v>366</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>229</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>214</v>
+        <v>364</v>
       </c>
       <c r="G49" s="2">
-        <v>40.729999999999997</v>
+        <v>22.15</v>
       </c>
       <c r="H49" s="5">
-        <v>64.989999999999995</v>
+        <v>25.91</v>
       </c>
       <c r="I49" s="5">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="J49" s="2">
-        <v>135</v>
+        <v>50</v>
       </c>
       <c r="K49" s="6">
-        <v>148</v>
+        <v>70</v>
       </c>
       <c r="L49" s="6">
-        <v>243</v>
+        <v>120</v>
       </c>
       <c r="M49" s="9" t="s">
-        <v>53</v>
+        <v>365</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
       <c r="B50" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C50" s="7">
-        <v>688319</v>
+        <v>605259</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="E50" s="12" t="s">
-        <v>411</v>
+        <v>220</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>229</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="G50" s="2">
-        <v>146.44999999999999</v>
+        <v>22.99</v>
       </c>
       <c r="H50" s="5">
-        <v>9.8800000000000008</v>
+        <v>27.1</v>
       </c>
       <c r="I50" s="5">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="J50" s="2">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="K50" s="6">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="L50" s="6">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="M50" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="O50" s="7" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
       <c r="B51" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C51" s="7">
-        <v>688625</v>
+        <v>301008</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>387</v>
+        <v>254</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>426</v>
+        <v>218</v>
       </c>
       <c r="G51" s="2">
-        <v>19.95</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="H51" s="5">
-        <v>16.48</v>
+        <v>37.6</v>
       </c>
       <c r="I51" s="5">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="J51" s="2">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="K51" s="6">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="L51" s="6">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="M51" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="O51" s="7" t="s">
-        <v>45</v>
+        <v>219</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4"/>
       <c r="B52" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C52" s="7">
-        <v>301006</v>
+        <v>688269</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>204</v>
+        <v>215</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>254</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="G52" s="2">
-        <v>12.61</v>
+        <v>18.010000000000002</v>
       </c>
       <c r="H52" s="5">
-        <v>14.42</v>
+        <v>18.940000000000001</v>
       </c>
       <c r="I52" s="5">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="J52" s="2">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K52" s="6">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="L52" s="6">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="M52" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="O52" s="7" t="s">
-        <v>207</v>
+        <v>39</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4"/>
       <c r="B53" s="2" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C53" s="7">
-        <v>601156</v>
+        <v>688131</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>202</v>
+        <v>213</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>411</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="G53" s="2">
-        <v>10.93</v>
+        <v>40.729999999999997</v>
       </c>
       <c r="H53" s="5">
-        <v>15.77</v>
+        <v>64.989999999999995</v>
       </c>
       <c r="I53" s="5">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c r="J53" s="2">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="K53" s="6">
-        <v>25</v>
+        <v>148</v>
       </c>
       <c r="L53" s="6">
-        <v>38</v>
+        <v>243</v>
       </c>
       <c r="M53" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="O53" s="7" t="s">
-        <v>201</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4"/>
       <c r="B54" s="2" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C54" s="7">
-        <v>605319</v>
+        <v>688319</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>198</v>
+        <v>209</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>411</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="G54" s="2">
-        <v>22.98</v>
+        <v>146.44999999999999</v>
       </c>
       <c r="H54" s="5">
-        <v>11.22</v>
+        <v>9.8800000000000008</v>
       </c>
       <c r="I54" s="5">
+        <v>18</v>
+      </c>
+      <c r="J54" s="2">
         <v>15</v>
-      </c>
-      <c r="J54" s="2">
-        <v>20</v>
       </c>
       <c r="K54" s="6">
         <v>25</v>
       </c>
       <c r="L54" s="6">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="M54" s="9" t="s">
-        <v>159</v>
+        <v>212</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
       <c r="B55" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C55" s="7">
-        <v>301002</v>
+        <v>688625</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>196</v>
+        <v>208</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>387</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>195</v>
+        <v>426</v>
       </c>
       <c r="G55" s="2">
-        <v>18.12</v>
+        <v>19.95</v>
       </c>
       <c r="H55" s="5">
-        <v>18.71</v>
+        <v>16.48</v>
       </c>
       <c r="I55" s="5">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="J55" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K55" s="6">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="L55" s="6">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="M55" s="9" t="s">
-        <v>197</v>
+        <v>39</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>194</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
       <c r="B56" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C56" s="7">
-        <v>688117</v>
+        <v>301006</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="G56" s="2">
-        <v>27.7</v>
-      </c>
-      <c r="K56" s="6"/>
-      <c r="L56" s="6"/>
+        <v>12.61</v>
+      </c>
+      <c r="H56" s="5">
+        <v>14.42</v>
+      </c>
+      <c r="I56" s="5">
+        <v>21</v>
+      </c>
+      <c r="J56" s="2">
+        <v>29</v>
+      </c>
+      <c r="K56" s="6">
+        <v>33</v>
+      </c>
+      <c r="L56" s="6">
+        <v>50</v>
+      </c>
+      <c r="M56" s="9" t="s">
+        <v>206</v>
+      </c>
       <c r="O56" s="7" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
     </row>
     <row r="57" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
       <c r="B57" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C57" s="7">
-        <v>300996</v>
+        <v>601156</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="G57" s="2">
-        <v>23.16</v>
+        <v>10.93</v>
       </c>
       <c r="H57" s="5">
-        <v>20.81</v>
+        <v>15.77</v>
       </c>
       <c r="I57" s="5">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="J57" s="2">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="K57" s="6">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="L57" s="6">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="M57" s="9" t="s">
-        <v>188</v>
+        <v>27</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
       <c r="B58" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C58" s="7">
-        <v>300997</v>
+        <v>605319</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="G58" s="2">
-        <v>12.76</v>
+        <v>22.98</v>
       </c>
       <c r="H58" s="5">
-        <v>4.9400000000000004</v>
+        <v>11.22</v>
       </c>
       <c r="I58" s="5">
         <v>15</v>
       </c>
       <c r="J58" s="2">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="K58" s="6">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="L58" s="6">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M58" s="9" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -7398,109 +7525,99 @@
         <v>17</v>
       </c>
       <c r="C59" s="7">
-        <v>300998</v>
+        <v>301002</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>425</v>
+        <v>195</v>
       </c>
       <c r="G59" s="2">
-        <v>16.940000000000001</v>
+        <v>18.12</v>
       </c>
       <c r="H59" s="5">
-        <v>6.02</v>
+        <v>18.71</v>
       </c>
       <c r="I59" s="5">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="J59" s="2">
-        <v>18.8</v>
+        <v>32</v>
       </c>
       <c r="K59" s="6">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="L59" s="6">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="M59" s="9" t="s">
-        <v>159</v>
+        <v>197</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
       <c r="B60" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C60" s="7">
-        <v>301005</v>
+        <v>688117</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="G60" s="2">
-        <v>26.64</v>
-      </c>
-      <c r="H60" s="5">
-        <v>36.450000000000003</v>
-      </c>
-      <c r="I60" s="5">
-        <v>43</v>
-      </c>
-      <c r="J60" s="2">
-        <v>52</v>
-      </c>
-      <c r="K60" s="6">
-        <v>70</v>
-      </c>
-      <c r="L60" s="6">
-        <v>105</v>
-      </c>
-      <c r="M60" s="9" t="s">
-        <v>159</v>
-      </c>
+        <v>27.7</v>
+      </c>
+      <c r="K60" s="6"/>
+      <c r="L60" s="6"/>
       <c r="O60" s="7" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
     </row>
     <row r="61" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4"/>
       <c r="B61" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C61" s="7">
-        <v>601528</v>
+        <v>300996</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>177</v>
+        <v>187</v>
+      </c>
+      <c r="G61" s="2">
+        <v>23.16</v>
       </c>
       <c r="H61" s="5">
-        <v>8.1199999999999992</v>
+        <v>20.81</v>
       </c>
       <c r="I61" s="5">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="J61" s="2">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="K61" s="6">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="L61" s="6">
-        <v>16.600000000000001</v>
+        <v>79</v>
       </c>
       <c r="M61" s="9" t="s">
-        <v>176</v>
+        <v>188</v>
+      </c>
+      <c r="O61" s="7" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="62" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -7509,76 +7626,76 @@
         <v>17</v>
       </c>
       <c r="C62" s="7">
-        <v>301003</v>
+        <v>300997</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="G62" s="2">
-        <v>32.01</v>
+        <v>12.76</v>
       </c>
       <c r="H62" s="5">
-        <v>55.88</v>
+        <v>4.9400000000000004</v>
       </c>
       <c r="I62" s="5">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="J62" s="2">
-        <v>85</v>
+        <v>11</v>
       </c>
       <c r="K62" s="6">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="L62" s="6">
-        <v>138</v>
+        <v>30</v>
       </c>
       <c r="M62" s="9" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
     </row>
     <row r="63" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4"/>
       <c r="B63" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C63" s="7">
-        <v>605296</v>
+        <v>300998</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>167</v>
+        <v>425</v>
       </c>
       <c r="G63" s="2">
-        <v>19.760000000000002</v>
+        <v>16.940000000000001</v>
       </c>
       <c r="H63" s="5">
-        <v>56.08</v>
+        <v>6.02</v>
       </c>
       <c r="I63" s="5">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="J63" s="2">
-        <v>50</v>
+        <v>18.8</v>
       </c>
       <c r="K63" s="6">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="L63" s="6">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="M63" s="9" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
     </row>
     <row r="64" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -7587,596 +7704,606 @@
         <v>17</v>
       </c>
       <c r="C64" s="7">
-        <v>301001</v>
+        <v>301005</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="G64" s="2">
-        <v>26.19</v>
+        <v>26.64</v>
       </c>
       <c r="H64" s="5">
-        <v>25.54</v>
+        <v>36.450000000000003</v>
       </c>
       <c r="I64" s="5">
         <v>43</v>
       </c>
       <c r="J64" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="K64" s="6">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="L64" s="6">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="M64" s="9" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
     </row>
     <row r="65" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4"/>
       <c r="B65" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C65" s="7">
-        <v>301000</v>
+        <v>601528</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>223</v>
+        <v>175</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="G65" s="2">
-        <v>35</v>
+        <v>177</v>
       </c>
       <c r="H65" s="5">
-        <v>64.31</v>
+        <v>8.1199999999999992</v>
       </c>
       <c r="I65" s="5">
-        <v>85</v>
+        <v>9</v>
       </c>
       <c r="J65" s="2">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="K65" s="6">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="L65" s="6">
-        <v>158</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="M65" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="O65" s="7" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
     </row>
     <row r="66" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
       <c r="B66" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C66" s="7">
-        <v>605189</v>
+        <v>301003</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="G66" s="2">
-        <v>22.99</v>
+        <v>32.01</v>
       </c>
       <c r="H66" s="5">
-        <v>19.95</v>
+        <v>55.88</v>
       </c>
       <c r="I66" s="5">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="J66" s="2">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="K66" s="6">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="L66" s="6">
-        <v>48</v>
+        <v>138</v>
       </c>
       <c r="M66" s="9" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
     </row>
     <row r="67" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4"/>
       <c r="B67" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C67" s="7">
-        <v>688538</v>
+        <v>605296</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
+      </c>
+      <c r="G67" s="2">
+        <v>19.760000000000002</v>
       </c>
       <c r="H67" s="5">
-        <v>2.65</v>
+        <v>56.08</v>
       </c>
       <c r="I67" s="5">
-        <v>3.5</v>
+        <v>38</v>
       </c>
       <c r="J67" s="2">
-        <v>2.23</v>
+        <v>50</v>
       </c>
       <c r="K67" s="6">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="L67" s="6">
-        <v>8</v>
+        <v>95</v>
       </c>
       <c r="M67" s="9" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
     </row>
     <row r="68" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="4"/>
       <c r="B68" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C68" s="7">
-        <v>605499</v>
+        <v>301001</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="G68" s="2">
-        <v>22.99</v>
+        <v>26.19</v>
       </c>
       <c r="H68" s="5">
-        <v>46.27</v>
+        <v>25.54</v>
       </c>
       <c r="I68" s="5">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="J68" s="2">
-        <v>88</v>
-      </c>
-      <c r="K68" s="2">
+        <v>43</v>
+      </c>
+      <c r="K68" s="6">
+        <v>56</v>
+      </c>
+      <c r="L68" s="6">
         <v>98</v>
       </c>
-      <c r="L68" s="2">
-        <v>125</v>
-      </c>
       <c r="M68" s="9" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
     </row>
     <row r="69" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="4"/>
       <c r="B69" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C69" s="7">
-        <v>603836</v>
+        <v>301000</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>24</v>
+        <v>223</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>25</v>
+        <v>158</v>
       </c>
       <c r="G69" s="2">
-        <v>22.99</v>
+        <v>35</v>
       </c>
       <c r="H69" s="5">
-        <v>16.84</v>
+        <v>64.31</v>
       </c>
       <c r="I69" s="5">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="J69" s="2">
-        <v>25</v>
-      </c>
-      <c r="K69" s="2">
-        <v>30</v>
-      </c>
-      <c r="L69" s="2">
-        <v>50</v>
+        <v>93</v>
+      </c>
+      <c r="K69" s="6">
+        <v>118</v>
+      </c>
+      <c r="L69" s="6">
+        <v>158</v>
       </c>
       <c r="M69" s="9" t="s">
-        <v>27</v>
+        <v>174</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>26</v>
+        <v>157</v>
       </c>
     </row>
     <row r="70" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4"/>
       <c r="B70" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C70" s="7">
-        <v>300614</v>
+        <v>605189</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>13</v>
+        <v>155</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>16</v>
+        <v>153</v>
       </c>
       <c r="G70" s="2">
-        <v>11.78</v>
+        <v>22.99</v>
       </c>
       <c r="H70" s="5">
-        <v>9.19</v>
+        <v>19.95</v>
       </c>
       <c r="I70" s="5">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="J70" s="2">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="K70" s="6">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="L70" s="6">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="M70" s="9" t="s">
-        <v>15</v>
+        <v>154</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>18</v>
+        <v>156</v>
       </c>
     </row>
     <row r="71" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="4"/>
       <c r="B71" s="2" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C71" s="7">
-        <v>605090</v>
+        <v>688538</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>19</v>
+        <v>150</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G71" s="2">
-        <v>20</v>
+        <v>171</v>
       </c>
       <c r="H71" s="5">
-        <v>34.57</v>
+        <v>2.65</v>
       </c>
       <c r="I71" s="5">
-        <v>37</v>
+        <v>3.5</v>
       </c>
       <c r="J71" s="2">
-        <v>42</v>
-      </c>
-      <c r="K71" s="2">
-        <v>50</v>
-      </c>
-      <c r="L71" s="2">
-        <v>68</v>
+        <v>2.23</v>
+      </c>
+      <c r="K71" s="6">
+        <v>5</v>
+      </c>
+      <c r="L71" s="6">
+        <v>8</v>
       </c>
       <c r="M71" s="9" t="s">
-        <v>21</v>
+        <v>152</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>23</v>
+        <v>151</v>
       </c>
     </row>
     <row r="72" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C72" s="7">
-        <v>300992</v>
+        <v>605499</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>28</v>
+        <v>146</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>31</v>
+        <v>147</v>
       </c>
       <c r="G72" s="2">
-        <v>12.84</v>
+        <v>22.99</v>
       </c>
       <c r="H72" s="5">
-        <v>9.36</v>
+        <v>46.27</v>
       </c>
       <c r="I72" s="5">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="J72" s="2">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="K72" s="2">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="L72" s="2">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="M72" s="9" t="s">
-        <v>30</v>
+        <v>148</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>29</v>
+        <v>149</v>
       </c>
     </row>
     <row r="73" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C73" s="7">
-        <v>300995</v>
+        <v>603836</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="G73" s="2">
-        <v>17.52</v>
+        <v>22.99</v>
       </c>
       <c r="H73" s="5">
-        <v>14.72</v>
+        <v>16.84</v>
       </c>
       <c r="I73" s="5">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="J73" s="2">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="K73" s="2">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="L73" s="2">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="M73" s="9" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="4"/>
       <c r="B74" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C74" s="7">
-        <v>300993</v>
+        <v>300614</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="G74" s="2">
-        <v>16.45</v>
+        <v>11.78</v>
       </c>
       <c r="H74" s="5">
-        <v>12.1</v>
+        <v>9.19</v>
       </c>
       <c r="I74" s="5">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J74" s="2">
-        <v>23</v>
-      </c>
-      <c r="K74" s="2">
-        <v>30</v>
-      </c>
-      <c r="L74" s="2">
-        <v>58</v>
+        <v>19</v>
+      </c>
+      <c r="K74" s="6">
+        <v>25</v>
+      </c>
+      <c r="L74" s="6">
+        <v>38</v>
       </c>
       <c r="M74" s="9" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="O74" s="7" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C75" s="7">
-        <v>688359</v>
+        <v>605090</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="F75" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G75" s="2">
+        <v>20</v>
+      </c>
+      <c r="H75" s="5">
+        <v>34.57</v>
+      </c>
+      <c r="I75" s="5">
+        <v>37</v>
+      </c>
+      <c r="J75" s="2">
         <v>42</v>
       </c>
-      <c r="G75" s="2">
-        <v>22.3</v>
-      </c>
-      <c r="H75" s="5">
-        <v>11.03</v>
-      </c>
-      <c r="I75" s="5">
-        <v>20</v>
-      </c>
-      <c r="J75" s="2">
-        <v>25</v>
-      </c>
       <c r="K75" s="2">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="L75" s="2">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="O75" s="7" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C76" s="7">
-        <v>688613</v>
+        <v>300992</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G76" s="2">
-        <v>26.6</v>
+        <v>12.84</v>
       </c>
       <c r="H76" s="5">
-        <v>16.43</v>
+        <v>9.36</v>
       </c>
       <c r="I76" s="5">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="J76" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K76" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="L76" s="2">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="M76" s="9" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="O76" s="7" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="77" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C77" s="7">
-        <v>600905</v>
+        <v>300995</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="G77" s="2">
-        <v>28.87</v>
+        <v>17.52</v>
       </c>
       <c r="H77" s="5">
-        <v>2.65</v>
+        <v>14.72</v>
       </c>
       <c r="I77" s="5">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="J77" s="2">
-        <v>3.5</v>
+        <v>36</v>
       </c>
       <c r="K77" s="2">
-        <v>5.8</v>
+        <v>42</v>
       </c>
       <c r="L77" s="2">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="M77" s="9" t="s">
-        <v>50</v>
+        <v>38</v>
+      </c>
+      <c r="O77" s="7" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="78" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C78" s="7">
-        <v>688076</v>
+        <v>300993</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="G78" s="2">
-        <v>35.130000000000003</v>
+        <v>16.45</v>
       </c>
       <c r="H78" s="5">
-        <v>15.57</v>
+        <v>12.1</v>
       </c>
       <c r="I78" s="5">
         <v>21</v>
       </c>
       <c r="J78" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K78" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L78" s="2">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="M78" s="9" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="O78" s="7" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="79" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C79" s="7">
-        <v>300991</v>
+        <v>688359</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="G79" s="2">
-        <v>13.06</v>
+        <v>22.3</v>
       </c>
       <c r="H79" s="5">
-        <v>13.06</v>
+        <v>11.03</v>
+      </c>
+      <c r="I79" s="5">
+        <v>20</v>
+      </c>
+      <c r="J79" s="2">
+        <v>25</v>
+      </c>
+      <c r="K79" s="2">
+        <v>29</v>
       </c>
       <c r="L79" s="2">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="M79" s="9" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="O79" s="7" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
     </row>
     <row r="80" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -8184,75 +8311,72 @@
         <v>41</v>
       </c>
       <c r="C80" s="7">
-        <v>688314</v>
+        <v>688613</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="G80" s="2">
-        <v>22.17</v>
+        <v>26.6</v>
       </c>
       <c r="H80" s="5">
-        <v>17.34</v>
+        <v>16.43</v>
       </c>
       <c r="I80" s="5">
+        <v>35</v>
+      </c>
+      <c r="J80" s="2">
+        <v>34</v>
+      </c>
+      <c r="K80" s="2">
         <v>48</v>
       </c>
-      <c r="J80" s="2">
-        <v>52</v>
-      </c>
-      <c r="K80" s="2">
-        <v>60</v>
-      </c>
       <c r="L80" s="2">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="M80" s="9" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="O80" s="7" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
     </row>
     <row r="81" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C81" s="7">
-        <v>688660</v>
+        <v>600905</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="G81" s="2">
-        <v>23.99</v>
+        <v>28.87</v>
       </c>
       <c r="H81" s="5">
-        <v>5.44</v>
+        <v>2.65</v>
       </c>
       <c r="I81" s="5">
-        <v>11.3</v>
+        <v>5</v>
       </c>
       <c r="J81" s="2">
-        <v>11.3</v>
+        <v>3.5</v>
       </c>
       <c r="K81" s="2">
-        <v>18</v>
+        <v>5.8</v>
       </c>
       <c r="L81" s="2">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="M81" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="O81" s="7" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="82" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -8260,83 +8384,104 @@
         <v>41</v>
       </c>
       <c r="C82" s="7">
-        <v>688575</v>
+        <v>688076</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="G82" s="2">
-        <v>31.96</v>
+        <v>35.130000000000003</v>
       </c>
       <c r="H82" s="5">
-        <v>14.8</v>
+        <v>15.57</v>
+      </c>
+      <c r="I82" s="5">
+        <v>21</v>
+      </c>
+      <c r="J82" s="2">
+        <v>24</v>
+      </c>
+      <c r="K82" s="2">
+        <v>28</v>
       </c>
       <c r="L82" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="M82" s="9" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="O82" s="7" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
     </row>
     <row r="83" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C83" s="7" t="s">
-        <v>71</v>
+        <v>17</v>
+      </c>
+      <c r="C83" s="7">
+        <v>300991</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="G83" s="2">
-        <v>22.99</v>
+        <v>13.06</v>
       </c>
       <c r="H83" s="5">
-        <v>44.6</v>
+        <v>13.06</v>
       </c>
       <c r="L83" s="2">
-        <v>126</v>
+        <v>56</v>
+      </c>
+      <c r="M83" s="9" t="s">
+        <v>56</v>
       </c>
       <c r="O83" s="7" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
     </row>
     <row r="84" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="2" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C84" s="7">
-        <v>605339</v>
+        <v>688314</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="G84" s="2">
-        <v>22.99</v>
+        <v>22.17</v>
       </c>
       <c r="H84" s="5">
-        <v>16.98</v>
+        <v>17.34</v>
+      </c>
+      <c r="I84" s="5">
+        <v>48</v>
+      </c>
+      <c r="J84" s="2">
+        <v>52</v>
+      </c>
+      <c r="K84" s="2">
+        <v>60</v>
       </c>
       <c r="L84" s="2">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="M84" s="9" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="O84" s="7" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
     </row>
     <row r="85" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -8344,37 +8489,37 @@
         <v>41</v>
       </c>
       <c r="C85" s="7">
-        <v>688565</v>
+        <v>688660</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="G85" s="2">
-        <v>19.48</v>
+        <v>23.99</v>
       </c>
       <c r="H85" s="5">
-        <v>9.39</v>
+        <v>5.44</v>
       </c>
       <c r="I85" s="5">
-        <v>18.7</v>
+        <v>11.3</v>
       </c>
       <c r="J85" s="2">
-        <v>23</v>
+        <v>11.3</v>
       </c>
       <c r="K85" s="2">
+        <v>18</v>
+      </c>
+      <c r="L85" s="2">
         <v>28</v>
       </c>
-      <c r="L85" s="2">
-        <v>47</v>
-      </c>
       <c r="M85" s="9" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="O85" s="7" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
     </row>
     <row r="86" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -8382,113 +8527,83 @@
         <v>41</v>
       </c>
       <c r="C86" s="7">
-        <v>688217</v>
+        <v>688575</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="G86" s="2">
-        <v>29.89</v>
+        <v>31.96</v>
       </c>
       <c r="H86" s="5">
-        <v>18.420000000000002</v>
-      </c>
-      <c r="I86" s="5">
-        <v>36</v>
-      </c>
-      <c r="J86" s="2">
-        <v>45</v>
-      </c>
-      <c r="K86" s="2">
-        <v>54</v>
+        <v>14.8</v>
       </c>
       <c r="L86" s="2">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="M86" s="9" t="s">
         <v>60</v>
       </c>
       <c r="O86" s="7" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
     </row>
     <row r="87" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C87" s="7">
-        <v>605488</v>
+        <v>72</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>71</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="G87" s="2">
         <v>22.99</v>
       </c>
       <c r="H87" s="5">
-        <v>20.43</v>
-      </c>
-      <c r="I87" s="5">
-        <v>25</v>
-      </c>
-      <c r="J87" s="2">
-        <v>33</v>
-      </c>
-      <c r="K87" s="2">
-        <v>38</v>
+        <v>44.6</v>
       </c>
       <c r="L87" s="2">
-        <v>58</v>
-      </c>
-      <c r="M87" s="9" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="O87" s="7" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="88" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C88" s="7">
-        <v>688685</v>
+        <v>605339</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="G88" s="2">
-        <v>22.83</v>
+        <v>22.99</v>
       </c>
       <c r="H88" s="5">
-        <v>9.02</v>
-      </c>
-      <c r="I88" s="5">
-        <v>30</v>
-      </c>
-      <c r="J88" s="2">
-        <v>36</v>
-      </c>
-      <c r="K88" s="2">
-        <v>45</v>
+        <v>16.98</v>
       </c>
       <c r="L88" s="2">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="M88" s="9" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="O88" s="7" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
     </row>
     <row r="89" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -8496,154 +8611,151 @@
         <v>41</v>
       </c>
       <c r="C89" s="7">
-        <v>688355</v>
+        <v>688565</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="G89" s="2">
-        <v>22.95</v>
+        <v>19.48</v>
       </c>
       <c r="H89" s="5">
-        <v>17.649999999999999</v>
+        <v>9.39</v>
       </c>
       <c r="I89" s="5">
+        <v>18.7</v>
+      </c>
+      <c r="J89" s="2">
+        <v>23</v>
+      </c>
+      <c r="K89" s="2">
         <v>28</v>
       </c>
-      <c r="J89" s="2">
-        <v>33</v>
-      </c>
-      <c r="K89" s="2">
-        <v>38</v>
-      </c>
       <c r="L89" s="2">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="M89" s="9" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="O89" s="7" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
     </row>
     <row r="90" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C90" s="7" t="s">
-        <v>100</v>
+        <v>41</v>
+      </c>
+      <c r="C90" s="7">
+        <v>688217</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="G90" s="2">
-        <v>17.78</v>
+        <v>29.89</v>
       </c>
       <c r="H90" s="5">
-        <v>16.52</v>
+        <v>18.420000000000002</v>
       </c>
       <c r="I90" s="5">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="J90" s="2">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="K90" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="L90" s="2">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="M90" s="9" t="s">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="O90" s="7" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="91" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C91" s="7">
-        <v>688097</v>
+        <v>605488</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="G91" s="2">
-        <v>15.97</v>
+        <v>22.99</v>
       </c>
       <c r="H91" s="5">
-        <v>11.27</v>
+        <v>20.43</v>
       </c>
       <c r="I91" s="5">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="J91" s="2">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="K91" s="2">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="L91" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="M91" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="N91" s="2" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="O91" s="7" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
     </row>
     <row r="92" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B92" s="2" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C92" s="7">
-        <v>605196</v>
+        <v>688685</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="G92" s="2">
-        <v>21.09</v>
+        <v>22.83</v>
       </c>
       <c r="H92" s="5">
-        <v>5.05</v>
+        <v>9.02</v>
       </c>
       <c r="I92" s="5">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="J92" s="2">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="K92" s="2">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="L92" s="2">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="M92" s="9" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="O92" s="7" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
     </row>
     <row r="93" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -8651,113 +8763,116 @@
         <v>41</v>
       </c>
       <c r="C93" s="7">
-        <v>688655</v>
+        <v>688355</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="G93" s="2">
-        <v>20.350000000000001</v>
+        <v>22.95</v>
       </c>
       <c r="H93" s="5">
-        <v>7.59</v>
+        <v>17.649999999999999</v>
       </c>
       <c r="I93" s="5">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="J93" s="2">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="K93" s="2">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="L93" s="2">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="M93" s="9" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="O93" s="7" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
     </row>
     <row r="94" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C94" s="7">
-        <v>300987</v>
+        <v>72</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>100</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="G94" s="2">
-        <v>18.420000000000002</v>
+        <v>17.78</v>
       </c>
       <c r="H94" s="5">
-        <v>6.79</v>
+        <v>16.52</v>
       </c>
       <c r="I94" s="5">
         <v>25</v>
       </c>
       <c r="J94" s="2">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K94" s="2">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="L94" s="2">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="M94" s="9" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="O94" s="7" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
     </row>
     <row r="95" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C95" s="7">
-        <v>300990</v>
+        <v>688097</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="G95" s="2">
-        <v>36.270000000000003</v>
+        <v>15.97</v>
       </c>
       <c r="H95" s="5">
-        <v>85.5</v>
+        <v>11.27</v>
       </c>
       <c r="I95" s="5">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="J95" s="2">
-        <v>115</v>
+        <v>15</v>
       </c>
       <c r="K95" s="2">
-        <v>128</v>
+        <v>23</v>
       </c>
       <c r="L95" s="2">
-        <v>153</v>
+        <v>35</v>
       </c>
       <c r="M95" s="9" t="s">
         <v>105</v>
       </c>
+      <c r="N95" s="2" t="s">
+        <v>106</v>
+      </c>
       <c r="O95" s="7" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
     </row>
     <row r="96" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -8765,37 +8880,37 @@
         <v>12</v>
       </c>
       <c r="C96" s="7">
-        <v>603511</v>
+        <v>605196</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="G96" s="2">
-        <v>21.98</v>
+        <v>21.09</v>
       </c>
       <c r="H96" s="5">
-        <v>20.99</v>
+        <v>5.05</v>
       </c>
       <c r="I96" s="5">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="J96" s="2">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="K96" s="2">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="L96" s="2">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="M96" s="9" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="O96" s="7" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
     </row>
     <row r="97" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -8803,75 +8918,75 @@
         <v>41</v>
       </c>
       <c r="C97" s="7">
-        <v>688113</v>
+        <v>688655</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="G97" s="2">
-        <v>17.309999999999999</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="H97" s="5">
-        <v>19.14</v>
+        <v>7.59</v>
       </c>
       <c r="I97" s="5">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="J97" s="2">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="K97" s="2">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="L97" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="M97" s="9" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="O97" s="7" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
     </row>
     <row r="98" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B98" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C98" s="7">
-        <v>605305</v>
+        <v>300987</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="G98" s="2">
-        <v>22.99</v>
+        <v>18.420000000000002</v>
       </c>
       <c r="H98" s="5">
-        <v>37.94</v>
+        <v>6.79</v>
       </c>
       <c r="I98" s="5">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="J98" s="2">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="K98" s="2">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="L98" s="2">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="M98" s="9" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="O98" s="7" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
     </row>
     <row r="99" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -8879,113 +8994,113 @@
         <v>17</v>
       </c>
       <c r="C99" s="7">
-        <v>300988</v>
+        <v>300990</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="G99" s="2">
-        <v>32.729999999999997</v>
+        <v>36.270000000000003</v>
       </c>
       <c r="H99" s="5">
-        <v>23.73</v>
+        <v>85.5</v>
       </c>
       <c r="I99" s="5">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="J99" s="2">
-        <v>48</v>
+        <v>115</v>
       </c>
       <c r="K99" s="2">
-        <v>68</v>
+        <v>128</v>
       </c>
       <c r="L99" s="2">
-        <v>95</v>
+        <v>153</v>
       </c>
       <c r="M99" s="9" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="O99" s="7" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
     </row>
     <row r="100" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C100" s="7">
-        <v>300989</v>
+        <v>603511</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="G100" s="2">
-        <v>36.01</v>
+        <v>21.98</v>
       </c>
       <c r="H100" s="5">
-        <v>51.62</v>
+        <v>20.99</v>
       </c>
       <c r="I100" s="5">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="J100" s="2">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="K100" s="2">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="L100" s="2">
-        <v>116</v>
+        <v>45</v>
       </c>
       <c r="M100" s="9" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="O100" s="7" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="101" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="2" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C101" s="7">
-        <v>605080</v>
+        <v>688113</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="G101" s="2">
-        <v>22.99</v>
+        <v>17.309999999999999</v>
       </c>
       <c r="H101" s="5">
-        <v>31.16</v>
+        <v>19.14</v>
       </c>
       <c r="I101" s="5">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="J101" s="2">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="K101" s="2">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="L101" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M101" s="9" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="O101" s="7" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="102" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -8993,72 +9108,75 @@
         <v>12</v>
       </c>
       <c r="C102" s="7">
-        <v>605300</v>
+        <v>605305</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>225</v>
+        <v>129</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>224</v>
+        <v>130</v>
       </c>
       <c r="G102" s="2">
         <v>22.99</v>
       </c>
       <c r="H102" s="5">
-        <v>11.25</v>
+        <v>37.94</v>
       </c>
       <c r="I102" s="5">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="J102" s="2">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="K102" s="2">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="L102" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="M102" s="9" t="s">
-        <v>148</v>
+        <v>105</v>
+      </c>
+      <c r="O102" s="7" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="103" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B103" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C103" s="7" t="s">
-        <v>227</v>
+        <v>17</v>
+      </c>
+      <c r="C103" s="7">
+        <v>300988</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="E103" s="9" t="s">
-        <v>229</v>
+        <v>134</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>226</v>
+        <v>137</v>
       </c>
       <c r="G103" s="2">
-        <v>22.99</v>
+        <v>32.729999999999997</v>
       </c>
       <c r="H103" s="5">
-        <v>8.98</v>
+        <v>23.73</v>
       </c>
       <c r="I103" s="5">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="J103" s="2">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="K103" s="2">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="L103" s="2">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="M103" s="9" t="s">
-        <v>233</v>
+        <v>136</v>
+      </c>
+      <c r="O103" s="7" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="104" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -9066,75 +9184,75 @@
         <v>17</v>
       </c>
       <c r="C104" s="7">
-        <v>300985</v>
+        <v>300989</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="E104" s="9" t="s">
-        <v>229</v>
+        <v>138</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>231</v>
+        <v>139</v>
       </c>
       <c r="G104" s="2">
-        <v>14.91</v>
+        <v>36.01</v>
       </c>
       <c r="H104" s="5">
-        <v>24.9</v>
+        <v>51.62</v>
       </c>
       <c r="I104" s="5">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="J104" s="2">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="K104" s="2">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="L104" s="2">
-        <v>60</v>
+        <v>116</v>
       </c>
       <c r="M104" s="9" t="s">
-        <v>234</v>
+        <v>141</v>
+      </c>
+      <c r="O104" s="7" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="105" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B105" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C105" s="7">
-        <v>688395</v>
+        <v>605080</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="E105" s="9" t="s">
-        <v>236</v>
+        <v>142</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>237</v>
+        <v>143</v>
       </c>
       <c r="G105" s="2">
-        <v>20.59</v>
+        <v>22.99</v>
       </c>
       <c r="H105" s="5">
-        <v>15.95</v>
+        <v>31.16</v>
       </c>
       <c r="I105" s="5">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="J105" s="2">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="K105" s="2">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="L105" s="2">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="M105" s="9" t="s">
-        <v>111</v>
+        <v>145</v>
+      </c>
+      <c r="O105" s="7" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="106" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -9142,113 +9260,110 @@
         <v>12</v>
       </c>
       <c r="C106" s="7">
-        <v>600906</v>
+        <v>605300</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="E106" s="9" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="G106" s="2">
-        <v>22.94</v>
+        <v>22.99</v>
       </c>
       <c r="H106" s="5">
-        <v>3.76</v>
+        <v>11.25</v>
       </c>
       <c r="I106" s="5">
-        <v>6.2</v>
+        <v>18</v>
       </c>
       <c r="J106" s="2">
-        <v>5.7</v>
+        <v>20</v>
       </c>
       <c r="K106" s="2">
-        <v>7.08</v>
+        <v>25</v>
       </c>
       <c r="L106" s="2">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="M106" s="9" t="s">
-        <v>240</v>
+        <v>148</v>
       </c>
     </row>
     <row r="107" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B107" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C107" s="7">
-        <v>300986</v>
+        <v>12</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>227</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="E107" s="9" t="s">
         <v>229</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="G107" s="2">
-        <v>13.56</v>
+        <v>22.99</v>
       </c>
       <c r="H107" s="5">
-        <v>14.79</v>
+        <v>8.98</v>
       </c>
       <c r="I107" s="5">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="J107" s="2">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K107" s="2">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="L107" s="2">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="M107" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="108" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B108" s="2" t="s">
-        <v>244</v>
+        <v>17</v>
       </c>
       <c r="C108" s="7">
-        <v>688323</v>
+        <v>300985</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="E108" s="9" t="s">
         <v>229</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="G108" s="2">
-        <v>24.38</v>
+        <v>14.91</v>
       </c>
       <c r="H108" s="5">
-        <v>5.97</v>
+        <v>24.9</v>
       </c>
       <c r="I108" s="5">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="J108" s="2">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="K108" s="2">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="L108" s="2">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="M108" s="9" t="s">
-        <v>38</v>
+        <v>234</v>
       </c>
     </row>
     <row r="109" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -9256,212 +9371,224 @@
         <v>41</v>
       </c>
       <c r="C109" s="7">
-        <v>688383</v>
+        <v>688395</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="G109" s="2">
-        <v>19.510000000000002</v>
+        <v>20.59</v>
       </c>
       <c r="H109" s="5">
-        <v>19.579999999999998</v>
+        <v>15.95</v>
       </c>
       <c r="I109" s="5">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="J109" s="2">
         <v>29</v>
       </c>
       <c r="K109" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L109" s="2">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="M109" s="9" t="s">
-        <v>250</v>
+        <v>111</v>
       </c>
     </row>
     <row r="110" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B110" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C110" s="7" t="s">
-        <v>252</v>
+        <v>12</v>
+      </c>
+      <c r="C110" s="7">
+        <v>600906</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>253</v>
+        <v>238</v>
+      </c>
+      <c r="G110" s="2">
+        <v>22.94</v>
       </c>
       <c r="H110" s="5">
-        <v>19.05</v>
+        <v>3.76</v>
       </c>
       <c r="I110" s="5">
-        <v>20</v>
+        <v>6.2</v>
       </c>
       <c r="J110" s="2">
-        <v>23</v>
+        <v>5.7</v>
       </c>
       <c r="K110" s="2">
-        <v>28</v>
+        <v>7.08</v>
       </c>
       <c r="L110" s="2">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="M110" s="9" t="s">
-        <v>27</v>
+        <v>240</v>
       </c>
     </row>
     <row r="111" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B111" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C111" s="7">
-        <v>605180</v>
+        <v>300986</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>256</v>
+        <v>242</v>
+      </c>
+      <c r="G111" s="2">
+        <v>13.56</v>
       </c>
       <c r="H111" s="5">
-        <v>22.38</v>
+        <v>14.79</v>
       </c>
       <c r="I111" s="5">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J111" s="2">
         <v>30</v>
       </c>
       <c r="K111" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L111" s="2">
         <v>60</v>
       </c>
       <c r="M111" s="9" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
     </row>
     <row r="112" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B112" s="2" t="s">
-        <v>12</v>
+        <v>244</v>
       </c>
       <c r="C112" s="7">
-        <v>600032</v>
+        <v>688323</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="E112" s="9" t="s">
         <v>229</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>258</v>
+        <v>245</v>
+      </c>
+      <c r="G112" s="2">
+        <v>24.38</v>
       </c>
       <c r="H112" s="5">
-        <v>3.51</v>
+        <v>5.97</v>
       </c>
       <c r="I112" s="5">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="J112" s="2">
-        <v>4.8</v>
+        <v>17</v>
       </c>
       <c r="K112" s="2">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="L112" s="2">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="M112" s="9" t="s">
-        <v>260</v>
+        <v>38</v>
       </c>
     </row>
     <row r="113" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B113" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C113" s="7">
-        <v>300982</v>
+        <v>688383</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>229</v>
+        <v>249</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>263</v>
+        <v>248</v>
+      </c>
+      <c r="G113" s="2">
+        <v>19.510000000000002</v>
       </c>
       <c r="H113" s="5">
-        <v>15.83</v>
+        <v>19.579999999999998</v>
       </c>
       <c r="I113" s="5">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J113" s="2">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K113" s="2">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="L113" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M113" s="9" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
     </row>
     <row r="114" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B114" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C114" s="7">
-        <v>300981</v>
+        <v>72</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>252</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="E114" s="9" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="H114" s="5">
-        <v>48.59</v>
+        <v>19.05</v>
       </c>
       <c r="I114" s="5">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="J114" s="2">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="K114" s="2">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="L114" s="2">
-        <v>180</v>
+        <v>39</v>
       </c>
       <c r="M114" s="9" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
     </row>
     <row r="115" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -9469,104 +9596,104 @@
         <v>12</v>
       </c>
       <c r="C115" s="7">
-        <v>605089</v>
+        <v>605180</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="H115" s="5">
-        <v>28.53</v>
+        <v>22.38</v>
       </c>
       <c r="I115" s="5">
+        <v>25</v>
+      </c>
+      <c r="J115" s="2">
+        <v>30</v>
+      </c>
+      <c r="K115" s="2">
         <v>40</v>
       </c>
-      <c r="J115" s="2">
-        <v>50</v>
-      </c>
-      <c r="K115" s="2">
-        <v>65</v>
-      </c>
       <c r="L115" s="2">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="M115" s="9" t="s">
-        <v>148</v>
+        <v>259</v>
       </c>
     </row>
     <row r="116" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B116" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C116" s="7" t="s">
-        <v>269</v>
+        <v>12</v>
+      </c>
+      <c r="C116" s="7">
+        <v>600032</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="E116" s="9" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="H116" s="5">
-        <v>63.38</v>
+        <v>3.51</v>
       </c>
       <c r="I116" s="5">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="J116" s="2">
-        <v>95</v>
+        <v>4.8</v>
       </c>
       <c r="K116" s="2">
-        <v>118</v>
+        <v>8</v>
       </c>
       <c r="L116" s="2">
-        <v>158</v>
+        <v>12</v>
       </c>
       <c r="M116" s="9" t="s">
-        <v>166</v>
+        <v>260</v>
       </c>
     </row>
     <row r="117" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B117" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C117" s="7">
-        <v>605289</v>
+        <v>300982</v>
       </c>
       <c r="D117" s="9" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="E117" s="9" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="H117" s="5">
-        <v>27.27</v>
+        <v>15.83</v>
       </c>
       <c r="I117" s="5">
+        <v>25</v>
+      </c>
+      <c r="J117" s="2">
         <v>32</v>
       </c>
-      <c r="J117" s="2">
-        <v>40</v>
-      </c>
       <c r="K117" s="2">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="L117" s="2">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="M117" s="9" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
     </row>
     <row r="118" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -9574,203 +9701,209 @@
         <v>17</v>
       </c>
       <c r="C118" s="7">
-        <v>300979</v>
+        <v>300981</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="E118" s="9" t="s">
         <v>229</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="H118" s="5">
-        <v>33.22</v>
+        <v>48.59</v>
       </c>
       <c r="I118" s="5">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="J118" s="2">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="K118" s="2">
-        <v>43</v>
+        <v>108</v>
       </c>
       <c r="L118" s="2">
-        <v>69</v>
+        <v>180</v>
       </c>
       <c r="M118" s="9" t="s">
-        <v>276</v>
+        <v>60</v>
       </c>
     </row>
     <row r="119" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B119" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C119" s="7">
-        <v>300978</v>
+        <v>605089</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="E119" s="9" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="H119" s="5">
-        <v>8.42</v>
+        <v>28.53</v>
       </c>
       <c r="I119" s="5">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="J119" s="2">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="K119" s="2">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="L119" s="2">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="M119" s="9" t="s">
-        <v>279</v>
+        <v>148</v>
       </c>
     </row>
     <row r="120" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B120" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C120" s="7">
-        <v>688639</v>
+        <v>72</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>269</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="E120" s="9" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="H120" s="5">
-        <v>23.16</v>
+        <v>63.38</v>
       </c>
       <c r="I120" s="5">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="J120" s="2">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="K120" s="2">
-        <v>48</v>
+        <v>118</v>
       </c>
       <c r="L120" s="2">
-        <v>75</v>
+        <v>158</v>
+      </c>
+      <c r="M120" s="9" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="121" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B121" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C121" s="7">
-        <v>300975</v>
+        <v>605289</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="H121" s="5">
-        <v>5.48</v>
+        <v>27.27</v>
       </c>
       <c r="I121" s="5">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="J121" s="2">
-        <v>9.1999999999999993</v>
+        <v>40</v>
       </c>
       <c r="K121" s="2">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="L121" s="2">
-        <v>35</v>
+        <v>70</v>
+      </c>
+      <c r="M121" s="9" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="122" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B122" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C122" s="7">
-        <v>688682</v>
+        <v>300979</v>
       </c>
       <c r="D122" s="9" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="E122" s="9" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="H122" s="5">
-        <v>45.72</v>
+        <v>33.22</v>
       </c>
       <c r="I122" s="5">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="J122" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="K122" s="2">
-        <v>108</v>
+        <v>43</v>
       </c>
       <c r="L122" s="2">
-        <v>162</v>
+        <v>69</v>
       </c>
       <c r="M122" s="9" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
     </row>
     <row r="123" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B123" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C123" s="7">
+        <v>300978</v>
+      </c>
+      <c r="D123" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="E123" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="H123" s="5">
+        <v>8.42</v>
+      </c>
+      <c r="I123" s="5">
+        <v>15</v>
+      </c>
+      <c r="J123" s="2">
         <v>12</v>
       </c>
-      <c r="C123" s="7">
-        <v>605016</v>
-      </c>
-      <c r="D123" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="E123" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="H123" s="5">
-        <v>14.62</v>
-      </c>
-      <c r="I123" s="5">
-        <v>22</v>
-      </c>
-      <c r="J123" s="2">
-        <v>31</v>
-      </c>
       <c r="K123" s="2">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="L123" s="2">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="M123" s="9" t="s">
-        <v>148</v>
+        <v>279</v>
       </c>
     </row>
     <row r="124" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -9778,209 +9911,203 @@
         <v>41</v>
       </c>
       <c r="C124" s="7">
-        <v>688201</v>
+        <v>688639</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="E124" s="9" t="s">
         <v>229</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="H124" s="5">
-        <v>26.78</v>
+        <v>23.16</v>
       </c>
       <c r="I124" s="5">
         <v>32</v>
       </c>
       <c r="J124" s="2">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K124" s="2">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="L124" s="2">
-        <v>86</v>
-      </c>
-      <c r="M124" s="9" t="s">
-        <v>292</v>
+        <v>75</v>
       </c>
     </row>
     <row r="125" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B125" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C125" s="7">
-        <v>605117</v>
+        <v>300975</v>
       </c>
       <c r="D125" s="9" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="E125" s="9" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="H125" s="5">
-        <v>32.74</v>
+        <v>5.48</v>
       </c>
       <c r="I125" s="5">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="J125" s="2">
-        <v>47</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="K125" s="2">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="L125" s="2">
-        <v>76</v>
-      </c>
-      <c r="M125" s="9" t="s">
-        <v>295</v>
+        <v>35</v>
       </c>
     </row>
     <row r="126" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B126" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C126" s="7">
-        <v>300983</v>
+        <v>688682</v>
       </c>
       <c r="D126" s="9" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="E126" s="9" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="H126" s="5">
-        <v>120.8</v>
+        <v>45.72</v>
       </c>
       <c r="I126" s="5">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="J126" s="2">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="K126" s="2">
-        <v>168</v>
+        <v>108</v>
       </c>
       <c r="L126" s="2">
-        <v>212</v>
+        <v>162</v>
       </c>
       <c r="M126" s="9" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
     </row>
     <row r="127" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B127" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C127" s="7">
-        <v>300980</v>
+        <v>605016</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="E127" s="9" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="H127" s="5">
-        <v>32.770000000000003</v>
+        <v>14.62</v>
       </c>
       <c r="I127" s="5">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="J127" s="2">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="K127" s="2">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="L127" s="2">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="M127" s="9" t="s">
-        <v>302</v>
+        <v>148</v>
       </c>
     </row>
     <row r="128" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B128" s="2" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C128" s="7">
-        <v>605086</v>
+        <v>688201</v>
       </c>
       <c r="D128" s="9" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="E128" s="9" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="H128" s="5">
-        <v>12.86</v>
+        <v>26.78</v>
       </c>
       <c r="I128" s="5">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="J128" s="2">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="K128" s="2">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="L128" s="2">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="M128" s="9" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
     </row>
     <row r="129" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B129" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C129" s="7">
-        <v>300977</v>
+        <v>605117</v>
       </c>
       <c r="D129" s="9" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="E129" s="9" t="s">
         <v>236</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="H129" s="5">
-        <v>89.66</v>
+        <v>32.74</v>
       </c>
       <c r="I129" s="5">
-        <v>111</v>
+        <v>38</v>
       </c>
       <c r="J129" s="2">
-        <v>133</v>
+        <v>47</v>
       </c>
       <c r="K129" s="2">
-        <v>158</v>
+        <v>58</v>
       </c>
       <c r="L129" s="2">
-        <v>223</v>
+        <v>76</v>
       </c>
       <c r="M129" s="9" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="130" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -9988,34 +10115,34 @@
         <v>17</v>
       </c>
       <c r="C130" s="7">
-        <v>300976</v>
+        <v>300983</v>
       </c>
       <c r="D130" s="9" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="E130" s="9" t="s">
         <v>236</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="H130" s="5">
+        <v>120.8</v>
+      </c>
+      <c r="I130" s="5">
+        <v>106</v>
+      </c>
+      <c r="J130" s="2">
+        <v>118</v>
+      </c>
+      <c r="K130" s="2">
         <v>168</v>
       </c>
-      <c r="I130" s="5">
-        <v>162</v>
-      </c>
-      <c r="J130" s="2">
-        <v>191</v>
-      </c>
-      <c r="K130" s="2">
-        <v>228</v>
-      </c>
       <c r="L130" s="2">
-        <v>288</v>
+        <v>212</v>
       </c>
       <c r="M130" s="9" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
     </row>
     <row r="131" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -10023,139 +10150,139 @@
         <v>17</v>
       </c>
       <c r="C131" s="7">
-        <v>300973</v>
+        <v>300980</v>
       </c>
       <c r="D131" s="9" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="E131" s="9" t="s">
         <v>300</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="H131" s="5">
-        <v>28.28</v>
+        <v>32.770000000000003</v>
       </c>
       <c r="I131" s="5">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="J131" s="2">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K131" s="2">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="L131" s="2">
         <v>88</v>
       </c>
       <c r="M131" s="9" t="s">
-        <v>148</v>
+        <v>302</v>
       </c>
     </row>
     <row r="132" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B132" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C132" s="7">
+        <v>605086</v>
+      </c>
+      <c r="D132" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="E132" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="H132" s="5">
+        <v>12.86</v>
+      </c>
+      <c r="I132" s="5">
         <v>17</v>
       </c>
-      <c r="C132" s="7">
-        <v>300972</v>
-      </c>
-      <c r="D132" s="9" t="s">
-        <v>313</v>
-      </c>
-      <c r="E132" s="9" t="s">
-        <v>314</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="H132" s="5">
-        <v>7.19</v>
-      </c>
-      <c r="I132" s="5">
-        <v>15</v>
-      </c>
       <c r="J132" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K132" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L132" s="2">
         <v>39</v>
       </c>
       <c r="M132" s="9" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
     </row>
     <row r="133" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B133" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C133" s="7">
-        <v>605098</v>
+        <v>300977</v>
       </c>
       <c r="D133" s="9" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="E133" s="9" t="s">
-        <v>318</v>
+        <v>236</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="H133" s="5">
-        <v>27.58</v>
+        <v>89.66</v>
       </c>
       <c r="I133" s="5">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="J133" s="2">
-        <v>59</v>
+        <v>133</v>
       </c>
       <c r="K133" s="2">
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="L133" s="2">
-        <v>99</v>
+        <v>223</v>
       </c>
       <c r="M133" s="9" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
     </row>
     <row r="134" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B134" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C134" s="7">
-        <v>601279</v>
+        <v>300976</v>
       </c>
       <c r="D134" s="9" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="E134" s="9" t="s">
-        <v>318</v>
+        <v>236</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="H134" s="5">
-        <v>2.0699999999999998</v>
+        <v>168</v>
       </c>
       <c r="I134" s="5">
-        <v>6</v>
+        <v>162</v>
       </c>
       <c r="J134" s="2">
-        <v>3.5</v>
+        <v>191</v>
       </c>
       <c r="K134" s="2">
-        <v>8</v>
+        <v>228</v>
       </c>
       <c r="L134" s="2">
-        <v>13</v>
+        <v>288</v>
       </c>
       <c r="M134" s="9" t="s">
-        <v>159</v>
+        <v>310</v>
       </c>
     </row>
     <row r="135" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -10163,34 +10290,34 @@
         <v>17</v>
       </c>
       <c r="C135" s="7">
-        <v>300971</v>
+        <v>300973</v>
       </c>
       <c r="D135" s="9" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="E135" s="9" t="s">
-        <v>254</v>
+        <v>300</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="H135" s="5">
-        <v>18.239999999999998</v>
+        <v>28.28</v>
       </c>
       <c r="I135" s="5">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J135" s="2">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K135" s="2">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="L135" s="2">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="M135" s="9" t="s">
-        <v>325</v>
+        <v>148</v>
       </c>
     </row>
     <row r="136" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -10198,171 +10325,174 @@
         <v>17</v>
       </c>
       <c r="C136" s="7">
-        <v>300968</v>
+        <v>300972</v>
       </c>
       <c r="D136" s="9" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="E136" s="9" t="s">
-        <v>229</v>
+        <v>314</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="H136" s="5">
-        <v>6.87</v>
+        <v>7.19</v>
       </c>
       <c r="I136" s="5">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J136" s="2">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="K136" s="2">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L136" s="2">
         <v>39</v>
       </c>
       <c r="M136" s="9" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
     </row>
     <row r="137" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B137" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C137" s="7">
+        <v>605098</v>
+      </c>
+      <c r="D137" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="E137" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="H137" s="5">
+        <v>27.58</v>
+      </c>
+      <c r="I137" s="5">
         <v>41</v>
       </c>
-      <c r="C137" s="7">
-        <v>688663</v>
-      </c>
-      <c r="D137" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="E137" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="F137" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="H137" s="5">
-        <v>14.48</v>
-      </c>
-      <c r="I137" s="5">
-        <v>21</v>
-      </c>
       <c r="J137" s="2">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="K137" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="L137" s="2">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="M137" s="9" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
     </row>
     <row r="138" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B138" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C138" s="7">
-        <v>300967</v>
+        <v>601279</v>
       </c>
       <c r="D138" s="9" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="E138" s="9" t="s">
-        <v>229</v>
+        <v>318</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="H138" s="5">
-        <v>4.54</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="I138" s="5">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="J138" s="2">
-        <v>16</v>
+        <v>3.5</v>
       </c>
       <c r="K138" s="2">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L138" s="2">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M138" s="9" t="s">
-        <v>333</v>
+        <v>159</v>
       </c>
     </row>
     <row r="139" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B139" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C139" s="7">
-        <v>688315</v>
+        <v>300971</v>
       </c>
       <c r="D139" s="9" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="E139" s="9" t="s">
         <v>254</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="H139" s="5">
-        <v>12.76</v>
+        <v>18.239999999999998</v>
       </c>
       <c r="I139" s="5">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="J139" s="2">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="K139" s="2">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="L139" s="2">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="M139" s="9" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
     </row>
     <row r="140" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B140" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C140" s="7">
+        <v>300968</v>
+      </c>
+      <c r="D140" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="E140" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="H140" s="5">
+        <v>6.87</v>
+      </c>
+      <c r="I140" s="5">
+        <v>18</v>
+      </c>
+      <c r="J140" s="2">
         <v>12</v>
       </c>
-      <c r="C140" s="7">
-        <v>605378</v>
-      </c>
-      <c r="D140" s="9" t="s">
-        <v>338</v>
-      </c>
-      <c r="E140" s="9" t="s">
-        <v>340</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="H140" s="5">
-        <v>17.62</v>
-      </c>
-      <c r="I140" s="5">
-        <v>23</v>
-      </c>
-      <c r="J140" s="2">
-        <v>30</v>
-      </c>
       <c r="K140" s="2">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="L140" s="2">
-        <v>45</v>
+        <v>39</v>
+      </c>
+      <c r="M140" s="9" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="141" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -10370,174 +10500,171 @@
         <v>41</v>
       </c>
       <c r="C141" s="7">
-        <v>688611</v>
+        <v>688663</v>
       </c>
       <c r="D141" s="9" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="E141" s="9" t="s">
-        <v>342</v>
+        <v>229</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="H141" s="5">
-        <v>33.44</v>
+        <v>14.48</v>
       </c>
       <c r="I141" s="5">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="J141" s="2">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="K141" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="L141" s="2">
-        <v>122</v>
+        <v>58</v>
       </c>
       <c r="M141" s="9" t="s">
-        <v>111</v>
+        <v>334</v>
       </c>
     </row>
     <row r="142" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B142" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C142" s="7">
-        <v>688683</v>
+        <v>300967</v>
       </c>
       <c r="D142" s="9" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="E142" s="9" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="H142" s="5">
-        <v>9.51</v>
+        <v>4.54</v>
       </c>
       <c r="I142" s="5">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="J142" s="2">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="K142" s="2">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L142" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M142" s="9" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
     </row>
     <row r="143" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B143" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C143" s="7">
-        <v>300966</v>
+        <v>688315</v>
       </c>
       <c r="D143" s="9" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="E143" s="9" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="H143" s="5">
-        <v>8.24</v>
+        <v>12.76</v>
       </c>
       <c r="I143" s="5">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="J143" s="2">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K143" s="2">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="L143" s="2">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="M143" s="9" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
     </row>
     <row r="144" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B144" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C144" s="7">
-        <v>300970</v>
+        <v>605378</v>
       </c>
       <c r="D144" s="9" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="E144" s="9" t="s">
-        <v>229</v>
+        <v>340</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="H144" s="5">
-        <v>44.77</v>
+        <v>17.62</v>
       </c>
       <c r="I144" s="5">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="J144" s="2">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="K144" s="2">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="L144" s="2">
-        <v>120</v>
-      </c>
-      <c r="M144" s="9" t="s">
-        <v>352</v>
+        <v>45</v>
       </c>
     </row>
     <row r="145" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B145" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C145" s="7">
-        <v>300969</v>
+        <v>688611</v>
       </c>
       <c r="D145" s="9" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="E145" s="9" t="s">
-        <v>229</v>
+        <v>342</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="H145" s="5">
-        <v>20.68</v>
+        <v>33.44</v>
       </c>
       <c r="I145" s="5">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="J145" s="2">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="K145" s="2">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="L145" s="2">
-        <v>75</v>
+        <v>122</v>
       </c>
       <c r="M145" s="9" t="s">
-        <v>159</v>
+        <v>111</v>
       </c>
     </row>
     <row r="146" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -10545,34 +10672,34 @@
         <v>41</v>
       </c>
       <c r="C146" s="7">
-        <v>688468</v>
+        <v>688683</v>
       </c>
       <c r="D146" s="9" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="E146" s="9" t="s">
         <v>254</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="H146" s="5">
-        <v>7.15</v>
+        <v>9.51</v>
       </c>
       <c r="I146" s="5">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J146" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K146" s="2">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="L146" s="2">
         <v>38</v>
       </c>
       <c r="M146" s="9" t="s">
-        <v>60</v>
+        <v>346</v>
       </c>
     </row>
     <row r="147" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -10580,68 +10707,208 @@
         <v>17</v>
       </c>
       <c r="C147" s="7">
-        <v>300963</v>
+        <v>300966</v>
       </c>
       <c r="D147" s="9" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="E147" s="9" t="s">
         <v>229</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="H147" s="5">
-        <v>12.13</v>
+        <v>8.24</v>
       </c>
       <c r="I147" s="5">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J147" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K147" s="2">
         <v>30</v>
       </c>
       <c r="L147" s="2">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M147" s="9" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
     </row>
     <row r="148" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B148" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C148" s="7">
+        <v>300970</v>
+      </c>
+      <c r="D148" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="E148" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="H148" s="5">
+        <v>44.77</v>
+      </c>
+      <c r="I148" s="5">
+        <v>51</v>
+      </c>
+      <c r="J148" s="2">
+        <v>68</v>
+      </c>
+      <c r="K148" s="2">
+        <v>98</v>
+      </c>
+      <c r="L148" s="2">
+        <v>120</v>
+      </c>
+      <c r="M148" s="9" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="149" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B149" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C149" s="7">
+        <v>300969</v>
+      </c>
+      <c r="D149" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="E149" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="H149" s="5">
+        <v>20.68</v>
+      </c>
+      <c r="I149" s="5">
+        <v>30</v>
+      </c>
+      <c r="J149" s="2">
+        <v>38</v>
+      </c>
+      <c r="K149" s="2">
+        <v>48</v>
+      </c>
+      <c r="L149" s="2">
+        <v>75</v>
+      </c>
+      <c r="M149" s="9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="150" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B150" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C148" s="7">
+      <c r="C150" s="7">
+        <v>688468</v>
+      </c>
+      <c r="D150" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="E150" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="H150" s="5">
+        <v>7.15</v>
+      </c>
+      <c r="I150" s="5">
+        <v>18</v>
+      </c>
+      <c r="J150" s="2">
+        <v>15</v>
+      </c>
+      <c r="K150" s="2">
+        <v>25</v>
+      </c>
+      <c r="L150" s="2">
+        <v>38</v>
+      </c>
+      <c r="M150" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="151" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B151" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C151" s="7">
+        <v>300963</v>
+      </c>
+      <c r="D151" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="E151" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="H151" s="5">
+        <v>12.13</v>
+      </c>
+      <c r="I151" s="5">
+        <v>20</v>
+      </c>
+      <c r="J151" s="2">
+        <v>25</v>
+      </c>
+      <c r="K151" s="2">
+        <v>30</v>
+      </c>
+      <c r="L151" s="2">
+        <v>50</v>
+      </c>
+      <c r="M151" s="9" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="152" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B152" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C152" s="7">
         <v>688636</v>
       </c>
-      <c r="D148" s="9" t="s">
+      <c r="D152" s="9" t="s">
         <v>360</v>
       </c>
-      <c r="E148" s="9" t="s">
+      <c r="E152" s="9" t="s">
         <v>361</v>
       </c>
-      <c r="F148" s="2" t="s">
+      <c r="F152" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="H148" s="5">
+      <c r="H152" s="5">
         <v>34.5</v>
       </c>
-      <c r="I148" s="5">
+      <c r="I152" s="5">
         <v>58</v>
       </c>
-      <c r="J148" s="2">
+      <c r="J152" s="2">
         <v>80</v>
       </c>
-      <c r="K148" s="2">
+      <c r="K152" s="2">
         <v>90</v>
       </c>
-      <c r="L148" s="2">
+      <c r="L152" s="2">
         <v>138</v>
       </c>
-      <c r="M148" s="9" t="s">
+      <c r="M152" s="9" t="s">
         <v>363</v>
       </c>
     </row>
